--- a/instance/zyjk/CHC/i/体重评估规则/weightAssessmentRule.xlsx
+++ b/instance/zyjk/CHC/i/体重评估规则/weightAssessmentRule.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="16760" tabRatio="785" activeTab="3"/>
+    <workbookView windowWidth="32560" windowHeight="12860" tabRatio="785" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="readme" sheetId="14" r:id="rId1"/>
@@ -176,7 +176,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1124" uniqueCount="635">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1124" uniqueCount="633">
   <si>
     <t>判定居民体重状态 Determine Residents' Weight Status (a_weight10_DRWS)</t>
   </si>
@@ -6301,9 +6301,6 @@
     <t>既往疾病包含“高血压”</t>
   </si>
   <si>
-    <t>疾病=高血压</t>
-  </si>
-  <si>
     <t>TZ_JB001</t>
   </si>
   <si>
@@ -6314,9 +6311,6 @@
   </si>
   <si>
     <t>既往疾病包含“糖尿病”</t>
-  </si>
-  <si>
-    <t>疾病=糖尿病</t>
   </si>
   <si>
     <t>TZ_JB002</t>
@@ -11083,10 +11077,10 @@
   <sheetPr codeName="评估因素规则库"/>
   <dimension ref="A1:AE61"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="97" zoomScaleNormal="97" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="97" zoomScaleNormal="97" topLeftCell="E1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A45" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="K10" sqref="K10"/>
+      <selection pane="bottomLeft" activeCell="J47" sqref="J47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="18" customHeight="1"/>
@@ -13381,10 +13375,10 @@
         <v>327</v>
       </c>
       <c r="J47" s="25" t="s">
+        <v>325</v>
+      </c>
+      <c r="K47" s="23" t="s">
         <v>328</v>
-      </c>
-      <c r="K47" s="23" t="s">
-        <v>329</v>
       </c>
       <c r="L47" s="23"/>
       <c r="M47" s="27"/>
@@ -13421,19 +13415,19 @@
         <v>4</v>
       </c>
       <c r="G48" s="25" t="s">
+        <v>329</v>
+      </c>
+      <c r="H48" s="26" t="s">
         <v>330</v>
       </c>
-      <c r="H48" s="26" t="s">
+      <c r="I48" s="25" t="s">
         <v>331</v>
       </c>
-      <c r="I48" s="25" t="s">
+      <c r="J48" s="25" t="s">
+        <v>329</v>
+      </c>
+      <c r="K48" s="23" t="s">
         <v>332</v>
-      </c>
-      <c r="J48" s="25" t="s">
-        <v>333</v>
-      </c>
-      <c r="K48" s="23" t="s">
-        <v>334</v>
       </c>
       <c r="L48" s="23"/>
       <c r="M48" s="27"/>
@@ -13473,16 +13467,16 @@
         <v>80</v>
       </c>
       <c r="H49" s="30" t="s">
+        <v>333</v>
+      </c>
+      <c r="I49" s="23" t="s">
+        <v>333</v>
+      </c>
+      <c r="J49" s="23" t="s">
+        <v>334</v>
+      </c>
+      <c r="K49" s="23" t="s">
         <v>335</v>
-      </c>
-      <c r="I49" s="23" t="s">
-        <v>335</v>
-      </c>
-      <c r="J49" s="23" t="s">
-        <v>336</v>
-      </c>
-      <c r="K49" s="23" t="s">
-        <v>337</v>
       </c>
       <c r="L49" s="23"/>
       <c r="M49" s="27"/>
@@ -13522,16 +13516,16 @@
         <v>92</v>
       </c>
       <c r="H50" s="30" t="s">
+        <v>336</v>
+      </c>
+      <c r="I50" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="J50" s="23" t="s">
+        <v>337</v>
+      </c>
+      <c r="K50" s="23" t="s">
         <v>338</v>
-      </c>
-      <c r="I50" s="23" t="s">
-        <v>338</v>
-      </c>
-      <c r="J50" s="23" t="s">
-        <v>339</v>
-      </c>
-      <c r="K50" s="23" t="s">
-        <v>340</v>
       </c>
       <c r="L50" s="23"/>
       <c r="M50" s="27"/>
@@ -13571,16 +13565,16 @@
         <v>93</v>
       </c>
       <c r="H51" s="30" t="s">
+        <v>339</v>
+      </c>
+      <c r="I51" s="23" t="s">
+        <v>339</v>
+      </c>
+      <c r="J51" s="23" t="s">
+        <v>340</v>
+      </c>
+      <c r="K51" s="23" t="s">
         <v>341</v>
-      </c>
-      <c r="I51" s="23" t="s">
-        <v>341</v>
-      </c>
-      <c r="J51" s="23" t="s">
-        <v>342</v>
-      </c>
-      <c r="K51" s="23" t="s">
-        <v>343</v>
       </c>
       <c r="L51" s="23"/>
       <c r="M51" s="27"/>
@@ -13620,16 +13614,16 @@
         <v>99</v>
       </c>
       <c r="H52" s="30" t="s">
+        <v>342</v>
+      </c>
+      <c r="I52" s="23" t="s">
+        <v>342</v>
+      </c>
+      <c r="J52" s="23" t="s">
+        <v>343</v>
+      </c>
+      <c r="K52" s="23" t="s">
         <v>344</v>
-      </c>
-      <c r="I52" s="23" t="s">
-        <v>344</v>
-      </c>
-      <c r="J52" s="23" t="s">
-        <v>345</v>
-      </c>
-      <c r="K52" s="23" t="s">
-        <v>346</v>
       </c>
       <c r="L52" s="23"/>
       <c r="M52" s="27"/>
@@ -13660,25 +13654,25 @@
         <v>15</v>
       </c>
       <c r="E53" s="18" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="F53" s="18">
         <v>6</v>
       </c>
       <c r="G53" s="23" t="s">
+        <v>345</v>
+      </c>
+      <c r="H53" s="30" t="s">
+        <v>346</v>
+      </c>
+      <c r="I53" s="23" t="s">
+        <v>346</v>
+      </c>
+      <c r="J53" s="23" t="s">
         <v>347</v>
       </c>
-      <c r="H53" s="30" t="s">
+      <c r="K53" s="23" t="s">
         <v>348</v>
-      </c>
-      <c r="I53" s="23" t="s">
-        <v>348</v>
-      </c>
-      <c r="J53" s="23" t="s">
-        <v>349</v>
-      </c>
-      <c r="K53" s="23" t="s">
-        <v>350</v>
       </c>
       <c r="L53" s="23"/>
       <c r="M53" s="27"/>
@@ -13709,25 +13703,25 @@
         <v>15</v>
       </c>
       <c r="E54" s="18" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="F54" s="18">
         <v>7</v>
       </c>
       <c r="G54" s="23" t="s">
+        <v>349</v>
+      </c>
+      <c r="H54" s="30" t="s">
+        <v>350</v>
+      </c>
+      <c r="I54" s="23" t="s">
+        <v>350</v>
+      </c>
+      <c r="J54" s="23" t="s">
         <v>351</v>
       </c>
-      <c r="H54" s="30" t="s">
+      <c r="K54" s="23" t="s">
         <v>352</v>
-      </c>
-      <c r="I54" s="23" t="s">
-        <v>352</v>
-      </c>
-      <c r="J54" s="23" t="s">
-        <v>353</v>
-      </c>
-      <c r="K54" s="23" t="s">
-        <v>354</v>
       </c>
       <c r="L54" s="23"/>
       <c r="M54" s="27"/>
@@ -13764,19 +13758,19 @@
         <v>1</v>
       </c>
       <c r="G55" s="23" t="s">
+        <v>353</v>
+      </c>
+      <c r="H55" s="30" t="s">
+        <v>353</v>
+      </c>
+      <c r="I55" s="23" t="s">
+        <v>354</v>
+      </c>
+      <c r="J55" s="23" t="s">
         <v>355</v>
       </c>
-      <c r="H55" s="30" t="s">
-        <v>355</v>
-      </c>
-      <c r="I55" s="23" t="s">
+      <c r="K55" s="23" t="s">
         <v>356</v>
-      </c>
-      <c r="J55" s="23" t="s">
-        <v>357</v>
-      </c>
-      <c r="K55" s="23" t="s">
-        <v>358</v>
       </c>
       <c r="L55" s="23"/>
       <c r="M55" s="27"/>
@@ -13813,19 +13807,19 @@
         <v>1</v>
       </c>
       <c r="G56" s="23" t="s">
+        <v>357</v>
+      </c>
+      <c r="H56" s="30" t="s">
+        <v>357</v>
+      </c>
+      <c r="I56" s="31" t="s">
+        <v>358</v>
+      </c>
+      <c r="J56" s="31" t="s">
         <v>359</v>
       </c>
-      <c r="H56" s="30" t="s">
-        <v>359</v>
-      </c>
-      <c r="I56" s="31" t="s">
+      <c r="K56" s="23" t="s">
         <v>360</v>
-      </c>
-      <c r="J56" s="31" t="s">
-        <v>361</v>
-      </c>
-      <c r="K56" s="23" t="s">
-        <v>362</v>
       </c>
       <c r="L56" s="23"/>
       <c r="M56" s="27"/>
@@ -13862,19 +13856,19 @@
         <v>2</v>
       </c>
       <c r="G57" s="23" t="s">
+        <v>361</v>
+      </c>
+      <c r="H57" s="23" t="s">
+        <v>361</v>
+      </c>
+      <c r="I57" s="32" t="s">
+        <v>362</v>
+      </c>
+      <c r="J57" s="31" t="s">
         <v>363</v>
       </c>
-      <c r="H57" s="23" t="s">
-        <v>363</v>
-      </c>
-      <c r="I57" s="32" t="s">
+      <c r="K57" s="23" t="s">
         <v>364</v>
-      </c>
-      <c r="J57" s="31" t="s">
-        <v>365</v>
-      </c>
-      <c r="K57" s="23" t="s">
-        <v>366</v>
       </c>
       <c r="L57" s="23"/>
       <c r="M57" s="27"/>
@@ -13911,19 +13905,19 @@
         <v>2</v>
       </c>
       <c r="G58" s="23" t="s">
+        <v>365</v>
+      </c>
+      <c r="H58" s="30" t="s">
+        <v>365</v>
+      </c>
+      <c r="I58" s="32" t="s">
+        <v>366</v>
+      </c>
+      <c r="J58" s="31" t="s">
         <v>367</v>
       </c>
-      <c r="H58" s="30" t="s">
-        <v>367</v>
-      </c>
-      <c r="I58" s="32" t="s">
+      <c r="K58" s="23" t="s">
         <v>368</v>
-      </c>
-      <c r="J58" s="31" t="s">
-        <v>369</v>
-      </c>
-      <c r="K58" s="23" t="s">
-        <v>370</v>
       </c>
       <c r="L58" s="23"/>
       <c r="M58" s="27"/>
@@ -13957,22 +13951,22 @@
         <v>1</v>
       </c>
       <c r="G59" s="10" t="s">
+        <v>369</v>
+      </c>
+      <c r="H59" s="10" t="s">
+        <v>370</v>
+      </c>
+      <c r="I59" s="36" t="s">
         <v>371</v>
       </c>
-      <c r="H59" s="10" t="s">
+      <c r="J59" s="36" t="s">
         <v>372</v>
       </c>
-      <c r="I59" s="36" t="s">
+      <c r="K59" s="31" t="s">
         <v>373</v>
       </c>
-      <c r="J59" s="36" t="s">
+      <c r="L59" s="37" t="s">
         <v>374</v>
-      </c>
-      <c r="K59" s="31" t="s">
-        <v>375</v>
-      </c>
-      <c r="L59" s="37" t="s">
-        <v>376</v>
       </c>
     </row>
     <row r="60" s="17" customFormat="1" customHeight="1" spans="1:31">
@@ -13986,22 +13980,22 @@
         <v>1</v>
       </c>
       <c r="G60" s="10" t="s">
+        <v>375</v>
+      </c>
+      <c r="H60" s="10" t="s">
+        <v>376</v>
+      </c>
+      <c r="I60" s="36" t="s">
         <v>377</v>
       </c>
-      <c r="H60" s="10" t="s">
+      <c r="J60" s="36" t="s">
         <v>378</v>
       </c>
-      <c r="I60" s="36" t="s">
+      <c r="K60" s="31" t="s">
         <v>379</v>
       </c>
-      <c r="J60" s="36" t="s">
-        <v>380</v>
-      </c>
-      <c r="K60" s="31" t="s">
-        <v>381</v>
-      </c>
       <c r="L60" s="37" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="61" s="17" customFormat="1" customHeight="1" spans="1:31">
@@ -14015,22 +14009,22 @@
         <v>1</v>
       </c>
       <c r="G61" s="10" t="s">
+        <v>380</v>
+      </c>
+      <c r="H61" s="10" t="s">
+        <v>381</v>
+      </c>
+      <c r="I61" s="36" t="s">
         <v>382</v>
       </c>
-      <c r="H61" s="10" t="s">
+      <c r="J61" s="36" t="s">
         <v>383</v>
       </c>
-      <c r="I61" s="36" t="s">
+      <c r="K61" s="31" t="s">
         <v>384</v>
       </c>
-      <c r="J61" s="36" t="s">
-        <v>385</v>
-      </c>
-      <c r="K61" s="31" t="s">
-        <v>386</v>
-      </c>
       <c r="L61" s="37" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
   </sheetData>
@@ -14114,16 +14108,16 @@
       <c r="B2" s="7"/>
       <c r="C2" s="7"/>
       <c r="D2" s="8" t="s">
+        <v>385</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>386</v>
+      </c>
+      <c r="F2" s="10" t="s">
         <v>387</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="G2" s="8" t="s">
         <v>388</v>
-      </c>
-      <c r="F2" s="10" t="s">
-        <v>389</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>390</v>
       </c>
       <c r="H2" s="11"/>
       <c r="I2" s="11"/>
@@ -14151,16 +14145,16 @@
       <c r="B3" s="7"/>
       <c r="C3" s="7"/>
       <c r="D3" s="8" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="E3" s="9" t="s">
+        <v>389</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>390</v>
+      </c>
+      <c r="G3" s="8" t="s">
         <v>391</v>
-      </c>
-      <c r="F3" s="10" t="s">
-        <v>392</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>393</v>
       </c>
       <c r="H3" s="11"/>
       <c r="I3" s="11"/>
@@ -14188,16 +14182,16 @@
       <c r="B4" s="7"/>
       <c r="C4" s="7"/>
       <c r="D4" s="8" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="E4" s="9" t="s">
+        <v>392</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>393</v>
+      </c>
+      <c r="G4" s="8" t="s">
         <v>394</v>
-      </c>
-      <c r="F4" s="10" t="s">
-        <v>395</v>
-      </c>
-      <c r="G4" s="8" t="s">
-        <v>396</v>
       </c>
       <c r="H4" s="11"/>
       <c r="I4" s="11"/>
@@ -14225,16 +14219,16 @@
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
       <c r="D5" s="8" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="E5" s="9" t="s">
+        <v>395</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>396</v>
+      </c>
+      <c r="G5" s="8" t="s">
         <v>397</v>
-      </c>
-      <c r="F5" s="10" t="s">
-        <v>398</v>
-      </c>
-      <c r="G5" s="8" t="s">
-        <v>399</v>
       </c>
       <c r="H5" s="11"/>
       <c r="I5" s="11"/>
@@ -14262,16 +14256,16 @@
       <c r="B6" s="7"/>
       <c r="C6" s="7"/>
       <c r="D6" s="8" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="E6" s="9" t="s">
+        <v>398</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>399</v>
+      </c>
+      <c r="G6" s="8" t="s">
         <v>400</v>
-      </c>
-      <c r="F6" s="10" t="s">
-        <v>401</v>
-      </c>
-      <c r="G6" s="8" t="s">
-        <v>402</v>
       </c>
       <c r="H6" s="11"/>
       <c r="I6" s="11"/>
@@ -14299,16 +14293,16 @@
       <c r="B7" s="7"/>
       <c r="C7" s="7"/>
       <c r="D7" s="8" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="E7" s="9" t="s">
+        <v>401</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>402</v>
+      </c>
+      <c r="G7" s="8" t="s">
         <v>403</v>
-      </c>
-      <c r="F7" s="10" t="s">
-        <v>404</v>
-      </c>
-      <c r="G7" s="8" t="s">
-        <v>405</v>
       </c>
       <c r="H7" s="11"/>
       <c r="I7" s="11"/>
@@ -14336,16 +14330,16 @@
       <c r="B8" s="7"/>
       <c r="C8" s="7"/>
       <c r="D8" s="8" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="E8" s="9" t="s">
+        <v>404</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>405</v>
+      </c>
+      <c r="G8" s="8" t="s">
         <v>406</v>
-      </c>
-      <c r="F8" s="10" t="s">
-        <v>407</v>
-      </c>
-      <c r="G8" s="8" t="s">
-        <v>408</v>
       </c>
       <c r="H8" s="11"/>
       <c r="I8" s="11"/>
@@ -14373,16 +14367,16 @@
       <c r="B9" s="7"/>
       <c r="C9" s="7"/>
       <c r="D9" s="8" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="E9" s="9" t="s">
+        <v>407</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>408</v>
+      </c>
+      <c r="G9" s="8" t="s">
         <v>409</v>
-      </c>
-      <c r="F9" s="10" t="s">
-        <v>410</v>
-      </c>
-      <c r="G9" s="8" t="s">
-        <v>411</v>
       </c>
       <c r="H9" s="11"/>
       <c r="I9" s="11"/>
@@ -14410,16 +14404,16 @@
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
       <c r="D10" s="8" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="E10" s="9" t="s">
+        <v>410</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>411</v>
+      </c>
+      <c r="G10" s="8" t="s">
         <v>412</v>
-      </c>
-      <c r="F10" s="10" t="s">
-        <v>413</v>
-      </c>
-      <c r="G10" s="8" t="s">
-        <v>414</v>
       </c>
       <c r="H10" s="11"/>
       <c r="I10" s="11"/>
@@ -14447,16 +14441,16 @@
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
       <c r="D11" s="8" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="E11" s="9" t="s">
+        <v>413</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>414</v>
+      </c>
+      <c r="G11" s="8" t="s">
         <v>415</v>
-      </c>
-      <c r="F11" s="10" t="s">
-        <v>416</v>
-      </c>
-      <c r="G11" s="8" t="s">
-        <v>417</v>
       </c>
       <c r="H11" s="11"/>
       <c r="I11" s="11"/>
@@ -14484,16 +14478,16 @@
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
       <c r="D12" s="8" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="E12" s="9" t="s">
+        <v>416</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>417</v>
+      </c>
+      <c r="G12" s="8" t="s">
         <v>418</v>
-      </c>
-      <c r="F12" s="10" t="s">
-        <v>419</v>
-      </c>
-      <c r="G12" s="8" t="s">
-        <v>420</v>
       </c>
       <c r="H12" s="11"/>
       <c r="I12" s="11"/>
@@ -14521,16 +14515,16 @@
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
       <c r="D13" s="8" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="E13" s="9" t="s">
+        <v>419</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>420</v>
+      </c>
+      <c r="G13" s="8" t="s">
         <v>421</v>
-      </c>
-      <c r="F13" s="10" t="s">
-        <v>422</v>
-      </c>
-      <c r="G13" s="8" t="s">
-        <v>423</v>
       </c>
       <c r="H13" s="11"/>
       <c r="I13" s="11"/>
@@ -14558,16 +14552,16 @@
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
       <c r="D14" s="8" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="E14" s="9" t="s">
+        <v>422</v>
+      </c>
+      <c r="F14" s="10" t="s">
+        <v>423</v>
+      </c>
+      <c r="G14" s="8" t="s">
         <v>424</v>
-      </c>
-      <c r="F14" s="10" t="s">
-        <v>425</v>
-      </c>
-      <c r="G14" s="8" t="s">
-        <v>426</v>
       </c>
       <c r="H14" s="11"/>
       <c r="I14" s="11"/>
@@ -14595,16 +14589,16 @@
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
       <c r="D15" s="8" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="E15" s="9" t="s">
+        <v>425</v>
+      </c>
+      <c r="F15" s="10" t="s">
+        <v>426</v>
+      </c>
+      <c r="G15" s="8" t="s">
         <v>427</v>
-      </c>
-      <c r="F15" s="10" t="s">
-        <v>428</v>
-      </c>
-      <c r="G15" s="8" t="s">
-        <v>429</v>
       </c>
       <c r="H15" s="11"/>
       <c r="I15" s="11"/>
@@ -14632,16 +14626,16 @@
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
       <c r="D16" s="8" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="E16" s="9" t="s">
+        <v>428</v>
+      </c>
+      <c r="F16" s="10" t="s">
+        <v>429</v>
+      </c>
+      <c r="G16" s="8" t="s">
         <v>430</v>
-      </c>
-      <c r="F16" s="10" t="s">
-        <v>431</v>
-      </c>
-      <c r="G16" s="8" t="s">
-        <v>432</v>
       </c>
       <c r="H16" s="11"/>
       <c r="I16" s="11"/>
@@ -14669,16 +14663,16 @@
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
       <c r="D17" s="8" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="E17" s="9" t="s">
+        <v>431</v>
+      </c>
+      <c r="F17" s="10" t="s">
+        <v>432</v>
+      </c>
+      <c r="G17" s="8" t="s">
         <v>433</v>
-      </c>
-      <c r="F17" s="10" t="s">
-        <v>434</v>
-      </c>
-      <c r="G17" s="8" t="s">
-        <v>435</v>
       </c>
       <c r="H17" s="11"/>
       <c r="I17" s="11"/>
@@ -14706,16 +14700,16 @@
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
       <c r="D18" s="8" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="E18" s="9" t="s">
+        <v>434</v>
+      </c>
+      <c r="F18" s="10" t="s">
+        <v>435</v>
+      </c>
+      <c r="G18" s="8" t="s">
         <v>436</v>
-      </c>
-      <c r="F18" s="10" t="s">
-        <v>437</v>
-      </c>
-      <c r="G18" s="8" t="s">
-        <v>438</v>
       </c>
       <c r="H18" s="11"/>
       <c r="I18" s="11"/>
@@ -14743,16 +14737,16 @@
       <c r="B19" s="7"/>
       <c r="C19" s="7"/>
       <c r="D19" s="8" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="E19" s="9" t="s">
+        <v>437</v>
+      </c>
+      <c r="F19" s="10" t="s">
+        <v>438</v>
+      </c>
+      <c r="G19" s="8" t="s">
         <v>439</v>
-      </c>
-      <c r="F19" s="10" t="s">
-        <v>440</v>
-      </c>
-      <c r="G19" s="8" t="s">
-        <v>441</v>
       </c>
       <c r="H19" s="11"/>
       <c r="I19" s="11"/>
@@ -14780,16 +14774,16 @@
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
       <c r="D20" s="8" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="E20" s="9" t="s">
+        <v>440</v>
+      </c>
+      <c r="F20" s="10" t="s">
+        <v>441</v>
+      </c>
+      <c r="G20" s="8" t="s">
         <v>442</v>
-      </c>
-      <c r="F20" s="10" t="s">
-        <v>443</v>
-      </c>
-      <c r="G20" s="8" t="s">
-        <v>444</v>
       </c>
       <c r="H20" s="11"/>
       <c r="I20" s="11"/>
@@ -14817,16 +14811,16 @@
       <c r="B21" s="7"/>
       <c r="C21" s="7"/>
       <c r="D21" s="8" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="E21" s="9" t="s">
+        <v>443</v>
+      </c>
+      <c r="F21" s="10" t="s">
+        <v>444</v>
+      </c>
+      <c r="G21" s="8" t="s">
         <v>445</v>
-      </c>
-      <c r="F21" s="10" t="s">
-        <v>446</v>
-      </c>
-      <c r="G21" s="8" t="s">
-        <v>447</v>
       </c>
       <c r="H21" s="11"/>
       <c r="I21" s="11"/>
@@ -14854,16 +14848,16 @@
       <c r="B22" s="7"/>
       <c r="C22" s="7"/>
       <c r="D22" s="8" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="E22" s="9" t="s">
+        <v>446</v>
+      </c>
+      <c r="F22" s="10" t="s">
+        <v>447</v>
+      </c>
+      <c r="G22" s="8" t="s">
         <v>448</v>
-      </c>
-      <c r="F22" s="10" t="s">
-        <v>449</v>
-      </c>
-      <c r="G22" s="8" t="s">
-        <v>450</v>
       </c>
       <c r="H22" s="11"/>
       <c r="I22" s="11"/>
@@ -14891,16 +14885,16 @@
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
       <c r="D23" s="8" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="E23" s="9" t="s">
+        <v>449</v>
+      </c>
+      <c r="F23" s="10" t="s">
+        <v>450</v>
+      </c>
+      <c r="G23" s="8" t="s">
         <v>451</v>
-      </c>
-      <c r="F23" s="10" t="s">
-        <v>452</v>
-      </c>
-      <c r="G23" s="8" t="s">
-        <v>453</v>
       </c>
       <c r="H23" s="11"/>
       <c r="I23" s="11"/>
@@ -14928,16 +14922,16 @@
       <c r="B24" s="7"/>
       <c r="C24" s="7"/>
       <c r="D24" s="8" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="E24" s="9" t="s">
+        <v>452</v>
+      </c>
+      <c r="F24" s="10" t="s">
+        <v>453</v>
+      </c>
+      <c r="G24" s="8" t="s">
         <v>454</v>
-      </c>
-      <c r="F24" s="10" t="s">
-        <v>455</v>
-      </c>
-      <c r="G24" s="8" t="s">
-        <v>456</v>
       </c>
       <c r="H24" s="11"/>
       <c r="I24" s="11"/>
@@ -14965,16 +14959,16 @@
       <c r="B25" s="7"/>
       <c r="C25" s="7"/>
       <c r="D25" s="8" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="E25" s="9" t="s">
+        <v>455</v>
+      </c>
+      <c r="F25" s="10" t="s">
+        <v>456</v>
+      </c>
+      <c r="G25" s="8" t="s">
         <v>457</v>
-      </c>
-      <c r="F25" s="10" t="s">
-        <v>458</v>
-      </c>
-      <c r="G25" s="8" t="s">
-        <v>459</v>
       </c>
       <c r="H25" s="11"/>
       <c r="I25" s="11"/>
@@ -15002,16 +14996,16 @@
       <c r="B26" s="7"/>
       <c r="C26" s="7"/>
       <c r="D26" s="8" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="E26" s="9" t="s">
+        <v>458</v>
+      </c>
+      <c r="F26" s="10" t="s">
+        <v>459</v>
+      </c>
+      <c r="G26" s="8" t="s">
         <v>460</v>
-      </c>
-      <c r="F26" s="10" t="s">
-        <v>461</v>
-      </c>
-      <c r="G26" s="8" t="s">
-        <v>462</v>
       </c>
       <c r="H26" s="11"/>
       <c r="I26" s="11"/>
@@ -15039,16 +15033,16 @@
       <c r="B27" s="7"/>
       <c r="C27" s="7"/>
       <c r="D27" s="8" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="E27" s="9" t="s">
+        <v>461</v>
+      </c>
+      <c r="F27" s="10" t="s">
+        <v>462</v>
+      </c>
+      <c r="G27" s="8" t="s">
         <v>463</v>
-      </c>
-      <c r="F27" s="10" t="s">
-        <v>464</v>
-      </c>
-      <c r="G27" s="8" t="s">
-        <v>465</v>
       </c>
       <c r="H27" s="11"/>
       <c r="I27" s="11"/>
@@ -15076,16 +15070,16 @@
       <c r="B28" s="7"/>
       <c r="C28" s="7"/>
       <c r="D28" s="8" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="E28" s="9" t="s">
+        <v>464</v>
+      </c>
+      <c r="F28" s="10" t="s">
+        <v>465</v>
+      </c>
+      <c r="G28" s="8" t="s">
         <v>466</v>
-      </c>
-      <c r="F28" s="10" t="s">
-        <v>467</v>
-      </c>
-      <c r="G28" s="8" t="s">
-        <v>468</v>
       </c>
       <c r="H28" s="11"/>
       <c r="I28" s="11"/>
@@ -15113,16 +15107,16 @@
       <c r="B29" s="7"/>
       <c r="C29" s="7"/>
       <c r="D29" s="8" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="E29" s="9" t="s">
+        <v>467</v>
+      </c>
+      <c r="F29" s="10" t="s">
+        <v>468</v>
+      </c>
+      <c r="G29" s="8" t="s">
         <v>469</v>
-      </c>
-      <c r="F29" s="10" t="s">
-        <v>470</v>
-      </c>
-      <c r="G29" s="8" t="s">
-        <v>471</v>
       </c>
       <c r="H29" s="11"/>
       <c r="I29" s="11"/>
@@ -15150,16 +15144,16 @@
       <c r="B30" s="7"/>
       <c r="C30" s="7"/>
       <c r="D30" s="8" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="E30" s="9" t="s">
+        <v>470</v>
+      </c>
+      <c r="F30" s="10" t="s">
+        <v>471</v>
+      </c>
+      <c r="G30" s="8" t="s">
         <v>472</v>
-      </c>
-      <c r="F30" s="10" t="s">
-        <v>473</v>
-      </c>
-      <c r="G30" s="8" t="s">
-        <v>474</v>
       </c>
       <c r="H30" s="11"/>
       <c r="I30" s="11"/>
@@ -15187,16 +15181,16 @@
       <c r="B31" s="7"/>
       <c r="C31" s="7"/>
       <c r="D31" s="8" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="E31" s="9" t="s">
+        <v>473</v>
+      </c>
+      <c r="F31" s="10" t="s">
+        <v>474</v>
+      </c>
+      <c r="G31" s="8" t="s">
         <v>475</v>
-      </c>
-      <c r="F31" s="10" t="s">
-        <v>476</v>
-      </c>
-      <c r="G31" s="8" t="s">
-        <v>477</v>
       </c>
       <c r="H31" s="11"/>
       <c r="I31" s="11"/>
@@ -15224,16 +15218,16 @@
       <c r="B32" s="7"/>
       <c r="C32" s="7"/>
       <c r="D32" s="8" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="E32" s="9" t="s">
+        <v>476</v>
+      </c>
+      <c r="F32" s="10" t="s">
+        <v>477</v>
+      </c>
+      <c r="G32" s="8" t="s">
         <v>478</v>
-      </c>
-      <c r="F32" s="10" t="s">
-        <v>479</v>
-      </c>
-      <c r="G32" s="8" t="s">
-        <v>480</v>
       </c>
       <c r="H32" s="11"/>
       <c r="I32" s="11"/>
@@ -15261,16 +15255,16 @@
       <c r="B33" s="7"/>
       <c r="C33" s="7"/>
       <c r="D33" s="8" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="E33" s="9" t="s">
+        <v>479</v>
+      </c>
+      <c r="F33" s="10" t="s">
+        <v>480</v>
+      </c>
+      <c r="G33" s="8" t="s">
         <v>481</v>
-      </c>
-      <c r="F33" s="10" t="s">
-        <v>482</v>
-      </c>
-      <c r="G33" s="8" t="s">
-        <v>483</v>
       </c>
       <c r="H33" s="11"/>
       <c r="I33" s="11"/>
@@ -15298,16 +15292,16 @@
       <c r="B34" s="7"/>
       <c r="C34" s="7"/>
       <c r="D34" s="8" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="E34" s="9" t="s">
+        <v>482</v>
+      </c>
+      <c r="F34" s="10" t="s">
+        <v>483</v>
+      </c>
+      <c r="G34" s="8" t="s">
         <v>484</v>
-      </c>
-      <c r="F34" s="10" t="s">
-        <v>485</v>
-      </c>
-      <c r="G34" s="8" t="s">
-        <v>486</v>
       </c>
       <c r="H34" s="11"/>
       <c r="I34" s="11"/>
@@ -15335,16 +15329,16 @@
       <c r="B35" s="7"/>
       <c r="C35" s="7"/>
       <c r="D35" s="8" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="E35" s="9" t="s">
+        <v>485</v>
+      </c>
+      <c r="F35" s="10" t="s">
+        <v>486</v>
+      </c>
+      <c r="G35" s="8" t="s">
         <v>487</v>
-      </c>
-      <c r="F35" s="10" t="s">
-        <v>488</v>
-      </c>
-      <c r="G35" s="8" t="s">
-        <v>489</v>
       </c>
       <c r="H35" s="11"/>
       <c r="I35" s="11"/>
@@ -15372,16 +15366,16 @@
       <c r="B36" s="7"/>
       <c r="C36" s="7"/>
       <c r="D36" s="8" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="E36" s="9" t="s">
+        <v>488</v>
+      </c>
+      <c r="F36" s="10" t="s">
+        <v>489</v>
+      </c>
+      <c r="G36" s="8" t="s">
         <v>490</v>
-      </c>
-      <c r="F36" s="10" t="s">
-        <v>491</v>
-      </c>
-      <c r="G36" s="8" t="s">
-        <v>492</v>
       </c>
       <c r="H36" s="11"/>
       <c r="I36" s="11"/>
@@ -15409,16 +15403,16 @@
       <c r="B37" s="7"/>
       <c r="C37" s="7"/>
       <c r="D37" s="8" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="E37" s="9" t="s">
+        <v>491</v>
+      </c>
+      <c r="F37" s="10" t="s">
+        <v>492</v>
+      </c>
+      <c r="G37" s="8" t="s">
         <v>493</v>
-      </c>
-      <c r="F37" s="10" t="s">
-        <v>494</v>
-      </c>
-      <c r="G37" s="8" t="s">
-        <v>495</v>
       </c>
       <c r="H37" s="11"/>
       <c r="I37" s="11"/>
@@ -15446,16 +15440,16 @@
       <c r="B38" s="7"/>
       <c r="C38" s="7"/>
       <c r="D38" s="8" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="E38" s="9" t="s">
+        <v>494</v>
+      </c>
+      <c r="F38" s="10" t="s">
+        <v>495</v>
+      </c>
+      <c r="G38" s="8" t="s">
         <v>496</v>
-      </c>
-      <c r="F38" s="10" t="s">
-        <v>497</v>
-      </c>
-      <c r="G38" s="8" t="s">
-        <v>498</v>
       </c>
       <c r="H38" s="11"/>
       <c r="I38" s="11"/>
@@ -15483,16 +15477,16 @@
       <c r="B39" s="7"/>
       <c r="C39" s="7"/>
       <c r="D39" s="8" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="E39" s="9" t="s">
+        <v>497</v>
+      </c>
+      <c r="F39" s="10" t="s">
+        <v>498</v>
+      </c>
+      <c r="G39" s="8" t="s">
         <v>499</v>
-      </c>
-      <c r="F39" s="10" t="s">
-        <v>500</v>
-      </c>
-      <c r="G39" s="8" t="s">
-        <v>501</v>
       </c>
       <c r="H39" s="11"/>
       <c r="I39" s="11"/>
@@ -15520,16 +15514,16 @@
       <c r="B40" s="7"/>
       <c r="C40" s="7"/>
       <c r="D40" s="8" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="E40" s="9" t="s">
+        <v>500</v>
+      </c>
+      <c r="F40" s="10" t="s">
+        <v>501</v>
+      </c>
+      <c r="G40" s="8" t="s">
         <v>502</v>
-      </c>
-      <c r="F40" s="10" t="s">
-        <v>503</v>
-      </c>
-      <c r="G40" s="8" t="s">
-        <v>504</v>
       </c>
       <c r="H40" s="11"/>
       <c r="I40" s="11"/>
@@ -15557,16 +15551,16 @@
       <c r="B41" s="7"/>
       <c r="C41" s="7"/>
       <c r="D41" s="8" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="E41" s="9" t="s">
+        <v>503</v>
+      </c>
+      <c r="F41" s="10" t="s">
+        <v>504</v>
+      </c>
+      <c r="G41" s="8" t="s">
         <v>505</v>
-      </c>
-      <c r="F41" s="10" t="s">
-        <v>506</v>
-      </c>
-      <c r="G41" s="8" t="s">
-        <v>507</v>
       </c>
       <c r="H41" s="11"/>
       <c r="I41" s="11"/>
@@ -15594,16 +15588,16 @@
       <c r="B42" s="7"/>
       <c r="C42" s="7"/>
       <c r="D42" s="8" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="E42" s="9" t="s">
+        <v>506</v>
+      </c>
+      <c r="F42" s="10" t="s">
+        <v>507</v>
+      </c>
+      <c r="G42" s="8" t="s">
         <v>508</v>
-      </c>
-      <c r="F42" s="10" t="s">
-        <v>509</v>
-      </c>
-      <c r="G42" s="8" t="s">
-        <v>510</v>
       </c>
       <c r="H42" s="11"/>
       <c r="I42" s="11"/>
@@ -15631,16 +15625,16 @@
       <c r="B43" s="7"/>
       <c r="C43" s="7"/>
       <c r="D43" s="8" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="E43" s="9" t="s">
+        <v>509</v>
+      </c>
+      <c r="F43" s="10" t="s">
+        <v>510</v>
+      </c>
+      <c r="G43" s="8" t="s">
         <v>511</v>
-      </c>
-      <c r="F43" s="10" t="s">
-        <v>512</v>
-      </c>
-      <c r="G43" s="8" t="s">
-        <v>513</v>
       </c>
       <c r="H43" s="11"/>
       <c r="I43" s="11"/>
@@ -15668,16 +15662,16 @@
       <c r="B44" s="7"/>
       <c r="C44" s="7"/>
       <c r="D44" s="8" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="E44" s="9" t="s">
+        <v>512</v>
+      </c>
+      <c r="F44" s="10" t="s">
+        <v>513</v>
+      </c>
+      <c r="G44" s="8" t="s">
         <v>514</v>
-      </c>
-      <c r="F44" s="10" t="s">
-        <v>515</v>
-      </c>
-      <c r="G44" s="8" t="s">
-        <v>516</v>
       </c>
       <c r="H44" s="11"/>
       <c r="I44" s="11"/>
@@ -15705,16 +15699,16 @@
       <c r="B45" s="7"/>
       <c r="C45" s="7"/>
       <c r="D45" s="8" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="E45" s="9" t="s">
+        <v>515</v>
+      </c>
+      <c r="F45" s="10" t="s">
+        <v>516</v>
+      </c>
+      <c r="G45" s="8" t="s">
         <v>517</v>
-      </c>
-      <c r="F45" s="10" t="s">
-        <v>518</v>
-      </c>
-      <c r="G45" s="8" t="s">
-        <v>519</v>
       </c>
       <c r="H45" s="11"/>
       <c r="I45" s="11"/>
@@ -15742,16 +15736,16 @@
       <c r="B46" s="7"/>
       <c r="C46" s="7"/>
       <c r="D46" s="8" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="E46" s="9" t="s">
+        <v>518</v>
+      </c>
+      <c r="F46" s="10" t="s">
+        <v>519</v>
+      </c>
+      <c r="G46" s="8" t="s">
         <v>520</v>
-      </c>
-      <c r="F46" s="10" t="s">
-        <v>521</v>
-      </c>
-      <c r="G46" s="8" t="s">
-        <v>522</v>
       </c>
       <c r="H46" s="11"/>
       <c r="I46" s="11"/>
@@ -15779,16 +15773,16 @@
       <c r="B47" s="7"/>
       <c r="C47" s="7"/>
       <c r="D47" s="8" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="E47" s="9" t="s">
+        <v>521</v>
+      </c>
+      <c r="F47" s="10" t="s">
+        <v>522</v>
+      </c>
+      <c r="G47" s="8" t="s">
         <v>523</v>
-      </c>
-      <c r="F47" s="10" t="s">
-        <v>524</v>
-      </c>
-      <c r="G47" s="8" t="s">
-        <v>525</v>
       </c>
       <c r="H47" s="11"/>
       <c r="I47" s="11"/>
@@ -15816,16 +15810,16 @@
       <c r="B48" s="7"/>
       <c r="C48" s="7"/>
       <c r="D48" s="8" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="E48" s="9" t="s">
+        <v>524</v>
+      </c>
+      <c r="F48" s="10" t="s">
+        <v>525</v>
+      </c>
+      <c r="G48" s="8" t="s">
         <v>526</v>
-      </c>
-      <c r="F48" s="10" t="s">
-        <v>527</v>
-      </c>
-      <c r="G48" s="8" t="s">
-        <v>528</v>
       </c>
       <c r="H48" s="11"/>
       <c r="I48" s="11"/>
@@ -15853,16 +15847,16 @@
       <c r="B49" s="7"/>
       <c r="C49" s="7"/>
       <c r="D49" s="8" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="E49" s="9" t="s">
+        <v>527</v>
+      </c>
+      <c r="F49" s="10" t="s">
+        <v>528</v>
+      </c>
+      <c r="G49" s="8" t="s">
         <v>529</v>
-      </c>
-      <c r="F49" s="10" t="s">
-        <v>530</v>
-      </c>
-      <c r="G49" s="8" t="s">
-        <v>531</v>
       </c>
       <c r="H49" s="11"/>
       <c r="I49" s="11"/>
@@ -15890,16 +15884,16 @@
       <c r="B50" s="7"/>
       <c r="C50" s="7"/>
       <c r="D50" s="8" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="E50" s="9" t="s">
+        <v>530</v>
+      </c>
+      <c r="F50" s="10" t="s">
+        <v>531</v>
+      </c>
+      <c r="G50" s="8" t="s">
         <v>532</v>
-      </c>
-      <c r="F50" s="10" t="s">
-        <v>533</v>
-      </c>
-      <c r="G50" s="8" t="s">
-        <v>534</v>
       </c>
       <c r="H50" s="11"/>
       <c r="I50" s="11"/>
@@ -15927,16 +15921,16 @@
       <c r="B51" s="7"/>
       <c r="C51" s="7"/>
       <c r="D51" s="8" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="E51" s="9" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="F51" s="10" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="G51" s="8" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="H51" s="11"/>
       <c r="I51" s="11"/>
@@ -15964,16 +15958,16 @@
       <c r="B52" s="7"/>
       <c r="C52" s="7"/>
       <c r="D52" s="8" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="E52" s="9" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="F52" s="10" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="G52" s="8" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="H52" s="11"/>
       <c r="I52" s="11"/>
@@ -16001,16 +15995,16 @@
       <c r="B53" s="7"/>
       <c r="C53" s="7"/>
       <c r="D53" s="8" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="E53" s="9" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="F53" s="10" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="G53" s="8" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="H53" s="11"/>
       <c r="I53" s="11"/>
@@ -16038,16 +16032,16 @@
       <c r="B54" s="7"/>
       <c r="C54" s="7"/>
       <c r="D54" s="8" t="s">
+        <v>537</v>
+      </c>
+      <c r="E54" s="9" t="s">
         <v>539</v>
       </c>
-      <c r="E54" s="9" t="s">
-        <v>541</v>
-      </c>
       <c r="F54" s="10" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="G54" s="8" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="H54" s="11"/>
       <c r="I54" s="11"/>
@@ -16075,16 +16069,16 @@
       <c r="B55" s="7"/>
       <c r="C55" s="7"/>
       <c r="D55" s="8" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="E55" s="9" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="F55" s="10" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="G55" s="8" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="H55" s="11"/>
       <c r="I55" s="11"/>
@@ -16112,16 +16106,16 @@
       <c r="B56" s="7"/>
       <c r="C56" s="7"/>
       <c r="D56" s="8" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="E56" s="9" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="F56" s="10" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="G56" s="8" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="H56" s="11"/>
       <c r="I56" s="11"/>
@@ -16149,16 +16143,16 @@
       <c r="B57" s="7"/>
       <c r="C57" s="7"/>
       <c r="D57" s="8" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="E57" s="9" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="F57" s="10" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="G57" s="8" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="H57" s="11"/>
       <c r="I57" s="11"/>
@@ -16186,16 +16180,16 @@
       <c r="B58" s="11"/>
       <c r="C58" s="11"/>
       <c r="D58" s="8" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="E58" s="9" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="F58" s="10" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="G58" s="8" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="H58" s="11"/>
       <c r="I58" s="11"/>
@@ -16223,16 +16217,16 @@
       <c r="B59" s="11"/>
       <c r="C59" s="11"/>
       <c r="D59" s="8" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="E59" s="9" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="F59" s="10" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="G59" s="8" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="H59" s="11"/>
       <c r="I59" s="11"/>
@@ -16260,16 +16254,16 @@
       <c r="B60" s="11"/>
       <c r="C60" s="11"/>
       <c r="D60" s="8" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="E60" s="9" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="F60" s="10" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="G60" s="8" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="H60" s="11"/>
       <c r="I60" s="11"/>
@@ -16297,16 +16291,16 @@
       <c r="B61" s="11"/>
       <c r="C61" s="11"/>
       <c r="D61" s="8" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="E61" s="9" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="F61" s="10" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="G61" s="8" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="H61" s="11"/>
       <c r="I61" s="11"/>
@@ -16334,16 +16328,16 @@
       <c r="B62" s="11"/>
       <c r="C62" s="11"/>
       <c r="D62" s="8" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="E62" s="9" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="F62" s="10" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="G62" s="8" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="H62" s="11"/>
       <c r="I62" s="11"/>
@@ -16371,16 +16365,16 @@
       <c r="B63" s="11"/>
       <c r="C63" s="11"/>
       <c r="D63" s="8" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="E63" s="9" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="F63" s="10" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="G63" s="8" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="H63" s="11"/>
       <c r="I63" s="11"/>
@@ -16408,16 +16402,16 @@
       <c r="B64" s="11"/>
       <c r="C64" s="11"/>
       <c r="D64" s="8" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="E64" s="9" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="F64" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="G64" s="8" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="H64" s="11"/>
       <c r="I64" s="11"/>
@@ -16445,16 +16439,16 @@
       <c r="B65" s="11"/>
       <c r="C65" s="11"/>
       <c r="D65" s="8" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="E65" s="9" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="F65" s="10" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="G65" s="8" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="H65" s="11"/>
       <c r="I65" s="11"/>
@@ -16482,16 +16476,16 @@
       <c r="B66" s="11"/>
       <c r="C66" s="11"/>
       <c r="D66" s="8" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="E66" s="9" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="F66" s="10" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="G66" s="8" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="H66" s="11"/>
       <c r="I66" s="11"/>
@@ -16519,16 +16513,16 @@
       <c r="B67" s="11"/>
       <c r="C67" s="11"/>
       <c r="D67" s="8" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="E67" s="9" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="F67" s="10" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="G67" s="8" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="H67" s="11"/>
       <c r="I67" s="11"/>
@@ -16556,16 +16550,16 @@
       <c r="B68" s="11"/>
       <c r="C68" s="11"/>
       <c r="D68" s="8" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="E68" s="9" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="F68" s="10" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="G68" s="8" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="H68" s="11"/>
       <c r="I68" s="11"/>
@@ -16593,16 +16587,16 @@
       <c r="B69" s="11"/>
       <c r="C69" s="11"/>
       <c r="D69" s="8" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="E69" s="9" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="F69" s="10" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="G69" s="8" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="H69" s="11"/>
       <c r="I69" s="11"/>
@@ -16630,16 +16624,16 @@
       <c r="B70" s="11"/>
       <c r="C70" s="11"/>
       <c r="D70" s="8" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="E70" s="9" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="F70" s="10" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="G70" s="8" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="H70" s="11"/>
       <c r="I70" s="11"/>
@@ -16667,16 +16661,16 @@
       <c r="B71" s="11"/>
       <c r="C71" s="11"/>
       <c r="D71" s="8" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="E71" s="9" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="F71" s="10" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="G71" s="8" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="H71" s="11"/>
       <c r="I71" s="11"/>
@@ -16704,16 +16698,16 @@
       <c r="B72" s="11"/>
       <c r="C72" s="11"/>
       <c r="D72" s="8" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="E72" s="9" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="F72" s="10" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="G72" s="8" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="H72" s="11"/>
       <c r="I72" s="11"/>
@@ -16741,16 +16735,16 @@
       <c r="B73" s="11"/>
       <c r="C73" s="11"/>
       <c r="D73" s="8" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="E73" s="9" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="F73" s="10" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="G73" s="8" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="H73" s="11"/>
       <c r="I73" s="11"/>
@@ -16778,16 +16772,16 @@
       <c r="B74" s="11"/>
       <c r="C74" s="11"/>
       <c r="D74" s="8" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="E74" s="9" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="F74" s="10" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="G74" s="8" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="H74" s="11"/>
       <c r="I74" s="11"/>
@@ -16815,16 +16809,16 @@
       <c r="B75" s="11"/>
       <c r="C75" s="11"/>
       <c r="D75" s="8" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="E75" s="9" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="F75" s="10" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="G75" s="8" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="H75" s="11"/>
       <c r="I75" s="11"/>
@@ -16852,16 +16846,16 @@
       <c r="B76" s="11"/>
       <c r="C76" s="11"/>
       <c r="D76" s="8" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="E76" s="9" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="F76" s="10" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="G76" s="8" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="H76" s="11"/>
       <c r="I76" s="11"/>
@@ -16889,16 +16883,16 @@
       <c r="B77" s="11"/>
       <c r="C77" s="11"/>
       <c r="D77" s="8" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="E77" s="9" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="F77" s="10" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="G77" s="8" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="H77" s="11"/>
       <c r="I77" s="11"/>
@@ -16926,16 +16920,16 @@
       <c r="B78" s="11"/>
       <c r="C78" s="11"/>
       <c r="D78" s="8" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="E78" s="9" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="F78" s="10" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="G78" s="8" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="H78" s="11"/>
       <c r="I78" s="11"/>
@@ -16963,16 +16957,16 @@
       <c r="B79" s="11"/>
       <c r="C79" s="11"/>
       <c r="D79" s="8" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="E79" s="9" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="F79" s="10" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="G79" s="8" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="H79" s="11"/>
       <c r="I79" s="11"/>
@@ -17000,16 +16994,16 @@
       <c r="B80" s="11"/>
       <c r="C80" s="11"/>
       <c r="D80" s="8" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="E80" s="9" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="F80" s="10" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="G80" s="8" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="H80" s="11"/>
       <c r="I80" s="11"/>
@@ -17037,16 +17031,16 @@
       <c r="B81" s="11"/>
       <c r="C81" s="11"/>
       <c r="D81" s="8" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="E81" s="9" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="F81" s="10" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="G81" s="8" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="H81" s="11"/>
       <c r="I81" s="11"/>
@@ -17074,16 +17068,16 @@
       <c r="B82" s="11"/>
       <c r="C82" s="11"/>
       <c r="D82" s="8" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="E82" s="9" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="F82" s="10" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="G82" s="8" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="H82" s="11"/>
       <c r="I82" s="11"/>
@@ -17111,16 +17105,16 @@
       <c r="B83" s="11"/>
       <c r="C83" s="11"/>
       <c r="D83" s="8" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="E83" s="9" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="F83" s="10" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="G83" s="8" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="H83" s="11"/>
       <c r="I83" s="11"/>
@@ -17148,16 +17142,16 @@
       <c r="B84" s="11"/>
       <c r="C84" s="11"/>
       <c r="D84" s="8" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="E84" s="9" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="F84" s="10" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="G84" s="8" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="H84" s="11"/>
       <c r="I84" s="11"/>
@@ -17185,16 +17179,16 @@
       <c r="B85" s="11"/>
       <c r="C85" s="11"/>
       <c r="D85" s="8" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="E85" s="9" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="F85" s="10" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="G85" s="8" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="H85" s="11"/>
       <c r="I85" s="11"/>
@@ -17222,16 +17216,16 @@
       <c r="B86" s="11"/>
       <c r="C86" s="11"/>
       <c r="D86" s="8" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="E86" s="9" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="F86" s="10" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="G86" s="8" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="H86" s="11"/>
       <c r="I86" s="11"/>
@@ -17259,16 +17253,16 @@
       <c r="B87" s="11"/>
       <c r="C87" s="11"/>
       <c r="D87" s="8" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="E87" s="9" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="F87" s="10" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="G87" s="8" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="H87" s="11"/>
       <c r="I87" s="11"/>
@@ -17296,16 +17290,16 @@
       <c r="B88" s="11"/>
       <c r="C88" s="11"/>
       <c r="D88" s="8" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="E88" s="9" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="F88" s="10" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="G88" s="8" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="H88" s="11"/>
       <c r="I88" s="11"/>
@@ -17333,16 +17327,16 @@
       <c r="B89" s="11"/>
       <c r="C89" s="11"/>
       <c r="D89" s="8" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="E89" s="9" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="F89" s="10" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="G89" s="8" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="H89" s="11"/>
       <c r="I89" s="11"/>
@@ -17370,16 +17364,16 @@
       <c r="B90" s="11"/>
       <c r="C90" s="11"/>
       <c r="D90" s="8" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="E90" s="9" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="F90" s="10" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="G90" s="8" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="H90" s="11"/>
       <c r="I90" s="11"/>
@@ -17407,16 +17401,16 @@
       <c r="B91" s="11"/>
       <c r="C91" s="11"/>
       <c r="D91" s="8" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="E91" s="9" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="F91" s="10" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="G91" s="8" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="H91" s="11"/>
       <c r="I91" s="11"/>
@@ -17444,16 +17438,16 @@
       <c r="B92" s="11"/>
       <c r="C92" s="11"/>
       <c r="D92" s="8" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="E92" s="9" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="F92" s="10" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="G92" s="8" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="H92" s="11"/>
       <c r="I92" s="11"/>
@@ -17481,16 +17475,16 @@
       <c r="B93" s="11"/>
       <c r="C93" s="11"/>
       <c r="D93" s="8" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="E93" s="9" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="F93" s="10" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="G93" s="8" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="H93" s="11"/>
       <c r="I93" s="11"/>
@@ -17518,16 +17512,16 @@
       <c r="B94" s="11"/>
       <c r="C94" s="11"/>
       <c r="D94" s="8" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="E94" s="9" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="F94" s="10" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="G94" s="8" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="H94" s="11"/>
       <c r="I94" s="11"/>
@@ -17555,16 +17549,16 @@
       <c r="B95" s="11"/>
       <c r="C95" s="11"/>
       <c r="D95" s="8" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="E95" s="9" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="F95" s="10" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="G95" s="8" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="H95" s="11"/>
       <c r="I95" s="11"/>
@@ -17592,16 +17586,16 @@
       <c r="B96" s="11"/>
       <c r="C96" s="11"/>
       <c r="D96" s="8" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="E96" s="9" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="F96" s="10" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="G96" s="8" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="H96" s="11"/>
       <c r="I96" s="11"/>
@@ -17629,16 +17623,16 @@
       <c r="B97" s="11"/>
       <c r="C97" s="11"/>
       <c r="D97" s="8" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="E97" s="9" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="F97" s="10" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="G97" s="8" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="H97" s="11"/>
       <c r="I97" s="11"/>
@@ -17666,16 +17660,16 @@
       <c r="B98" s="11"/>
       <c r="C98" s="11"/>
       <c r="D98" s="8" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="E98" s="9" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="F98" s="10" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="G98" s="8" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="H98" s="11"/>
       <c r="I98" s="11"/>
@@ -17703,16 +17697,16 @@
       <c r="B99" s="11"/>
       <c r="C99" s="11"/>
       <c r="D99" s="8" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="E99" s="9" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="F99" s="10" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="G99" s="8" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="H99" s="11"/>
       <c r="I99" s="11"/>
@@ -17740,16 +17734,16 @@
       <c r="B100" s="11"/>
       <c r="C100" s="11"/>
       <c r="D100" s="8" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="E100" s="9" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="F100" s="10" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="G100" s="8" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="H100" s="11"/>
       <c r="I100" s="11"/>
@@ -17777,16 +17771,16 @@
       <c r="B101" s="11"/>
       <c r="C101" s="11"/>
       <c r="D101" s="8" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="E101" s="9" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="F101" s="10" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="G101" s="8" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="H101" s="11"/>
       <c r="I101" s="11"/>
@@ -17814,16 +17808,16 @@
       <c r="B102" s="11"/>
       <c r="C102" s="11"/>
       <c r="D102" s="8" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="E102" s="9" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="F102" s="10" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="G102" s="8" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="H102" s="11"/>
       <c r="I102" s="11"/>
@@ -17851,16 +17845,16 @@
       <c r="B103" s="11"/>
       <c r="C103" s="11"/>
       <c r="D103" s="8" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="E103" s="9" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="F103" s="10" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="G103" s="8" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="H103" s="11"/>
       <c r="I103" s="11"/>
@@ -17888,16 +17882,16 @@
       <c r="B104" s="11"/>
       <c r="C104" s="11"/>
       <c r="D104" s="8" t="s">
+        <v>595</v>
+      </c>
+      <c r="E104" s="9" t="s">
+        <v>596</v>
+      </c>
+      <c r="F104" s="10" t="s">
         <v>597</v>
       </c>
-      <c r="E104" s="9" t="s">
+      <c r="G104" s="8" t="s">
         <v>598</v>
-      </c>
-      <c r="F104" s="10" t="s">
-        <v>599</v>
-      </c>
-      <c r="G104" s="8" t="s">
-        <v>600</v>
       </c>
       <c r="H104" s="11"/>
       <c r="I104" s="11"/>
@@ -17925,16 +17919,16 @@
       <c r="B105" s="11"/>
       <c r="C105" s="11"/>
       <c r="D105" s="8" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="E105" s="9" t="s">
+        <v>599</v>
+      </c>
+      <c r="F105" s="10" t="s">
+        <v>600</v>
+      </c>
+      <c r="G105" s="8" t="s">
         <v>601</v>
-      </c>
-      <c r="F105" s="10" t="s">
-        <v>602</v>
-      </c>
-      <c r="G105" s="8" t="s">
-        <v>603</v>
       </c>
       <c r="H105" s="11"/>
       <c r="I105" s="11"/>
@@ -17962,16 +17956,16 @@
       <c r="B106" s="11"/>
       <c r="C106" s="11"/>
       <c r="D106" s="8" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="E106" s="9" t="s">
+        <v>602</v>
+      </c>
+      <c r="F106" s="10" t="s">
+        <v>603</v>
+      </c>
+      <c r="G106" s="8" t="s">
         <v>604</v>
-      </c>
-      <c r="F106" s="10" t="s">
-        <v>605</v>
-      </c>
-      <c r="G106" s="8" t="s">
-        <v>606</v>
       </c>
       <c r="H106" s="11"/>
       <c r="I106" s="11"/>
@@ -17999,16 +17993,16 @@
       <c r="B107" s="11"/>
       <c r="C107" s="11"/>
       <c r="D107" s="8" t="s">
+        <v>605</v>
+      </c>
+      <c r="E107" s="9" t="s">
+        <v>606</v>
+      </c>
+      <c r="F107" s="10" t="s">
         <v>607</v>
       </c>
-      <c r="E107" s="9" t="s">
+      <c r="G107" s="8" t="s">
         <v>608</v>
-      </c>
-      <c r="F107" s="10" t="s">
-        <v>609</v>
-      </c>
-      <c r="G107" s="8" t="s">
-        <v>610</v>
       </c>
       <c r="H107" s="11"/>
       <c r="I107" s="11"/>
@@ -18036,16 +18030,16 @@
       <c r="B108" s="11"/>
       <c r="C108" s="11"/>
       <c r="D108" s="8" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="E108" s="9" t="s">
+        <v>609</v>
+      </c>
+      <c r="F108" s="10" t="s">
+        <v>610</v>
+      </c>
+      <c r="G108" s="8" t="s">
         <v>611</v>
-      </c>
-      <c r="F108" s="10" t="s">
-        <v>612</v>
-      </c>
-      <c r="G108" s="8" t="s">
-        <v>613</v>
       </c>
       <c r="H108" s="11"/>
       <c r="I108" s="11"/>
@@ -18073,16 +18067,16 @@
       <c r="B109" s="11"/>
       <c r="C109" s="11"/>
       <c r="D109" s="8" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="E109" s="9" t="s">
+        <v>612</v>
+      </c>
+      <c r="F109" s="10" t="s">
+        <v>613</v>
+      </c>
+      <c r="G109" s="8" t="s">
         <v>614</v>
-      </c>
-      <c r="F109" s="10" t="s">
-        <v>615</v>
-      </c>
-      <c r="G109" s="8" t="s">
-        <v>616</v>
       </c>
       <c r="H109" s="11"/>
       <c r="I109" s="11"/>
@@ -18110,16 +18104,16 @@
       <c r="B110" s="11"/>
       <c r="C110" s="11"/>
       <c r="D110" s="8" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="E110" s="9" t="s">
+        <v>615</v>
+      </c>
+      <c r="F110" s="10" t="s">
+        <v>616</v>
+      </c>
+      <c r="G110" s="8" t="s">
         <v>617</v>
-      </c>
-      <c r="F110" s="10" t="s">
-        <v>618</v>
-      </c>
-      <c r="G110" s="8" t="s">
-        <v>619</v>
       </c>
       <c r="H110" s="11"/>
       <c r="I110" s="11"/>
@@ -18147,16 +18141,16 @@
       <c r="B111" s="11"/>
       <c r="C111" s="11"/>
       <c r="D111" s="8" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="E111" s="9" t="s">
+        <v>618</v>
+      </c>
+      <c r="F111" s="10" t="s">
+        <v>619</v>
+      </c>
+      <c r="G111" s="8" t="s">
         <v>620</v>
-      </c>
-      <c r="F111" s="10" t="s">
-        <v>621</v>
-      </c>
-      <c r="G111" s="8" t="s">
-        <v>622</v>
       </c>
       <c r="H111" s="11"/>
       <c r="I111" s="11"/>
@@ -18184,16 +18178,16 @@
       <c r="B112" s="11"/>
       <c r="C112" s="11"/>
       <c r="D112" s="13" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="E112" s="14" t="s">
+        <v>621</v>
+      </c>
+      <c r="F112" s="13" t="s">
+        <v>622</v>
+      </c>
+      <c r="G112" s="13" t="s">
         <v>623</v>
-      </c>
-      <c r="F112" s="13" t="s">
-        <v>624</v>
-      </c>
-      <c r="G112" s="13" t="s">
-        <v>625</v>
       </c>
       <c r="H112" s="13"/>
       <c r="I112" s="15"/>
@@ -18203,16 +18197,16 @@
       <c r="B113" s="11"/>
       <c r="C113" s="11"/>
       <c r="D113" s="13" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="E113" s="14" t="s">
+        <v>624</v>
+      </c>
+      <c r="F113" s="13" t="s">
+        <v>625</v>
+      </c>
+      <c r="G113" s="13" t="s">
         <v>626</v>
-      </c>
-      <c r="F113" s="13" t="s">
-        <v>627</v>
-      </c>
-      <c r="G113" s="13" t="s">
-        <v>628</v>
       </c>
       <c r="H113" s="13"/>
       <c r="I113" s="15"/>
@@ -18222,16 +18216,16 @@
       <c r="B114" s="11"/>
       <c r="C114" s="11"/>
       <c r="D114" s="13" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="E114" s="14" t="s">
+        <v>627</v>
+      </c>
+      <c r="F114" s="13" t="s">
+        <v>628</v>
+      </c>
+      <c r="G114" s="13" t="s">
         <v>629</v>
-      </c>
-      <c r="F114" s="13" t="s">
-        <v>630</v>
-      </c>
-      <c r="G114" s="13" t="s">
-        <v>631</v>
       </c>
       <c r="H114" s="13"/>
       <c r="I114" s="15"/>
@@ -18241,16 +18235,16 @@
       <c r="B115" s="11"/>
       <c r="C115" s="11"/>
       <c r="D115" s="13" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="E115" s="14" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="F115" s="13" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="G115" s="13" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="H115" s="13"/>
       <c r="I115" s="15"/>
@@ -18260,16 +18254,16 @@
       <c r="B116" s="11"/>
       <c r="C116" s="11"/>
       <c r="D116" s="13" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="E116" s="14" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="F116" s="13" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="G116" s="13" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="H116" s="13"/>
       <c r="I116" s="15"/>
@@ -18279,16 +18273,16 @@
       <c r="B117" s="11"/>
       <c r="C117" s="11"/>
       <c r="D117" s="13" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="E117" s="14" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="F117" s="13" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="G117" s="13" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="H117" s="13"/>
       <c r="I117" s="15"/>

--- a/instance/zyjk/CHC/i/体重评估规则/weightAssessmentRule.xlsx
+++ b/instance/zyjk/CHC/i/体重评估规则/weightAssessmentRule.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="32560" windowHeight="12860" tabRatio="785" activeTab="3"/>
+    <workbookView windowWidth="26860" windowHeight="12860" tabRatio="785" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="readme" sheetId="14" r:id="rId1"/>
@@ -176,7 +176,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1124" uniqueCount="633">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1118" uniqueCount="626">
   <si>
     <t>判定居民体重状态 Determine Residents' Weight Status (a_weight10_DRWS)</t>
   </si>
@@ -6319,36 +6319,24 @@
     <t>人群分类为普通人群</t>
   </si>
   <si>
-    <t>人群分类=3</t>
-  </si>
-  <si>
     <t>TZ_RQFL001</t>
   </si>
   <si>
     <t>人群分类为老年人</t>
   </si>
   <si>
-    <t>人群分类=4</t>
-  </si>
-  <si>
     <t>TZ_RQFL002</t>
   </si>
   <si>
     <t>人群分类为学生</t>
   </si>
   <si>
-    <t>人群分类=2</t>
-  </si>
-  <si>
     <t>TZ_RQFL003</t>
   </si>
   <si>
     <t>人群分类为儿童</t>
   </si>
   <si>
-    <t>人群分类=1</t>
-  </si>
-  <si>
     <t>TZ_RQFL004</t>
   </si>
   <si>
@@ -6358,9 +6346,6 @@
     <t>人群分类为孕妇</t>
   </si>
   <si>
-    <t>人群分类=6</t>
-  </si>
-  <si>
     <t>TZ_RQFL005</t>
   </si>
   <si>
@@ -6368,9 +6353,6 @@
   </si>
   <si>
     <t>人群分类为产妇</t>
-  </si>
-  <si>
-    <t>人群分类=7</t>
   </si>
   <si>
     <t>TZ_RQFL006</t>
@@ -6443,34 +6425,6 @@
   </si>
   <si>
     <t>TZ_STZB046</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="仿宋"/>
-        <charset val="134"/>
-      </rPr>
-      <t>是</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t>/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="仿宋"/>
-        <charset val="134"/>
-      </rPr>
-      <t>否</t>
-    </r>
   </si>
   <si>
     <t>（73-84月龄）体重正常</t>
@@ -7301,7 +7255,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="44">
+  <fonts count="43">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -7567,20 +7521,14 @@
     </font>
     <font>
       <sz val="10"/>
-      <color rgb="FFFF0000"/>
-      <name val="仿宋"/>
+      <color rgb="FF000000"/>
+      <name val="宋体-简"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Times New Roman"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="宋体-简"/>
+      <color rgb="FFFF0000"/>
+      <name val="仿宋"/>
       <charset val="134"/>
     </font>
     <font>
@@ -8135,7 +8083,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="87">
+  <cellXfs count="88">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -8196,13 +8144,13 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -8232,7 +8180,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -8248,7 +8199,7 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -8951,388 +8902,388 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.84615384615385" defaultRowHeight="16.8"/>
   <cols>
-    <col min="1" max="1" width="21.7884615384615" style="80" customWidth="1"/>
-    <col min="2" max="2" width="18.7403846153846" style="80" customWidth="1"/>
-    <col min="3" max="3" width="16.3365384615385" style="80" customWidth="1"/>
-    <col min="4" max="4" width="25.9519230769231" style="80" customWidth="1"/>
-    <col min="5" max="5" width="26.1153846153846" style="80" customWidth="1"/>
-    <col min="6" max="6" width="33.8076923076923" style="80" customWidth="1"/>
-    <col min="7" max="7" width="33" style="80" customWidth="1"/>
-    <col min="8" max="8" width="27.7211538461538" style="80" customWidth="1"/>
-    <col min="9" max="9" width="20.9903846153846" style="80" customWidth="1"/>
-    <col min="10" max="10" width="26.2788461538462" style="80" customWidth="1"/>
-    <col min="11" max="11" width="30.7692307692308" style="80" customWidth="1"/>
-    <col min="12" max="12" width="19.0673076923077" style="80" customWidth="1"/>
-    <col min="13" max="13" width="15.8557692307692" style="80" customWidth="1"/>
-    <col min="14" max="15" width="16.9807692307692" style="80" customWidth="1"/>
-    <col min="16" max="16" width="13.9326923076923" style="80" customWidth="1"/>
-    <col min="17" max="16384" width="9.84615384615385" style="80"/>
+    <col min="1" max="1" width="21.7884615384615" style="81" customWidth="1"/>
+    <col min="2" max="2" width="18.7403846153846" style="81" customWidth="1"/>
+    <col min="3" max="3" width="16.3365384615385" style="81" customWidth="1"/>
+    <col min="4" max="4" width="25.9519230769231" style="81" customWidth="1"/>
+    <col min="5" max="5" width="26.1153846153846" style="81" customWidth="1"/>
+    <col min="6" max="6" width="33.8076923076923" style="81" customWidth="1"/>
+    <col min="7" max="7" width="33" style="81" customWidth="1"/>
+    <col min="8" max="8" width="27.7211538461538" style="81" customWidth="1"/>
+    <col min="9" max="9" width="20.9903846153846" style="81" customWidth="1"/>
+    <col min="10" max="10" width="26.2788461538462" style="81" customWidth="1"/>
+    <col min="11" max="11" width="30.7692307692308" style="81" customWidth="1"/>
+    <col min="12" max="12" width="19.0673076923077" style="81" customWidth="1"/>
+    <col min="13" max="13" width="15.8557692307692" style="81" customWidth="1"/>
+    <col min="14" max="15" width="16.9807692307692" style="81" customWidth="1"/>
+    <col min="16" max="16" width="13.9326923076923" style="81" customWidth="1"/>
+    <col min="17" max="16384" width="9.84615384615385" style="81"/>
   </cols>
   <sheetData>
-    <row r="1" s="75" customFormat="1" ht="33" customHeight="1" spans="1:31">
-      <c r="A1" s="81" t="s">
+    <row r="1" s="76" customFormat="1" ht="33" customHeight="1" spans="1:31">
+      <c r="A1" s="82" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" s="75" customFormat="1" ht="33" customHeight="1" spans="1:31">
-      <c r="A2" s="75" t="s">
+    <row r="2" s="76" customFormat="1" ht="33" customHeight="1" spans="1:31">
+      <c r="A2" s="76" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="75" t="s">
+      <c r="B2" s="76" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="75" t="s">
+      <c r="C2" s="76" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="75" t="s">
+      <c r="D2" s="76" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="75" t="s">
+      <c r="E2" s="76" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="75" t="s">
+      <c r="F2" s="76" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="75" t="s">
+      <c r="G2" s="76" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="75" t="s">
+      <c r="H2" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="75" t="s">
+      <c r="I2" s="76" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="75" t="s">
+      <c r="J2" s="76" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="75" t="s">
+      <c r="K2" s="76" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" s="75" customFormat="1" ht="33" customHeight="1" spans="1:31">
-      <c r="A3" s="75" t="s">
+    <row r="3" s="76" customFormat="1" ht="33" customHeight="1" spans="1:31">
+      <c r="A3" s="76" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="75" t="s">
+      <c r="B3" s="76" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="75" t="s">
+      <c r="C3" s="76" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="75" t="s">
+      <c r="D3" s="76" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="75" t="s">
+      <c r="E3" s="76" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="75" t="s">
+      <c r="F3" s="76" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="75" t="s">
+      <c r="G3" s="76" t="s">
         <v>18</v>
       </c>
-      <c r="H3" s="75" t="s">
+      <c r="H3" s="76" t="s">
         <v>19</v>
       </c>
-      <c r="I3" s="75" t="s">
+      <c r="I3" s="76" t="s">
         <v>20</v>
       </c>
-      <c r="J3" s="75" t="s">
+      <c r="J3" s="76" t="s">
         <v>21</v>
       </c>
-      <c r="K3" s="75" t="s">
+      <c r="K3" s="76" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="4" s="76" customFormat="1" ht="33" customHeight="1"/>
-    <row r="5" s="77" customFormat="1" ht="36" customHeight="1" spans="1:31">
-      <c r="A5" s="81" t="s">
+    <row r="4" s="77" customFormat="1" ht="33" customHeight="1"/>
+    <row r="5" s="78" customFormat="1" ht="36" customHeight="1" spans="1:31">
+      <c r="A5" s="82" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="81"/>
-      <c r="C5" s="81"/>
-    </row>
-    <row r="6" s="75" customFormat="1" ht="36" customHeight="1" spans="1:31">
-      <c r="A6" s="75" t="s">
+      <c r="B5" s="82"/>
+      <c r="C5" s="82"/>
+    </row>
+    <row r="6" s="76" customFormat="1" ht="36" customHeight="1" spans="1:31">
+      <c r="A6" s="76" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="75" t="s">
+      <c r="B6" s="76" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="75" t="s">
+      <c r="C6" s="76" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="75" t="s">
+      <c r="D6" s="76" t="s">
         <v>24</v>
       </c>
-      <c r="E6" s="75" t="s">
+      <c r="E6" s="76" t="s">
         <v>4</v>
       </c>
-      <c r="F6" s="75" t="s">
+      <c r="F6" s="76" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="75" t="s">
+      <c r="G6" s="76" t="s">
         <v>25</v>
       </c>
-      <c r="H6" s="75" t="s">
+      <c r="H6" s="76" t="s">
         <v>26</v>
       </c>
-      <c r="I6" s="75" t="s">
+      <c r="I6" s="76" t="s">
         <v>27</v>
       </c>
-      <c r="J6" s="75" t="s">
+      <c r="J6" s="76" t="s">
         <v>28</v>
       </c>
-      <c r="K6" s="75" t="s">
+      <c r="K6" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="L6" s="75" t="s">
+      <c r="L6" s="76" t="s">
         <v>29</v>
       </c>
-      <c r="M6" s="75" t="s">
+      <c r="M6" s="76" t="s">
         <v>30</v>
       </c>
-      <c r="N6" s="75" t="s">
+      <c r="N6" s="76" t="s">
         <v>31</v>
       </c>
-      <c r="O6" s="75" t="s">
+      <c r="O6" s="76" t="s">
         <v>10</v>
       </c>
-      <c r="P6" s="75" t="s">
+      <c r="P6" s="76" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" s="75" customFormat="1" ht="33" customHeight="1" spans="1:31">
-      <c r="A7" s="78" t="s">
+    <row r="7" s="76" customFormat="1" ht="33" customHeight="1" spans="1:31">
+      <c r="A7" s="79" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="78" t="s">
+      <c r="B7" s="79" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="75" t="s">
+      <c r="C7" s="76" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="75" t="s">
+      <c r="D7" s="76" t="s">
         <v>32</v>
       </c>
-      <c r="E7" s="75" t="s">
+      <c r="E7" s="76" t="s">
         <v>15</v>
       </c>
-      <c r="F7" s="75" t="s">
+      <c r="F7" s="76" t="s">
         <v>16</v>
       </c>
-      <c r="G7" s="75" t="s">
+      <c r="G7" s="76" t="s">
         <v>33</v>
       </c>
-      <c r="H7" s="75" t="s">
+      <c r="H7" s="76" t="s">
         <v>34</v>
       </c>
-      <c r="I7" s="75" t="s">
+      <c r="I7" s="76" t="s">
         <v>35</v>
       </c>
-      <c r="J7" s="82" t="s">
+      <c r="J7" s="83" t="s">
         <v>36</v>
       </c>
-      <c r="K7" s="82" t="s">
+      <c r="K7" s="83" t="s">
         <v>37</v>
       </c>
-      <c r="L7" s="75" t="s">
+      <c r="L7" s="76" t="s">
         <v>38</v>
       </c>
-      <c r="M7" s="75" t="s">
+      <c r="M7" s="76" t="s">
         <v>39</v>
       </c>
-      <c r="N7" s="75" t="s">
+      <c r="N7" s="76" t="s">
         <v>20</v>
       </c>
-      <c r="O7" s="75" t="s">
+      <c r="O7" s="76" t="s">
         <v>21</v>
       </c>
-      <c r="P7" s="75" t="s">
+      <c r="P7" s="76" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="8" s="76" customFormat="1" ht="27.75" customHeight="1" spans="1:31">
-      <c r="A8" s="83"/>
-      <c r="B8" s="83"/>
-      <c r="C8" s="83"/>
-      <c r="D8" s="83"/>
-      <c r="E8" s="83"/>
-      <c r="F8" s="83"/>
-      <c r="G8" s="31"/>
-      <c r="H8" s="83"/>
-      <c r="I8" s="83"/>
-      <c r="J8" s="31"/>
-      <c r="K8" s="31"/>
-      <c r="L8" s="83"/>
-      <c r="M8" s="83"/>
-      <c r="N8" s="83"/>
-      <c r="O8" s="83"/>
-      <c r="P8" s="83"/>
-      <c r="Q8" s="83"/>
-      <c r="R8" s="83"/>
-      <c r="S8" s="83"/>
-      <c r="T8" s="83"/>
-      <c r="U8" s="83"/>
-      <c r="V8" s="83"/>
-      <c r="W8" s="83"/>
-      <c r="X8" s="83"/>
-      <c r="Y8" s="83"/>
-      <c r="Z8" s="83"/>
-      <c r="AA8" s="83"/>
-      <c r="AB8" s="83"/>
-      <c r="AC8" s="83"/>
-      <c r="AD8" s="83"/>
-      <c r="AE8" s="83"/>
-    </row>
-    <row r="9" s="78" customFormat="1" ht="33" customHeight="1" spans="1:31">
-      <c r="A9" s="81" t="s">
+    <row r="8" s="77" customFormat="1" ht="27.75" customHeight="1" spans="1:31">
+      <c r="A8" s="84"/>
+      <c r="B8" s="84"/>
+      <c r="C8" s="84"/>
+      <c r="D8" s="84"/>
+      <c r="E8" s="84"/>
+      <c r="F8" s="84"/>
+      <c r="G8" s="32"/>
+      <c r="H8" s="84"/>
+      <c r="I8" s="84"/>
+      <c r="J8" s="32"/>
+      <c r="K8" s="32"/>
+      <c r="L8" s="84"/>
+      <c r="M8" s="84"/>
+      <c r="N8" s="84"/>
+      <c r="O8" s="84"/>
+      <c r="P8" s="84"/>
+      <c r="Q8" s="84"/>
+      <c r="R8" s="84"/>
+      <c r="S8" s="84"/>
+      <c r="T8" s="84"/>
+      <c r="U8" s="84"/>
+      <c r="V8" s="84"/>
+      <c r="W8" s="84"/>
+      <c r="X8" s="84"/>
+      <c r="Y8" s="84"/>
+      <c r="Z8" s="84"/>
+      <c r="AA8" s="84"/>
+      <c r="AB8" s="84"/>
+      <c r="AC8" s="84"/>
+      <c r="AD8" s="84"/>
+      <c r="AE8" s="84"/>
+    </row>
+    <row r="9" s="79" customFormat="1" ht="33" customHeight="1" spans="1:31">
+      <c r="A9" s="82" t="s">
         <v>40</v>
       </c>
-      <c r="B9" s="78"/>
-      <c r="C9" s="84"/>
-      <c r="D9" s="84"/>
-      <c r="E9" s="84"/>
-      <c r="F9" s="84"/>
-      <c r="G9" s="84"/>
-      <c r="H9" s="84"/>
-      <c r="I9" s="84"/>
-      <c r="J9" s="84"/>
-      <c r="K9" s="84"/>
-      <c r="L9" s="84"/>
-      <c r="M9" s="84"/>
-      <c r="N9" s="84"/>
-      <c r="O9" s="84"/>
-      <c r="P9" s="84"/>
-      <c r="Q9" s="84"/>
-      <c r="R9" s="84"/>
-      <c r="S9" s="84"/>
-      <c r="T9" s="84"/>
-      <c r="U9" s="84"/>
-      <c r="V9" s="84"/>
-      <c r="W9" s="84"/>
-      <c r="X9" s="84"/>
-      <c r="Y9" s="84"/>
-      <c r="Z9" s="84"/>
-      <c r="AA9" s="84"/>
-      <c r="AB9" s="84"/>
-    </row>
-    <row r="10" s="78" customFormat="1" ht="33" customHeight="1" spans="1:31">
-      <c r="A10" s="78" t="s">
+      <c r="B9" s="79"/>
+      <c r="C9" s="85"/>
+      <c r="D9" s="85"/>
+      <c r="E9" s="85"/>
+      <c r="F9" s="85"/>
+      <c r="G9" s="85"/>
+      <c r="H9" s="85"/>
+      <c r="I9" s="85"/>
+      <c r="J9" s="85"/>
+      <c r="K9" s="85"/>
+      <c r="L9" s="85"/>
+      <c r="M9" s="85"/>
+      <c r="N9" s="85"/>
+      <c r="O9" s="85"/>
+      <c r="P9" s="85"/>
+      <c r="Q9" s="85"/>
+      <c r="R9" s="85"/>
+      <c r="S9" s="85"/>
+      <c r="T9" s="85"/>
+      <c r="U9" s="85"/>
+      <c r="V9" s="85"/>
+      <c r="W9" s="85"/>
+      <c r="X9" s="85"/>
+      <c r="Y9" s="85"/>
+      <c r="Z9" s="85"/>
+      <c r="AA9" s="85"/>
+      <c r="AB9" s="85"/>
+    </row>
+    <row r="10" s="79" customFormat="1" ht="33" customHeight="1" spans="1:31">
+      <c r="A10" s="79" t="s">
         <v>1</v>
       </c>
-      <c r="B10" s="78" t="s">
+      <c r="B10" s="79" t="s">
         <v>2</v>
       </c>
-      <c r="C10" s="84" t="s">
+      <c r="C10" s="85" t="s">
         <v>3</v>
       </c>
-      <c r="D10" s="84" t="s">
+      <c r="D10" s="85" t="s">
         <v>24</v>
       </c>
-      <c r="E10" s="84" t="s">
+      <c r="E10" s="85" t="s">
         <v>41</v>
       </c>
-      <c r="F10" s="84" t="s">
+      <c r="F10" s="85" t="s">
         <v>8</v>
       </c>
-      <c r="G10" s="84" t="s">
+      <c r="G10" s="85" t="s">
         <v>42</v>
       </c>
-      <c r="H10" s="84" t="s">
+      <c r="H10" s="85" t="s">
         <v>31</v>
       </c>
-      <c r="I10" s="84" t="s">
+      <c r="I10" s="85" t="s">
         <v>10</v>
       </c>
-      <c r="J10" s="84" t="s">
+      <c r="J10" s="85" t="s">
         <v>11</v>
       </c>
-      <c r="K10" s="84"/>
-      <c r="L10" s="84"/>
-      <c r="M10" s="84"/>
-      <c r="N10" s="84"/>
-      <c r="O10" s="84"/>
-      <c r="P10" s="84"/>
-      <c r="Q10" s="84"/>
-      <c r="R10" s="84"/>
-      <c r="S10" s="84"/>
-      <c r="T10" s="84"/>
-      <c r="U10" s="84"/>
-      <c r="V10" s="84"/>
-      <c r="W10" s="84"/>
-      <c r="X10" s="84"/>
-      <c r="Y10" s="84"/>
-      <c r="Z10" s="84"/>
-      <c r="AA10" s="84"/>
-      <c r="AB10" s="84"/>
-    </row>
-    <row r="11" s="78" customFormat="1" ht="33" customHeight="1" spans="1:31">
-      <c r="A11" s="78" t="s">
+      <c r="K10" s="85"/>
+      <c r="L10" s="85"/>
+      <c r="M10" s="85"/>
+      <c r="N10" s="85"/>
+      <c r="O10" s="85"/>
+      <c r="P10" s="85"/>
+      <c r="Q10" s="85"/>
+      <c r="R10" s="85"/>
+      <c r="S10" s="85"/>
+      <c r="T10" s="85"/>
+      <c r="U10" s="85"/>
+      <c r="V10" s="85"/>
+      <c r="W10" s="85"/>
+      <c r="X10" s="85"/>
+      <c r="Y10" s="85"/>
+      <c r="Z10" s="85"/>
+      <c r="AA10" s="85"/>
+      <c r="AB10" s="85"/>
+    </row>
+    <row r="11" s="79" customFormat="1" ht="33" customHeight="1" spans="1:31">
+      <c r="A11" s="79" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="78" t="s">
+      <c r="B11" s="79" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="75" t="s">
+      <c r="C11" s="76" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="84" t="s">
+      <c r="D11" s="85" t="s">
         <v>43</v>
       </c>
-      <c r="E11" s="84" t="s">
+      <c r="E11" s="85" t="s">
         <v>44</v>
       </c>
-      <c r="F11" s="75" t="s">
+      <c r="F11" s="76" t="s">
         <v>45</v>
       </c>
-      <c r="G11" s="85" t="s">
+      <c r="G11" s="86" t="s">
         <v>46</v>
       </c>
-      <c r="H11" s="75" t="s">
+      <c r="H11" s="76" t="s">
         <v>20</v>
       </c>
-      <c r="I11" s="75" t="s">
+      <c r="I11" s="76" t="s">
         <v>21</v>
       </c>
-      <c r="J11" s="75" t="s">
+      <c r="J11" s="76" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="12" s="79" customFormat="1" ht="33" customHeight="1" spans="1:31">
-      <c r="C12" s="83"/>
-      <c r="D12" s="83"/>
-      <c r="E12" s="83"/>
-      <c r="F12" s="83"/>
-      <c r="G12" s="83"/>
-      <c r="H12" s="83"/>
-      <c r="I12" s="83"/>
-      <c r="J12" s="83"/>
-      <c r="K12" s="83"/>
-      <c r="L12" s="83"/>
-      <c r="M12" s="83"/>
-      <c r="N12" s="83"/>
-      <c r="O12" s="83"/>
-      <c r="P12" s="83"/>
-      <c r="Q12" s="83"/>
-      <c r="R12" s="83"/>
-      <c r="S12" s="83"/>
-      <c r="T12" s="83"/>
-      <c r="U12" s="83"/>
-      <c r="V12" s="83"/>
-      <c r="W12" s="83"/>
-      <c r="X12" s="83"/>
-      <c r="Y12" s="83"/>
-      <c r="Z12" s="83"/>
-      <c r="AA12" s="83"/>
-      <c r="AB12" s="83"/>
+    <row r="12" s="80" customFormat="1" ht="33" customHeight="1" spans="1:31">
+      <c r="C12" s="84"/>
+      <c r="D12" s="84"/>
+      <c r="E12" s="84"/>
+      <c r="F12" s="84"/>
+      <c r="G12" s="84"/>
+      <c r="H12" s="84"/>
+      <c r="I12" s="84"/>
+      <c r="J12" s="84"/>
+      <c r="K12" s="84"/>
+      <c r="L12" s="84"/>
+      <c r="M12" s="84"/>
+      <c r="N12" s="84"/>
+      <c r="O12" s="84"/>
+      <c r="P12" s="84"/>
+      <c r="Q12" s="84"/>
+      <c r="R12" s="84"/>
+      <c r="S12" s="84"/>
+      <c r="T12" s="84"/>
+      <c r="U12" s="84"/>
+      <c r="V12" s="84"/>
+      <c r="W12" s="84"/>
+      <c r="X12" s="84"/>
+      <c r="Y12" s="84"/>
+      <c r="Z12" s="84"/>
+      <c r="AA12" s="84"/>
+      <c r="AB12" s="84"/>
     </row>
     <row r="15" ht="17" spans="1:31">
-      <c r="A15" s="86" t="s">
+      <c r="A15" s="87" t="s">
         <v>47</v>
       </c>
-      <c r="B15" s="86"/>
-      <c r="C15" s="86"/>
+      <c r="B15" s="87"/>
+      <c r="C15" s="87"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -9356,838 +9307,838 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.3846153846154" defaultRowHeight="16.8"/>
   <cols>
-    <col min="1" max="2" width="21.7211538461538" style="51" customWidth="1"/>
-    <col min="3" max="3" width="87.1634615384615" style="52" customWidth="1"/>
-    <col min="4" max="7" width="21.7211538461538" style="52" customWidth="1"/>
-    <col min="8" max="8" width="21.7211538461538" style="51" customWidth="1"/>
-    <col min="9" max="9" width="21.7211538461538" style="52" customWidth="1"/>
-    <col min="10" max="11" width="21.7211538461538" style="51" customWidth="1"/>
+    <col min="1" max="2" width="21.7211538461538" style="52" customWidth="1"/>
+    <col min="3" max="3" width="87.1634615384615" style="53" customWidth="1"/>
+    <col min="4" max="7" width="21.7211538461538" style="53" customWidth="1"/>
+    <col min="8" max="8" width="21.7211538461538" style="52" customWidth="1"/>
+    <col min="9" max="9" width="21.7211538461538" style="53" customWidth="1"/>
+    <col min="10" max="11" width="21.7211538461538" style="52" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="33" customHeight="1" spans="1:11">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="54" t="s">
         <v>48</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="55" t="s">
+      <c r="B1" s="55"/>
+      <c r="C1" s="56" t="s">
         <v>49</v>
       </c>
-      <c r="D1" s="53" t="s">
+      <c r="D1" s="54" t="s">
         <v>50</v>
       </c>
-      <c r="E1" s="56"/>
-      <c r="F1" s="56"/>
-      <c r="G1" s="56"/>
-      <c r="H1" s="57"/>
-      <c r="I1" s="58"/>
-      <c r="J1" s="59"/>
-      <c r="K1" s="60"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="57"/>
+      <c r="H1" s="58"/>
+      <c r="I1" s="59"/>
+      <c r="J1" s="60"/>
+      <c r="K1" s="61"/>
     </row>
     <row r="2" ht="33" customHeight="1" spans="1:11">
-      <c r="A2" s="61" t="s">
+      <c r="A2" s="62" t="s">
         <v>51</v>
       </c>
-      <c r="B2" s="62" t="s">
+      <c r="B2" s="63" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="63" t="s">
+      <c r="C2" s="64" t="s">
         <v>52</v>
       </c>
-      <c r="D2" s="64" t="s">
+      <c r="D2" s="65" t="s">
         <v>53</v>
       </c>
-      <c r="E2" s="65"/>
-      <c r="F2" s="66"/>
-      <c r="G2" s="65"/>
-      <c r="H2" s="65"/>
-      <c r="I2" s="67"/>
-      <c r="J2" s="68"/>
-      <c r="K2" s="69"/>
+      <c r="E2" s="66"/>
+      <c r="F2" s="67"/>
+      <c r="G2" s="66"/>
+      <c r="H2" s="66"/>
+      <c r="I2" s="68"/>
+      <c r="J2" s="69"/>
+      <c r="K2" s="70"/>
     </row>
     <row r="3" ht="33" customHeight="1" spans="1:11">
-      <c r="A3" s="54"/>
-      <c r="B3" s="70" t="s">
+      <c r="A3" s="55"/>
+      <c r="B3" s="71" t="s">
         <v>54</v>
       </c>
-      <c r="C3" s="63" t="s">
+      <c r="C3" s="64" t="s">
         <v>55</v>
       </c>
-      <c r="D3" s="71" t="s">
+      <c r="D3" s="72" t="s">
         <v>56</v>
       </c>
-      <c r="E3" s="65"/>
-      <c r="F3" s="66"/>
-      <c r="G3" s="65"/>
-      <c r="H3" s="65"/>
-      <c r="I3" s="67"/>
-      <c r="J3" s="68"/>
-      <c r="K3" s="69"/>
+      <c r="E3" s="66"/>
+      <c r="F3" s="67"/>
+      <c r="G3" s="66"/>
+      <c r="H3" s="66"/>
+      <c r="I3" s="68"/>
+      <c r="J3" s="69"/>
+      <c r="K3" s="70"/>
     </row>
     <row r="4" ht="33" customHeight="1" spans="1:11">
-      <c r="A4" s="54"/>
-      <c r="B4" s="70" t="s">
+      <c r="A4" s="55"/>
+      <c r="B4" s="71" t="s">
         <v>57</v>
       </c>
-      <c r="C4" s="63" t="s">
+      <c r="C4" s="64" t="s">
         <v>58</v>
       </c>
-      <c r="D4" s="71" t="s">
+      <c r="D4" s="72" t="s">
         <v>59</v>
       </c>
-      <c r="E4" s="65"/>
-      <c r="F4" s="66"/>
-      <c r="G4" s="65"/>
-      <c r="H4" s="65"/>
-      <c r="I4" s="67"/>
-      <c r="J4" s="68"/>
-      <c r="K4" s="69"/>
+      <c r="E4" s="66"/>
+      <c r="F4" s="67"/>
+      <c r="G4" s="66"/>
+      <c r="H4" s="66"/>
+      <c r="I4" s="68"/>
+      <c r="J4" s="69"/>
+      <c r="K4" s="70"/>
     </row>
     <row r="5" ht="33" customHeight="1" spans="1:11">
-      <c r="A5" s="54"/>
-      <c r="B5" s="70" t="s">
+      <c r="A5" s="55"/>
+      <c r="B5" s="71" t="s">
         <v>60</v>
       </c>
-      <c r="C5" s="63" t="s">
+      <c r="C5" s="64" t="s">
         <v>61</v>
       </c>
-      <c r="D5" s="71" t="s">
+      <c r="D5" s="72" t="s">
         <v>56</v>
       </c>
-      <c r="E5" s="65"/>
-      <c r="F5" s="66"/>
-      <c r="G5" s="65"/>
-      <c r="H5" s="65"/>
-      <c r="I5" s="67"/>
-      <c r="J5" s="68"/>
-      <c r="K5" s="69"/>
+      <c r="E5" s="66"/>
+      <c r="F5" s="67"/>
+      <c r="G5" s="66"/>
+      <c r="H5" s="66"/>
+      <c r="I5" s="68"/>
+      <c r="J5" s="69"/>
+      <c r="K5" s="70"/>
     </row>
     <row r="6" ht="33" customHeight="1" spans="1:11">
-      <c r="A6" s="54"/>
-      <c r="B6" s="70" t="s">
+      <c r="A6" s="55"/>
+      <c r="B6" s="71" t="s">
         <v>62</v>
       </c>
-      <c r="C6" s="63" t="s">
+      <c r="C6" s="64" t="s">
         <v>63</v>
       </c>
-      <c r="D6" s="71" t="s">
+      <c r="D6" s="72" t="s">
         <v>53</v>
       </c>
-      <c r="E6" s="65"/>
-      <c r="F6" s="66"/>
-      <c r="G6" s="65"/>
-      <c r="H6" s="65"/>
-      <c r="I6" s="67"/>
-      <c r="J6" s="68"/>
-      <c r="K6" s="69"/>
+      <c r="E6" s="66"/>
+      <c r="F6" s="67"/>
+      <c r="G6" s="66"/>
+      <c r="H6" s="66"/>
+      <c r="I6" s="68"/>
+      <c r="J6" s="69"/>
+      <c r="K6" s="70"/>
     </row>
     <row r="7" ht="33" customHeight="1" spans="1:11">
-      <c r="A7" s="54"/>
-      <c r="B7" s="70" t="s">
+      <c r="A7" s="55"/>
+      <c r="B7" s="71" t="s">
         <v>64</v>
       </c>
-      <c r="C7" s="63" t="s">
+      <c r="C7" s="64" t="s">
         <v>65</v>
       </c>
-      <c r="D7" s="71" t="s">
+      <c r="D7" s="72" t="s">
         <v>56</v>
       </c>
-      <c r="E7" s="65"/>
-      <c r="F7" s="66"/>
-      <c r="G7" s="65"/>
-      <c r="H7" s="65"/>
-      <c r="I7" s="67"/>
-      <c r="J7" s="68"/>
-      <c r="K7" s="69"/>
+      <c r="E7" s="66"/>
+      <c r="F7" s="67"/>
+      <c r="G7" s="66"/>
+      <c r="H7" s="66"/>
+      <c r="I7" s="68"/>
+      <c r="J7" s="69"/>
+      <c r="K7" s="70"/>
     </row>
     <row r="8" ht="33" customHeight="1" spans="1:11">
-      <c r="A8" s="54"/>
-      <c r="B8" s="70" t="s">
+      <c r="A8" s="55"/>
+      <c r="B8" s="71" t="s">
         <v>66</v>
       </c>
-      <c r="C8" s="63" t="s">
+      <c r="C8" s="64" t="s">
         <v>67</v>
       </c>
-      <c r="D8" s="71" t="s">
+      <c r="D8" s="72" t="s">
         <v>56</v>
       </c>
-      <c r="E8" s="65"/>
-      <c r="F8" s="66"/>
-      <c r="G8" s="65"/>
-      <c r="H8" s="65"/>
-      <c r="I8" s="67"/>
-      <c r="J8" s="68"/>
-      <c r="K8" s="69"/>
+      <c r="E8" s="66"/>
+      <c r="F8" s="67"/>
+      <c r="G8" s="66"/>
+      <c r="H8" s="66"/>
+      <c r="I8" s="68"/>
+      <c r="J8" s="69"/>
+      <c r="K8" s="70"/>
     </row>
     <row r="9" ht="33" customHeight="1" spans="1:11">
-      <c r="A9" s="54"/>
-      <c r="B9" s="70" t="s">
+      <c r="A9" s="55"/>
+      <c r="B9" s="71" t="s">
         <v>68</v>
       </c>
-      <c r="C9" s="63" t="s">
+      <c r="C9" s="64" t="s">
         <v>69</v>
       </c>
-      <c r="D9" s="71" t="s">
+      <c r="D9" s="72" t="s">
         <v>59</v>
       </c>
-      <c r="E9" s="65"/>
-      <c r="F9" s="66"/>
-      <c r="G9" s="65"/>
-      <c r="H9" s="65"/>
-      <c r="I9" s="67"/>
-      <c r="J9" s="68"/>
-      <c r="K9" s="69"/>
+      <c r="E9" s="66"/>
+      <c r="F9" s="67"/>
+      <c r="G9" s="66"/>
+      <c r="H9" s="66"/>
+      <c r="I9" s="68"/>
+      <c r="J9" s="69"/>
+      <c r="K9" s="70"/>
     </row>
     <row r="10" ht="33" customHeight="1" spans="1:11">
-      <c r="A10" s="54"/>
-      <c r="B10" s="70" t="s">
+      <c r="A10" s="55"/>
+      <c r="B10" s="71" t="s">
         <v>70</v>
       </c>
-      <c r="C10" s="63" t="s">
+      <c r="C10" s="64" t="s">
         <v>71</v>
       </c>
-      <c r="D10" s="71" t="s">
+      <c r="D10" s="72" t="s">
         <v>53</v>
       </c>
-      <c r="E10" s="65"/>
-      <c r="F10" s="66"/>
-      <c r="G10" s="65"/>
-      <c r="H10" s="65"/>
-      <c r="I10" s="67"/>
-      <c r="J10" s="68"/>
-      <c r="K10" s="69"/>
+      <c r="E10" s="66"/>
+      <c r="F10" s="67"/>
+      <c r="G10" s="66"/>
+      <c r="H10" s="66"/>
+      <c r="I10" s="68"/>
+      <c r="J10" s="69"/>
+      <c r="K10" s="70"/>
     </row>
     <row r="11" ht="33" customHeight="1" spans="1:11">
-      <c r="A11" s="61" t="s">
+      <c r="A11" s="62" t="s">
         <v>72</v>
       </c>
-      <c r="B11" s="62" t="s">
+      <c r="B11" s="63" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="63" t="s">
+      <c r="C11" s="64" t="s">
         <v>52</v>
       </c>
-      <c r="D11" s="64" t="s">
+      <c r="D11" s="65" t="s">
         <v>53</v>
       </c>
-      <c r="E11" s="65"/>
-      <c r="F11" s="66"/>
-      <c r="G11" s="65"/>
-      <c r="H11" s="65"/>
-      <c r="I11" s="67"/>
-      <c r="J11" s="68"/>
-      <c r="K11" s="69"/>
+      <c r="E11" s="66"/>
+      <c r="F11" s="67"/>
+      <c r="G11" s="66"/>
+      <c r="H11" s="66"/>
+      <c r="I11" s="68"/>
+      <c r="J11" s="69"/>
+      <c r="K11" s="70"/>
     </row>
     <row r="12" ht="33" customHeight="1" spans="1:11">
-      <c r="A12" s="54"/>
-      <c r="B12" s="70" t="s">
+      <c r="A12" s="55"/>
+      <c r="B12" s="71" t="s">
         <v>54</v>
       </c>
-      <c r="C12" s="63" t="s">
+      <c r="C12" s="64" t="s">
         <v>73</v>
       </c>
-      <c r="D12" s="71" t="s">
+      <c r="D12" s="72" t="s">
         <v>56</v>
       </c>
-      <c r="E12" s="65"/>
-      <c r="F12" s="66"/>
-      <c r="G12" s="65"/>
-      <c r="H12" s="65"/>
-      <c r="I12" s="67"/>
-      <c r="J12" s="68"/>
-      <c r="K12" s="69"/>
+      <c r="E12" s="66"/>
+      <c r="F12" s="67"/>
+      <c r="G12" s="66"/>
+      <c r="H12" s="66"/>
+      <c r="I12" s="68"/>
+      <c r="J12" s="69"/>
+      <c r="K12" s="70"/>
     </row>
     <row r="13" ht="33" customHeight="1" spans="1:11">
-      <c r="A13" s="54"/>
-      <c r="B13" s="70" t="s">
+      <c r="A13" s="55"/>
+      <c r="B13" s="71" t="s">
         <v>57</v>
       </c>
-      <c r="C13" s="63" t="s">
+      <c r="C13" s="64" t="s">
         <v>74</v>
       </c>
-      <c r="D13" s="71" t="s">
+      <c r="D13" s="72" t="s">
         <v>59</v>
       </c>
-      <c r="E13" s="65"/>
-      <c r="F13" s="66"/>
-      <c r="G13" s="65"/>
-      <c r="H13" s="65"/>
-      <c r="I13" s="67"/>
-      <c r="J13" s="68"/>
-      <c r="K13" s="69"/>
+      <c r="E13" s="66"/>
+      <c r="F13" s="67"/>
+      <c r="G13" s="66"/>
+      <c r="H13" s="66"/>
+      <c r="I13" s="68"/>
+      <c r="J13" s="69"/>
+      <c r="K13" s="70"/>
     </row>
     <row r="14" ht="33" customHeight="1" spans="1:11">
-      <c r="A14" s="54"/>
-      <c r="B14" s="70" t="s">
+      <c r="A14" s="55"/>
+      <c r="B14" s="71" t="s">
         <v>60</v>
       </c>
-      <c r="C14" s="63" t="s">
+      <c r="C14" s="64" t="s">
         <v>75</v>
       </c>
-      <c r="D14" s="71" t="s">
+      <c r="D14" s="72" t="s">
         <v>56</v>
       </c>
-      <c r="E14" s="65"/>
-      <c r="F14" s="66"/>
-      <c r="G14" s="65"/>
-      <c r="H14" s="65"/>
-      <c r="I14" s="67"/>
-      <c r="J14" s="68"/>
-      <c r="K14" s="69"/>
+      <c r="E14" s="66"/>
+      <c r="F14" s="67"/>
+      <c r="G14" s="66"/>
+      <c r="H14" s="66"/>
+      <c r="I14" s="68"/>
+      <c r="J14" s="69"/>
+      <c r="K14" s="70"/>
     </row>
     <row r="15" ht="33" customHeight="1" spans="1:11">
-      <c r="A15" s="54"/>
-      <c r="B15" s="70" t="s">
+      <c r="A15" s="55"/>
+      <c r="B15" s="71" t="s">
         <v>62</v>
       </c>
-      <c r="C15" s="63" t="s">
+      <c r="C15" s="64" t="s">
         <v>63</v>
       </c>
-      <c r="D15" s="71" t="s">
+      <c r="D15" s="72" t="s">
         <v>53</v>
       </c>
-      <c r="E15" s="65"/>
-      <c r="F15" s="66"/>
-      <c r="G15" s="65"/>
-      <c r="H15" s="65"/>
-      <c r="I15" s="67"/>
-      <c r="J15" s="68"/>
-      <c r="K15" s="69"/>
+      <c r="E15" s="66"/>
+      <c r="F15" s="67"/>
+      <c r="G15" s="66"/>
+      <c r="H15" s="66"/>
+      <c r="I15" s="68"/>
+      <c r="J15" s="69"/>
+      <c r="K15" s="70"/>
     </row>
     <row r="16" ht="33" customHeight="1" spans="1:11">
-      <c r="A16" s="54"/>
-      <c r="B16" s="70" t="s">
+      <c r="A16" s="55"/>
+      <c r="B16" s="71" t="s">
         <v>64</v>
       </c>
-      <c r="C16" s="63" t="s">
+      <c r="C16" s="64" t="s">
         <v>76</v>
       </c>
-      <c r="D16" s="71" t="s">
+      <c r="D16" s="72" t="s">
         <v>56</v>
       </c>
-      <c r="E16" s="65"/>
-      <c r="F16" s="66"/>
-      <c r="G16" s="65"/>
-      <c r="H16" s="65"/>
-      <c r="I16" s="67"/>
-      <c r="J16" s="68"/>
-      <c r="K16" s="69"/>
+      <c r="E16" s="66"/>
+      <c r="F16" s="67"/>
+      <c r="G16" s="66"/>
+      <c r="H16" s="66"/>
+      <c r="I16" s="68"/>
+      <c r="J16" s="69"/>
+      <c r="K16" s="70"/>
     </row>
     <row r="17" ht="33" customHeight="1" spans="1:11">
-      <c r="A17" s="54"/>
-      <c r="B17" s="70" t="s">
+      <c r="A17" s="55"/>
+      <c r="B17" s="71" t="s">
         <v>66</v>
       </c>
-      <c r="C17" s="63" t="s">
+      <c r="C17" s="64" t="s">
         <v>77</v>
       </c>
-      <c r="D17" s="71" t="s">
+      <c r="D17" s="72" t="s">
         <v>56</v>
       </c>
-      <c r="E17" s="65"/>
-      <c r="F17" s="66"/>
-      <c r="G17" s="65"/>
-      <c r="H17" s="65"/>
-      <c r="I17" s="67"/>
-      <c r="J17" s="68"/>
-      <c r="K17" s="69"/>
+      <c r="E17" s="66"/>
+      <c r="F17" s="67"/>
+      <c r="G17" s="66"/>
+      <c r="H17" s="66"/>
+      <c r="I17" s="68"/>
+      <c r="J17" s="69"/>
+      <c r="K17" s="70"/>
     </row>
     <row r="18" ht="33" customHeight="1" spans="1:11">
-      <c r="A18" s="54"/>
-      <c r="B18" s="70" t="s">
+      <c r="A18" s="55"/>
+      <c r="B18" s="71" t="s">
         <v>68</v>
       </c>
-      <c r="C18" s="63" t="s">
+      <c r="C18" s="64" t="s">
         <v>78</v>
       </c>
-      <c r="D18" s="71" t="s">
+      <c r="D18" s="72" t="s">
         <v>59</v>
       </c>
-      <c r="E18" s="65"/>
-      <c r="F18" s="66"/>
-      <c r="G18" s="65"/>
-      <c r="H18" s="65"/>
-      <c r="I18" s="67"/>
-      <c r="J18" s="68"/>
-      <c r="K18" s="69"/>
+      <c r="E18" s="66"/>
+      <c r="F18" s="67"/>
+      <c r="G18" s="66"/>
+      <c r="H18" s="66"/>
+      <c r="I18" s="68"/>
+      <c r="J18" s="69"/>
+      <c r="K18" s="70"/>
     </row>
     <row r="19" ht="33" customHeight="1" spans="1:11">
-      <c r="A19" s="54"/>
-      <c r="B19" s="70" t="s">
+      <c r="A19" s="55"/>
+      <c r="B19" s="71" t="s">
         <v>70</v>
       </c>
-      <c r="C19" s="63" t="s">
+      <c r="C19" s="64" t="s">
         <v>79</v>
       </c>
-      <c r="D19" s="71" t="s">
+      <c r="D19" s="72" t="s">
         <v>53</v>
       </c>
-      <c r="E19" s="65"/>
-      <c r="F19" s="66"/>
-      <c r="G19" s="65"/>
-      <c r="H19" s="65"/>
-      <c r="I19" s="67"/>
-      <c r="J19" s="68"/>
-      <c r="K19" s="69"/>
+      <c r="E19" s="66"/>
+      <c r="F19" s="67"/>
+      <c r="G19" s="66"/>
+      <c r="H19" s="66"/>
+      <c r="I19" s="68"/>
+      <c r="J19" s="69"/>
+      <c r="K19" s="70"/>
     </row>
     <row r="20" ht="33" customHeight="1" spans="1:11">
-      <c r="A20" s="72"/>
-      <c r="B20" s="72"/>
-      <c r="C20" s="69"/>
-      <c r="D20" s="66"/>
-      <c r="E20" s="65"/>
-      <c r="F20" s="66"/>
-      <c r="G20" s="65"/>
-      <c r="H20" s="65"/>
-      <c r="I20" s="67"/>
-      <c r="J20" s="68"/>
-      <c r="K20" s="69"/>
+      <c r="A20" s="73"/>
+      <c r="B20" s="73"/>
+      <c r="C20" s="70"/>
+      <c r="D20" s="67"/>
+      <c r="E20" s="66"/>
+      <c r="F20" s="67"/>
+      <c r="G20" s="66"/>
+      <c r="H20" s="66"/>
+      <c r="I20" s="68"/>
+      <c r="J20" s="69"/>
+      <c r="K20" s="70"/>
     </row>
     <row r="21" ht="33" customHeight="1" spans="1:11">
-      <c r="A21" s="72"/>
-      <c r="B21" s="72"/>
-      <c r="C21" s="69"/>
-      <c r="D21" s="69"/>
-      <c r="E21" s="73"/>
-      <c r="F21" s="69"/>
-      <c r="G21" s="73"/>
-      <c r="H21" s="73"/>
-      <c r="I21" s="73"/>
-      <c r="J21" s="69"/>
-      <c r="K21" s="69"/>
+      <c r="A21" s="73"/>
+      <c r="B21" s="73"/>
+      <c r="C21" s="70"/>
+      <c r="D21" s="70"/>
+      <c r="E21" s="74"/>
+      <c r="F21" s="70"/>
+      <c r="G21" s="74"/>
+      <c r="H21" s="74"/>
+      <c r="I21" s="74"/>
+      <c r="J21" s="70"/>
+      <c r="K21" s="70"/>
     </row>
     <row r="22" ht="33" customHeight="1" spans="1:11">
-      <c r="A22" s="72"/>
-      <c r="B22" s="72"/>
-      <c r="C22" s="69"/>
-      <c r="D22" s="69"/>
-      <c r="E22" s="73"/>
-      <c r="F22" s="69"/>
-      <c r="G22" s="73"/>
-      <c r="H22" s="73"/>
-      <c r="I22" s="73"/>
-      <c r="J22" s="69"/>
-      <c r="K22" s="69"/>
+      <c r="A22" s="73"/>
+      <c r="B22" s="73"/>
+      <c r="C22" s="70"/>
+      <c r="D22" s="70"/>
+      <c r="E22" s="74"/>
+      <c r="F22" s="70"/>
+      <c r="G22" s="74"/>
+      <c r="H22" s="74"/>
+      <c r="I22" s="74"/>
+      <c r="J22" s="70"/>
+      <c r="K22" s="70"/>
     </row>
     <row r="23" ht="33" customHeight="1" spans="1:11">
-      <c r="A23" s="72"/>
-      <c r="B23" s="72"/>
-      <c r="C23" s="69"/>
-      <c r="D23" s="69"/>
-      <c r="E23" s="73"/>
-      <c r="F23" s="69"/>
-      <c r="G23" s="73"/>
-      <c r="H23" s="73"/>
-      <c r="I23" s="73"/>
-      <c r="J23" s="69"/>
-      <c r="K23" s="69"/>
+      <c r="A23" s="73"/>
+      <c r="B23" s="73"/>
+      <c r="C23" s="70"/>
+      <c r="D23" s="70"/>
+      <c r="E23" s="74"/>
+      <c r="F23" s="70"/>
+      <c r="G23" s="74"/>
+      <c r="H23" s="74"/>
+      <c r="I23" s="74"/>
+      <c r="J23" s="70"/>
+      <c r="K23" s="70"/>
     </row>
     <row r="24" ht="33" customHeight="1" spans="1:11">
-      <c r="A24" s="72"/>
-      <c r="B24" s="72"/>
-      <c r="C24" s="69"/>
-      <c r="D24" s="69"/>
-      <c r="E24" s="73"/>
-      <c r="F24" s="69"/>
-      <c r="G24" s="73"/>
-      <c r="H24" s="73"/>
-      <c r="I24" s="73"/>
-      <c r="J24" s="69"/>
-      <c r="K24" s="69"/>
+      <c r="A24" s="73"/>
+      <c r="B24" s="73"/>
+      <c r="C24" s="70"/>
+      <c r="D24" s="70"/>
+      <c r="E24" s="74"/>
+      <c r="F24" s="70"/>
+      <c r="G24" s="74"/>
+      <c r="H24" s="74"/>
+      <c r="I24" s="74"/>
+      <c r="J24" s="70"/>
+      <c r="K24" s="70"/>
     </row>
     <row r="25" ht="33" customHeight="1" spans="1:11">
-      <c r="A25" s="72"/>
-      <c r="B25" s="72"/>
-      <c r="C25" s="69"/>
-      <c r="D25" s="69"/>
-      <c r="E25" s="73"/>
-      <c r="F25" s="69"/>
-      <c r="G25" s="73"/>
-      <c r="H25" s="73"/>
-      <c r="I25" s="73"/>
-      <c r="J25" s="69"/>
-      <c r="K25" s="69"/>
+      <c r="A25" s="73"/>
+      <c r="B25" s="73"/>
+      <c r="C25" s="70"/>
+      <c r="D25" s="70"/>
+      <c r="E25" s="74"/>
+      <c r="F25" s="70"/>
+      <c r="G25" s="74"/>
+      <c r="H25" s="74"/>
+      <c r="I25" s="74"/>
+      <c r="J25" s="70"/>
+      <c r="K25" s="70"/>
     </row>
     <row r="26" ht="33" customHeight="1" spans="1:11">
-      <c r="A26" s="72"/>
-      <c r="B26" s="72"/>
-      <c r="C26" s="69"/>
-      <c r="D26" s="69"/>
-      <c r="E26" s="73"/>
-      <c r="F26" s="69"/>
-      <c r="G26" s="73"/>
-      <c r="H26" s="73"/>
-      <c r="I26" s="73"/>
-      <c r="J26" s="69"/>
-      <c r="K26" s="69"/>
+      <c r="A26" s="73"/>
+      <c r="B26" s="73"/>
+      <c r="C26" s="70"/>
+      <c r="D26" s="70"/>
+      <c r="E26" s="74"/>
+      <c r="F26" s="70"/>
+      <c r="G26" s="74"/>
+      <c r="H26" s="74"/>
+      <c r="I26" s="74"/>
+      <c r="J26" s="70"/>
+      <c r="K26" s="70"/>
     </row>
     <row r="27" ht="33" customHeight="1" spans="1:11">
-      <c r="A27" s="72"/>
-      <c r="B27" s="72"/>
-      <c r="C27" s="69"/>
-      <c r="D27" s="69"/>
-      <c r="E27" s="73"/>
-      <c r="F27" s="69"/>
-      <c r="G27" s="73"/>
-      <c r="H27" s="73"/>
-      <c r="I27" s="73"/>
-      <c r="J27" s="69"/>
-      <c r="K27" s="69"/>
+      <c r="A27" s="73"/>
+      <c r="B27" s="73"/>
+      <c r="C27" s="70"/>
+      <c r="D27" s="70"/>
+      <c r="E27" s="74"/>
+      <c r="F27" s="70"/>
+      <c r="G27" s="74"/>
+      <c r="H27" s="74"/>
+      <c r="I27" s="74"/>
+      <c r="J27" s="70"/>
+      <c r="K27" s="70"/>
     </row>
     <row r="28" ht="33" customHeight="1" spans="1:11">
-      <c r="A28" s="72"/>
-      <c r="B28" s="72"/>
-      <c r="C28" s="69"/>
-      <c r="D28" s="69"/>
-      <c r="E28" s="73"/>
-      <c r="F28" s="69"/>
-      <c r="G28" s="73"/>
-      <c r="H28" s="73"/>
-      <c r="I28" s="73"/>
-      <c r="J28" s="69"/>
-      <c r="K28" s="69"/>
+      <c r="A28" s="73"/>
+      <c r="B28" s="73"/>
+      <c r="C28" s="70"/>
+      <c r="D28" s="70"/>
+      <c r="E28" s="74"/>
+      <c r="F28" s="70"/>
+      <c r="G28" s="74"/>
+      <c r="H28" s="74"/>
+      <c r="I28" s="74"/>
+      <c r="J28" s="70"/>
+      <c r="K28" s="70"/>
     </row>
     <row r="29" ht="33" customHeight="1" spans="1:11">
-      <c r="A29" s="72"/>
-      <c r="B29" s="72"/>
-      <c r="C29" s="69"/>
-      <c r="D29" s="69"/>
-      <c r="E29" s="73"/>
-      <c r="F29" s="69"/>
-      <c r="G29" s="73"/>
-      <c r="H29" s="73"/>
-      <c r="I29" s="73"/>
-      <c r="J29" s="69"/>
-      <c r="K29" s="69"/>
+      <c r="A29" s="73"/>
+      <c r="B29" s="73"/>
+      <c r="C29" s="70"/>
+      <c r="D29" s="70"/>
+      <c r="E29" s="74"/>
+      <c r="F29" s="70"/>
+      <c r="G29" s="74"/>
+      <c r="H29" s="74"/>
+      <c r="I29" s="74"/>
+      <c r="J29" s="70"/>
+      <c r="K29" s="70"/>
     </row>
     <row r="30" ht="33" customHeight="1" spans="1:11">
-      <c r="A30" s="72"/>
-      <c r="B30" s="72"/>
-      <c r="C30" s="69"/>
-      <c r="D30" s="69"/>
-      <c r="E30" s="73"/>
-      <c r="F30" s="69"/>
-      <c r="G30" s="73"/>
-      <c r="H30" s="73"/>
-      <c r="I30" s="73"/>
-      <c r="J30" s="69"/>
-      <c r="K30" s="69"/>
+      <c r="A30" s="73"/>
+      <c r="B30" s="73"/>
+      <c r="C30" s="70"/>
+      <c r="D30" s="70"/>
+      <c r="E30" s="74"/>
+      <c r="F30" s="70"/>
+      <c r="G30" s="74"/>
+      <c r="H30" s="74"/>
+      <c r="I30" s="74"/>
+      <c r="J30" s="70"/>
+      <c r="K30" s="70"/>
     </row>
     <row r="31" ht="33" customHeight="1" spans="1:11">
-      <c r="A31" s="72"/>
-      <c r="B31" s="72"/>
-      <c r="C31" s="69"/>
-      <c r="D31" s="69"/>
-      <c r="E31" s="73"/>
-      <c r="F31" s="69"/>
-      <c r="G31" s="73"/>
-      <c r="H31" s="73"/>
-      <c r="I31" s="73"/>
-      <c r="J31" s="69"/>
-      <c r="K31" s="69"/>
+      <c r="A31" s="73"/>
+      <c r="B31" s="73"/>
+      <c r="C31" s="70"/>
+      <c r="D31" s="70"/>
+      <c r="E31" s="74"/>
+      <c r="F31" s="70"/>
+      <c r="G31" s="74"/>
+      <c r="H31" s="74"/>
+      <c r="I31" s="74"/>
+      <c r="J31" s="70"/>
+      <c r="K31" s="70"/>
     </row>
     <row r="32" ht="33" customHeight="1" spans="1:11">
-      <c r="A32" s="72"/>
-      <c r="B32" s="72"/>
-      <c r="C32" s="69"/>
-      <c r="D32" s="69"/>
-      <c r="E32" s="73"/>
-      <c r="F32" s="69"/>
-      <c r="G32" s="73"/>
-      <c r="H32" s="73"/>
-      <c r="I32" s="73"/>
-      <c r="J32" s="69"/>
-      <c r="K32" s="69"/>
+      <c r="A32" s="73"/>
+      <c r="B32" s="73"/>
+      <c r="C32" s="70"/>
+      <c r="D32" s="70"/>
+      <c r="E32" s="74"/>
+      <c r="F32" s="70"/>
+      <c r="G32" s="74"/>
+      <c r="H32" s="74"/>
+      <c r="I32" s="74"/>
+      <c r="J32" s="70"/>
+      <c r="K32" s="70"/>
     </row>
     <row r="33" ht="33" customHeight="1" spans="1:11">
-      <c r="A33" s="72"/>
-      <c r="B33" s="72"/>
-      <c r="C33" s="69"/>
-      <c r="D33" s="69"/>
-      <c r="E33" s="73"/>
-      <c r="F33" s="69"/>
-      <c r="G33" s="73"/>
-      <c r="H33" s="73"/>
-      <c r="I33" s="73"/>
-      <c r="J33" s="69"/>
-      <c r="K33" s="69"/>
+      <c r="A33" s="73"/>
+      <c r="B33" s="73"/>
+      <c r="C33" s="70"/>
+      <c r="D33" s="70"/>
+      <c r="E33" s="74"/>
+      <c r="F33" s="70"/>
+      <c r="G33" s="74"/>
+      <c r="H33" s="74"/>
+      <c r="I33" s="74"/>
+      <c r="J33" s="70"/>
+      <c r="K33" s="70"/>
     </row>
     <row r="34" ht="33" customHeight="1" spans="1:11">
-      <c r="A34" s="72"/>
-      <c r="B34" s="72"/>
-      <c r="C34" s="69"/>
-      <c r="D34" s="69"/>
-      <c r="E34" s="73"/>
-      <c r="F34" s="69"/>
-      <c r="G34" s="73"/>
-      <c r="H34" s="73"/>
-      <c r="I34" s="73"/>
-      <c r="J34" s="69"/>
-      <c r="K34" s="69"/>
+      <c r="A34" s="73"/>
+      <c r="B34" s="73"/>
+      <c r="C34" s="70"/>
+      <c r="D34" s="70"/>
+      <c r="E34" s="74"/>
+      <c r="F34" s="70"/>
+      <c r="G34" s="74"/>
+      <c r="H34" s="74"/>
+      <c r="I34" s="74"/>
+      <c r="J34" s="70"/>
+      <c r="K34" s="70"/>
     </row>
     <row r="35" ht="33" customHeight="1" spans="1:11">
-      <c r="A35" s="72"/>
-      <c r="B35" s="72"/>
-      <c r="C35" s="69"/>
-      <c r="E35" s="73"/>
-      <c r="F35" s="69"/>
-      <c r="G35" s="73"/>
-      <c r="H35" s="73"/>
-      <c r="I35" s="73"/>
-      <c r="J35" s="69"/>
-      <c r="K35" s="69"/>
+      <c r="A35" s="73"/>
+      <c r="B35" s="73"/>
+      <c r="C35" s="70"/>
+      <c r="E35" s="74"/>
+      <c r="F35" s="70"/>
+      <c r="G35" s="74"/>
+      <c r="H35" s="74"/>
+      <c r="I35" s="74"/>
+      <c r="J35" s="70"/>
+      <c r="K35" s="70"/>
     </row>
     <row r="36" ht="33" customHeight="1" spans="1:11">
-      <c r="A36" s="72"/>
-      <c r="B36" s="72"/>
-      <c r="C36" s="69"/>
-      <c r="D36" s="74"/>
-      <c r="E36" s="73"/>
-      <c r="F36" s="69"/>
-      <c r="G36" s="73"/>
-      <c r="H36" s="73"/>
-      <c r="I36" s="73"/>
-      <c r="J36" s="69"/>
-      <c r="K36" s="69"/>
+      <c r="A36" s="73"/>
+      <c r="B36" s="73"/>
+      <c r="C36" s="70"/>
+      <c r="D36" s="75"/>
+      <c r="E36" s="74"/>
+      <c r="F36" s="70"/>
+      <c r="G36" s="74"/>
+      <c r="H36" s="74"/>
+      <c r="I36" s="74"/>
+      <c r="J36" s="70"/>
+      <c r="K36" s="70"/>
     </row>
     <row r="37" ht="33" customHeight="1" spans="1:11">
-      <c r="A37" s="72"/>
-      <c r="B37" s="72"/>
-      <c r="C37" s="69"/>
-      <c r="D37" s="69"/>
-      <c r="E37" s="73"/>
-      <c r="F37" s="69"/>
-      <c r="G37" s="73"/>
-      <c r="H37" s="73"/>
-      <c r="I37" s="73"/>
-      <c r="J37" s="69"/>
-      <c r="K37" s="69"/>
+      <c r="A37" s="73"/>
+      <c r="B37" s="73"/>
+      <c r="C37" s="70"/>
+      <c r="D37" s="70"/>
+      <c r="E37" s="74"/>
+      <c r="F37" s="70"/>
+      <c r="G37" s="74"/>
+      <c r="H37" s="74"/>
+      <c r="I37" s="74"/>
+      <c r="J37" s="70"/>
+      <c r="K37" s="70"/>
     </row>
     <row r="38" ht="33" customHeight="1" spans="1:11">
-      <c r="A38" s="72"/>
-      <c r="B38" s="72"/>
-      <c r="C38" s="69"/>
-      <c r="D38" s="69"/>
-      <c r="E38" s="73"/>
-      <c r="F38" s="69"/>
-      <c r="G38" s="73"/>
-      <c r="H38" s="73"/>
-      <c r="I38" s="73"/>
-      <c r="J38" s="69"/>
-      <c r="K38" s="69"/>
+      <c r="A38" s="73"/>
+      <c r="B38" s="73"/>
+      <c r="C38" s="70"/>
+      <c r="D38" s="70"/>
+      <c r="E38" s="74"/>
+      <c r="F38" s="70"/>
+      <c r="G38" s="74"/>
+      <c r="H38" s="74"/>
+      <c r="I38" s="74"/>
+      <c r="J38" s="70"/>
+      <c r="K38" s="70"/>
     </row>
     <row r="39" ht="33" customHeight="1" spans="1:11">
-      <c r="A39" s="72"/>
-      <c r="B39" s="72"/>
-      <c r="C39" s="69"/>
-      <c r="D39" s="69"/>
-      <c r="E39" s="73"/>
-      <c r="F39" s="69"/>
-      <c r="G39" s="73"/>
-      <c r="H39" s="73"/>
-      <c r="I39" s="73"/>
-      <c r="J39" s="69"/>
-      <c r="K39" s="69"/>
+      <c r="A39" s="73"/>
+      <c r="B39" s="73"/>
+      <c r="C39" s="70"/>
+      <c r="D39" s="70"/>
+      <c r="E39" s="74"/>
+      <c r="F39" s="70"/>
+      <c r="G39" s="74"/>
+      <c r="H39" s="74"/>
+      <c r="I39" s="74"/>
+      <c r="J39" s="70"/>
+      <c r="K39" s="70"/>
     </row>
     <row r="40" ht="33" customHeight="1" spans="1:11">
-      <c r="A40" s="72"/>
-      <c r="B40" s="72"/>
-      <c r="C40" s="69"/>
-      <c r="D40" s="69"/>
-      <c r="E40" s="73"/>
-      <c r="F40" s="69"/>
-      <c r="G40" s="73"/>
-      <c r="H40" s="73"/>
-      <c r="I40" s="73"/>
-      <c r="J40" s="69"/>
-      <c r="K40" s="69"/>
+      <c r="A40" s="73"/>
+      <c r="B40" s="73"/>
+      <c r="C40" s="70"/>
+      <c r="D40" s="70"/>
+      <c r="E40" s="74"/>
+      <c r="F40" s="70"/>
+      <c r="G40" s="74"/>
+      <c r="H40" s="74"/>
+      <c r="I40" s="74"/>
+      <c r="J40" s="70"/>
+      <c r="K40" s="70"/>
     </row>
     <row r="41" ht="33" customHeight="1" spans="1:11">
-      <c r="A41" s="72"/>
-      <c r="B41" s="72"/>
-      <c r="C41" s="69"/>
-      <c r="D41" s="69"/>
-      <c r="E41" s="73"/>
-      <c r="F41" s="69"/>
-      <c r="G41" s="73"/>
-      <c r="H41" s="73"/>
-      <c r="I41" s="73"/>
-      <c r="J41" s="69"/>
-      <c r="K41" s="69"/>
+      <c r="A41" s="73"/>
+      <c r="B41" s="73"/>
+      <c r="C41" s="70"/>
+      <c r="D41" s="70"/>
+      <c r="E41" s="74"/>
+      <c r="F41" s="70"/>
+      <c r="G41" s="74"/>
+      <c r="H41" s="74"/>
+      <c r="I41" s="74"/>
+      <c r="J41" s="70"/>
+      <c r="K41" s="70"/>
     </row>
     <row r="42" ht="33" customHeight="1" spans="1:11">
-      <c r="A42" s="72"/>
-      <c r="B42" s="72"/>
-      <c r="C42" s="69"/>
-      <c r="D42" s="69"/>
-      <c r="E42" s="73"/>
-      <c r="F42" s="69"/>
-      <c r="G42" s="73"/>
-      <c r="H42" s="73"/>
-      <c r="I42" s="73"/>
-      <c r="J42" s="69"/>
-      <c r="K42" s="69"/>
+      <c r="A42" s="73"/>
+      <c r="B42" s="73"/>
+      <c r="C42" s="70"/>
+      <c r="D42" s="70"/>
+      <c r="E42" s="74"/>
+      <c r="F42" s="70"/>
+      <c r="G42" s="74"/>
+      <c r="H42" s="74"/>
+      <c r="I42" s="74"/>
+      <c r="J42" s="70"/>
+      <c r="K42" s="70"/>
     </row>
     <row r="43" ht="33" customHeight="1" spans="1:11">
-      <c r="A43" s="72"/>
-      <c r="B43" s="72"/>
-      <c r="C43" s="69"/>
-      <c r="D43" s="69"/>
-      <c r="E43" s="73"/>
-      <c r="F43" s="69"/>
-      <c r="G43" s="73"/>
-      <c r="H43" s="73"/>
-      <c r="I43" s="73"/>
-      <c r="J43" s="69"/>
-      <c r="K43" s="69"/>
+      <c r="A43" s="73"/>
+      <c r="B43" s="73"/>
+      <c r="C43" s="70"/>
+      <c r="D43" s="70"/>
+      <c r="E43" s="74"/>
+      <c r="F43" s="70"/>
+      <c r="G43" s="74"/>
+      <c r="H43" s="74"/>
+      <c r="I43" s="74"/>
+      <c r="J43" s="70"/>
+      <c r="K43" s="70"/>
     </row>
     <row r="44" ht="33" customHeight="1" spans="1:11">
-      <c r="A44" s="72"/>
-      <c r="B44" s="72"/>
-      <c r="C44" s="69"/>
-      <c r="D44" s="69"/>
-      <c r="E44" s="73"/>
-      <c r="F44" s="69"/>
-      <c r="G44" s="73"/>
-      <c r="H44" s="73"/>
-      <c r="I44" s="73"/>
-      <c r="J44" s="69"/>
-      <c r="K44" s="69"/>
+      <c r="A44" s="73"/>
+      <c r="B44" s="73"/>
+      <c r="C44" s="70"/>
+      <c r="D44" s="70"/>
+      <c r="E44" s="74"/>
+      <c r="F44" s="70"/>
+      <c r="G44" s="74"/>
+      <c r="H44" s="74"/>
+      <c r="I44" s="74"/>
+      <c r="J44" s="70"/>
+      <c r="K44" s="70"/>
     </row>
     <row r="45" ht="33" customHeight="1" spans="1:11">
-      <c r="A45" s="72"/>
-      <c r="B45" s="72"/>
-      <c r="C45" s="69"/>
-      <c r="D45" s="69"/>
-      <c r="E45" s="73"/>
-      <c r="F45" s="69"/>
-      <c r="G45" s="73"/>
-      <c r="H45" s="73"/>
-      <c r="I45" s="73"/>
-      <c r="J45" s="69"/>
-      <c r="K45" s="69"/>
+      <c r="A45" s="73"/>
+      <c r="B45" s="73"/>
+      <c r="C45" s="70"/>
+      <c r="D45" s="70"/>
+      <c r="E45" s="74"/>
+      <c r="F45" s="70"/>
+      <c r="G45" s="74"/>
+      <c r="H45" s="74"/>
+      <c r="I45" s="74"/>
+      <c r="J45" s="70"/>
+      <c r="K45" s="70"/>
     </row>
     <row r="46" ht="33" customHeight="1" spans="1:11">
-      <c r="A46" s="72"/>
-      <c r="B46" s="72"/>
-      <c r="C46" s="69"/>
-      <c r="D46" s="69"/>
-      <c r="E46" s="73"/>
-      <c r="F46" s="69"/>
-      <c r="G46" s="73"/>
-      <c r="H46" s="73"/>
-      <c r="I46" s="73"/>
-      <c r="J46" s="69"/>
-      <c r="K46" s="69"/>
+      <c r="A46" s="73"/>
+      <c r="B46" s="73"/>
+      <c r="C46" s="70"/>
+      <c r="D46" s="70"/>
+      <c r="E46" s="74"/>
+      <c r="F46" s="70"/>
+      <c r="G46" s="74"/>
+      <c r="H46" s="74"/>
+      <c r="I46" s="74"/>
+      <c r="J46" s="70"/>
+      <c r="K46" s="70"/>
     </row>
     <row r="47" ht="33" customHeight="1" spans="1:11">
-      <c r="A47" s="72"/>
-      <c r="B47" s="72"/>
-      <c r="C47" s="69"/>
-      <c r="D47" s="69"/>
-      <c r="E47" s="73"/>
-      <c r="F47" s="69"/>
-      <c r="G47" s="73"/>
-      <c r="H47" s="73"/>
-      <c r="I47" s="73"/>
-      <c r="J47" s="69"/>
-      <c r="K47" s="69"/>
+      <c r="A47" s="73"/>
+      <c r="B47" s="73"/>
+      <c r="C47" s="70"/>
+      <c r="D47" s="70"/>
+      <c r="E47" s="74"/>
+      <c r="F47" s="70"/>
+      <c r="G47" s="74"/>
+      <c r="H47" s="74"/>
+      <c r="I47" s="74"/>
+      <c r="J47" s="70"/>
+      <c r="K47" s="70"/>
     </row>
     <row r="48" ht="33" customHeight="1" spans="1:11">
-      <c r="A48" s="72"/>
-      <c r="B48" s="72"/>
-      <c r="C48" s="69"/>
-      <c r="D48" s="69"/>
-      <c r="E48" s="73"/>
-      <c r="F48" s="69"/>
-      <c r="G48" s="73"/>
-      <c r="H48" s="73"/>
-      <c r="I48" s="73"/>
-      <c r="J48" s="69"/>
-      <c r="K48" s="69"/>
+      <c r="A48" s="73"/>
+      <c r="B48" s="73"/>
+      <c r="C48" s="70"/>
+      <c r="D48" s="70"/>
+      <c r="E48" s="74"/>
+      <c r="F48" s="70"/>
+      <c r="G48" s="74"/>
+      <c r="H48" s="74"/>
+      <c r="I48" s="74"/>
+      <c r="J48" s="70"/>
+      <c r="K48" s="70"/>
     </row>
     <row r="49" ht="33" customHeight="1" spans="1:11">
-      <c r="A49" s="72"/>
-      <c r="B49" s="72"/>
-      <c r="C49" s="69"/>
-      <c r="D49" s="69"/>
-      <c r="E49" s="73"/>
-      <c r="F49" s="69"/>
-      <c r="G49" s="73"/>
-      <c r="H49" s="73"/>
-      <c r="I49" s="73"/>
-      <c r="J49" s="69"/>
-      <c r="K49" s="69"/>
+      <c r="A49" s="73"/>
+      <c r="B49" s="73"/>
+      <c r="C49" s="70"/>
+      <c r="D49" s="70"/>
+      <c r="E49" s="74"/>
+      <c r="F49" s="70"/>
+      <c r="G49" s="74"/>
+      <c r="H49" s="74"/>
+      <c r="I49" s="74"/>
+      <c r="J49" s="70"/>
+      <c r="K49" s="70"/>
     </row>
     <row r="50" ht="33" customHeight="1" spans="1:11">
-      <c r="A50" s="72"/>
-      <c r="B50" s="72"/>
-      <c r="C50" s="69"/>
-      <c r="D50" s="69"/>
-      <c r="E50" s="73"/>
-      <c r="F50" s="69"/>
-      <c r="G50" s="73"/>
-      <c r="H50" s="73"/>
-      <c r="I50" s="73"/>
-      <c r="J50" s="69"/>
-      <c r="K50" s="69"/>
+      <c r="A50" s="73"/>
+      <c r="B50" s="73"/>
+      <c r="C50" s="70"/>
+      <c r="D50" s="70"/>
+      <c r="E50" s="74"/>
+      <c r="F50" s="70"/>
+      <c r="G50" s="74"/>
+      <c r="H50" s="74"/>
+      <c r="I50" s="74"/>
+      <c r="J50" s="70"/>
+      <c r="K50" s="70"/>
     </row>
     <row r="51" ht="33" customHeight="1" spans="1:11">
-      <c r="A51" s="72"/>
-      <c r="B51" s="72"/>
-      <c r="C51" s="69"/>
-      <c r="D51" s="69"/>
-      <c r="E51" s="73"/>
-      <c r="F51" s="69"/>
-      <c r="G51" s="73"/>
-      <c r="H51" s="73"/>
-      <c r="I51" s="73"/>
-      <c r="J51" s="69"/>
-      <c r="K51" s="69"/>
+      <c r="A51" s="73"/>
+      <c r="B51" s="73"/>
+      <c r="C51" s="70"/>
+      <c r="D51" s="70"/>
+      <c r="E51" s="74"/>
+      <c r="F51" s="70"/>
+      <c r="G51" s="74"/>
+      <c r="H51" s="74"/>
+      <c r="I51" s="74"/>
+      <c r="J51" s="70"/>
+      <c r="K51" s="70"/>
     </row>
     <row r="52" ht="33" customHeight="1" spans="1:11">
-      <c r="A52" s="72"/>
-      <c r="B52" s="72"/>
-      <c r="C52" s="69"/>
+      <c r="A52" s="73"/>
+      <c r="B52" s="73"/>
+      <c r="C52" s="70"/>
     </row>
     <row r="53" ht="33" customHeight="1" spans="1:11">
-      <c r="A53" s="72"/>
-      <c r="B53" s="72"/>
-      <c r="C53" s="69"/>
+      <c r="A53" s="73"/>
+      <c r="B53" s="73"/>
+      <c r="C53" s="70"/>
     </row>
     <row r="54" ht="33" customHeight="1" spans="1:11">
-      <c r="A54" s="72"/>
-      <c r="B54" s="72"/>
-      <c r="C54" s="69"/>
+      <c r="A54" s="73"/>
+      <c r="B54" s="73"/>
+      <c r="C54" s="70"/>
     </row>
     <row r="55" ht="33" customHeight="1" spans="1:11">
-      <c r="A55" s="72"/>
-      <c r="B55" s="72"/>
-      <c r="C55" s="69"/>
+      <c r="A55" s="73"/>
+      <c r="B55" s="73"/>
+      <c r="C55" s="70"/>
     </row>
     <row r="56" ht="33" customHeight="1" spans="1:11">
-      <c r="A56" s="72"/>
-      <c r="B56" s="72"/>
-      <c r="C56" s="69"/>
+      <c r="A56" s="73"/>
+      <c r="B56" s="73"/>
+      <c r="C56" s="70"/>
     </row>
     <row r="57" ht="33" customHeight="1" spans="1:11">
-      <c r="A57" s="72"/>
-      <c r="B57" s="72"/>
-      <c r="C57" s="69"/>
+      <c r="A57" s="73"/>
+      <c r="B57" s="73"/>
+      <c r="C57" s="70"/>
     </row>
     <row r="58" ht="33" customHeight="1" spans="1:11">
-      <c r="A58" s="72"/>
-      <c r="B58" s="72"/>
-      <c r="C58" s="69"/>
+      <c r="A58" s="73"/>
+      <c r="B58" s="73"/>
+      <c r="C58" s="70"/>
     </row>
     <row r="59" ht="33" customHeight="1" spans="1:11">
-      <c r="A59" s="72"/>
-      <c r="B59" s="72"/>
-      <c r="C59" s="69"/>
+      <c r="A59" s="73"/>
+      <c r="B59" s="73"/>
+      <c r="C59" s="70"/>
     </row>
     <row r="60" ht="33" customHeight="1" spans="1:11">
-      <c r="A60" s="72"/>
-      <c r="B60" s="72"/>
-      <c r="C60" s="69"/>
+      <c r="A60" s="73"/>
+      <c r="B60" s="73"/>
+      <c r="C60" s="70"/>
     </row>
     <row r="61" ht="33" customHeight="1"/>
     <row r="62" ht="33" customHeight="1"/>
@@ -10286,47 +10237,47 @@
     <col min="1" max="1" width="15.7019230769231" customWidth="1"/>
     <col min="2" max="3" width="16.9903846153846" customWidth="1"/>
     <col min="4" max="4" width="19.7115384615385" customWidth="1"/>
-    <col min="5" max="5" width="18.5865384615385" style="39" customWidth="1"/>
+    <col min="5" max="5" width="18.5865384615385" style="40" customWidth="1"/>
     <col min="6" max="6" width="19.3846153846154" customWidth="1"/>
-    <col min="7" max="7" width="22.2692307692308" style="40" customWidth="1"/>
+    <col min="7" max="7" width="22.2692307692308" style="41" customWidth="1"/>
     <col min="8" max="8" width="73.5576923076923" customWidth="1"/>
     <col min="9" max="9" width="53.6826923076923" customWidth="1"/>
     <col min="10" max="10" width="18.1057692307692" customWidth="1"/>
     <col min="11" max="11" width="16.9807692307692" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="38" customFormat="1" ht="33" customHeight="1" spans="1:32">
-      <c r="A1" s="41" t="s">
+    <row r="1" s="39" customFormat="1" ht="33" customHeight="1" spans="1:32">
+      <c r="A1" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="42" t="s">
+      <c r="B1" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="42" t="s">
+      <c r="C1" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="42" t="s">
+      <c r="D1" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="42" t="s">
+      <c r="E1" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="42" t="s">
+      <c r="F1" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="42" t="s">
+      <c r="G1" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="42" t="s">
+      <c r="H1" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="42" t="s">
+      <c r="I1" s="43" t="s">
         <v>31</v>
       </c>
-      <c r="J1" s="42" t="s">
+      <c r="J1" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="K1" s="42" t="s">
+      <c r="K1" s="43" t="s">
         <v>11</v>
       </c>
     </row>
@@ -10334,25 +10285,25 @@
       <c r="A2" s="12"/>
       <c r="B2" s="12"/>
       <c r="C2" s="12"/>
-      <c r="D2" s="43" t="s">
+      <c r="D2" s="44" t="s">
         <v>80</v>
       </c>
-      <c r="E2" s="44">
+      <c r="E2" s="45">
         <v>3</v>
       </c>
-      <c r="F2" s="44" t="s">
+      <c r="F2" s="45" t="s">
         <v>81</v>
       </c>
-      <c r="G2" s="44">
+      <c r="G2" s="45">
         <v>1</v>
       </c>
-      <c r="H2" s="45" t="s">
+      <c r="H2" s="46" t="s">
         <v>82</v>
       </c>
-      <c r="I2" s="46" t="s">
+      <c r="I2" s="47" t="s">
         <v>83</v>
       </c>
-      <c r="J2" s="46"/>
+      <c r="J2" s="47"/>
       <c r="K2" s="12"/>
       <c r="L2" s="12"/>
       <c r="M2" s="12"/>
@@ -10380,25 +10331,25 @@
       <c r="A3" s="12"/>
       <c r="B3" s="12"/>
       <c r="C3" s="12"/>
-      <c r="D3" s="43" t="s">
+      <c r="D3" s="44" t="s">
         <v>80</v>
       </c>
-      <c r="E3" s="44">
+      <c r="E3" s="45">
         <v>3</v>
       </c>
-      <c r="F3" s="44" t="s">
+      <c r="F3" s="45" t="s">
         <v>84</v>
       </c>
-      <c r="G3" s="44">
+      <c r="G3" s="45">
         <v>2</v>
       </c>
-      <c r="H3" s="45" t="s">
+      <c r="H3" s="46" t="s">
         <v>85</v>
       </c>
-      <c r="I3" s="46" t="s">
+      <c r="I3" s="47" t="s">
         <v>86</v>
       </c>
-      <c r="J3" s="46"/>
+      <c r="J3" s="47"/>
       <c r="K3" s="12"/>
       <c r="L3" s="12"/>
       <c r="M3" s="12"/>
@@ -10426,25 +10377,25 @@
       <c r="A4" s="12"/>
       <c r="B4" s="12"/>
       <c r="C4" s="12"/>
-      <c r="D4" s="43" t="s">
+      <c r="D4" s="44" t="s">
         <v>80</v>
       </c>
-      <c r="E4" s="44">
+      <c r="E4" s="45">
         <v>3</v>
       </c>
-      <c r="F4" s="44" t="s">
+      <c r="F4" s="45" t="s">
         <v>87</v>
       </c>
-      <c r="G4" s="44">
+      <c r="G4" s="45">
         <v>3</v>
       </c>
-      <c r="H4" s="45" t="s">
+      <c r="H4" s="46" t="s">
         <v>88</v>
       </c>
-      <c r="I4" s="46" t="s">
+      <c r="I4" s="47" t="s">
         <v>86</v>
       </c>
-      <c r="J4" s="46"/>
+      <c r="J4" s="47"/>
       <c r="K4" s="12"/>
       <c r="L4" s="12"/>
       <c r="M4" s="12"/>
@@ -10472,25 +10423,25 @@
       <c r="A5" s="12"/>
       <c r="B5" s="12"/>
       <c r="C5" s="12"/>
-      <c r="D5" s="43" t="s">
+      <c r="D5" s="44" t="s">
         <v>80</v>
       </c>
-      <c r="E5" s="44">
+      <c r="E5" s="45">
         <v>3</v>
       </c>
-      <c r="F5" s="44" t="s">
+      <c r="F5" s="45" t="s">
         <v>89</v>
       </c>
-      <c r="G5" s="44">
+      <c r="G5" s="45">
         <v>4</v>
       </c>
-      <c r="H5" s="45" t="s">
+      <c r="H5" s="46" t="s">
         <v>90</v>
       </c>
-      <c r="I5" s="46" t="s">
+      <c r="I5" s="47" t="s">
         <v>91</v>
       </c>
-      <c r="J5" s="46"/>
+      <c r="J5" s="47"/>
       <c r="K5" s="12"/>
       <c r="L5" s="12"/>
       <c r="M5" s="12"/>
@@ -10518,25 +10469,25 @@
       <c r="A6" s="12"/>
       <c r="B6" s="12"/>
       <c r="C6" s="12"/>
-      <c r="D6" s="43" t="s">
+      <c r="D6" s="44" t="s">
         <v>92</v>
       </c>
-      <c r="E6" s="44">
+      <c r="E6" s="45">
         <v>4</v>
       </c>
-      <c r="F6" s="44" t="s">
+      <c r="F6" s="45" t="s">
         <v>81</v>
       </c>
-      <c r="G6" s="44">
+      <c r="G6" s="45">
         <v>1</v>
       </c>
-      <c r="H6" s="45" t="s">
+      <c r="H6" s="46" t="s">
         <v>82</v>
       </c>
-      <c r="I6" s="46" t="s">
+      <c r="I6" s="47" t="s">
         <v>83</v>
       </c>
-      <c r="J6" s="46"/>
+      <c r="J6" s="47"/>
       <c r="K6" s="12"/>
       <c r="L6" s="12"/>
       <c r="M6" s="12"/>
@@ -10564,25 +10515,25 @@
       <c r="A7" s="12"/>
       <c r="B7" s="12"/>
       <c r="C7" s="12"/>
-      <c r="D7" s="43" t="s">
+      <c r="D7" s="44" t="s">
         <v>92</v>
       </c>
-      <c r="E7" s="44">
+      <c r="E7" s="45">
         <v>4</v>
       </c>
-      <c r="F7" s="44" t="s">
+      <c r="F7" s="45" t="s">
         <v>84</v>
       </c>
-      <c r="G7" s="44">
+      <c r="G7" s="45">
         <v>2</v>
       </c>
-      <c r="H7" s="45" t="s">
+      <c r="H7" s="46" t="s">
         <v>85</v>
       </c>
-      <c r="I7" s="46" t="s">
+      <c r="I7" s="47" t="s">
         <v>86</v>
       </c>
-      <c r="J7" s="46"/>
+      <c r="J7" s="47"/>
       <c r="K7" s="12"/>
       <c r="L7" s="12"/>
       <c r="M7" s="12"/>
@@ -10610,25 +10561,25 @@
       <c r="A8" s="12"/>
       <c r="B8" s="12"/>
       <c r="C8" s="12"/>
-      <c r="D8" s="43" t="s">
+      <c r="D8" s="44" t="s">
         <v>92</v>
       </c>
-      <c r="E8" s="44">
+      <c r="E8" s="45">
         <v>4</v>
       </c>
-      <c r="F8" s="44" t="s">
+      <c r="F8" s="45" t="s">
         <v>87</v>
       </c>
-      <c r="G8" s="44">
+      <c r="G8" s="45">
         <v>3</v>
       </c>
-      <c r="H8" s="45" t="s">
+      <c r="H8" s="46" t="s">
         <v>88</v>
       </c>
-      <c r="I8" s="46" t="s">
+      <c r="I8" s="47" t="s">
         <v>86</v>
       </c>
-      <c r="J8" s="46"/>
+      <c r="J8" s="47"/>
       <c r="K8" s="12"/>
       <c r="L8" s="12"/>
       <c r="M8" s="12"/>
@@ -10656,25 +10607,25 @@
       <c r="A9" s="12"/>
       <c r="B9" s="12"/>
       <c r="C9" s="12"/>
-      <c r="D9" s="43" t="s">
+      <c r="D9" s="44" t="s">
         <v>92</v>
       </c>
-      <c r="E9" s="44">
+      <c r="E9" s="45">
         <v>4</v>
       </c>
-      <c r="F9" s="44" t="s">
+      <c r="F9" s="45" t="s">
         <v>89</v>
       </c>
-      <c r="G9" s="44">
+      <c r="G9" s="45">
         <v>4</v>
       </c>
-      <c r="H9" s="45" t="s">
+      <c r="H9" s="46" t="s">
         <v>90</v>
       </c>
-      <c r="I9" s="46" t="s">
+      <c r="I9" s="47" t="s">
         <v>91</v>
       </c>
-      <c r="J9" s="46"/>
+      <c r="J9" s="47"/>
       <c r="K9" s="12"/>
       <c r="L9" s="12"/>
       <c r="M9" s="12"/>
@@ -10702,25 +10653,25 @@
       <c r="A10" s="12"/>
       <c r="B10" s="12"/>
       <c r="C10" s="12"/>
-      <c r="D10" s="44" t="s">
+      <c r="D10" s="45" t="s">
         <v>93</v>
       </c>
-      <c r="E10" s="44">
+      <c r="E10" s="45">
         <v>2</v>
       </c>
-      <c r="F10" s="44" t="s">
+      <c r="F10" s="45" t="s">
         <v>81</v>
       </c>
-      <c r="G10" s="47">
+      <c r="G10" s="48">
         <v>1</v>
       </c>
-      <c r="H10" s="48" t="s">
+      <c r="H10" s="49" t="s">
         <v>94</v>
       </c>
-      <c r="I10" s="46" t="s">
+      <c r="I10" s="47" t="s">
         <v>95</v>
       </c>
-      <c r="J10" s="46"/>
+      <c r="J10" s="47"/>
       <c r="K10" s="12"/>
       <c r="L10" s="12"/>
       <c r="M10" s="12"/>
@@ -10748,25 +10699,25 @@
       <c r="A11" s="12"/>
       <c r="B11" s="12"/>
       <c r="C11" s="12"/>
-      <c r="D11" s="44" t="s">
+      <c r="D11" s="45" t="s">
         <v>93</v>
       </c>
-      <c r="E11" s="44">
+      <c r="E11" s="45">
         <v>2</v>
       </c>
-      <c r="F11" s="44" t="s">
+      <c r="F11" s="45" t="s">
         <v>84</v>
       </c>
-      <c r="G11" s="49">
+      <c r="G11" s="50">
         <v>2</v>
       </c>
-      <c r="H11" s="50" t="s">
+      <c r="H11" s="51" t="s">
         <v>96</v>
       </c>
-      <c r="I11" s="46" t="s">
+      <c r="I11" s="47" t="s">
         <v>95</v>
       </c>
-      <c r="J11" s="46"/>
+      <c r="J11" s="47"/>
       <c r="K11" s="12"/>
       <c r="L11" s="12"/>
       <c r="M11" s="12"/>
@@ -10794,25 +10745,25 @@
       <c r="A12" s="12"/>
       <c r="B12" s="12"/>
       <c r="C12" s="12"/>
-      <c r="D12" s="44" t="s">
+      <c r="D12" s="45" t="s">
         <v>93</v>
       </c>
-      <c r="E12" s="44">
+      <c r="E12" s="45">
         <v>2</v>
       </c>
-      <c r="F12" s="44" t="s">
+      <c r="F12" s="45" t="s">
         <v>87</v>
       </c>
-      <c r="G12" s="49">
+      <c r="G12" s="50">
         <v>3</v>
       </c>
-      <c r="H12" s="50" t="s">
+      <c r="H12" s="51" t="s">
         <v>97</v>
       </c>
-      <c r="I12" s="46" t="s">
+      <c r="I12" s="47" t="s">
         <v>95</v>
       </c>
-      <c r="J12" s="46"/>
+      <c r="J12" s="47"/>
       <c r="K12" s="12"/>
       <c r="L12" s="12"/>
       <c r="M12" s="12"/>
@@ -10840,25 +10791,25 @@
       <c r="A13" s="12"/>
       <c r="B13" s="12"/>
       <c r="C13" s="12"/>
-      <c r="D13" s="44" t="s">
+      <c r="D13" s="45" t="s">
         <v>93</v>
       </c>
-      <c r="E13" s="44">
+      <c r="E13" s="45">
         <v>2</v>
       </c>
-      <c r="F13" s="44" t="s">
+      <c r="F13" s="45" t="s">
         <v>89</v>
       </c>
-      <c r="G13" s="49">
+      <c r="G13" s="50">
         <v>4</v>
       </c>
-      <c r="H13" s="50" t="s">
+      <c r="H13" s="51" t="s">
         <v>98</v>
       </c>
-      <c r="I13" s="46" t="s">
+      <c r="I13" s="47" t="s">
         <v>95</v>
       </c>
-      <c r="J13" s="46"/>
+      <c r="J13" s="47"/>
       <c r="K13" s="12"/>
       <c r="L13" s="12"/>
       <c r="M13" s="12"/>
@@ -10886,25 +10837,25 @@
       <c r="A14" s="12"/>
       <c r="B14" s="12"/>
       <c r="C14" s="12"/>
-      <c r="D14" s="44" t="s">
+      <c r="D14" s="45" t="s">
         <v>99</v>
       </c>
-      <c r="E14" s="44">
+      <c r="E14" s="45">
         <v>1</v>
       </c>
-      <c r="F14" s="44" t="s">
+      <c r="F14" s="45" t="s">
         <v>81</v>
       </c>
-      <c r="G14" s="49">
+      <c r="G14" s="50">
         <v>1</v>
       </c>
-      <c r="H14" s="50" t="s">
+      <c r="H14" s="51" t="s">
         <v>100</v>
       </c>
-      <c r="I14" s="46" t="s">
+      <c r="I14" s="47" t="s">
         <v>95</v>
       </c>
-      <c r="J14" s="46"/>
+      <c r="J14" s="47"/>
       <c r="K14" s="12"/>
       <c r="L14" s="12"/>
       <c r="M14" s="12"/>
@@ -10932,25 +10883,25 @@
       <c r="A15" s="12"/>
       <c r="B15" s="12"/>
       <c r="C15" s="12"/>
-      <c r="D15" s="44" t="s">
+      <c r="D15" s="45" t="s">
         <v>99</v>
       </c>
-      <c r="E15" s="44">
+      <c r="E15" s="45">
         <v>1</v>
       </c>
-      <c r="F15" s="44" t="s">
+      <c r="F15" s="45" t="s">
         <v>84</v>
       </c>
-      <c r="G15" s="49">
+      <c r="G15" s="50">
         <v>2</v>
       </c>
-      <c r="H15" s="50" t="s">
+      <c r="H15" s="51" t="s">
         <v>101</v>
       </c>
-      <c r="I15" s="46" t="s">
+      <c r="I15" s="47" t="s">
         <v>95</v>
       </c>
-      <c r="J15" s="46"/>
+      <c r="J15" s="47"/>
       <c r="K15" s="12"/>
       <c r="L15" s="12"/>
       <c r="M15" s="12"/>
@@ -10978,25 +10929,25 @@
       <c r="A16" s="12"/>
       <c r="B16" s="12"/>
       <c r="C16" s="12"/>
-      <c r="D16" s="44" t="s">
+      <c r="D16" s="45" t="s">
         <v>99</v>
       </c>
-      <c r="E16" s="44">
+      <c r="E16" s="45">
         <v>1</v>
       </c>
-      <c r="F16" s="44" t="s">
+      <c r="F16" s="45" t="s">
         <v>87</v>
       </c>
-      <c r="G16" s="49">
+      <c r="G16" s="50">
         <v>3</v>
       </c>
-      <c r="H16" s="50" t="s">
+      <c r="H16" s="51" t="s">
         <v>102</v>
       </c>
-      <c r="I16" s="46" t="s">
+      <c r="I16" s="47" t="s">
         <v>95</v>
       </c>
-      <c r="J16" s="46"/>
+      <c r="J16" s="47"/>
       <c r="K16" s="12"/>
       <c r="L16" s="12"/>
       <c r="M16" s="12"/>
@@ -11024,25 +10975,25 @@
       <c r="A17" s="12"/>
       <c r="B17" s="12"/>
       <c r="C17" s="12"/>
-      <c r="D17" s="44" t="s">
+      <c r="D17" s="45" t="s">
         <v>99</v>
       </c>
-      <c r="E17" s="44">
+      <c r="E17" s="45">
         <v>1</v>
       </c>
-      <c r="F17" s="44" t="s">
+      <c r="F17" s="45" t="s">
         <v>89</v>
       </c>
-      <c r="G17" s="49">
+      <c r="G17" s="50">
         <v>4</v>
       </c>
-      <c r="H17" s="50" t="s">
+      <c r="H17" s="51" t="s">
         <v>103</v>
       </c>
-      <c r="I17" s="46" t="s">
+      <c r="I17" s="47" t="s">
         <v>95</v>
       </c>
-      <c r="J17" s="46"/>
+      <c r="J17" s="47"/>
       <c r="K17" s="12"/>
       <c r="L17" s="12"/>
       <c r="M17" s="12"/>
@@ -11075,106 +11026,97 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr codeName="评估因素规则库"/>
-  <dimension ref="A1:AE61"/>
+  <dimension ref="A1:Z61"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="97" zoomScaleNormal="97" topLeftCell="E1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A45" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="97" zoomScaleNormal="97" topLeftCell="D1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A46" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="J47" sqref="J47"/>
+      <selection pane="bottomLeft" activeCell="F49" sqref="F49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="18" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="8.58653846153846" style="18" customWidth="1"/>
-    <col min="2" max="2" width="11.2307692307692" style="18" customWidth="1"/>
-    <col min="3" max="3" width="7.92307692307692" style="18" customWidth="1"/>
-    <col min="4" max="4" width="20.375" style="18" customWidth="1"/>
-    <col min="5" max="5" width="14.7019230769231" style="18" customWidth="1"/>
-    <col min="6" max="6" width="18.5865384615385" style="18" customWidth="1"/>
-    <col min="7" max="7" width="32.6538461538462" style="18" customWidth="1"/>
-    <col min="8" max="8" width="28.875" style="19" customWidth="1"/>
-    <col min="9" max="9" width="55.8365384615385" style="18" customWidth="1"/>
-    <col min="10" max="10" width="56.4903846153846" style="18" customWidth="1"/>
-    <col min="11" max="11" width="34.8173076923077" style="18" customWidth="1"/>
-    <col min="12" max="12" width="14.3653846153846" style="18" customWidth="1"/>
+    <col min="1" max="1" width="20.375" style="18" customWidth="1"/>
+    <col min="2" max="2" width="14.7019230769231" style="18" customWidth="1"/>
+    <col min="3" max="3" width="18.5865384615385" style="18" customWidth="1"/>
+    <col min="4" max="4" width="32.6538461538462" style="18" customWidth="1"/>
+    <col min="5" max="5" width="28.875" style="19" customWidth="1"/>
+    <col min="6" max="6" width="55.8365384615385" style="18" customWidth="1"/>
+    <col min="7" max="7" width="56.4903846153846" style="18" customWidth="1"/>
+    <col min="8" max="8" width="34.8173076923077" style="18" customWidth="1"/>
+    <col min="9" max="9" width="14" style="18"/>
+    <col min="10" max="10" width="8.58653846153846" style="18" customWidth="1"/>
+    <col min="11" max="11" width="11.2307692307692" style="18" customWidth="1"/>
+    <col min="12" max="12" width="7.92307692307692" style="18" customWidth="1"/>
     <col min="13" max="16384" width="14" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" s="16" customFormat="1" ht="36" customHeight="1" spans="1:31">
+    <row r="1" s="16" customFormat="1" ht="36" customHeight="1" spans="1:26">
       <c r="A1" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="I1" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="K1" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="L1" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="21" t="s">
+    </row>
+    <row r="2" ht="31" spans="1:26">
+      <c r="A2" s="23" t="s">
+        <v>104</v>
+      </c>
+      <c r="B2" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="C2" s="24">
         <v>3</v>
       </c>
-      <c r="D1" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="E1" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="H1" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="I1" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="J1" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="L1" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="M1" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="N1" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="O1" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" ht="31" spans="1:31">
-      <c r="A2" s="23"/>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23" t="s">
-        <v>104</v>
-      </c>
-      <c r="E2" s="24" t="s">
-        <v>80</v>
-      </c>
-      <c r="F2" s="24">
-        <v>3</v>
+      <c r="D2" s="25" t="s">
+        <v>105</v>
+      </c>
+      <c r="E2" s="26" t="s">
+        <v>106</v>
+      </c>
+      <c r="F2" s="25" t="s">
+        <v>107</v>
       </c>
       <c r="G2" s="25" t="s">
-        <v>105</v>
-      </c>
-      <c r="H2" s="26" t="s">
-        <v>106</v>
-      </c>
-      <c r="I2" s="25" t="s">
-        <v>107</v>
-      </c>
-      <c r="J2" s="25" t="s">
         <v>108</v>
       </c>
-      <c r="K2" s="23" t="s">
+      <c r="H2" s="23" t="s">
         <v>109</v>
       </c>
+      <c r="I2" s="27"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="23"/>
       <c r="L2" s="23"/>
       <c r="M2" s="27"/>
       <c r="N2" s="27"/>
@@ -11190,40 +11132,35 @@
       <c r="X2" s="27"/>
       <c r="Y2" s="27"/>
       <c r="Z2" s="27"/>
-      <c r="AA2" s="27"/>
-      <c r="AB2" s="27"/>
-      <c r="AC2" s="27"/>
-      <c r="AD2" s="27"/>
-      <c r="AE2" s="27"/>
-    </row>
-    <row r="3" ht="31" spans="1:31">
-      <c r="A3" s="23"/>
-      <c r="B3" s="23"/>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23" t="s">
+    </row>
+    <row r="3" ht="31" spans="1:26">
+      <c r="A3" s="23" t="s">
         <v>104</v>
       </c>
-      <c r="E3" s="24" t="s">
+      <c r="B3" s="24" t="s">
         <v>80</v>
       </c>
-      <c r="F3" s="24">
+      <c r="C3" s="24">
         <v>3</v>
       </c>
+      <c r="D3" s="25" t="s">
+        <v>110</v>
+      </c>
+      <c r="E3" s="26" t="s">
+        <v>111</v>
+      </c>
+      <c r="F3" s="25" t="s">
+        <v>112</v>
+      </c>
       <c r="G3" s="25" t="s">
-        <v>110</v>
-      </c>
-      <c r="H3" s="26" t="s">
-        <v>111</v>
-      </c>
-      <c r="I3" s="25" t="s">
-        <v>112</v>
-      </c>
-      <c r="J3" s="25" t="s">
         <v>113</v>
       </c>
-      <c r="K3" s="23" t="s">
+      <c r="H3" s="23" t="s">
         <v>114</v>
       </c>
+      <c r="I3" s="27"/>
+      <c r="J3" s="23"/>
+      <c r="K3" s="23"/>
       <c r="L3" s="23"/>
       <c r="M3" s="27"/>
       <c r="N3" s="27"/>
@@ -11239,40 +11176,35 @@
       <c r="X3" s="27"/>
       <c r="Y3" s="27"/>
       <c r="Z3" s="27"/>
-      <c r="AA3" s="27"/>
-      <c r="AB3" s="27"/>
-      <c r="AC3" s="27"/>
-      <c r="AD3" s="27"/>
-      <c r="AE3" s="27"/>
-    </row>
-    <row r="4" ht="31" spans="1:31">
-      <c r="A4" s="23"/>
-      <c r="B4" s="23"/>
-      <c r="C4" s="23"/>
-      <c r="D4" s="23" t="s">
+    </row>
+    <row r="4" ht="31" spans="1:26">
+      <c r="A4" s="23" t="s">
         <v>104</v>
       </c>
-      <c r="E4" s="24" t="s">
+      <c r="B4" s="24" t="s">
         <v>80</v>
       </c>
-      <c r="F4" s="24">
+      <c r="C4" s="24">
         <v>3</v>
       </c>
+      <c r="D4" s="25" t="s">
+        <v>115</v>
+      </c>
+      <c r="E4" s="26" t="s">
+        <v>116</v>
+      </c>
+      <c r="F4" s="25" t="s">
+        <v>117</v>
+      </c>
       <c r="G4" s="25" t="s">
-        <v>115</v>
-      </c>
-      <c r="H4" s="26" t="s">
-        <v>116</v>
-      </c>
-      <c r="I4" s="25" t="s">
-        <v>117</v>
-      </c>
-      <c r="J4" s="25" t="s">
         <v>118</v>
       </c>
-      <c r="K4" s="23" t="s">
+      <c r="H4" s="23" t="s">
         <v>119</v>
       </c>
+      <c r="I4" s="27"/>
+      <c r="J4" s="23"/>
+      <c r="K4" s="23"/>
       <c r="L4" s="23"/>
       <c r="M4" s="27"/>
       <c r="N4" s="27"/>
@@ -11288,43 +11220,38 @@
       <c r="X4" s="27"/>
       <c r="Y4" s="27"/>
       <c r="Z4" s="27"/>
-      <c r="AA4" s="27"/>
-      <c r="AB4" s="27"/>
-      <c r="AC4" s="27"/>
-      <c r="AD4" s="27"/>
-      <c r="AE4" s="27"/>
-    </row>
-    <row r="5" ht="31" spans="1:31">
-      <c r="A5" s="23"/>
-      <c r="B5" s="23"/>
-      <c r="C5" s="23"/>
-      <c r="D5" s="23" t="s">
+    </row>
+    <row r="5" ht="31" spans="1:26">
+      <c r="A5" s="23" t="s">
         <v>104</v>
       </c>
-      <c r="E5" s="24" t="s">
+      <c r="B5" s="24" t="s">
         <v>92</v>
       </c>
-      <c r="F5" s="24">
+      <c r="C5" s="24">
         <v>4</v>
       </c>
+      <c r="D5" s="25" t="s">
+        <v>120</v>
+      </c>
+      <c r="E5" s="26" t="s">
+        <v>121</v>
+      </c>
+      <c r="F5" s="25" t="s">
+        <v>122</v>
+      </c>
       <c r="G5" s="25" t="s">
-        <v>120</v>
-      </c>
-      <c r="H5" s="26" t="s">
-        <v>121</v>
-      </c>
-      <c r="I5" s="25" t="s">
-        <v>122</v>
-      </c>
-      <c r="J5" s="25" t="s">
         <v>123</v>
       </c>
-      <c r="K5" s="23" t="s">
+      <c r="H5" s="23" t="s">
         <v>124</v>
       </c>
+      <c r="I5" s="28"/>
+      <c r="J5" s="23"/>
+      <c r="K5" s="23"/>
       <c r="L5" s="23"/>
-      <c r="M5" s="28"/>
-      <c r="N5" s="28"/>
+      <c r="M5" s="27"/>
+      <c r="N5" s="27"/>
       <c r="O5" s="27"/>
       <c r="P5" s="27"/>
       <c r="Q5" s="27"/>
@@ -11337,40 +11264,35 @@
       <c r="X5" s="27"/>
       <c r="Y5" s="27"/>
       <c r="Z5" s="27"/>
-      <c r="AA5" s="27"/>
-      <c r="AB5" s="27"/>
-      <c r="AC5" s="27"/>
-      <c r="AD5" s="27"/>
-      <c r="AE5" s="27"/>
-    </row>
-    <row r="6" ht="31" spans="1:31">
-      <c r="A6" s="23"/>
-      <c r="B6" s="23"/>
-      <c r="C6" s="23"/>
-      <c r="D6" s="23" t="s">
+    </row>
+    <row r="6" ht="31" spans="1:26">
+      <c r="A6" s="23" t="s">
         <v>104</v>
       </c>
-      <c r="E6" s="24" t="s">
+      <c r="B6" s="24" t="s">
         <v>92</v>
       </c>
-      <c r="F6" s="24">
+      <c r="C6" s="24">
         <v>4</v>
       </c>
+      <c r="D6" s="25" t="s">
+        <v>125</v>
+      </c>
+      <c r="E6" s="26" t="s">
+        <v>126</v>
+      </c>
+      <c r="F6" s="25" t="s">
+        <v>127</v>
+      </c>
       <c r="G6" s="25" t="s">
-        <v>125</v>
-      </c>
-      <c r="H6" s="26" t="s">
-        <v>126</v>
-      </c>
-      <c r="I6" s="25" t="s">
-        <v>127</v>
-      </c>
-      <c r="J6" s="25" t="s">
         <v>128</v>
       </c>
-      <c r="K6" s="23" t="s">
+      <c r="H6" s="23" t="s">
         <v>129</v>
       </c>
+      <c r="I6" s="27"/>
+      <c r="J6" s="23"/>
+      <c r="K6" s="23"/>
       <c r="L6" s="23"/>
       <c r="M6" s="27"/>
       <c r="N6" s="27"/>
@@ -11386,40 +11308,35 @@
       <c r="X6" s="27"/>
       <c r="Y6" s="27"/>
       <c r="Z6" s="27"/>
-      <c r="AA6" s="27"/>
-      <c r="AB6" s="27"/>
-      <c r="AC6" s="27"/>
-      <c r="AD6" s="27"/>
-      <c r="AE6" s="27"/>
-    </row>
-    <row r="7" ht="31" spans="1:31">
-      <c r="A7" s="23"/>
-      <c r="B7" s="23"/>
-      <c r="C7" s="23"/>
-      <c r="D7" s="23" t="s">
+    </row>
+    <row r="7" ht="31" spans="1:26">
+      <c r="A7" s="23" t="s">
         <v>104</v>
       </c>
-      <c r="E7" s="24" t="s">
+      <c r="B7" s="24" t="s">
         <v>92</v>
       </c>
-      <c r="F7" s="24">
+      <c r="C7" s="24">
         <v>4</v>
       </c>
+      <c r="D7" s="25" t="s">
+        <v>130</v>
+      </c>
+      <c r="E7" s="26" t="s">
+        <v>131</v>
+      </c>
+      <c r="F7" s="25" t="s">
+        <v>132</v>
+      </c>
       <c r="G7" s="25" t="s">
-        <v>130</v>
-      </c>
-      <c r="H7" s="26" t="s">
-        <v>131</v>
-      </c>
-      <c r="I7" s="25" t="s">
-        <v>132</v>
-      </c>
-      <c r="J7" s="25" t="s">
         <v>133</v>
       </c>
-      <c r="K7" s="23" t="s">
+      <c r="H7" s="23" t="s">
         <v>134</v>
       </c>
+      <c r="I7" s="27"/>
+      <c r="J7" s="23"/>
+      <c r="K7" s="23"/>
       <c r="L7" s="23"/>
       <c r="M7" s="27"/>
       <c r="N7" s="27"/>
@@ -11435,40 +11352,35 @@
       <c r="X7" s="27"/>
       <c r="Y7" s="27"/>
       <c r="Z7" s="27"/>
-      <c r="AA7" s="27"/>
-      <c r="AB7" s="27"/>
-      <c r="AC7" s="27"/>
-      <c r="AD7" s="27"/>
-      <c r="AE7" s="27"/>
-    </row>
-    <row r="8" ht="274" spans="1:31">
-      <c r="A8" s="23"/>
-      <c r="B8" s="23"/>
-      <c r="C8" s="23"/>
-      <c r="D8" s="23" t="s">
+    </row>
+    <row r="8" ht="274" spans="1:26">
+      <c r="A8" s="23" t="s">
         <v>104</v>
       </c>
-      <c r="E8" s="24" t="s">
+      <c r="B8" s="24" t="s">
         <v>93</v>
       </c>
-      <c r="F8" s="24">
+      <c r="C8" s="24">
         <v>2</v>
       </c>
+      <c r="D8" s="25" t="s">
+        <v>135</v>
+      </c>
+      <c r="E8" s="26" t="s">
+        <v>136</v>
+      </c>
+      <c r="F8" s="25" t="s">
+        <v>137</v>
+      </c>
       <c r="G8" s="25" t="s">
-        <v>135</v>
-      </c>
-      <c r="H8" s="26" t="s">
-        <v>136</v>
-      </c>
-      <c r="I8" s="25" t="s">
-        <v>137</v>
-      </c>
-      <c r="J8" s="25" t="s">
         <v>138</v>
       </c>
-      <c r="K8" s="23" t="s">
+      <c r="H8" s="23" t="s">
         <v>139</v>
       </c>
+      <c r="I8" s="27"/>
+      <c r="J8" s="23"/>
+      <c r="K8" s="23"/>
       <c r="L8" s="23"/>
       <c r="M8" s="27"/>
       <c r="N8" s="27"/>
@@ -11484,40 +11396,35 @@
       <c r="X8" s="27"/>
       <c r="Y8" s="27"/>
       <c r="Z8" s="27"/>
-      <c r="AA8" s="27"/>
-      <c r="AB8" s="27"/>
-      <c r="AC8" s="27"/>
-      <c r="AD8" s="27"/>
-      <c r="AE8" s="27"/>
-    </row>
-    <row r="9" ht="274" spans="1:31">
-      <c r="A9" s="23"/>
-      <c r="B9" s="23"/>
-      <c r="C9" s="23"/>
-      <c r="D9" s="23" t="s">
+    </row>
+    <row r="9" ht="274" spans="1:26">
+      <c r="A9" s="23" t="s">
         <v>104</v>
       </c>
-      <c r="E9" s="24" t="s">
+      <c r="B9" s="24" t="s">
         <v>93</v>
       </c>
-      <c r="F9" s="24">
+      <c r="C9" s="24">
         <v>2</v>
       </c>
+      <c r="D9" s="25" t="s">
+        <v>140</v>
+      </c>
+      <c r="E9" s="26" t="s">
+        <v>141</v>
+      </c>
+      <c r="F9" s="25" t="s">
+        <v>142</v>
+      </c>
       <c r="G9" s="25" t="s">
-        <v>140</v>
-      </c>
-      <c r="H9" s="26" t="s">
-        <v>141</v>
-      </c>
-      <c r="I9" s="25" t="s">
-        <v>142</v>
-      </c>
-      <c r="J9" s="25" t="s">
         <v>143</v>
       </c>
-      <c r="K9" s="23" t="s">
+      <c r="H9" s="23" t="s">
         <v>144</v>
       </c>
+      <c r="I9" s="27"/>
+      <c r="J9" s="23"/>
+      <c r="K9" s="23"/>
       <c r="L9" s="23"/>
       <c r="M9" s="27"/>
       <c r="N9" s="27"/>
@@ -11533,40 +11440,35 @@
       <c r="X9" s="27"/>
       <c r="Y9" s="27"/>
       <c r="Z9" s="27"/>
-      <c r="AA9" s="27"/>
-      <c r="AB9" s="27"/>
-      <c r="AC9" s="27"/>
-      <c r="AD9" s="27"/>
-      <c r="AE9" s="27"/>
-    </row>
-    <row r="10" ht="274" spans="1:31">
-      <c r="A10" s="23"/>
-      <c r="B10" s="23"/>
-      <c r="C10" s="23"/>
-      <c r="D10" s="23" t="s">
+    </row>
+    <row r="10" ht="274" spans="1:26">
+      <c r="A10" s="23" t="s">
         <v>104</v>
       </c>
-      <c r="E10" s="24" t="s">
+      <c r="B10" s="24" t="s">
         <v>93</v>
       </c>
-      <c r="F10" s="24">
+      <c r="C10" s="24">
         <v>2</v>
       </c>
+      <c r="D10" s="25" t="s">
+        <v>145</v>
+      </c>
+      <c r="E10" s="26" t="s">
+        <v>146</v>
+      </c>
+      <c r="F10" s="25" t="s">
+        <v>147</v>
+      </c>
       <c r="G10" s="25" t="s">
-        <v>145</v>
-      </c>
-      <c r="H10" s="26" t="s">
-        <v>146</v>
-      </c>
-      <c r="I10" s="25" t="s">
-        <v>147</v>
-      </c>
-      <c r="J10" s="25" t="s">
         <v>148</v>
       </c>
-      <c r="K10" s="23" t="s">
+      <c r="H10" s="23" t="s">
         <v>149</v>
       </c>
+      <c r="I10" s="27"/>
+      <c r="J10" s="23"/>
+      <c r="K10" s="23"/>
       <c r="L10" s="23"/>
       <c r="M10" s="27"/>
       <c r="N10" s="27"/>
@@ -11582,40 +11484,35 @@
       <c r="X10" s="27"/>
       <c r="Y10" s="27"/>
       <c r="Z10" s="27"/>
-      <c r="AA10" s="27"/>
-      <c r="AB10" s="27"/>
-      <c r="AC10" s="27"/>
-      <c r="AD10" s="27"/>
-      <c r="AE10" s="27"/>
-    </row>
-    <row r="11" ht="183" spans="1:31">
-      <c r="A11" s="23"/>
-      <c r="B11" s="23"/>
-      <c r="C11" s="23"/>
-      <c r="D11" s="23" t="s">
+    </row>
+    <row r="11" ht="183" spans="1:26">
+      <c r="A11" s="23" t="s">
         <v>104</v>
       </c>
-      <c r="E11" s="24" t="s">
+      <c r="B11" s="24" t="s">
         <v>93</v>
       </c>
-      <c r="F11" s="24">
+      <c r="C11" s="24">
         <v>2</v>
       </c>
+      <c r="D11" s="25" t="s">
+        <v>150</v>
+      </c>
+      <c r="E11" s="26" t="s">
+        <v>136</v>
+      </c>
+      <c r="F11" s="25" t="s">
+        <v>151</v>
+      </c>
       <c r="G11" s="25" t="s">
-        <v>150</v>
-      </c>
-      <c r="H11" s="26" t="s">
-        <v>136</v>
-      </c>
-      <c r="I11" s="25" t="s">
-        <v>151</v>
-      </c>
-      <c r="J11" s="25" t="s">
         <v>152</v>
       </c>
-      <c r="K11" s="23" t="s">
+      <c r="H11" s="23" t="s">
         <v>153</v>
       </c>
+      <c r="I11" s="27"/>
+      <c r="J11" s="23"/>
+      <c r="K11" s="23"/>
       <c r="L11" s="23"/>
       <c r="M11" s="27"/>
       <c r="N11" s="27"/>
@@ -11631,40 +11528,35 @@
       <c r="X11" s="27"/>
       <c r="Y11" s="27"/>
       <c r="Z11" s="27"/>
-      <c r="AA11" s="27"/>
-      <c r="AB11" s="27"/>
-      <c r="AC11" s="27"/>
-      <c r="AD11" s="27"/>
-      <c r="AE11" s="27"/>
-    </row>
-    <row r="12" ht="183" spans="1:31">
-      <c r="A12" s="23"/>
-      <c r="B12" s="23"/>
-      <c r="C12" s="23"/>
-      <c r="D12" s="23" t="s">
+    </row>
+    <row r="12" ht="183" spans="1:26">
+      <c r="A12" s="23" t="s">
         <v>104</v>
       </c>
-      <c r="E12" s="24" t="s">
+      <c r="B12" s="24" t="s">
         <v>93</v>
       </c>
-      <c r="F12" s="24">
+      <c r="C12" s="24">
         <v>2</v>
       </c>
+      <c r="D12" s="25" t="s">
+        <v>154</v>
+      </c>
+      <c r="E12" s="26" t="s">
+        <v>155</v>
+      </c>
+      <c r="F12" s="25" t="s">
+        <v>156</v>
+      </c>
       <c r="G12" s="25" t="s">
-        <v>154</v>
-      </c>
-      <c r="H12" s="26" t="s">
-        <v>155</v>
-      </c>
-      <c r="I12" s="25" t="s">
-        <v>156</v>
-      </c>
-      <c r="J12" s="25" t="s">
         <v>157</v>
       </c>
-      <c r="K12" s="23" t="s">
+      <c r="H12" s="23" t="s">
         <v>158</v>
       </c>
+      <c r="I12" s="27"/>
+      <c r="J12" s="23"/>
+      <c r="K12" s="23"/>
       <c r="L12" s="23"/>
       <c r="M12" s="27"/>
       <c r="N12" s="27"/>
@@ -11680,40 +11572,35 @@
       <c r="X12" s="27"/>
       <c r="Y12" s="27"/>
       <c r="Z12" s="27"/>
-      <c r="AA12" s="27"/>
-      <c r="AB12" s="27"/>
-      <c r="AC12" s="27"/>
-      <c r="AD12" s="27"/>
-      <c r="AE12" s="27"/>
-    </row>
-    <row r="13" ht="183" spans="1:31">
-      <c r="A13" s="23"/>
-      <c r="B13" s="23"/>
-      <c r="C13" s="23"/>
-      <c r="D13" s="23" t="s">
+    </row>
+    <row r="13" ht="183" spans="1:26">
+      <c r="A13" s="23" t="s">
         <v>104</v>
       </c>
-      <c r="E13" s="24" t="s">
+      <c r="B13" s="24" t="s">
         <v>93</v>
       </c>
-      <c r="F13" s="24">
+      <c r="C13" s="24">
         <v>2</v>
       </c>
+      <c r="D13" s="25" t="s">
+        <v>159</v>
+      </c>
+      <c r="E13" s="26" t="s">
+        <v>160</v>
+      </c>
+      <c r="F13" s="25" t="s">
+        <v>161</v>
+      </c>
       <c r="G13" s="25" t="s">
-        <v>159</v>
-      </c>
-      <c r="H13" s="26" t="s">
-        <v>160</v>
-      </c>
-      <c r="I13" s="25" t="s">
-        <v>161</v>
-      </c>
-      <c r="J13" s="25" t="s">
         <v>162</v>
       </c>
-      <c r="K13" s="23" t="s">
+      <c r="H13" s="23" t="s">
         <v>163</v>
       </c>
+      <c r="I13" s="27"/>
+      <c r="J13" s="23"/>
+      <c r="K13" s="23"/>
       <c r="L13" s="23"/>
       <c r="M13" s="27"/>
       <c r="N13" s="27"/>
@@ -11729,40 +11616,35 @@
       <c r="X13" s="27"/>
       <c r="Y13" s="27"/>
       <c r="Z13" s="27"/>
-      <c r="AA13" s="27"/>
-      <c r="AB13" s="27"/>
-      <c r="AC13" s="27"/>
-      <c r="AD13" s="27"/>
-      <c r="AE13" s="27"/>
-    </row>
-    <row r="14" ht="244" spans="1:31">
-      <c r="A14" s="23"/>
-      <c r="B14" s="23"/>
-      <c r="C14" s="23"/>
-      <c r="D14" s="23" t="s">
+    </row>
+    <row r="14" ht="244" spans="1:26">
+      <c r="A14" s="23" t="s">
         <v>104</v>
       </c>
-      <c r="E14" s="24" t="s">
+      <c r="B14" s="24" t="s">
         <v>93</v>
       </c>
-      <c r="F14" s="24">
+      <c r="C14" s="24">
         <v>2</v>
       </c>
+      <c r="D14" s="25" t="s">
+        <v>164</v>
+      </c>
+      <c r="E14" s="26" t="s">
+        <v>165</v>
+      </c>
+      <c r="F14" s="25" t="s">
+        <v>166</v>
+      </c>
       <c r="G14" s="25" t="s">
-        <v>164</v>
-      </c>
-      <c r="H14" s="26" t="s">
-        <v>165</v>
-      </c>
-      <c r="I14" s="25" t="s">
-        <v>166</v>
-      </c>
-      <c r="J14" s="25" t="s">
         <v>167</v>
       </c>
-      <c r="K14" s="23" t="s">
+      <c r="H14" s="23" t="s">
         <v>168</v>
       </c>
+      <c r="I14" s="27"/>
+      <c r="J14" s="23"/>
+      <c r="K14" s="23"/>
       <c r="L14" s="23"/>
       <c r="M14" s="27"/>
       <c r="N14" s="27"/>
@@ -11778,40 +11660,35 @@
       <c r="X14" s="27"/>
       <c r="Y14" s="27"/>
       <c r="Z14" s="27"/>
-      <c r="AA14" s="27"/>
-      <c r="AB14" s="27"/>
-      <c r="AC14" s="27"/>
-      <c r="AD14" s="27"/>
-      <c r="AE14" s="27"/>
-    </row>
-    <row r="15" ht="244" spans="1:31">
-      <c r="A15" s="23"/>
-      <c r="B15" s="23"/>
-      <c r="C15" s="23"/>
-      <c r="D15" s="23" t="s">
+    </row>
+    <row r="15" ht="244" spans="1:26">
+      <c r="A15" s="23" t="s">
         <v>104</v>
       </c>
-      <c r="E15" s="24" t="s">
+      <c r="B15" s="24" t="s">
         <v>93</v>
       </c>
-      <c r="F15" s="24">
+      <c r="C15" s="24">
         <v>2</v>
       </c>
+      <c r="D15" s="25" t="s">
+        <v>169</v>
+      </c>
+      <c r="E15" s="26" t="s">
+        <v>170</v>
+      </c>
+      <c r="F15" s="25" t="s">
+        <v>171</v>
+      </c>
       <c r="G15" s="25" t="s">
-        <v>169</v>
-      </c>
-      <c r="H15" s="26" t="s">
-        <v>170</v>
-      </c>
-      <c r="I15" s="25" t="s">
-        <v>171</v>
-      </c>
-      <c r="J15" s="25" t="s">
         <v>172</v>
       </c>
-      <c r="K15" s="23" t="s">
+      <c r="H15" s="23" t="s">
         <v>173</v>
       </c>
+      <c r="I15" s="27"/>
+      <c r="J15" s="23"/>
+      <c r="K15" s="23"/>
       <c r="L15" s="23"/>
       <c r="M15" s="27"/>
       <c r="N15" s="27"/>
@@ -11827,40 +11704,35 @@
       <c r="X15" s="27"/>
       <c r="Y15" s="27"/>
       <c r="Z15" s="27"/>
-      <c r="AA15" s="27"/>
-      <c r="AB15" s="27"/>
-      <c r="AC15" s="27"/>
-      <c r="AD15" s="27"/>
-      <c r="AE15" s="27"/>
-    </row>
-    <row r="16" ht="240" customHeight="1" spans="1:31">
-      <c r="A16" s="23"/>
-      <c r="B16" s="23"/>
-      <c r="C16" s="23"/>
-      <c r="D16" s="23" t="s">
+    </row>
+    <row r="16" ht="240" customHeight="1" spans="1:26">
+      <c r="A16" s="23" t="s">
         <v>104</v>
       </c>
-      <c r="E16" s="24" t="s">
+      <c r="B16" s="24" t="s">
         <v>93</v>
       </c>
-      <c r="F16" s="24">
+      <c r="C16" s="24">
         <v>2</v>
       </c>
+      <c r="D16" s="25" t="s">
+        <v>174</v>
+      </c>
+      <c r="E16" s="26" t="s">
+        <v>175</v>
+      </c>
+      <c r="F16" s="25" t="s">
+        <v>176</v>
+      </c>
       <c r="G16" s="25" t="s">
-        <v>174</v>
-      </c>
-      <c r="H16" s="26" t="s">
-        <v>175</v>
-      </c>
-      <c r="I16" s="25" t="s">
-        <v>176</v>
-      </c>
-      <c r="J16" s="25" t="s">
         <v>177</v>
       </c>
-      <c r="K16" s="23" t="s">
+      <c r="H16" s="23" t="s">
         <v>178</v>
       </c>
+      <c r="I16" s="27"/>
+      <c r="J16" s="23"/>
+      <c r="K16" s="23"/>
       <c r="L16" s="23"/>
       <c r="M16" s="27"/>
       <c r="N16" s="27"/>
@@ -11876,40 +11748,35 @@
       <c r="X16" s="27"/>
       <c r="Y16" s="27"/>
       <c r="Z16" s="27"/>
-      <c r="AA16" s="27"/>
-      <c r="AB16" s="27"/>
-      <c r="AC16" s="27"/>
-      <c r="AD16" s="27"/>
-      <c r="AE16" s="27"/>
-    </row>
-    <row r="17" ht="233" customHeight="1" spans="1:31">
-      <c r="A17" s="23"/>
-      <c r="B17" s="23"/>
-      <c r="C17" s="23"/>
-      <c r="D17" s="23" t="s">
+    </row>
+    <row r="17" ht="233" customHeight="1" spans="1:26">
+      <c r="A17" s="23" t="s">
         <v>104</v>
       </c>
-      <c r="E17" s="29" t="s">
+      <c r="B17" s="29" t="s">
         <v>99</v>
       </c>
-      <c r="F17" s="24">
+      <c r="C17" s="24">
         <v>1</v>
       </c>
+      <c r="D17" s="25" t="s">
+        <v>179</v>
+      </c>
+      <c r="E17" s="26" t="s">
+        <v>180</v>
+      </c>
+      <c r="F17" s="25" t="s">
+        <v>181</v>
+      </c>
       <c r="G17" s="25" t="s">
-        <v>179</v>
-      </c>
-      <c r="H17" s="26" t="s">
-        <v>180</v>
-      </c>
-      <c r="I17" s="25" t="s">
-        <v>181</v>
-      </c>
-      <c r="J17" s="25" t="s">
         <v>182</v>
       </c>
-      <c r="K17" s="23" t="s">
+      <c r="H17" s="23" t="s">
         <v>183</v>
       </c>
+      <c r="I17" s="27"/>
+      <c r="J17" s="23"/>
+      <c r="K17" s="23"/>
       <c r="L17" s="23"/>
       <c r="M17" s="27"/>
       <c r="N17" s="27"/>
@@ -11925,40 +11792,35 @@
       <c r="X17" s="27"/>
       <c r="Y17" s="27"/>
       <c r="Z17" s="27"/>
-      <c r="AA17" s="27"/>
-      <c r="AB17" s="27"/>
-      <c r="AC17" s="27"/>
-      <c r="AD17" s="27"/>
-      <c r="AE17" s="27"/>
-    </row>
-    <row r="18" ht="152" spans="1:31">
-      <c r="A18" s="23"/>
-      <c r="B18" s="23"/>
-      <c r="C18" s="23"/>
-      <c r="D18" s="23" t="s">
+    </row>
+    <row r="18" ht="152" spans="1:26">
+      <c r="A18" s="23" t="s">
         <v>104</v>
       </c>
-      <c r="E18" s="29" t="s">
+      <c r="B18" s="29" t="s">
         <v>99</v>
       </c>
-      <c r="F18" s="24">
+      <c r="C18" s="24">
         <v>1</v>
       </c>
+      <c r="D18" s="25" t="s">
+        <v>184</v>
+      </c>
+      <c r="E18" s="26" t="s">
+        <v>185</v>
+      </c>
+      <c r="F18" s="25" t="s">
+        <v>186</v>
+      </c>
       <c r="G18" s="25" t="s">
-        <v>184</v>
-      </c>
-      <c r="H18" s="26" t="s">
-        <v>185</v>
-      </c>
-      <c r="I18" s="25" t="s">
-        <v>186</v>
-      </c>
-      <c r="J18" s="25" t="s">
         <v>187</v>
       </c>
-      <c r="K18" s="23" t="s">
+      <c r="H18" s="23" t="s">
         <v>188</v>
       </c>
+      <c r="I18" s="27"/>
+      <c r="J18" s="23"/>
+      <c r="K18" s="23"/>
       <c r="L18" s="23"/>
       <c r="M18" s="27"/>
       <c r="N18" s="27"/>
@@ -11974,40 +11836,35 @@
       <c r="X18" s="27"/>
       <c r="Y18" s="27"/>
       <c r="Z18" s="27"/>
-      <c r="AA18" s="27"/>
-      <c r="AB18" s="27"/>
-      <c r="AC18" s="27"/>
-      <c r="AD18" s="27"/>
-      <c r="AE18" s="27"/>
-    </row>
-    <row r="19" ht="152" spans="1:31">
-      <c r="A19" s="23"/>
-      <c r="B19" s="23"/>
-      <c r="C19" s="23"/>
-      <c r="D19" s="23" t="s">
+    </row>
+    <row r="19" ht="152" spans="1:26">
+      <c r="A19" s="23" t="s">
         <v>104</v>
       </c>
-      <c r="E19" s="29" t="s">
+      <c r="B19" s="29" t="s">
         <v>99</v>
       </c>
-      <c r="F19" s="24">
+      <c r="C19" s="24">
         <v>1</v>
       </c>
+      <c r="D19" s="25" t="s">
+        <v>189</v>
+      </c>
+      <c r="E19" s="26" t="s">
+        <v>190</v>
+      </c>
+      <c r="F19" s="25" t="s">
+        <v>191</v>
+      </c>
       <c r="G19" s="25" t="s">
-        <v>189</v>
-      </c>
-      <c r="H19" s="26" t="s">
-        <v>190</v>
-      </c>
-      <c r="I19" s="25" t="s">
-        <v>191</v>
-      </c>
-      <c r="J19" s="25" t="s">
         <v>192</v>
       </c>
-      <c r="K19" s="23" t="s">
+      <c r="H19" s="23" t="s">
         <v>193</v>
       </c>
+      <c r="I19" s="27"/>
+      <c r="J19" s="23"/>
+      <c r="K19" s="23"/>
       <c r="L19" s="23"/>
       <c r="M19" s="27"/>
       <c r="N19" s="27"/>
@@ -12023,40 +11880,35 @@
       <c r="X19" s="27"/>
       <c r="Y19" s="27"/>
       <c r="Z19" s="27"/>
-      <c r="AA19" s="27"/>
-      <c r="AB19" s="27"/>
-      <c r="AC19" s="27"/>
-      <c r="AD19" s="27"/>
-      <c r="AE19" s="27"/>
-    </row>
-    <row r="20" ht="122" spans="1:31">
-      <c r="A20" s="23"/>
-      <c r="B20" s="23"/>
-      <c r="C20" s="23"/>
-      <c r="D20" s="23" t="s">
+    </row>
+    <row r="20" ht="122" spans="1:26">
+      <c r="A20" s="23" t="s">
         <v>104</v>
       </c>
-      <c r="E20" s="29" t="s">
+      <c r="B20" s="29" t="s">
         <v>99</v>
       </c>
-      <c r="F20" s="24">
+      <c r="C20" s="24">
         <v>1</v>
       </c>
+      <c r="D20" s="25" t="s">
+        <v>194</v>
+      </c>
+      <c r="E20" s="26" t="s">
+        <v>195</v>
+      </c>
+      <c r="F20" s="25" t="s">
+        <v>196</v>
+      </c>
       <c r="G20" s="25" t="s">
-        <v>194</v>
-      </c>
-      <c r="H20" s="26" t="s">
-        <v>195</v>
-      </c>
-      <c r="I20" s="25" t="s">
-        <v>196</v>
-      </c>
-      <c r="J20" s="25" t="s">
         <v>197</v>
       </c>
-      <c r="K20" s="23" t="s">
+      <c r="H20" s="23" t="s">
         <v>198</v>
       </c>
+      <c r="I20" s="27"/>
+      <c r="J20" s="23"/>
+      <c r="K20" s="23"/>
       <c r="L20" s="23"/>
       <c r="M20" s="27"/>
       <c r="N20" s="27"/>
@@ -12072,40 +11924,35 @@
       <c r="X20" s="27"/>
       <c r="Y20" s="27"/>
       <c r="Z20" s="27"/>
-      <c r="AA20" s="27"/>
-      <c r="AB20" s="27"/>
-      <c r="AC20" s="27"/>
-      <c r="AD20" s="27"/>
-      <c r="AE20" s="27"/>
-    </row>
-    <row r="21" ht="122" spans="1:31">
-      <c r="A21" s="23"/>
-      <c r="B21" s="23"/>
-      <c r="C21" s="23"/>
-      <c r="D21" s="23" t="s">
+    </row>
+    <row r="21" ht="122" spans="1:26">
+      <c r="A21" s="23" t="s">
         <v>104</v>
       </c>
-      <c r="E21" s="29" t="s">
+      <c r="B21" s="29" t="s">
         <v>99</v>
       </c>
-      <c r="F21" s="24">
+      <c r="C21" s="24">
         <v>1</v>
       </c>
+      <c r="D21" s="25" t="s">
+        <v>199</v>
+      </c>
+      <c r="E21" s="26" t="s">
+        <v>200</v>
+      </c>
+      <c r="F21" s="25" t="s">
+        <v>201</v>
+      </c>
       <c r="G21" s="25" t="s">
-        <v>199</v>
-      </c>
-      <c r="H21" s="26" t="s">
-        <v>200</v>
-      </c>
-      <c r="I21" s="25" t="s">
-        <v>201</v>
-      </c>
-      <c r="J21" s="25" t="s">
         <v>202</v>
       </c>
-      <c r="K21" s="23" t="s">
+      <c r="H21" s="23" t="s">
         <v>203</v>
       </c>
+      <c r="I21" s="27"/>
+      <c r="J21" s="23"/>
+      <c r="K21" s="23"/>
       <c r="L21" s="23"/>
       <c r="M21" s="27"/>
       <c r="N21" s="27"/>
@@ -12121,40 +11968,35 @@
       <c r="X21" s="27"/>
       <c r="Y21" s="27"/>
       <c r="Z21" s="27"/>
-      <c r="AA21" s="27"/>
-      <c r="AB21" s="27"/>
-      <c r="AC21" s="27"/>
-      <c r="AD21" s="27"/>
-      <c r="AE21" s="27"/>
-    </row>
-    <row r="22" ht="122" spans="1:31">
-      <c r="A22" s="23"/>
-      <c r="B22" s="23"/>
-      <c r="C22" s="23"/>
-      <c r="D22" s="23" t="s">
+    </row>
+    <row r="22" ht="122" spans="1:26">
+      <c r="A22" s="23" t="s">
         <v>104</v>
       </c>
-      <c r="E22" s="29" t="s">
+      <c r="B22" s="29" t="s">
         <v>99</v>
       </c>
-      <c r="F22" s="24">
+      <c r="C22" s="24">
         <v>1</v>
       </c>
+      <c r="D22" s="25" t="s">
+        <v>204</v>
+      </c>
+      <c r="E22" s="26" t="s">
+        <v>205</v>
+      </c>
+      <c r="F22" s="25" t="s">
+        <v>206</v>
+      </c>
       <c r="G22" s="25" t="s">
-        <v>204</v>
-      </c>
-      <c r="H22" s="26" t="s">
-        <v>205</v>
-      </c>
-      <c r="I22" s="25" t="s">
-        <v>206</v>
-      </c>
-      <c r="J22" s="25" t="s">
         <v>207</v>
       </c>
-      <c r="K22" s="23" t="s">
+      <c r="H22" s="23" t="s">
         <v>208</v>
       </c>
+      <c r="I22" s="27"/>
+      <c r="J22" s="23"/>
+      <c r="K22" s="23"/>
       <c r="L22" s="23"/>
       <c r="M22" s="27"/>
       <c r="N22" s="27"/>
@@ -12170,40 +12012,35 @@
       <c r="X22" s="27"/>
       <c r="Y22" s="27"/>
       <c r="Z22" s="27"/>
-      <c r="AA22" s="27"/>
-      <c r="AB22" s="27"/>
-      <c r="AC22" s="27"/>
-      <c r="AD22" s="27"/>
-      <c r="AE22" s="27"/>
-    </row>
-    <row r="23" ht="122" spans="1:31">
-      <c r="A23" s="23"/>
-      <c r="B23" s="23"/>
-      <c r="C23" s="23"/>
-      <c r="D23" s="23" t="s">
+    </row>
+    <row r="23" ht="122" spans="1:26">
+      <c r="A23" s="23" t="s">
         <v>104</v>
       </c>
-      <c r="E23" s="29" t="s">
+      <c r="B23" s="29" t="s">
         <v>99</v>
       </c>
-      <c r="F23" s="24">
+      <c r="C23" s="24">
         <v>1</v>
       </c>
+      <c r="D23" s="25" t="s">
+        <v>209</v>
+      </c>
+      <c r="E23" s="26" t="s">
+        <v>210</v>
+      </c>
+      <c r="F23" s="25" t="s">
+        <v>211</v>
+      </c>
       <c r="G23" s="25" t="s">
-        <v>209</v>
-      </c>
-      <c r="H23" s="26" t="s">
-        <v>210</v>
-      </c>
-      <c r="I23" s="25" t="s">
-        <v>211</v>
-      </c>
-      <c r="J23" s="25" t="s">
         <v>212</v>
       </c>
-      <c r="K23" s="23" t="s">
+      <c r="H23" s="23" t="s">
         <v>213</v>
       </c>
+      <c r="I23" s="27"/>
+      <c r="J23" s="23"/>
+      <c r="K23" s="23"/>
       <c r="L23" s="23"/>
       <c r="M23" s="27"/>
       <c r="N23" s="27"/>
@@ -12219,40 +12056,35 @@
       <c r="X23" s="27"/>
       <c r="Y23" s="27"/>
       <c r="Z23" s="27"/>
-      <c r="AA23" s="27"/>
-      <c r="AB23" s="27"/>
-      <c r="AC23" s="27"/>
-      <c r="AD23" s="27"/>
-      <c r="AE23" s="27"/>
-    </row>
-    <row r="24" ht="122" spans="1:31">
-      <c r="A24" s="23"/>
-      <c r="B24" s="23"/>
-      <c r="C24" s="23"/>
-      <c r="D24" s="23" t="s">
+    </row>
+    <row r="24" ht="122" spans="1:26">
+      <c r="A24" s="23" t="s">
         <v>104</v>
       </c>
-      <c r="E24" s="29" t="s">
+      <c r="B24" s="29" t="s">
         <v>99</v>
       </c>
-      <c r="F24" s="24">
+      <c r="C24" s="24">
         <v>1</v>
       </c>
+      <c r="D24" s="25" t="s">
+        <v>214</v>
+      </c>
+      <c r="E24" s="26" t="s">
+        <v>215</v>
+      </c>
+      <c r="F24" s="25" t="s">
+        <v>216</v>
+      </c>
       <c r="G24" s="25" t="s">
-        <v>214</v>
-      </c>
-      <c r="H24" s="26" t="s">
-        <v>215</v>
-      </c>
-      <c r="I24" s="25" t="s">
-        <v>216</v>
-      </c>
-      <c r="J24" s="25" t="s">
         <v>217</v>
       </c>
-      <c r="K24" s="23" t="s">
+      <c r="H24" s="23" t="s">
         <v>218</v>
       </c>
+      <c r="I24" s="27"/>
+      <c r="J24" s="23"/>
+      <c r="K24" s="23"/>
       <c r="L24" s="23"/>
       <c r="M24" s="27"/>
       <c r="N24" s="27"/>
@@ -12268,40 +12100,35 @@
       <c r="X24" s="27"/>
       <c r="Y24" s="27"/>
       <c r="Z24" s="27"/>
-      <c r="AA24" s="27"/>
-      <c r="AB24" s="27"/>
-      <c r="AC24" s="27"/>
-      <c r="AD24" s="27"/>
-      <c r="AE24" s="27"/>
-    </row>
-    <row r="25" ht="122" spans="1:31">
-      <c r="A25" s="23"/>
-      <c r="B25" s="23"/>
-      <c r="C25" s="23"/>
-      <c r="D25" s="23" t="s">
+    </row>
+    <row r="25" ht="122" spans="1:26">
+      <c r="A25" s="23" t="s">
         <v>104</v>
       </c>
-      <c r="E25" s="29" t="s">
+      <c r="B25" s="29" t="s">
         <v>99</v>
       </c>
-      <c r="F25" s="24">
+      <c r="C25" s="24">
         <v>1</v>
       </c>
+      <c r="D25" s="25" t="s">
+        <v>219</v>
+      </c>
+      <c r="E25" s="26" t="s">
+        <v>220</v>
+      </c>
+      <c r="F25" s="25" t="s">
+        <v>221</v>
+      </c>
       <c r="G25" s="25" t="s">
-        <v>219</v>
-      </c>
-      <c r="H25" s="26" t="s">
-        <v>220</v>
-      </c>
-      <c r="I25" s="25" t="s">
-        <v>221</v>
-      </c>
-      <c r="J25" s="25" t="s">
         <v>222</v>
       </c>
-      <c r="K25" s="23" t="s">
+      <c r="H25" s="23" t="s">
         <v>223</v>
       </c>
+      <c r="I25" s="27"/>
+      <c r="J25" s="23"/>
+      <c r="K25" s="23"/>
       <c r="L25" s="23"/>
       <c r="M25" s="27"/>
       <c r="N25" s="27"/>
@@ -12317,40 +12144,35 @@
       <c r="X25" s="27"/>
       <c r="Y25" s="27"/>
       <c r="Z25" s="27"/>
-      <c r="AA25" s="27"/>
-      <c r="AB25" s="27"/>
-      <c r="AC25" s="27"/>
-      <c r="AD25" s="27"/>
-      <c r="AE25" s="27"/>
-    </row>
-    <row r="26" ht="61" spans="1:31">
-      <c r="A26" s="23"/>
-      <c r="B26" s="23"/>
-      <c r="C26" s="23"/>
-      <c r="D26" s="23" t="s">
+    </row>
+    <row r="26" ht="61" spans="1:26">
+      <c r="A26" s="23" t="s">
         <v>104</v>
       </c>
-      <c r="E26" s="29" t="s">
+      <c r="B26" s="29" t="s">
         <v>99</v>
       </c>
-      <c r="F26" s="24">
+      <c r="C26" s="24">
         <v>1</v>
       </c>
+      <c r="D26" s="25" t="s">
+        <v>224</v>
+      </c>
+      <c r="E26" s="26" t="s">
+        <v>225</v>
+      </c>
+      <c r="F26" s="25" t="s">
+        <v>226</v>
+      </c>
       <c r="G26" s="25" t="s">
-        <v>224</v>
-      </c>
-      <c r="H26" s="26" t="s">
-        <v>225</v>
-      </c>
-      <c r="I26" s="25" t="s">
-        <v>226</v>
-      </c>
-      <c r="J26" s="25" t="s">
         <v>227</v>
       </c>
-      <c r="K26" s="23" t="s">
+      <c r="H26" s="23" t="s">
         <v>228</v>
       </c>
+      <c r="I26" s="27"/>
+      <c r="J26" s="23"/>
+      <c r="K26" s="23"/>
       <c r="L26" s="23"/>
       <c r="M26" s="27"/>
       <c r="N26" s="27"/>
@@ -12366,40 +12188,35 @@
       <c r="X26" s="27"/>
       <c r="Y26" s="27"/>
       <c r="Z26" s="27"/>
-      <c r="AA26" s="27"/>
-      <c r="AB26" s="27"/>
-      <c r="AC26" s="27"/>
-      <c r="AD26" s="27"/>
-      <c r="AE26" s="27"/>
-    </row>
-    <row r="27" ht="61" spans="1:31">
-      <c r="A27" s="23"/>
-      <c r="B27" s="23"/>
-      <c r="C27" s="23"/>
-      <c r="D27" s="23" t="s">
+    </row>
+    <row r="27" ht="61" spans="1:26">
+      <c r="A27" s="23" t="s">
         <v>104</v>
       </c>
-      <c r="E27" s="29" t="s">
+      <c r="B27" s="29" t="s">
         <v>99</v>
       </c>
-      <c r="F27" s="24">
+      <c r="C27" s="24">
         <v>1</v>
       </c>
+      <c r="D27" s="25" t="s">
+        <v>229</v>
+      </c>
+      <c r="E27" s="26" t="s">
+        <v>230</v>
+      </c>
+      <c r="F27" s="25" t="s">
+        <v>231</v>
+      </c>
       <c r="G27" s="25" t="s">
-        <v>229</v>
-      </c>
-      <c r="H27" s="26" t="s">
-        <v>230</v>
-      </c>
-      <c r="I27" s="25" t="s">
-        <v>231</v>
-      </c>
-      <c r="J27" s="25" t="s">
         <v>232</v>
       </c>
-      <c r="K27" s="23" t="s">
+      <c r="H27" s="23" t="s">
         <v>233</v>
       </c>
+      <c r="I27" s="27"/>
+      <c r="J27" s="23"/>
+      <c r="K27" s="23"/>
       <c r="L27" s="23"/>
       <c r="M27" s="27"/>
       <c r="N27" s="27"/>
@@ -12415,40 +12232,35 @@
       <c r="X27" s="27"/>
       <c r="Y27" s="27"/>
       <c r="Z27" s="27"/>
-      <c r="AA27" s="27"/>
-      <c r="AB27" s="27"/>
-      <c r="AC27" s="27"/>
-      <c r="AD27" s="27"/>
-      <c r="AE27" s="27"/>
-    </row>
-    <row r="28" ht="61" spans="1:31">
-      <c r="A28" s="23"/>
-      <c r="B28" s="23"/>
-      <c r="C28" s="23"/>
-      <c r="D28" s="23" t="s">
+    </row>
+    <row r="28" ht="61" spans="1:26">
+      <c r="A28" s="23" t="s">
         <v>104</v>
       </c>
-      <c r="E28" s="29" t="s">
+      <c r="B28" s="29" t="s">
         <v>99</v>
       </c>
-      <c r="F28" s="24">
+      <c r="C28" s="24">
         <v>1</v>
       </c>
+      <c r="D28" s="25" t="s">
+        <v>234</v>
+      </c>
+      <c r="E28" s="26" t="s">
+        <v>235</v>
+      </c>
+      <c r="F28" s="25" t="s">
+        <v>236</v>
+      </c>
       <c r="G28" s="25" t="s">
-        <v>234</v>
-      </c>
-      <c r="H28" s="26" t="s">
-        <v>235</v>
-      </c>
-      <c r="I28" s="25" t="s">
-        <v>236</v>
-      </c>
-      <c r="J28" s="25" t="s">
         <v>237</v>
       </c>
-      <c r="K28" s="23" t="s">
+      <c r="H28" s="23" t="s">
         <v>238</v>
       </c>
+      <c r="I28" s="27"/>
+      <c r="J28" s="23"/>
+      <c r="K28" s="23"/>
       <c r="L28" s="23"/>
       <c r="M28" s="27"/>
       <c r="N28" s="27"/>
@@ -12464,40 +12276,35 @@
       <c r="X28" s="27"/>
       <c r="Y28" s="27"/>
       <c r="Z28" s="27"/>
-      <c r="AA28" s="27"/>
-      <c r="AB28" s="27"/>
-      <c r="AC28" s="27"/>
-      <c r="AD28" s="27"/>
-      <c r="AE28" s="27"/>
-    </row>
-    <row r="29" ht="61" spans="1:31">
-      <c r="A29" s="23"/>
-      <c r="B29" s="23"/>
-      <c r="C29" s="23"/>
-      <c r="D29" s="23" t="s">
+    </row>
+    <row r="29" ht="61" spans="1:26">
+      <c r="A29" s="23" t="s">
         <v>104</v>
       </c>
-      <c r="E29" s="29" t="s">
+      <c r="B29" s="29" t="s">
         <v>99</v>
       </c>
-      <c r="F29" s="24">
+      <c r="C29" s="24">
         <v>1</v>
       </c>
+      <c r="D29" s="25" t="s">
+        <v>239</v>
+      </c>
+      <c r="E29" s="26" t="s">
+        <v>240</v>
+      </c>
+      <c r="F29" s="25" t="s">
+        <v>241</v>
+      </c>
       <c r="G29" s="25" t="s">
-        <v>239</v>
-      </c>
-      <c r="H29" s="26" t="s">
-        <v>240</v>
-      </c>
-      <c r="I29" s="25" t="s">
-        <v>241</v>
-      </c>
-      <c r="J29" s="25" t="s">
         <v>242</v>
       </c>
-      <c r="K29" s="23" t="s">
+      <c r="H29" s="23" t="s">
         <v>243</v>
       </c>
+      <c r="I29" s="27"/>
+      <c r="J29" s="23"/>
+      <c r="K29" s="23"/>
       <c r="L29" s="23"/>
       <c r="M29" s="27"/>
       <c r="N29" s="27"/>
@@ -12513,40 +12320,35 @@
       <c r="X29" s="27"/>
       <c r="Y29" s="27"/>
       <c r="Z29" s="27"/>
-      <c r="AA29" s="27"/>
-      <c r="AB29" s="27"/>
-      <c r="AC29" s="27"/>
-      <c r="AD29" s="27"/>
-      <c r="AE29" s="27"/>
-    </row>
-    <row r="30" ht="61" spans="1:31">
-      <c r="A30" s="23"/>
-      <c r="B30" s="23"/>
-      <c r="C30" s="23"/>
-      <c r="D30" s="23" t="s">
+    </row>
+    <row r="30" ht="61" spans="1:26">
+      <c r="A30" s="23" t="s">
         <v>104</v>
       </c>
-      <c r="E30" s="29" t="s">
+      <c r="B30" s="29" t="s">
         <v>99</v>
       </c>
-      <c r="F30" s="24">
+      <c r="C30" s="24">
         <v>1</v>
       </c>
+      <c r="D30" s="25" t="s">
+        <v>244</v>
+      </c>
+      <c r="E30" s="26" t="s">
+        <v>245</v>
+      </c>
+      <c r="F30" s="25" t="s">
+        <v>246</v>
+      </c>
       <c r="G30" s="25" t="s">
-        <v>244</v>
-      </c>
-      <c r="H30" s="26" t="s">
-        <v>245</v>
-      </c>
-      <c r="I30" s="25" t="s">
-        <v>246</v>
-      </c>
-      <c r="J30" s="25" t="s">
         <v>247</v>
       </c>
-      <c r="K30" s="23" t="s">
+      <c r="H30" s="23" t="s">
         <v>248</v>
       </c>
+      <c r="I30" s="27"/>
+      <c r="J30" s="23"/>
+      <c r="K30" s="23"/>
       <c r="L30" s="23"/>
       <c r="M30" s="27"/>
       <c r="N30" s="27"/>
@@ -12562,40 +12364,35 @@
       <c r="X30" s="27"/>
       <c r="Y30" s="27"/>
       <c r="Z30" s="27"/>
-      <c r="AA30" s="27"/>
-      <c r="AB30" s="27"/>
-      <c r="AC30" s="27"/>
-      <c r="AD30" s="27"/>
-      <c r="AE30" s="27"/>
-    </row>
-    <row r="31" ht="61" spans="1:31">
-      <c r="A31" s="23"/>
-      <c r="B31" s="23"/>
-      <c r="C31" s="23"/>
-      <c r="D31" s="23" t="s">
+    </row>
+    <row r="31" ht="61" spans="1:26">
+      <c r="A31" s="23" t="s">
         <v>104</v>
       </c>
-      <c r="E31" s="29" t="s">
+      <c r="B31" s="29" t="s">
         <v>99</v>
       </c>
-      <c r="F31" s="24">
+      <c r="C31" s="24">
         <v>1</v>
       </c>
+      <c r="D31" s="25" t="s">
+        <v>249</v>
+      </c>
+      <c r="E31" s="26" t="s">
+        <v>250</v>
+      </c>
+      <c r="F31" s="25" t="s">
+        <v>251</v>
+      </c>
       <c r="G31" s="25" t="s">
-        <v>249</v>
-      </c>
-      <c r="H31" s="26" t="s">
-        <v>250</v>
-      </c>
-      <c r="I31" s="25" t="s">
-        <v>251</v>
-      </c>
-      <c r="J31" s="25" t="s">
         <v>252</v>
       </c>
-      <c r="K31" s="23" t="s">
+      <c r="H31" s="23" t="s">
         <v>253</v>
       </c>
+      <c r="I31" s="27"/>
+      <c r="J31" s="23"/>
+      <c r="K31" s="23"/>
       <c r="L31" s="23"/>
       <c r="M31" s="27"/>
       <c r="N31" s="27"/>
@@ -12611,40 +12408,35 @@
       <c r="X31" s="27"/>
       <c r="Y31" s="27"/>
       <c r="Z31" s="27"/>
-      <c r="AA31" s="27"/>
-      <c r="AB31" s="27"/>
-      <c r="AC31" s="27"/>
-      <c r="AD31" s="27"/>
-      <c r="AE31" s="27"/>
-    </row>
-    <row r="32" ht="183" spans="1:31">
-      <c r="A32" s="23"/>
-      <c r="B32" s="23"/>
-      <c r="C32" s="23"/>
-      <c r="D32" s="23" t="s">
+    </row>
+    <row r="32" ht="183" spans="1:26">
+      <c r="A32" s="23" t="s">
         <v>104</v>
       </c>
-      <c r="E32" s="29" t="s">
+      <c r="B32" s="29" t="s">
         <v>99</v>
       </c>
-      <c r="F32" s="24">
+      <c r="C32" s="24">
         <v>1</v>
       </c>
+      <c r="D32" s="25" t="s">
+        <v>254</v>
+      </c>
+      <c r="E32" s="26" t="s">
+        <v>255</v>
+      </c>
+      <c r="F32" s="25" t="s">
+        <v>256</v>
+      </c>
       <c r="G32" s="25" t="s">
-        <v>254</v>
-      </c>
-      <c r="H32" s="26" t="s">
-        <v>255</v>
-      </c>
-      <c r="I32" s="25" t="s">
-        <v>256</v>
-      </c>
-      <c r="J32" s="25" t="s">
         <v>257</v>
       </c>
-      <c r="K32" s="23" t="s">
+      <c r="H32" s="23" t="s">
         <v>258</v>
       </c>
+      <c r="I32" s="27"/>
+      <c r="J32" s="23"/>
+      <c r="K32" s="23"/>
       <c r="L32" s="23"/>
       <c r="M32" s="27"/>
       <c r="N32" s="27"/>
@@ -12660,40 +12452,35 @@
       <c r="X32" s="27"/>
       <c r="Y32" s="27"/>
       <c r="Z32" s="27"/>
-      <c r="AA32" s="27"/>
-      <c r="AB32" s="27"/>
-      <c r="AC32" s="27"/>
-      <c r="AD32" s="27"/>
-      <c r="AE32" s="27"/>
-    </row>
-    <row r="33" ht="183" spans="1:31">
-      <c r="A33" s="23"/>
-      <c r="B33" s="23"/>
-      <c r="C33" s="23"/>
-      <c r="D33" s="23" t="s">
+    </row>
+    <row r="33" ht="183" spans="1:26">
+      <c r="A33" s="23" t="s">
         <v>104</v>
       </c>
-      <c r="E33" s="29" t="s">
+      <c r="B33" s="29" t="s">
         <v>99</v>
       </c>
-      <c r="F33" s="24">
+      <c r="C33" s="24">
         <v>1</v>
       </c>
+      <c r="D33" s="25" t="s">
+        <v>259</v>
+      </c>
+      <c r="E33" s="26" t="s">
+        <v>260</v>
+      </c>
+      <c r="F33" s="25" t="s">
+        <v>261</v>
+      </c>
       <c r="G33" s="25" t="s">
-        <v>259</v>
-      </c>
-      <c r="H33" s="26" t="s">
-        <v>260</v>
-      </c>
-      <c r="I33" s="25" t="s">
-        <v>261</v>
-      </c>
-      <c r="J33" s="25" t="s">
         <v>262</v>
       </c>
-      <c r="K33" s="23" t="s">
+      <c r="H33" s="23" t="s">
         <v>263</v>
       </c>
+      <c r="I33" s="27"/>
+      <c r="J33" s="23"/>
+      <c r="K33" s="23"/>
       <c r="L33" s="23"/>
       <c r="M33" s="27"/>
       <c r="N33" s="27"/>
@@ -12709,40 +12496,35 @@
       <c r="X33" s="27"/>
       <c r="Y33" s="27"/>
       <c r="Z33" s="27"/>
-      <c r="AA33" s="27"/>
-      <c r="AB33" s="27"/>
-      <c r="AC33" s="27"/>
-      <c r="AD33" s="27"/>
-      <c r="AE33" s="27"/>
-    </row>
-    <row r="34" ht="183" spans="1:31">
-      <c r="A34" s="23"/>
-      <c r="B34" s="23"/>
-      <c r="C34" s="23"/>
-      <c r="D34" s="23" t="s">
+    </row>
+    <row r="34" ht="183" spans="1:26">
+      <c r="A34" s="23" t="s">
         <v>104</v>
       </c>
-      <c r="E34" s="29" t="s">
+      <c r="B34" s="29" t="s">
         <v>99</v>
       </c>
-      <c r="F34" s="24">
+      <c r="C34" s="24">
         <v>1</v>
       </c>
+      <c r="D34" s="25" t="s">
+        <v>264</v>
+      </c>
+      <c r="E34" s="26" t="s">
+        <v>265</v>
+      </c>
+      <c r="F34" s="25" t="s">
+        <v>266</v>
+      </c>
       <c r="G34" s="25" t="s">
-        <v>264</v>
-      </c>
-      <c r="H34" s="26" t="s">
-        <v>265</v>
-      </c>
-      <c r="I34" s="25" t="s">
         <v>266</v>
       </c>
-      <c r="J34" s="25" t="s">
-        <v>266</v>
-      </c>
-      <c r="K34" s="23" t="s">
+      <c r="H34" s="23" t="s">
         <v>267</v>
       </c>
+      <c r="I34" s="27"/>
+      <c r="J34" s="23"/>
+      <c r="K34" s="23"/>
       <c r="L34" s="23"/>
       <c r="M34" s="27"/>
       <c r="N34" s="27"/>
@@ -12758,40 +12540,35 @@
       <c r="X34" s="27"/>
       <c r="Y34" s="27"/>
       <c r="Z34" s="27"/>
-      <c r="AA34" s="27"/>
-      <c r="AB34" s="27"/>
-      <c r="AC34" s="27"/>
-      <c r="AD34" s="27"/>
-      <c r="AE34" s="27"/>
-    </row>
-    <row r="35" ht="183" spans="1:31">
-      <c r="A35" s="23"/>
-      <c r="B35" s="23"/>
-      <c r="C35" s="23"/>
-      <c r="D35" s="23" t="s">
+    </row>
+    <row r="35" ht="183" spans="1:26">
+      <c r="A35" s="23" t="s">
         <v>104</v>
       </c>
-      <c r="E35" s="29" t="s">
+      <c r="B35" s="29" t="s">
         <v>99</v>
       </c>
-      <c r="F35" s="24">
+      <c r="C35" s="24">
         <v>1</v>
       </c>
+      <c r="D35" s="25" t="s">
+        <v>268</v>
+      </c>
+      <c r="E35" s="26" t="s">
+        <v>269</v>
+      </c>
+      <c r="F35" s="25" t="s">
+        <v>270</v>
+      </c>
       <c r="G35" s="25" t="s">
-        <v>268</v>
-      </c>
-      <c r="H35" s="26" t="s">
-        <v>269</v>
-      </c>
-      <c r="I35" s="25" t="s">
-        <v>270</v>
-      </c>
-      <c r="J35" s="25" t="s">
         <v>271</v>
       </c>
-      <c r="K35" s="23" t="s">
+      <c r="H35" s="23" t="s">
         <v>272</v>
       </c>
+      <c r="I35" s="27"/>
+      <c r="J35" s="23"/>
+      <c r="K35" s="23"/>
       <c r="L35" s="23"/>
       <c r="M35" s="27"/>
       <c r="N35" s="27"/>
@@ -12807,40 +12584,35 @@
       <c r="X35" s="27"/>
       <c r="Y35" s="27"/>
       <c r="Z35" s="27"/>
-      <c r="AA35" s="27"/>
-      <c r="AB35" s="27"/>
-      <c r="AC35" s="27"/>
-      <c r="AD35" s="27"/>
-      <c r="AE35" s="27"/>
-    </row>
-    <row r="36" ht="183" spans="1:31">
-      <c r="A36" s="23"/>
-      <c r="B36" s="23"/>
-      <c r="C36" s="23"/>
-      <c r="D36" s="23" t="s">
+    </row>
+    <row r="36" ht="183" spans="1:26">
+      <c r="A36" s="23" t="s">
         <v>104</v>
       </c>
-      <c r="E36" s="29" t="s">
+      <c r="B36" s="29" t="s">
         <v>99</v>
       </c>
-      <c r="F36" s="24">
+      <c r="C36" s="24">
         <v>1</v>
       </c>
+      <c r="D36" s="25" t="s">
+        <v>273</v>
+      </c>
+      <c r="E36" s="26" t="s">
+        <v>274</v>
+      </c>
+      <c r="F36" s="25" t="s">
+        <v>275</v>
+      </c>
       <c r="G36" s="25" t="s">
-        <v>273</v>
-      </c>
-      <c r="H36" s="26" t="s">
-        <v>274</v>
-      </c>
-      <c r="I36" s="25" t="s">
-        <v>275</v>
-      </c>
-      <c r="J36" s="25" t="s">
         <v>276</v>
       </c>
-      <c r="K36" s="23" t="s">
+      <c r="H36" s="23" t="s">
         <v>277</v>
       </c>
+      <c r="I36" s="27"/>
+      <c r="J36" s="23"/>
+      <c r="K36" s="23"/>
       <c r="L36" s="23"/>
       <c r="M36" s="27"/>
       <c r="N36" s="27"/>
@@ -12856,40 +12628,35 @@
       <c r="X36" s="27"/>
       <c r="Y36" s="27"/>
       <c r="Z36" s="27"/>
-      <c r="AA36" s="27"/>
-      <c r="AB36" s="27"/>
-      <c r="AC36" s="27"/>
-      <c r="AD36" s="27"/>
-      <c r="AE36" s="27"/>
-    </row>
-    <row r="37" ht="183" spans="1:31">
-      <c r="A37" s="23"/>
-      <c r="B37" s="23"/>
-      <c r="C37" s="23"/>
-      <c r="D37" s="23" t="s">
+    </row>
+    <row r="37" ht="183" spans="1:26">
+      <c r="A37" s="23" t="s">
         <v>104</v>
       </c>
-      <c r="E37" s="29" t="s">
+      <c r="B37" s="29" t="s">
         <v>99</v>
       </c>
-      <c r="F37" s="24">
+      <c r="C37" s="24">
         <v>1</v>
       </c>
+      <c r="D37" s="25" t="s">
+        <v>278</v>
+      </c>
+      <c r="E37" s="26" t="s">
+        <v>279</v>
+      </c>
+      <c r="F37" s="25" t="s">
+        <v>280</v>
+      </c>
       <c r="G37" s="25" t="s">
-        <v>278</v>
-      </c>
-      <c r="H37" s="26" t="s">
-        <v>279</v>
-      </c>
-      <c r="I37" s="25" t="s">
         <v>280</v>
       </c>
-      <c r="J37" s="25" t="s">
-        <v>280</v>
-      </c>
-      <c r="K37" s="23" t="s">
+      <c r="H37" s="23" t="s">
         <v>281</v>
       </c>
+      <c r="I37" s="27"/>
+      <c r="J37" s="23"/>
+      <c r="K37" s="23"/>
       <c r="L37" s="23"/>
       <c r="M37" s="27"/>
       <c r="N37" s="27"/>
@@ -12905,40 +12672,35 @@
       <c r="X37" s="27"/>
       <c r="Y37" s="27"/>
       <c r="Z37" s="27"/>
-      <c r="AA37" s="27"/>
-      <c r="AB37" s="27"/>
-      <c r="AC37" s="27"/>
-      <c r="AD37" s="27"/>
-      <c r="AE37" s="27"/>
-    </row>
-    <row r="38" ht="92" spans="1:31">
-      <c r="A38" s="23"/>
-      <c r="B38" s="23"/>
-      <c r="C38" s="23"/>
-      <c r="D38" s="23" t="s">
+    </row>
+    <row r="38" ht="92" spans="1:26">
+      <c r="A38" s="23" t="s">
         <v>104</v>
       </c>
-      <c r="E38" s="29" t="s">
+      <c r="B38" s="29" t="s">
         <v>99</v>
       </c>
-      <c r="F38" s="24">
+      <c r="C38" s="24">
         <v>1</v>
       </c>
+      <c r="D38" s="25" t="s">
+        <v>282</v>
+      </c>
+      <c r="E38" s="26" t="s">
+        <v>283</v>
+      </c>
+      <c r="F38" s="25" t="s">
+        <v>284</v>
+      </c>
       <c r="G38" s="25" t="s">
-        <v>282</v>
-      </c>
-      <c r="H38" s="26" t="s">
-        <v>283</v>
-      </c>
-      <c r="I38" s="25" t="s">
-        <v>284</v>
-      </c>
-      <c r="J38" s="25" t="s">
         <v>285</v>
       </c>
-      <c r="K38" s="23" t="s">
+      <c r="H38" s="23" t="s">
         <v>286</v>
       </c>
+      <c r="I38" s="27"/>
+      <c r="J38" s="23"/>
+      <c r="K38" s="23"/>
       <c r="L38" s="23"/>
       <c r="M38" s="27"/>
       <c r="N38" s="27"/>
@@ -12954,40 +12716,35 @@
       <c r="X38" s="27"/>
       <c r="Y38" s="27"/>
       <c r="Z38" s="27"/>
-      <c r="AA38" s="27"/>
-      <c r="AB38" s="27"/>
-      <c r="AC38" s="27"/>
-      <c r="AD38" s="27"/>
-      <c r="AE38" s="27"/>
-    </row>
-    <row r="39" ht="92" spans="1:31">
-      <c r="A39" s="23"/>
-      <c r="B39" s="23"/>
-      <c r="C39" s="23"/>
-      <c r="D39" s="23" t="s">
+    </row>
+    <row r="39" ht="92" spans="1:26">
+      <c r="A39" s="23" t="s">
         <v>104</v>
       </c>
-      <c r="E39" s="29" t="s">
+      <c r="B39" s="29" t="s">
         <v>99</v>
       </c>
-      <c r="F39" s="24">
+      <c r="C39" s="24">
         <v>1</v>
       </c>
+      <c r="D39" s="25" t="s">
+        <v>287</v>
+      </c>
+      <c r="E39" s="26" t="s">
+        <v>288</v>
+      </c>
+      <c r="F39" s="25" t="s">
+        <v>289</v>
+      </c>
       <c r="G39" s="25" t="s">
-        <v>287</v>
-      </c>
-      <c r="H39" s="26" t="s">
-        <v>288</v>
-      </c>
-      <c r="I39" s="25" t="s">
-        <v>289</v>
-      </c>
-      <c r="J39" s="25" t="s">
         <v>290</v>
       </c>
-      <c r="K39" s="23" t="s">
+      <c r="H39" s="23" t="s">
         <v>291</v>
       </c>
+      <c r="I39" s="27"/>
+      <c r="J39" s="23"/>
+      <c r="K39" s="23"/>
       <c r="L39" s="23"/>
       <c r="M39" s="27"/>
       <c r="N39" s="27"/>
@@ -13003,40 +12760,35 @@
       <c r="X39" s="27"/>
       <c r="Y39" s="27"/>
       <c r="Z39" s="27"/>
-      <c r="AA39" s="27"/>
-      <c r="AB39" s="27"/>
-      <c r="AC39" s="27"/>
-      <c r="AD39" s="27"/>
-      <c r="AE39" s="27"/>
-    </row>
-    <row r="40" ht="92" spans="1:31">
-      <c r="A40" s="23"/>
-      <c r="B40" s="23"/>
-      <c r="C40" s="23"/>
-      <c r="D40" s="23" t="s">
+    </row>
+    <row r="40" ht="92" spans="1:26">
+      <c r="A40" s="23" t="s">
         <v>104</v>
       </c>
-      <c r="E40" s="29" t="s">
+      <c r="B40" s="29" t="s">
         <v>99</v>
       </c>
-      <c r="F40" s="24">
+      <c r="C40" s="24">
         <v>1</v>
       </c>
+      <c r="D40" s="25" t="s">
+        <v>292</v>
+      </c>
+      <c r="E40" s="26" t="s">
+        <v>293</v>
+      </c>
+      <c r="F40" s="25" t="s">
+        <v>294</v>
+      </c>
       <c r="G40" s="25" t="s">
-        <v>292</v>
-      </c>
-      <c r="H40" s="26" t="s">
-        <v>293</v>
-      </c>
-      <c r="I40" s="25" t="s">
         <v>294</v>
       </c>
-      <c r="J40" s="25" t="s">
-        <v>294</v>
-      </c>
-      <c r="K40" s="23" t="s">
+      <c r="H40" s="23" t="s">
         <v>295</v>
       </c>
+      <c r="I40" s="27"/>
+      <c r="J40" s="23"/>
+      <c r="K40" s="23"/>
       <c r="L40" s="23"/>
       <c r="M40" s="27"/>
       <c r="N40" s="27"/>
@@ -13052,40 +12804,35 @@
       <c r="X40" s="27"/>
       <c r="Y40" s="27"/>
       <c r="Z40" s="27"/>
-      <c r="AA40" s="27"/>
-      <c r="AB40" s="27"/>
-      <c r="AC40" s="27"/>
-      <c r="AD40" s="27"/>
-      <c r="AE40" s="27"/>
-    </row>
-    <row r="41" ht="92" spans="1:31">
-      <c r="A41" s="23"/>
-      <c r="B41" s="23"/>
-      <c r="C41" s="23"/>
-      <c r="D41" s="23" t="s">
+    </row>
+    <row r="41" ht="92" spans="1:26">
+      <c r="A41" s="23" t="s">
         <v>104</v>
       </c>
-      <c r="E41" s="29" t="s">
+      <c r="B41" s="29" t="s">
         <v>99</v>
       </c>
-      <c r="F41" s="24">
+      <c r="C41" s="24">
         <v>1</v>
       </c>
+      <c r="D41" s="25" t="s">
+        <v>296</v>
+      </c>
+      <c r="E41" s="26" t="s">
+        <v>297</v>
+      </c>
+      <c r="F41" s="25" t="s">
+        <v>298</v>
+      </c>
       <c r="G41" s="25" t="s">
-        <v>296</v>
-      </c>
-      <c r="H41" s="26" t="s">
-        <v>297</v>
-      </c>
-      <c r="I41" s="25" t="s">
-        <v>298</v>
-      </c>
-      <c r="J41" s="25" t="s">
         <v>299</v>
       </c>
-      <c r="K41" s="23" t="s">
+      <c r="H41" s="23" t="s">
         <v>300</v>
       </c>
+      <c r="I41" s="27"/>
+      <c r="J41" s="23"/>
+      <c r="K41" s="23"/>
       <c r="L41" s="23"/>
       <c r="M41" s="27"/>
       <c r="N41" s="27"/>
@@ -13101,40 +12848,35 @@
       <c r="X41" s="27"/>
       <c r="Y41" s="27"/>
       <c r="Z41" s="27"/>
-      <c r="AA41" s="27"/>
-      <c r="AB41" s="27"/>
-      <c r="AC41" s="27"/>
-      <c r="AD41" s="27"/>
-      <c r="AE41" s="27"/>
-    </row>
-    <row r="42" ht="92" spans="1:31">
-      <c r="A42" s="23"/>
-      <c r="B42" s="23"/>
-      <c r="C42" s="23"/>
-      <c r="D42" s="23" t="s">
+    </row>
+    <row r="42" ht="92" spans="1:26">
+      <c r="A42" s="23" t="s">
         <v>104</v>
       </c>
-      <c r="E42" s="29" t="s">
+      <c r="B42" s="29" t="s">
         <v>99</v>
       </c>
-      <c r="F42" s="24">
+      <c r="C42" s="24">
         <v>1</v>
       </c>
+      <c r="D42" s="25" t="s">
+        <v>301</v>
+      </c>
+      <c r="E42" s="26" t="s">
+        <v>302</v>
+      </c>
+      <c r="F42" s="25" t="s">
+        <v>303</v>
+      </c>
       <c r="G42" s="25" t="s">
-        <v>301</v>
-      </c>
-      <c r="H42" s="26" t="s">
-        <v>302</v>
-      </c>
-      <c r="I42" s="25" t="s">
-        <v>303</v>
-      </c>
-      <c r="J42" s="25" t="s">
         <v>304</v>
       </c>
-      <c r="K42" s="23" t="s">
+      <c r="H42" s="23" t="s">
         <v>305</v>
       </c>
+      <c r="I42" s="27"/>
+      <c r="J42" s="23"/>
+      <c r="K42" s="23"/>
       <c r="L42" s="23"/>
       <c r="M42" s="27"/>
       <c r="N42" s="27"/>
@@ -13150,40 +12892,35 @@
       <c r="X42" s="27"/>
       <c r="Y42" s="27"/>
       <c r="Z42" s="27"/>
-      <c r="AA42" s="27"/>
-      <c r="AB42" s="27"/>
-      <c r="AC42" s="27"/>
-      <c r="AD42" s="27"/>
-      <c r="AE42" s="27"/>
-    </row>
-    <row r="43" ht="92" spans="1:31">
-      <c r="A43" s="23"/>
-      <c r="B43" s="23"/>
-      <c r="C43" s="23"/>
-      <c r="D43" s="23" t="s">
+    </row>
+    <row r="43" ht="92" spans="1:26">
+      <c r="A43" s="23" t="s">
         <v>104</v>
       </c>
-      <c r="E43" s="29" t="s">
+      <c r="B43" s="29" t="s">
         <v>99</v>
       </c>
-      <c r="F43" s="24">
+      <c r="C43" s="24">
         <v>1</v>
       </c>
+      <c r="D43" s="25" t="s">
+        <v>306</v>
+      </c>
+      <c r="E43" s="26" t="s">
+        <v>307</v>
+      </c>
+      <c r="F43" s="25" t="s">
+        <v>308</v>
+      </c>
       <c r="G43" s="25" t="s">
-        <v>306</v>
-      </c>
-      <c r="H43" s="26" t="s">
-        <v>307</v>
-      </c>
-      <c r="I43" s="25" t="s">
         <v>308</v>
       </c>
-      <c r="J43" s="25" t="s">
-        <v>308</v>
-      </c>
-      <c r="K43" s="23" t="s">
+      <c r="H43" s="23" t="s">
         <v>309</v>
       </c>
+      <c r="I43" s="27"/>
+      <c r="J43" s="23"/>
+      <c r="K43" s="23"/>
       <c r="L43" s="23"/>
       <c r="M43" s="27"/>
       <c r="N43" s="27"/>
@@ -13199,40 +12936,35 @@
       <c r="X43" s="27"/>
       <c r="Y43" s="27"/>
       <c r="Z43" s="27"/>
-      <c r="AA43" s="27"/>
-      <c r="AB43" s="27"/>
-      <c r="AC43" s="27"/>
-      <c r="AD43" s="27"/>
-      <c r="AE43" s="27"/>
-    </row>
-    <row r="44" ht="152" spans="1:31">
-      <c r="A44" s="23"/>
-      <c r="B44" s="23"/>
-      <c r="C44" s="23"/>
-      <c r="D44" s="23" t="s">
+    </row>
+    <row r="44" ht="152" spans="1:26">
+      <c r="A44" s="23" t="s">
         <v>104</v>
       </c>
-      <c r="E44" s="29" t="s">
+      <c r="B44" s="29" t="s">
         <v>99</v>
       </c>
-      <c r="F44" s="24">
+      <c r="C44" s="24">
         <v>1</v>
       </c>
+      <c r="D44" s="25" t="s">
+        <v>310</v>
+      </c>
+      <c r="E44" s="26" t="s">
+        <v>311</v>
+      </c>
+      <c r="F44" s="25" t="s">
+        <v>312</v>
+      </c>
       <c r="G44" s="25" t="s">
-        <v>310</v>
-      </c>
-      <c r="H44" s="26" t="s">
-        <v>311</v>
-      </c>
-      <c r="I44" s="25" t="s">
-        <v>312</v>
-      </c>
-      <c r="J44" s="25" t="s">
         <v>313</v>
       </c>
-      <c r="K44" s="23" t="s">
+      <c r="H44" s="23" t="s">
         <v>314</v>
       </c>
+      <c r="I44" s="27"/>
+      <c r="J44" s="23"/>
+      <c r="K44" s="23"/>
       <c r="L44" s="23"/>
       <c r="M44" s="27"/>
       <c r="N44" s="27"/>
@@ -13248,40 +12980,35 @@
       <c r="X44" s="27"/>
       <c r="Y44" s="27"/>
       <c r="Z44" s="27"/>
-      <c r="AA44" s="27"/>
-      <c r="AB44" s="27"/>
-      <c r="AC44" s="27"/>
-      <c r="AD44" s="27"/>
-      <c r="AE44" s="27"/>
-    </row>
-    <row r="45" ht="152" spans="1:31">
-      <c r="A45" s="23"/>
-      <c r="B45" s="23"/>
-      <c r="C45" s="23"/>
-      <c r="D45" s="23" t="s">
+    </row>
+    <row r="45" ht="152" spans="1:26">
+      <c r="A45" s="23" t="s">
         <v>104</v>
       </c>
-      <c r="E45" s="29" t="s">
+      <c r="B45" s="29" t="s">
         <v>99</v>
       </c>
-      <c r="F45" s="24">
+      <c r="C45" s="24">
         <v>1</v>
       </c>
+      <c r="D45" s="25" t="s">
+        <v>315</v>
+      </c>
+      <c r="E45" s="26" t="s">
+        <v>316</v>
+      </c>
+      <c r="F45" s="25" t="s">
+        <v>317</v>
+      </c>
       <c r="G45" s="25" t="s">
-        <v>315</v>
-      </c>
-      <c r="H45" s="26" t="s">
-        <v>316</v>
-      </c>
-      <c r="I45" s="25" t="s">
-        <v>317</v>
-      </c>
-      <c r="J45" s="25" t="s">
         <v>318</v>
       </c>
-      <c r="K45" s="23" t="s">
+      <c r="H45" s="23" t="s">
         <v>319</v>
       </c>
+      <c r="I45" s="27"/>
+      <c r="J45" s="23"/>
+      <c r="K45" s="23"/>
       <c r="L45" s="23"/>
       <c r="M45" s="27"/>
       <c r="N45" s="27"/>
@@ -13297,40 +13024,35 @@
       <c r="X45" s="27"/>
       <c r="Y45" s="27"/>
       <c r="Z45" s="27"/>
-      <c r="AA45" s="27"/>
-      <c r="AB45" s="27"/>
-      <c r="AC45" s="27"/>
-      <c r="AD45" s="27"/>
-      <c r="AE45" s="27"/>
-    </row>
-    <row r="46" ht="152" spans="1:31">
-      <c r="A46" s="23"/>
-      <c r="B46" s="23"/>
-      <c r="C46" s="23"/>
-      <c r="D46" s="23" t="s">
+    </row>
+    <row r="46" ht="152" spans="1:26">
+      <c r="A46" s="23" t="s">
         <v>104</v>
       </c>
-      <c r="E46" s="29" t="s">
+      <c r="B46" s="29" t="s">
         <v>99</v>
       </c>
-      <c r="F46" s="24">
+      <c r="C46" s="24">
         <v>1</v>
       </c>
+      <c r="D46" s="25" t="s">
+        <v>320</v>
+      </c>
+      <c r="E46" s="26" t="s">
+        <v>321</v>
+      </c>
+      <c r="F46" s="25" t="s">
+        <v>322</v>
+      </c>
       <c r="G46" s="25" t="s">
-        <v>320</v>
-      </c>
-      <c r="H46" s="26" t="s">
-        <v>321</v>
-      </c>
-      <c r="I46" s="25" t="s">
         <v>322</v>
       </c>
-      <c r="J46" s="25" t="s">
-        <v>322</v>
-      </c>
-      <c r="K46" s="23" t="s">
+      <c r="H46" s="23" t="s">
         <v>323</v>
       </c>
+      <c r="I46" s="27"/>
+      <c r="J46" s="23"/>
+      <c r="K46" s="23"/>
       <c r="L46" s="23"/>
       <c r="M46" s="27"/>
       <c r="N46" s="27"/>
@@ -13346,40 +13068,35 @@
       <c r="X46" s="27"/>
       <c r="Y46" s="27"/>
       <c r="Z46" s="27"/>
-      <c r="AA46" s="27"/>
-      <c r="AB46" s="27"/>
-      <c r="AC46" s="27"/>
-      <c r="AD46" s="27"/>
-      <c r="AE46" s="27"/>
-    </row>
-    <row r="47" ht="31" spans="1:31">
-      <c r="A47" s="23"/>
-      <c r="B47" s="23"/>
-      <c r="C47" s="23"/>
-      <c r="D47" s="23" t="s">
+    </row>
+    <row r="47" ht="31" spans="1:26">
+      <c r="A47" s="23" t="s">
         <v>324</v>
       </c>
-      <c r="E47" s="18" t="s">
+      <c r="B47" s="18" t="s">
         <v>92</v>
       </c>
-      <c r="F47" s="18">
+      <c r="C47" s="18">
         <v>4</v>
       </c>
+      <c r="D47" s="25" t="s">
+        <v>325</v>
+      </c>
+      <c r="E47" s="26" t="s">
+        <v>326</v>
+      </c>
+      <c r="F47" s="25" t="s">
+        <v>327</v>
+      </c>
       <c r="G47" s="25" t="s">
-        <v>325</v>
-      </c>
-      <c r="H47" s="26" t="s">
-        <v>326</v>
-      </c>
-      <c r="I47" s="25" t="s">
         <v>327</v>
       </c>
-      <c r="J47" s="25" t="s">
-        <v>325</v>
-      </c>
-      <c r="K47" s="23" t="s">
+      <c r="H47" s="23" t="s">
         <v>328</v>
       </c>
+      <c r="I47" s="27"/>
+      <c r="J47" s="23"/>
+      <c r="K47" s="23"/>
       <c r="L47" s="23"/>
       <c r="M47" s="27"/>
       <c r="N47" s="27"/>
@@ -13395,40 +13112,35 @@
       <c r="X47" s="27"/>
       <c r="Y47" s="27"/>
       <c r="Z47" s="27"/>
-      <c r="AA47" s="27"/>
-      <c r="AB47" s="27"/>
-      <c r="AC47" s="27"/>
-      <c r="AD47" s="27"/>
-      <c r="AE47" s="27"/>
-    </row>
-    <row r="48" ht="31" spans="1:31">
-      <c r="A48" s="23"/>
-      <c r="B48" s="23"/>
-      <c r="C48" s="23"/>
-      <c r="D48" s="23" t="s">
+    </row>
+    <row r="48" ht="31" spans="1:26">
+      <c r="A48" s="23" t="s">
         <v>324</v>
       </c>
-      <c r="E48" s="18" t="s">
+      <c r="B48" s="18" t="s">
         <v>92</v>
       </c>
-      <c r="F48" s="18">
+      <c r="C48" s="18">
         <v>4</v>
       </c>
+      <c r="D48" s="25" t="s">
+        <v>329</v>
+      </c>
+      <c r="E48" s="26" t="s">
+        <v>330</v>
+      </c>
+      <c r="F48" s="25" t="s">
+        <v>331</v>
+      </c>
       <c r="G48" s="25" t="s">
-        <v>329</v>
-      </c>
-      <c r="H48" s="26" t="s">
-        <v>330</v>
-      </c>
-      <c r="I48" s="25" t="s">
         <v>331</v>
       </c>
-      <c r="J48" s="25" t="s">
-        <v>329</v>
-      </c>
-      <c r="K48" s="23" t="s">
+      <c r="H48" s="23" t="s">
         <v>332</v>
       </c>
+      <c r="I48" s="27"/>
+      <c r="J48" s="23"/>
+      <c r="K48" s="23"/>
       <c r="L48" s="23"/>
       <c r="M48" s="27"/>
       <c r="N48" s="27"/>
@@ -13444,40 +13156,35 @@
       <c r="X48" s="27"/>
       <c r="Y48" s="27"/>
       <c r="Z48" s="27"/>
-      <c r="AA48" s="27"/>
-      <c r="AB48" s="27"/>
-      <c r="AC48" s="27"/>
-      <c r="AD48" s="27"/>
-      <c r="AE48" s="27"/>
-    </row>
-    <row r="49" ht="17" spans="1:31">
-      <c r="A49" s="23"/>
-      <c r="B49" s="23"/>
-      <c r="C49" s="23"/>
+    </row>
+    <row r="49" ht="17" spans="1:26">
+      <c r="A49" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="B49" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="C49" s="18">
+        <v>3</v>
+      </c>
       <c r="D49" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="E49" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="F49" s="18">
-        <v>3</v>
+      <c r="E49" s="30" t="s">
+        <v>333</v>
+      </c>
+      <c r="F49" s="23" t="s">
+        <v>333</v>
       </c>
       <c r="G49" s="23" t="s">
-        <v>80</v>
-      </c>
-      <c r="H49" s="30" t="s">
         <v>333</v>
       </c>
-      <c r="I49" s="23" t="s">
-        <v>333</v>
-      </c>
-      <c r="J49" s="23" t="s">
+      <c r="H49" s="23" t="s">
         <v>334</v>
       </c>
-      <c r="K49" s="23" t="s">
-        <v>335</v>
-      </c>
+      <c r="I49" s="27"/>
+      <c r="J49" s="23"/>
+      <c r="K49" s="23"/>
       <c r="L49" s="23"/>
       <c r="M49" s="27"/>
       <c r="N49" s="27"/>
@@ -13493,40 +13200,35 @@
       <c r="X49" s="27"/>
       <c r="Y49" s="27"/>
       <c r="Z49" s="27"/>
-      <c r="AA49" s="27"/>
-      <c r="AB49" s="27"/>
-      <c r="AC49" s="27"/>
-      <c r="AD49" s="27"/>
-      <c r="AE49" s="27"/>
-    </row>
-    <row r="50" ht="17" spans="1:31">
-      <c r="A50" s="23"/>
-      <c r="B50" s="23"/>
-      <c r="C50" s="23"/>
+    </row>
+    <row r="50" ht="17" spans="1:26">
+      <c r="A50" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="B50" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="C50" s="18">
+        <v>4</v>
+      </c>
       <c r="D50" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="E50" s="18" t="s">
         <v>92</v>
       </c>
-      <c r="F50" s="18">
-        <v>4</v>
+      <c r="E50" s="30" t="s">
+        <v>335</v>
+      </c>
+      <c r="F50" s="23" t="s">
+        <v>335</v>
       </c>
       <c r="G50" s="23" t="s">
-        <v>92</v>
-      </c>
-      <c r="H50" s="30" t="s">
+        <v>335</v>
+      </c>
+      <c r="H50" s="23" t="s">
         <v>336</v>
       </c>
-      <c r="I50" s="23" t="s">
-        <v>336</v>
-      </c>
-      <c r="J50" s="23" t="s">
-        <v>337</v>
-      </c>
-      <c r="K50" s="23" t="s">
-        <v>338</v>
-      </c>
+      <c r="I50" s="27"/>
+      <c r="J50" s="23"/>
+      <c r="K50" s="23"/>
       <c r="L50" s="23"/>
       <c r="M50" s="27"/>
       <c r="N50" s="27"/>
@@ -13542,40 +13244,35 @@
       <c r="X50" s="27"/>
       <c r="Y50" s="27"/>
       <c r="Z50" s="27"/>
-      <c r="AA50" s="27"/>
-      <c r="AB50" s="27"/>
-      <c r="AC50" s="27"/>
-      <c r="AD50" s="27"/>
-      <c r="AE50" s="27"/>
-    </row>
-    <row r="51" ht="17" spans="1:31">
-      <c r="A51" s="23"/>
-      <c r="B51" s="23"/>
-      <c r="C51" s="23"/>
+    </row>
+    <row r="51" ht="17" spans="1:26">
+      <c r="A51" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="B51" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="C51" s="18">
+        <v>2</v>
+      </c>
       <c r="D51" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="E51" s="18" t="s">
         <v>93</v>
       </c>
-      <c r="F51" s="18">
-        <v>2</v>
+      <c r="E51" s="30" t="s">
+        <v>337</v>
+      </c>
+      <c r="F51" s="23" t="s">
+        <v>337</v>
       </c>
       <c r="G51" s="23" t="s">
-        <v>93</v>
-      </c>
-      <c r="H51" s="30" t="s">
-        <v>339</v>
-      </c>
-      <c r="I51" s="23" t="s">
-        <v>339</v>
-      </c>
-      <c r="J51" s="23" t="s">
-        <v>340</v>
-      </c>
-      <c r="K51" s="23" t="s">
-        <v>341</v>
-      </c>
+        <v>337</v>
+      </c>
+      <c r="H51" s="23" t="s">
+        <v>338</v>
+      </c>
+      <c r="I51" s="27"/>
+      <c r="J51" s="23"/>
+      <c r="K51" s="23"/>
       <c r="L51" s="23"/>
       <c r="M51" s="27"/>
       <c r="N51" s="27"/>
@@ -13591,40 +13288,35 @@
       <c r="X51" s="27"/>
       <c r="Y51" s="27"/>
       <c r="Z51" s="27"/>
-      <c r="AA51" s="27"/>
-      <c r="AB51" s="27"/>
-      <c r="AC51" s="27"/>
-      <c r="AD51" s="27"/>
-      <c r="AE51" s="27"/>
-    </row>
-    <row r="52" ht="17" spans="1:31">
-      <c r="A52" s="23"/>
-      <c r="B52" s="23"/>
-      <c r="C52" s="23"/>
+    </row>
+    <row r="52" ht="17" spans="1:26">
+      <c r="A52" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="B52" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="C52" s="18">
+        <v>1</v>
+      </c>
       <c r="D52" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="E52" s="18" t="s">
         <v>99</v>
       </c>
-      <c r="F52" s="18">
-        <v>1</v>
+      <c r="E52" s="30" t="s">
+        <v>339</v>
+      </c>
+      <c r="F52" s="23" t="s">
+        <v>339</v>
       </c>
       <c r="G52" s="23" t="s">
-        <v>99</v>
-      </c>
-      <c r="H52" s="30" t="s">
-        <v>342</v>
-      </c>
-      <c r="I52" s="23" t="s">
-        <v>342</v>
-      </c>
-      <c r="J52" s="23" t="s">
-        <v>343</v>
-      </c>
-      <c r="K52" s="23" t="s">
-        <v>344</v>
-      </c>
+        <v>339</v>
+      </c>
+      <c r="H52" s="23" t="s">
+        <v>340</v>
+      </c>
+      <c r="I52" s="27"/>
+      <c r="J52" s="23"/>
+      <c r="K52" s="23"/>
       <c r="L52" s="23"/>
       <c r="M52" s="27"/>
       <c r="N52" s="27"/>
@@ -13640,40 +13332,35 @@
       <c r="X52" s="27"/>
       <c r="Y52" s="27"/>
       <c r="Z52" s="27"/>
-      <c r="AA52" s="27"/>
-      <c r="AB52" s="27"/>
-      <c r="AC52" s="27"/>
-      <c r="AD52" s="27"/>
-      <c r="AE52" s="27"/>
-    </row>
-    <row r="53" ht="17" spans="1:31">
-      <c r="A53" s="23"/>
-      <c r="B53" s="23"/>
-      <c r="C53" s="23"/>
+    </row>
+    <row r="53" ht="17" spans="1:26">
+      <c r="A53" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="B53" s="18" t="s">
+        <v>341</v>
+      </c>
+      <c r="C53" s="18">
+        <v>6</v>
+      </c>
       <c r="D53" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="E53" s="18" t="s">
-        <v>345</v>
-      </c>
-      <c r="F53" s="18">
-        <v>6</v>
+        <v>341</v>
+      </c>
+      <c r="E53" s="30" t="s">
+        <v>342</v>
+      </c>
+      <c r="F53" s="23" t="s">
+        <v>342</v>
       </c>
       <c r="G53" s="23" t="s">
-        <v>345</v>
-      </c>
-      <c r="H53" s="30" t="s">
-        <v>346</v>
-      </c>
-      <c r="I53" s="23" t="s">
-        <v>346</v>
-      </c>
-      <c r="J53" s="23" t="s">
-        <v>347</v>
-      </c>
-      <c r="K53" s="23" t="s">
-        <v>348</v>
-      </c>
+        <v>342</v>
+      </c>
+      <c r="H53" s="23" t="s">
+        <v>343</v>
+      </c>
+      <c r="I53" s="27"/>
+      <c r="J53" s="23"/>
+      <c r="K53" s="23"/>
       <c r="L53" s="23"/>
       <c r="M53" s="27"/>
       <c r="N53" s="27"/>
@@ -13689,40 +13376,35 @@
       <c r="X53" s="27"/>
       <c r="Y53" s="27"/>
       <c r="Z53" s="27"/>
-      <c r="AA53" s="27"/>
-      <c r="AB53" s="27"/>
-      <c r="AC53" s="27"/>
-      <c r="AD53" s="27"/>
-      <c r="AE53" s="27"/>
-    </row>
-    <row r="54" ht="17" spans="1:31">
-      <c r="A54" s="23"/>
-      <c r="B54" s="23"/>
-      <c r="C54" s="23"/>
+    </row>
+    <row r="54" ht="17" spans="1:26">
+      <c r="A54" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="B54" s="18" t="s">
+        <v>344</v>
+      </c>
+      <c r="C54" s="18">
+        <v>7</v>
+      </c>
       <c r="D54" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="E54" s="18" t="s">
-        <v>349</v>
-      </c>
-      <c r="F54" s="18">
-        <v>7</v>
+        <v>344</v>
+      </c>
+      <c r="E54" s="30" t="s">
+        <v>345</v>
+      </c>
+      <c r="F54" s="31" t="s">
+        <v>345</v>
       </c>
       <c r="G54" s="23" t="s">
-        <v>349</v>
-      </c>
-      <c r="H54" s="30" t="s">
-        <v>350</v>
-      </c>
-      <c r="I54" s="23" t="s">
-        <v>350</v>
-      </c>
-      <c r="J54" s="23" t="s">
-        <v>351</v>
-      </c>
-      <c r="K54" s="23" t="s">
-        <v>352</v>
-      </c>
+        <v>345</v>
+      </c>
+      <c r="H54" s="23" t="s">
+        <v>346</v>
+      </c>
+      <c r="I54" s="27"/>
+      <c r="J54" s="23"/>
+      <c r="K54" s="23"/>
       <c r="L54" s="23"/>
       <c r="M54" s="27"/>
       <c r="N54" s="27"/>
@@ -13738,40 +13420,35 @@
       <c r="X54" s="27"/>
       <c r="Y54" s="27"/>
       <c r="Z54" s="27"/>
-      <c r="AA54" s="27"/>
-      <c r="AB54" s="27"/>
-      <c r="AC54" s="27"/>
-      <c r="AD54" s="27"/>
-      <c r="AE54" s="27"/>
-    </row>
-    <row r="55" ht="17" spans="1:31">
-      <c r="A55" s="23"/>
-      <c r="B55" s="23"/>
-      <c r="C55" s="23"/>
+    </row>
+    <row r="55" ht="17" spans="1:26">
+      <c r="A55" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="B55" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="C55" s="18">
+        <v>1</v>
+      </c>
       <c r="D55" s="23" t="s">
-        <v>54</v>
-      </c>
-      <c r="E55" s="18" t="s">
-        <v>99</v>
-      </c>
-      <c r="F55" s="18">
-        <v>1</v>
+        <v>347</v>
+      </c>
+      <c r="E55" s="30" t="s">
+        <v>347</v>
+      </c>
+      <c r="F55" s="31" t="s">
+        <v>348</v>
       </c>
       <c r="G55" s="23" t="s">
-        <v>353</v>
-      </c>
-      <c r="H55" s="30" t="s">
-        <v>353</v>
-      </c>
-      <c r="I55" s="23" t="s">
-        <v>354</v>
-      </c>
-      <c r="J55" s="23" t="s">
-        <v>355</v>
-      </c>
-      <c r="K55" s="23" t="s">
-        <v>356</v>
-      </c>
+        <v>349</v>
+      </c>
+      <c r="H55" s="23" t="s">
+        <v>350</v>
+      </c>
+      <c r="I55" s="27"/>
+      <c r="J55" s="23"/>
+      <c r="K55" s="23"/>
       <c r="L55" s="23"/>
       <c r="M55" s="27"/>
       <c r="N55" s="27"/>
@@ -13787,40 +13464,35 @@
       <c r="X55" s="27"/>
       <c r="Y55" s="27"/>
       <c r="Z55" s="27"/>
-      <c r="AA55" s="27"/>
-      <c r="AB55" s="27"/>
-      <c r="AC55" s="27"/>
-      <c r="AD55" s="27"/>
-      <c r="AE55" s="27"/>
-    </row>
-    <row r="56" ht="17" spans="1:31">
-      <c r="A56" s="23"/>
-      <c r="B56" s="23"/>
-      <c r="C56" s="23"/>
+    </row>
+    <row r="56" ht="17" spans="1:26">
+      <c r="A56" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="B56" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="C56" s="18">
+        <v>1</v>
+      </c>
       <c r="D56" s="23" t="s">
-        <v>54</v>
-      </c>
-      <c r="E56" s="18" t="s">
-        <v>99</v>
-      </c>
-      <c r="F56" s="18">
-        <v>1</v>
-      </c>
-      <c r="G56" s="23" t="s">
-        <v>357</v>
-      </c>
-      <c r="H56" s="30" t="s">
-        <v>357</v>
-      </c>
-      <c r="I56" s="31" t="s">
-        <v>358</v>
-      </c>
-      <c r="J56" s="31" t="s">
-        <v>359</v>
-      </c>
-      <c r="K56" s="23" t="s">
-        <v>360</v>
-      </c>
+        <v>351</v>
+      </c>
+      <c r="E56" s="30" t="s">
+        <v>351</v>
+      </c>
+      <c r="F56" s="31" t="s">
+        <v>352</v>
+      </c>
+      <c r="G56" s="32" t="s">
+        <v>353</v>
+      </c>
+      <c r="H56" s="23" t="s">
+        <v>354</v>
+      </c>
+      <c r="I56" s="27"/>
+      <c r="J56" s="23"/>
+      <c r="K56" s="23"/>
       <c r="L56" s="23"/>
       <c r="M56" s="27"/>
       <c r="N56" s="27"/>
@@ -13836,40 +13508,35 @@
       <c r="X56" s="27"/>
       <c r="Y56" s="27"/>
       <c r="Z56" s="27"/>
-      <c r="AA56" s="27"/>
-      <c r="AB56" s="27"/>
-      <c r="AC56" s="27"/>
-      <c r="AD56" s="27"/>
-      <c r="AE56" s="27"/>
-    </row>
-    <row r="57" ht="17" spans="1:31">
-      <c r="A57" s="23"/>
-      <c r="B57" s="23"/>
-      <c r="C57" s="23"/>
+    </row>
+    <row r="57" ht="17" spans="1:26">
+      <c r="A57" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="B57" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="C57" s="18">
+        <v>2</v>
+      </c>
       <c r="D57" s="23" t="s">
-        <v>54</v>
-      </c>
-      <c r="E57" s="18" t="s">
-        <v>93</v>
-      </c>
-      <c r="F57" s="18">
-        <v>2</v>
-      </c>
-      <c r="G57" s="23" t="s">
-        <v>361</v>
+        <v>355</v>
+      </c>
+      <c r="E57" s="23" t="s">
+        <v>355</v>
+      </c>
+      <c r="F57" s="33" t="s">
+        <v>356</v>
+      </c>
+      <c r="G57" s="32" t="s">
+        <v>357</v>
       </c>
       <c r="H57" s="23" t="s">
-        <v>361</v>
-      </c>
-      <c r="I57" s="32" t="s">
-        <v>362</v>
-      </c>
-      <c r="J57" s="31" t="s">
-        <v>363</v>
-      </c>
-      <c r="K57" s="23" t="s">
-        <v>364</v>
-      </c>
+        <v>358</v>
+      </c>
+      <c r="I57" s="27"/>
+      <c r="J57" s="23"/>
+      <c r="K57" s="23"/>
       <c r="L57" s="23"/>
       <c r="M57" s="27"/>
       <c r="N57" s="27"/>
@@ -13885,40 +13552,35 @@
       <c r="X57" s="27"/>
       <c r="Y57" s="27"/>
       <c r="Z57" s="27"/>
-      <c r="AA57" s="27"/>
-      <c r="AB57" s="27"/>
-      <c r="AC57" s="27"/>
-      <c r="AD57" s="27"/>
-      <c r="AE57" s="27"/>
-    </row>
-    <row r="58" ht="17" spans="1:31">
-      <c r="A58" s="23"/>
-      <c r="B58" s="23"/>
-      <c r="C58" s="23"/>
+    </row>
+    <row r="58" ht="17" spans="1:26">
+      <c r="A58" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="B58" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="C58" s="18">
+        <v>2</v>
+      </c>
       <c r="D58" s="23" t="s">
-        <v>54</v>
-      </c>
-      <c r="E58" s="18" t="s">
-        <v>93</v>
-      </c>
-      <c r="F58" s="18">
-        <v>2</v>
-      </c>
-      <c r="G58" s="23" t="s">
-        <v>365</v>
-      </c>
-      <c r="H58" s="30" t="s">
-        <v>365</v>
-      </c>
-      <c r="I58" s="32" t="s">
-        <v>366</v>
-      </c>
-      <c r="J58" s="31" t="s">
-        <v>367</v>
-      </c>
-      <c r="K58" s="23" t="s">
-        <v>368</v>
-      </c>
+        <v>359</v>
+      </c>
+      <c r="E58" s="30" t="s">
+        <v>359</v>
+      </c>
+      <c r="F58" s="33" t="s">
+        <v>360</v>
+      </c>
+      <c r="G58" s="32" t="s">
+        <v>361</v>
+      </c>
+      <c r="H58" s="23" t="s">
+        <v>362</v>
+      </c>
+      <c r="I58" s="27"/>
+      <c r="J58" s="23"/>
+      <c r="K58" s="23"/>
       <c r="L58" s="23"/>
       <c r="M58" s="27"/>
       <c r="N58" s="27"/>
@@ -13934,101 +13596,87 @@
       <c r="X58" s="27"/>
       <c r="Y58" s="27"/>
       <c r="Z58" s="27"/>
-      <c r="AA58" s="27"/>
-      <c r="AB58" s="27"/>
-      <c r="AC58" s="27"/>
-      <c r="AD58" s="27"/>
-      <c r="AE58" s="27"/>
-    </row>
-    <row r="59" s="17" customFormat="1" customHeight="1" spans="1:31">
-      <c r="D59" s="33" t="s">
+    </row>
+    <row r="59" s="17" customFormat="1" customHeight="1" spans="1:26">
+      <c r="A59" s="34" t="s">
         <v>104</v>
       </c>
-      <c r="E59" s="34" t="s">
+      <c r="B59" s="35" t="s">
         <v>99</v>
       </c>
-      <c r="F59" s="35">
+      <c r="C59" s="36">
         <v>1</v>
       </c>
-      <c r="G59" s="10" t="s">
+      <c r="D59" s="10" t="s">
+        <v>363</v>
+      </c>
+      <c r="E59" s="10" t="s">
+        <v>364</v>
+      </c>
+      <c r="F59" s="37" t="s">
+        <v>365</v>
+      </c>
+      <c r="G59" s="38" t="s">
+        <v>366</v>
+      </c>
+      <c r="H59" s="32" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="60" s="17" customFormat="1" customHeight="1" spans="1:26">
+      <c r="A60" s="34" t="s">
+        <v>104</v>
+      </c>
+      <c r="B60" s="35" t="s">
+        <v>99</v>
+      </c>
+      <c r="C60" s="36">
+        <v>1</v>
+      </c>
+      <c r="D60" s="10" t="s">
+        <v>368</v>
+      </c>
+      <c r="E60" s="10" t="s">
         <v>369</v>
       </c>
-      <c r="H59" s="10" t="s">
+      <c r="F60" s="38" t="s">
         <v>370</v>
       </c>
-      <c r="I59" s="36" t="s">
+      <c r="G60" s="38" t="s">
         <v>371</v>
       </c>
-      <c r="J59" s="36" t="s">
+      <c r="H60" s="32" t="s">
         <v>372</v>
       </c>
-      <c r="K59" s="31" t="s">
+    </row>
+    <row r="61" s="17" customFormat="1" customHeight="1" spans="1:26">
+      <c r="A61" s="34" t="s">
+        <v>104</v>
+      </c>
+      <c r="B61" s="35" t="s">
+        <v>99</v>
+      </c>
+      <c r="C61" s="36">
+        <v>1</v>
+      </c>
+      <c r="D61" s="10" t="s">
         <v>373</v>
       </c>
-      <c r="L59" s="37" t="s">
+      <c r="E61" s="10" t="s">
         <v>374</v>
       </c>
-    </row>
-    <row r="60" s="17" customFormat="1" customHeight="1" spans="1:31">
-      <c r="D60" s="33" t="s">
-        <v>104</v>
-      </c>
-      <c r="E60" s="34" t="s">
-        <v>99</v>
-      </c>
-      <c r="F60" s="35">
-        <v>1</v>
-      </c>
-      <c r="G60" s="10" t="s">
+      <c r="F61" s="38" t="s">
         <v>375</v>
       </c>
-      <c r="H60" s="10" t="s">
+      <c r="G61" s="38" t="s">
         <v>376</v>
       </c>
-      <c r="I60" s="36" t="s">
+      <c r="H61" s="32" t="s">
         <v>377</v>
       </c>
-      <c r="J60" s="36" t="s">
-        <v>378</v>
-      </c>
-      <c r="K60" s="31" t="s">
-        <v>379</v>
-      </c>
-      <c r="L60" s="37" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="61" s="17" customFormat="1" customHeight="1" spans="1:31">
-      <c r="D61" s="33" t="s">
-        <v>104</v>
-      </c>
-      <c r="E61" s="34" t="s">
-        <v>99</v>
-      </c>
-      <c r="F61" s="35">
-        <v>1</v>
-      </c>
-      <c r="G61" s="10" t="s">
-        <v>380</v>
-      </c>
-      <c r="H61" s="10" t="s">
-        <v>381</v>
-      </c>
-      <c r="I61" s="36" t="s">
-        <v>382</v>
-      </c>
-      <c r="J61" s="36" t="s">
-        <v>383</v>
-      </c>
-      <c r="K61" s="31" t="s">
-        <v>384</v>
-      </c>
-      <c r="L61" s="37" t="s">
-        <v>374</v>
-      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="K59:K61">
+  <conditionalFormatting sqref="H59:H61">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -14108,16 +13756,16 @@
       <c r="B2" s="7"/>
       <c r="C2" s="7"/>
       <c r="D2" s="8" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="H2" s="11"/>
       <c r="I2" s="11"/>
@@ -14145,16 +13793,16 @@
       <c r="B3" s="7"/>
       <c r="C3" s="7"/>
       <c r="D3" s="8" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>390</v>
+        <v>383</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
       <c r="H3" s="11"/>
       <c r="I3" s="11"/>
@@ -14182,16 +13830,16 @@
       <c r="B4" s="7"/>
       <c r="C4" s="7"/>
       <c r="D4" s="8" t="s">
+        <v>378</v>
+      </c>
+      <c r="E4" s="9" t="s">
         <v>385</v>
       </c>
-      <c r="E4" s="9" t="s">
-        <v>392</v>
-      </c>
       <c r="F4" s="10" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>394</v>
+        <v>387</v>
       </c>
       <c r="H4" s="11"/>
       <c r="I4" s="11"/>
@@ -14219,16 +13867,16 @@
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
       <c r="D5" s="8" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>397</v>
+        <v>390</v>
       </c>
       <c r="H5" s="11"/>
       <c r="I5" s="11"/>
@@ -14256,16 +13904,16 @@
       <c r="B6" s="7"/>
       <c r="C6" s="7"/>
       <c r="D6" s="8" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>398</v>
+        <v>391</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="H6" s="11"/>
       <c r="I6" s="11"/>
@@ -14293,16 +13941,16 @@
       <c r="B7" s="7"/>
       <c r="C7" s="7"/>
       <c r="D7" s="8" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>401</v>
+        <v>394</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="H7" s="11"/>
       <c r="I7" s="11"/>
@@ -14330,16 +13978,16 @@
       <c r="B8" s="7"/>
       <c r="C8" s="7"/>
       <c r="D8" s="8" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>406</v>
+        <v>399</v>
       </c>
       <c r="H8" s="11"/>
       <c r="I8" s="11"/>
@@ -14367,16 +14015,16 @@
       <c r="B9" s="7"/>
       <c r="C9" s="7"/>
       <c r="D9" s="8" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>407</v>
+        <v>400</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
       <c r="H9" s="11"/>
       <c r="I9" s="11"/>
@@ -14404,16 +14052,16 @@
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
       <c r="D10" s="8" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>410</v>
+        <v>403</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>412</v>
+        <v>405</v>
       </c>
       <c r="H10" s="11"/>
       <c r="I10" s="11"/>
@@ -14441,16 +14089,16 @@
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
       <c r="D11" s="8" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>413</v>
+        <v>406</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>414</v>
+        <v>407</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>415</v>
+        <v>408</v>
       </c>
       <c r="H11" s="11"/>
       <c r="I11" s="11"/>
@@ -14478,16 +14126,16 @@
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
       <c r="D12" s="8" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>416</v>
+        <v>409</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>417</v>
+        <v>410</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>418</v>
+        <v>411</v>
       </c>
       <c r="H12" s="11"/>
       <c r="I12" s="11"/>
@@ -14515,16 +14163,16 @@
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
       <c r="D13" s="8" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>420</v>
+        <v>413</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>421</v>
+        <v>414</v>
       </c>
       <c r="H13" s="11"/>
       <c r="I13" s="11"/>
@@ -14552,16 +14200,16 @@
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
       <c r="D14" s="8" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>422</v>
+        <v>415</v>
       </c>
       <c r="F14" s="10" t="s">
-        <v>423</v>
+        <v>416</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>424</v>
+        <v>417</v>
       </c>
       <c r="H14" s="11"/>
       <c r="I14" s="11"/>
@@ -14589,16 +14237,16 @@
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
       <c r="D15" s="8" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>425</v>
+        <v>418</v>
       </c>
       <c r="F15" s="10" t="s">
-        <v>426</v>
+        <v>419</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>427</v>
+        <v>420</v>
       </c>
       <c r="H15" s="11"/>
       <c r="I15" s="11"/>
@@ -14626,16 +14274,16 @@
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
       <c r="D16" s="8" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>428</v>
+        <v>421</v>
       </c>
       <c r="F16" s="10" t="s">
-        <v>429</v>
+        <v>422</v>
       </c>
       <c r="G16" s="8" t="s">
-        <v>430</v>
+        <v>423</v>
       </c>
       <c r="H16" s="11"/>
       <c r="I16" s="11"/>
@@ -14663,16 +14311,16 @@
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
       <c r="D17" s="8" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>431</v>
+        <v>424</v>
       </c>
       <c r="F17" s="10" t="s">
-        <v>432</v>
+        <v>425</v>
       </c>
       <c r="G17" s="8" t="s">
-        <v>433</v>
+        <v>426</v>
       </c>
       <c r="H17" s="11"/>
       <c r="I17" s="11"/>
@@ -14700,16 +14348,16 @@
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
       <c r="D18" s="8" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
       <c r="F18" s="10" t="s">
-        <v>435</v>
+        <v>428</v>
       </c>
       <c r="G18" s="8" t="s">
-        <v>436</v>
+        <v>429</v>
       </c>
       <c r="H18" s="11"/>
       <c r="I18" s="11"/>
@@ -14737,16 +14385,16 @@
       <c r="B19" s="7"/>
       <c r="C19" s="7"/>
       <c r="D19" s="8" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>437</v>
+        <v>430</v>
       </c>
       <c r="F19" s="10" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
       <c r="G19" s="8" t="s">
-        <v>439</v>
+        <v>432</v>
       </c>
       <c r="H19" s="11"/>
       <c r="I19" s="11"/>
@@ -14774,16 +14422,16 @@
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
       <c r="D20" s="8" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>440</v>
+        <v>433</v>
       </c>
       <c r="F20" s="10" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
       <c r="G20" s="8" t="s">
-        <v>442</v>
+        <v>435</v>
       </c>
       <c r="H20" s="11"/>
       <c r="I20" s="11"/>
@@ -14811,16 +14459,16 @@
       <c r="B21" s="7"/>
       <c r="C21" s="7"/>
       <c r="D21" s="8" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>443</v>
+        <v>436</v>
       </c>
       <c r="F21" s="10" t="s">
-        <v>444</v>
+        <v>437</v>
       </c>
       <c r="G21" s="8" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="H21" s="11"/>
       <c r="I21" s="11"/>
@@ -14848,16 +14496,16 @@
       <c r="B22" s="7"/>
       <c r="C22" s="7"/>
       <c r="D22" s="8" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>446</v>
+        <v>439</v>
       </c>
       <c r="F22" s="10" t="s">
-        <v>447</v>
+        <v>440</v>
       </c>
       <c r="G22" s="8" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="H22" s="11"/>
       <c r="I22" s="11"/>
@@ -14885,16 +14533,16 @@
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
       <c r="D23" s="8" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>449</v>
+        <v>442</v>
       </c>
       <c r="F23" s="10" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
       <c r="G23" s="8" t="s">
-        <v>451</v>
+        <v>444</v>
       </c>
       <c r="H23" s="11"/>
       <c r="I23" s="11"/>
@@ -14922,16 +14570,16 @@
       <c r="B24" s="7"/>
       <c r="C24" s="7"/>
       <c r="D24" s="8" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>452</v>
+        <v>445</v>
       </c>
       <c r="F24" s="10" t="s">
-        <v>453</v>
+        <v>446</v>
       </c>
       <c r="G24" s="8" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="H24" s="11"/>
       <c r="I24" s="11"/>
@@ -14959,16 +14607,16 @@
       <c r="B25" s="7"/>
       <c r="C25" s="7"/>
       <c r="D25" s="8" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>455</v>
+        <v>448</v>
       </c>
       <c r="F25" s="10" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
       <c r="G25" s="8" t="s">
-        <v>457</v>
+        <v>450</v>
       </c>
       <c r="H25" s="11"/>
       <c r="I25" s="11"/>
@@ -14996,16 +14644,16 @@
       <c r="B26" s="7"/>
       <c r="C26" s="7"/>
       <c r="D26" s="8" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>458</v>
+        <v>451</v>
       </c>
       <c r="F26" s="10" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="G26" s="8" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="H26" s="11"/>
       <c r="I26" s="11"/>
@@ -15033,16 +14681,16 @@
       <c r="B27" s="7"/>
       <c r="C27" s="7"/>
       <c r="D27" s="8" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="E27" s="9" t="s">
-        <v>461</v>
+        <v>454</v>
       </c>
       <c r="F27" s="10" t="s">
-        <v>462</v>
+        <v>455</v>
       </c>
       <c r="G27" s="8" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
       <c r="H27" s="11"/>
       <c r="I27" s="11"/>
@@ -15070,16 +14718,16 @@
       <c r="B28" s="7"/>
       <c r="C28" s="7"/>
       <c r="D28" s="8" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="E28" s="9" t="s">
-        <v>464</v>
+        <v>457</v>
       </c>
       <c r="F28" s="10" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="G28" s="8" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
       <c r="H28" s="11"/>
       <c r="I28" s="11"/>
@@ -15107,16 +14755,16 @@
       <c r="B29" s="7"/>
       <c r="C29" s="7"/>
       <c r="D29" s="8" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="E29" s="9" t="s">
-        <v>467</v>
+        <v>460</v>
       </c>
       <c r="F29" s="10" t="s">
-        <v>468</v>
+        <v>461</v>
       </c>
       <c r="G29" s="8" t="s">
-        <v>469</v>
+        <v>462</v>
       </c>
       <c r="H29" s="11"/>
       <c r="I29" s="11"/>
@@ -15144,16 +14792,16 @@
       <c r="B30" s="7"/>
       <c r="C30" s="7"/>
       <c r="D30" s="8" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="E30" s="9" t="s">
-        <v>470</v>
+        <v>463</v>
       </c>
       <c r="F30" s="10" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
       <c r="G30" s="8" t="s">
-        <v>472</v>
+        <v>465</v>
       </c>
       <c r="H30" s="11"/>
       <c r="I30" s="11"/>
@@ -15181,16 +14829,16 @@
       <c r="B31" s="7"/>
       <c r="C31" s="7"/>
       <c r="D31" s="8" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="E31" s="9" t="s">
-        <v>473</v>
+        <v>466</v>
       </c>
       <c r="F31" s="10" t="s">
-        <v>474</v>
+        <v>467</v>
       </c>
       <c r="G31" s="8" t="s">
-        <v>475</v>
+        <v>468</v>
       </c>
       <c r="H31" s="11"/>
       <c r="I31" s="11"/>
@@ -15218,16 +14866,16 @@
       <c r="B32" s="7"/>
       <c r="C32" s="7"/>
       <c r="D32" s="8" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="E32" s="9" t="s">
-        <v>476</v>
+        <v>469</v>
       </c>
       <c r="F32" s="10" t="s">
-        <v>477</v>
+        <v>470</v>
       </c>
       <c r="G32" s="8" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="H32" s="11"/>
       <c r="I32" s="11"/>
@@ -15255,16 +14903,16 @@
       <c r="B33" s="7"/>
       <c r="C33" s="7"/>
       <c r="D33" s="8" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="E33" s="9" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="F33" s="10" t="s">
-        <v>480</v>
+        <v>473</v>
       </c>
       <c r="G33" s="8" t="s">
-        <v>481</v>
+        <v>474</v>
       </c>
       <c r="H33" s="11"/>
       <c r="I33" s="11"/>
@@ -15292,16 +14940,16 @@
       <c r="B34" s="7"/>
       <c r="C34" s="7"/>
       <c r="D34" s="8" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="E34" s="9" t="s">
-        <v>482</v>
+        <v>475</v>
       </c>
       <c r="F34" s="10" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="G34" s="8" t="s">
-        <v>484</v>
+        <v>477</v>
       </c>
       <c r="H34" s="11"/>
       <c r="I34" s="11"/>
@@ -15329,16 +14977,16 @@
       <c r="B35" s="7"/>
       <c r="C35" s="7"/>
       <c r="D35" s="8" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="E35" s="9" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="F35" s="10" t="s">
-        <v>486</v>
+        <v>479</v>
       </c>
       <c r="G35" s="8" t="s">
-        <v>487</v>
+        <v>480</v>
       </c>
       <c r="H35" s="11"/>
       <c r="I35" s="11"/>
@@ -15366,16 +15014,16 @@
       <c r="B36" s="7"/>
       <c r="C36" s="7"/>
       <c r="D36" s="8" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="E36" s="9" t="s">
-        <v>488</v>
+        <v>481</v>
       </c>
       <c r="F36" s="10" t="s">
-        <v>489</v>
+        <v>482</v>
       </c>
       <c r="G36" s="8" t="s">
-        <v>490</v>
+        <v>483</v>
       </c>
       <c r="H36" s="11"/>
       <c r="I36" s="11"/>
@@ -15403,16 +15051,16 @@
       <c r="B37" s="7"/>
       <c r="C37" s="7"/>
       <c r="D37" s="8" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="E37" s="9" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="F37" s="10" t="s">
-        <v>492</v>
+        <v>485</v>
       </c>
       <c r="G37" s="8" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="H37" s="11"/>
       <c r="I37" s="11"/>
@@ -15440,16 +15088,16 @@
       <c r="B38" s="7"/>
       <c r="C38" s="7"/>
       <c r="D38" s="8" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="E38" s="9" t="s">
-        <v>494</v>
+        <v>487</v>
       </c>
       <c r="F38" s="10" t="s">
-        <v>495</v>
+        <v>488</v>
       </c>
       <c r="G38" s="8" t="s">
-        <v>496</v>
+        <v>489</v>
       </c>
       <c r="H38" s="11"/>
       <c r="I38" s="11"/>
@@ -15477,16 +15125,16 @@
       <c r="B39" s="7"/>
       <c r="C39" s="7"/>
       <c r="D39" s="8" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="E39" s="9" t="s">
-        <v>497</v>
+        <v>490</v>
       </c>
       <c r="F39" s="10" t="s">
-        <v>498</v>
+        <v>491</v>
       </c>
       <c r="G39" s="8" t="s">
-        <v>499</v>
+        <v>492</v>
       </c>
       <c r="H39" s="11"/>
       <c r="I39" s="11"/>
@@ -15514,16 +15162,16 @@
       <c r="B40" s="7"/>
       <c r="C40" s="7"/>
       <c r="D40" s="8" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="E40" s="9" t="s">
-        <v>500</v>
+        <v>493</v>
       </c>
       <c r="F40" s="10" t="s">
-        <v>501</v>
+        <v>494</v>
       </c>
       <c r="G40" s="8" t="s">
-        <v>502</v>
+        <v>495</v>
       </c>
       <c r="H40" s="11"/>
       <c r="I40" s="11"/>
@@ -15551,16 +15199,16 @@
       <c r="B41" s="7"/>
       <c r="C41" s="7"/>
       <c r="D41" s="8" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="E41" s="9" t="s">
-        <v>503</v>
+        <v>496</v>
       </c>
       <c r="F41" s="10" t="s">
-        <v>504</v>
+        <v>497</v>
       </c>
       <c r="G41" s="8" t="s">
-        <v>505</v>
+        <v>498</v>
       </c>
       <c r="H41" s="11"/>
       <c r="I41" s="11"/>
@@ -15588,16 +15236,16 @@
       <c r="B42" s="7"/>
       <c r="C42" s="7"/>
       <c r="D42" s="8" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="E42" s="9" t="s">
-        <v>506</v>
+        <v>499</v>
       </c>
       <c r="F42" s="10" t="s">
-        <v>507</v>
+        <v>500</v>
       </c>
       <c r="G42" s="8" t="s">
-        <v>508</v>
+        <v>501</v>
       </c>
       <c r="H42" s="11"/>
       <c r="I42" s="11"/>
@@ -15625,16 +15273,16 @@
       <c r="B43" s="7"/>
       <c r="C43" s="7"/>
       <c r="D43" s="8" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="E43" s="9" t="s">
-        <v>509</v>
+        <v>502</v>
       </c>
       <c r="F43" s="10" t="s">
-        <v>510</v>
+        <v>503</v>
       </c>
       <c r="G43" s="8" t="s">
-        <v>511</v>
+        <v>504</v>
       </c>
       <c r="H43" s="11"/>
       <c r="I43" s="11"/>
@@ -15662,16 +15310,16 @@
       <c r="B44" s="7"/>
       <c r="C44" s="7"/>
       <c r="D44" s="8" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="E44" s="9" t="s">
-        <v>512</v>
+        <v>505</v>
       </c>
       <c r="F44" s="10" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
       <c r="G44" s="8" t="s">
-        <v>514</v>
+        <v>507</v>
       </c>
       <c r="H44" s="11"/>
       <c r="I44" s="11"/>
@@ -15699,16 +15347,16 @@
       <c r="B45" s="7"/>
       <c r="C45" s="7"/>
       <c r="D45" s="8" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="E45" s="9" t="s">
-        <v>515</v>
+        <v>508</v>
       </c>
       <c r="F45" s="10" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="G45" s="8" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="H45" s="11"/>
       <c r="I45" s="11"/>
@@ -15736,16 +15384,16 @@
       <c r="B46" s="7"/>
       <c r="C46" s="7"/>
       <c r="D46" s="8" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="E46" s="9" t="s">
-        <v>518</v>
+        <v>511</v>
       </c>
       <c r="F46" s="10" t="s">
-        <v>519</v>
+        <v>512</v>
       </c>
       <c r="G46" s="8" t="s">
-        <v>520</v>
+        <v>513</v>
       </c>
       <c r="H46" s="11"/>
       <c r="I46" s="11"/>
@@ -15773,16 +15421,16 @@
       <c r="B47" s="7"/>
       <c r="C47" s="7"/>
       <c r="D47" s="8" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="E47" s="9" t="s">
-        <v>521</v>
+        <v>514</v>
       </c>
       <c r="F47" s="10" t="s">
-        <v>522</v>
+        <v>515</v>
       </c>
       <c r="G47" s="8" t="s">
-        <v>523</v>
+        <v>516</v>
       </c>
       <c r="H47" s="11"/>
       <c r="I47" s="11"/>
@@ -15810,16 +15458,16 @@
       <c r="B48" s="7"/>
       <c r="C48" s="7"/>
       <c r="D48" s="8" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="E48" s="9" t="s">
-        <v>524</v>
+        <v>517</v>
       </c>
       <c r="F48" s="10" t="s">
-        <v>525</v>
+        <v>518</v>
       </c>
       <c r="G48" s="8" t="s">
-        <v>526</v>
+        <v>519</v>
       </c>
       <c r="H48" s="11"/>
       <c r="I48" s="11"/>
@@ -15847,16 +15495,16 @@
       <c r="B49" s="7"/>
       <c r="C49" s="7"/>
       <c r="D49" s="8" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="E49" s="9" t="s">
-        <v>527</v>
+        <v>520</v>
       </c>
       <c r="F49" s="10" t="s">
-        <v>528</v>
+        <v>521</v>
       </c>
       <c r="G49" s="8" t="s">
-        <v>529</v>
+        <v>522</v>
       </c>
       <c r="H49" s="11"/>
       <c r="I49" s="11"/>
@@ -15884,16 +15532,16 @@
       <c r="B50" s="7"/>
       <c r="C50" s="7"/>
       <c r="D50" s="8" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="E50" s="9" t="s">
-        <v>530</v>
+        <v>523</v>
       </c>
       <c r="F50" s="10" t="s">
-        <v>531</v>
+        <v>524</v>
       </c>
       <c r="G50" s="8" t="s">
-        <v>532</v>
+        <v>525</v>
       </c>
       <c r="H50" s="11"/>
       <c r="I50" s="11"/>
@@ -15921,16 +15569,16 @@
       <c r="B51" s="7"/>
       <c r="C51" s="7"/>
       <c r="D51" s="8" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="E51" s="9" t="s">
-        <v>533</v>
+        <v>526</v>
       </c>
       <c r="F51" s="10" t="s">
-        <v>534</v>
+        <v>527</v>
       </c>
       <c r="G51" s="8" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="H51" s="11"/>
       <c r="I51" s="11"/>
@@ -15958,16 +15606,16 @@
       <c r="B52" s="7"/>
       <c r="C52" s="7"/>
       <c r="D52" s="8" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="E52" s="9" t="s">
-        <v>535</v>
+        <v>528</v>
       </c>
       <c r="F52" s="10" t="s">
-        <v>536</v>
+        <v>529</v>
       </c>
       <c r="G52" s="8" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="H52" s="11"/>
       <c r="I52" s="11"/>
@@ -15995,16 +15643,16 @@
       <c r="B53" s="7"/>
       <c r="C53" s="7"/>
       <c r="D53" s="8" t="s">
-        <v>537</v>
+        <v>530</v>
       </c>
       <c r="E53" s="9" t="s">
-        <v>538</v>
+        <v>531</v>
       </c>
       <c r="F53" s="10" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="G53" s="8" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="H53" s="11"/>
       <c r="I53" s="11"/>
@@ -16032,16 +15680,16 @@
       <c r="B54" s="7"/>
       <c r="C54" s="7"/>
       <c r="D54" s="8" t="s">
-        <v>537</v>
+        <v>530</v>
       </c>
       <c r="E54" s="9" t="s">
-        <v>539</v>
+        <v>532</v>
       </c>
       <c r="F54" s="10" t="s">
-        <v>390</v>
+        <v>383</v>
       </c>
       <c r="G54" s="8" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
       <c r="H54" s="11"/>
       <c r="I54" s="11"/>
@@ -16069,16 +15717,16 @@
       <c r="B55" s="7"/>
       <c r="C55" s="7"/>
       <c r="D55" s="8" t="s">
-        <v>537</v>
+        <v>530</v>
       </c>
       <c r="E55" s="9" t="s">
-        <v>540</v>
+        <v>533</v>
       </c>
       <c r="F55" s="10" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="G55" s="8" t="s">
-        <v>394</v>
+        <v>387</v>
       </c>
       <c r="H55" s="11"/>
       <c r="I55" s="11"/>
@@ -16106,16 +15754,16 @@
       <c r="B56" s="7"/>
       <c r="C56" s="7"/>
       <c r="D56" s="8" t="s">
-        <v>537</v>
+        <v>530</v>
       </c>
       <c r="E56" s="9" t="s">
-        <v>541</v>
+        <v>534</v>
       </c>
       <c r="F56" s="10" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="G56" s="8" t="s">
-        <v>397</v>
+        <v>390</v>
       </c>
       <c r="H56" s="11"/>
       <c r="I56" s="11"/>
@@ -16143,16 +15791,16 @@
       <c r="B57" s="7"/>
       <c r="C57" s="7"/>
       <c r="D57" s="8" t="s">
-        <v>537</v>
+        <v>530</v>
       </c>
       <c r="E57" s="9" t="s">
-        <v>542</v>
+        <v>535</v>
       </c>
       <c r="F57" s="10" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
       <c r="G57" s="8" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="H57" s="11"/>
       <c r="I57" s="11"/>
@@ -16180,16 +15828,16 @@
       <c r="B58" s="11"/>
       <c r="C58" s="11"/>
       <c r="D58" s="8" t="s">
-        <v>537</v>
+        <v>530</v>
       </c>
       <c r="E58" s="9" t="s">
-        <v>543</v>
+        <v>536</v>
       </c>
       <c r="F58" s="10" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
       <c r="G58" s="8" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="H58" s="11"/>
       <c r="I58" s="11"/>
@@ -16217,16 +15865,16 @@
       <c r="B59" s="11"/>
       <c r="C59" s="11"/>
       <c r="D59" s="8" t="s">
+        <v>530</v>
+      </c>
+      <c r="E59" s="9" t="s">
         <v>537</v>
       </c>
-      <c r="E59" s="9" t="s">
-        <v>544</v>
-      </c>
       <c r="F59" s="10" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
       <c r="G59" s="8" t="s">
-        <v>406</v>
+        <v>399</v>
       </c>
       <c r="H59" s="11"/>
       <c r="I59" s="11"/>
@@ -16254,16 +15902,16 @@
       <c r="B60" s="11"/>
       <c r="C60" s="11"/>
       <c r="D60" s="8" t="s">
-        <v>537</v>
+        <v>530</v>
       </c>
       <c r="E60" s="9" t="s">
-        <v>545</v>
+        <v>538</v>
       </c>
       <c r="F60" s="10" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
       <c r="G60" s="8" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
       <c r="H60" s="11"/>
       <c r="I60" s="11"/>
@@ -16291,16 +15939,16 @@
       <c r="B61" s="11"/>
       <c r="C61" s="11"/>
       <c r="D61" s="8" t="s">
-        <v>537</v>
+        <v>530</v>
       </c>
       <c r="E61" s="9" t="s">
-        <v>546</v>
+        <v>539</v>
       </c>
       <c r="F61" s="10" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
       <c r="G61" s="8" t="s">
-        <v>412</v>
+        <v>405</v>
       </c>
       <c r="H61" s="11"/>
       <c r="I61" s="11"/>
@@ -16328,16 +15976,16 @@
       <c r="B62" s="11"/>
       <c r="C62" s="11"/>
       <c r="D62" s="8" t="s">
-        <v>537</v>
+        <v>530</v>
       </c>
       <c r="E62" s="9" t="s">
-        <v>547</v>
+        <v>540</v>
       </c>
       <c r="F62" s="10" t="s">
-        <v>414</v>
+        <v>407</v>
       </c>
       <c r="G62" s="8" t="s">
-        <v>415</v>
+        <v>408</v>
       </c>
       <c r="H62" s="11"/>
       <c r="I62" s="11"/>
@@ -16365,16 +16013,16 @@
       <c r="B63" s="11"/>
       <c r="C63" s="11"/>
       <c r="D63" s="8" t="s">
-        <v>537</v>
+        <v>530</v>
       </c>
       <c r="E63" s="9" t="s">
-        <v>548</v>
+        <v>541</v>
       </c>
       <c r="F63" s="10" t="s">
-        <v>417</v>
+        <v>410</v>
       </c>
       <c r="G63" s="8" t="s">
-        <v>418</v>
+        <v>411</v>
       </c>
       <c r="H63" s="11"/>
       <c r="I63" s="11"/>
@@ -16402,16 +16050,16 @@
       <c r="B64" s="11"/>
       <c r="C64" s="11"/>
       <c r="D64" s="8" t="s">
-        <v>537</v>
+        <v>530</v>
       </c>
       <c r="E64" s="9" t="s">
-        <v>549</v>
+        <v>542</v>
       </c>
       <c r="F64" s="10" t="s">
-        <v>420</v>
+        <v>413</v>
       </c>
       <c r="G64" s="8" t="s">
-        <v>421</v>
+        <v>414</v>
       </c>
       <c r="H64" s="11"/>
       <c r="I64" s="11"/>
@@ -16439,16 +16087,16 @@
       <c r="B65" s="11"/>
       <c r="C65" s="11"/>
       <c r="D65" s="8" t="s">
-        <v>537</v>
+        <v>530</v>
       </c>
       <c r="E65" s="9" t="s">
-        <v>550</v>
+        <v>543</v>
       </c>
       <c r="F65" s="10" t="s">
-        <v>423</v>
+        <v>416</v>
       </c>
       <c r="G65" s="8" t="s">
-        <v>424</v>
+        <v>417</v>
       </c>
       <c r="H65" s="11"/>
       <c r="I65" s="11"/>
@@ -16476,16 +16124,16 @@
       <c r="B66" s="11"/>
       <c r="C66" s="11"/>
       <c r="D66" s="8" t="s">
-        <v>537</v>
+        <v>530</v>
       </c>
       <c r="E66" s="9" t="s">
-        <v>551</v>
+        <v>544</v>
       </c>
       <c r="F66" s="10" t="s">
-        <v>426</v>
+        <v>419</v>
       </c>
       <c r="G66" s="8" t="s">
-        <v>427</v>
+        <v>420</v>
       </c>
       <c r="H66" s="11"/>
       <c r="I66" s="11"/>
@@ -16513,16 +16161,16 @@
       <c r="B67" s="11"/>
       <c r="C67" s="11"/>
       <c r="D67" s="8" t="s">
-        <v>537</v>
+        <v>530</v>
       </c>
       <c r="E67" s="9" t="s">
-        <v>552</v>
+        <v>545</v>
       </c>
       <c r="F67" s="10" t="s">
-        <v>429</v>
+        <v>422</v>
       </c>
       <c r="G67" s="8" t="s">
-        <v>430</v>
+        <v>423</v>
       </c>
       <c r="H67" s="11"/>
       <c r="I67" s="11"/>
@@ -16550,16 +16198,16 @@
       <c r="B68" s="11"/>
       <c r="C68" s="11"/>
       <c r="D68" s="8" t="s">
-        <v>537</v>
+        <v>530</v>
       </c>
       <c r="E68" s="9" t="s">
-        <v>553</v>
+        <v>546</v>
       </c>
       <c r="F68" s="10" t="s">
-        <v>432</v>
+        <v>425</v>
       </c>
       <c r="G68" s="8" t="s">
-        <v>433</v>
+        <v>426</v>
       </c>
       <c r="H68" s="11"/>
       <c r="I68" s="11"/>
@@ -16587,16 +16235,16 @@
       <c r="B69" s="11"/>
       <c r="C69" s="11"/>
       <c r="D69" s="8" t="s">
-        <v>537</v>
+        <v>530</v>
       </c>
       <c r="E69" s="9" t="s">
-        <v>554</v>
+        <v>547</v>
       </c>
       <c r="F69" s="10" t="s">
-        <v>435</v>
+        <v>428</v>
       </c>
       <c r="G69" s="8" t="s">
-        <v>436</v>
+        <v>429</v>
       </c>
       <c r="H69" s="11"/>
       <c r="I69" s="11"/>
@@ -16624,16 +16272,16 @@
       <c r="B70" s="11"/>
       <c r="C70" s="11"/>
       <c r="D70" s="8" t="s">
-        <v>537</v>
+        <v>530</v>
       </c>
       <c r="E70" s="9" t="s">
-        <v>555</v>
+        <v>548</v>
       </c>
       <c r="F70" s="10" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
       <c r="G70" s="8" t="s">
-        <v>439</v>
+        <v>432</v>
       </c>
       <c r="H70" s="11"/>
       <c r="I70" s="11"/>
@@ -16661,16 +16309,16 @@
       <c r="B71" s="11"/>
       <c r="C71" s="11"/>
       <c r="D71" s="8" t="s">
-        <v>537</v>
+        <v>530</v>
       </c>
       <c r="E71" s="9" t="s">
-        <v>556</v>
+        <v>549</v>
       </c>
       <c r="F71" s="10" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
       <c r="G71" s="8" t="s">
-        <v>442</v>
+        <v>435</v>
       </c>
       <c r="H71" s="11"/>
       <c r="I71" s="11"/>
@@ -16698,16 +16346,16 @@
       <c r="B72" s="11"/>
       <c r="C72" s="11"/>
       <c r="D72" s="8" t="s">
-        <v>537</v>
+        <v>530</v>
       </c>
       <c r="E72" s="9" t="s">
-        <v>557</v>
+        <v>550</v>
       </c>
       <c r="F72" s="10" t="s">
-        <v>444</v>
+        <v>437</v>
       </c>
       <c r="G72" s="8" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="H72" s="11"/>
       <c r="I72" s="11"/>
@@ -16735,16 +16383,16 @@
       <c r="B73" s="11"/>
       <c r="C73" s="11"/>
       <c r="D73" s="8" t="s">
-        <v>537</v>
+        <v>530</v>
       </c>
       <c r="E73" s="9" t="s">
-        <v>558</v>
+        <v>551</v>
       </c>
       <c r="F73" s="10" t="s">
-        <v>447</v>
+        <v>440</v>
       </c>
       <c r="G73" s="8" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="H73" s="11"/>
       <c r="I73" s="11"/>
@@ -16772,16 +16420,16 @@
       <c r="B74" s="11"/>
       <c r="C74" s="11"/>
       <c r="D74" s="8" t="s">
-        <v>537</v>
+        <v>530</v>
       </c>
       <c r="E74" s="9" t="s">
-        <v>559</v>
+        <v>552</v>
       </c>
       <c r="F74" s="10" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
       <c r="G74" s="8" t="s">
-        <v>451</v>
+        <v>444</v>
       </c>
       <c r="H74" s="11"/>
       <c r="I74" s="11"/>
@@ -16809,16 +16457,16 @@
       <c r="B75" s="11"/>
       <c r="C75" s="11"/>
       <c r="D75" s="8" t="s">
-        <v>537</v>
+        <v>530</v>
       </c>
       <c r="E75" s="9" t="s">
-        <v>560</v>
+        <v>553</v>
       </c>
       <c r="F75" s="10" t="s">
-        <v>453</v>
+        <v>446</v>
       </c>
       <c r="G75" s="8" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="H75" s="11"/>
       <c r="I75" s="11"/>
@@ -16846,16 +16494,16 @@
       <c r="B76" s="11"/>
       <c r="C76" s="11"/>
       <c r="D76" s="8" t="s">
-        <v>537</v>
+        <v>530</v>
       </c>
       <c r="E76" s="9" t="s">
-        <v>561</v>
+        <v>554</v>
       </c>
       <c r="F76" s="10" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
       <c r="G76" s="8" t="s">
-        <v>457</v>
+        <v>450</v>
       </c>
       <c r="H76" s="11"/>
       <c r="I76" s="11"/>
@@ -16883,16 +16531,16 @@
       <c r="B77" s="11"/>
       <c r="C77" s="11"/>
       <c r="D77" s="8" t="s">
-        <v>537</v>
+        <v>530</v>
       </c>
       <c r="E77" s="9" t="s">
-        <v>562</v>
+        <v>555</v>
       </c>
       <c r="F77" s="10" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="G77" s="8" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="H77" s="11"/>
       <c r="I77" s="11"/>
@@ -16920,16 +16568,16 @@
       <c r="B78" s="11"/>
       <c r="C78" s="11"/>
       <c r="D78" s="8" t="s">
-        <v>537</v>
+        <v>530</v>
       </c>
       <c r="E78" s="9" t="s">
-        <v>563</v>
+        <v>556</v>
       </c>
       <c r="F78" s="10" t="s">
-        <v>462</v>
+        <v>455</v>
       </c>
       <c r="G78" s="8" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
       <c r="H78" s="11"/>
       <c r="I78" s="11"/>
@@ -16957,16 +16605,16 @@
       <c r="B79" s="11"/>
       <c r="C79" s="11"/>
       <c r="D79" s="8" t="s">
-        <v>537</v>
+        <v>530</v>
       </c>
       <c r="E79" s="9" t="s">
-        <v>564</v>
+        <v>557</v>
       </c>
       <c r="F79" s="10" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="G79" s="8" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
       <c r="H79" s="11"/>
       <c r="I79" s="11"/>
@@ -16994,16 +16642,16 @@
       <c r="B80" s="11"/>
       <c r="C80" s="11"/>
       <c r="D80" s="8" t="s">
-        <v>537</v>
+        <v>530</v>
       </c>
       <c r="E80" s="9" t="s">
-        <v>565</v>
+        <v>558</v>
       </c>
       <c r="F80" s="10" t="s">
-        <v>468</v>
+        <v>461</v>
       </c>
       <c r="G80" s="8" t="s">
-        <v>469</v>
+        <v>462</v>
       </c>
       <c r="H80" s="11"/>
       <c r="I80" s="11"/>
@@ -17031,16 +16679,16 @@
       <c r="B81" s="11"/>
       <c r="C81" s="11"/>
       <c r="D81" s="8" t="s">
-        <v>537</v>
+        <v>530</v>
       </c>
       <c r="E81" s="9" t="s">
-        <v>566</v>
+        <v>559</v>
       </c>
       <c r="F81" s="10" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
       <c r="G81" s="8" t="s">
-        <v>472</v>
+        <v>465</v>
       </c>
       <c r="H81" s="11"/>
       <c r="I81" s="11"/>
@@ -17068,16 +16716,16 @@
       <c r="B82" s="11"/>
       <c r="C82" s="11"/>
       <c r="D82" s="8" t="s">
-        <v>537</v>
+        <v>530</v>
       </c>
       <c r="E82" s="9" t="s">
-        <v>567</v>
+        <v>560</v>
       </c>
       <c r="F82" s="10" t="s">
-        <v>474</v>
+        <v>467</v>
       </c>
       <c r="G82" s="8" t="s">
-        <v>475</v>
+        <v>468</v>
       </c>
       <c r="H82" s="11"/>
       <c r="I82" s="11"/>
@@ -17105,16 +16753,16 @@
       <c r="B83" s="11"/>
       <c r="C83" s="11"/>
       <c r="D83" s="8" t="s">
-        <v>537</v>
+        <v>530</v>
       </c>
       <c r="E83" s="9" t="s">
-        <v>568</v>
+        <v>561</v>
       </c>
       <c r="F83" s="10" t="s">
-        <v>477</v>
+        <v>470</v>
       </c>
       <c r="G83" s="8" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="H83" s="11"/>
       <c r="I83" s="11"/>
@@ -17142,16 +16790,16 @@
       <c r="B84" s="11"/>
       <c r="C84" s="11"/>
       <c r="D84" s="8" t="s">
-        <v>537</v>
+        <v>530</v>
       </c>
       <c r="E84" s="9" t="s">
-        <v>569</v>
+        <v>562</v>
       </c>
       <c r="F84" s="10" t="s">
-        <v>480</v>
+        <v>473</v>
       </c>
       <c r="G84" s="8" t="s">
-        <v>481</v>
+        <v>474</v>
       </c>
       <c r="H84" s="11"/>
       <c r="I84" s="11"/>
@@ -17179,16 +16827,16 @@
       <c r="B85" s="11"/>
       <c r="C85" s="11"/>
       <c r="D85" s="8" t="s">
-        <v>537</v>
+        <v>530</v>
       </c>
       <c r="E85" s="9" t="s">
-        <v>570</v>
+        <v>563</v>
       </c>
       <c r="F85" s="10" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="G85" s="8" t="s">
-        <v>484</v>
+        <v>477</v>
       </c>
       <c r="H85" s="11"/>
       <c r="I85" s="11"/>
@@ -17216,16 +16864,16 @@
       <c r="B86" s="11"/>
       <c r="C86" s="11"/>
       <c r="D86" s="8" t="s">
-        <v>537</v>
+        <v>530</v>
       </c>
       <c r="E86" s="9" t="s">
-        <v>571</v>
+        <v>564</v>
       </c>
       <c r="F86" s="10" t="s">
-        <v>486</v>
+        <v>479</v>
       </c>
       <c r="G86" s="8" t="s">
-        <v>487</v>
+        <v>480</v>
       </c>
       <c r="H86" s="11"/>
       <c r="I86" s="11"/>
@@ -17253,16 +16901,16 @@
       <c r="B87" s="11"/>
       <c r="C87" s="11"/>
       <c r="D87" s="8" t="s">
-        <v>537</v>
+        <v>530</v>
       </c>
       <c r="E87" s="9" t="s">
-        <v>572</v>
+        <v>565</v>
       </c>
       <c r="F87" s="10" t="s">
-        <v>489</v>
+        <v>482</v>
       </c>
       <c r="G87" s="8" t="s">
-        <v>490</v>
+        <v>483</v>
       </c>
       <c r="H87" s="11"/>
       <c r="I87" s="11"/>
@@ -17290,16 +16938,16 @@
       <c r="B88" s="11"/>
       <c r="C88" s="11"/>
       <c r="D88" s="8" t="s">
-        <v>537</v>
+        <v>530</v>
       </c>
       <c r="E88" s="9" t="s">
-        <v>573</v>
+        <v>566</v>
       </c>
       <c r="F88" s="10" t="s">
-        <v>492</v>
+        <v>485</v>
       </c>
       <c r="G88" s="8" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="H88" s="11"/>
       <c r="I88" s="11"/>
@@ -17327,16 +16975,16 @@
       <c r="B89" s="11"/>
       <c r="C89" s="11"/>
       <c r="D89" s="8" t="s">
-        <v>537</v>
+        <v>530</v>
       </c>
       <c r="E89" s="9" t="s">
-        <v>574</v>
+        <v>567</v>
       </c>
       <c r="F89" s="10" t="s">
-        <v>495</v>
+        <v>488</v>
       </c>
       <c r="G89" s="8" t="s">
-        <v>496</v>
+        <v>489</v>
       </c>
       <c r="H89" s="11"/>
       <c r="I89" s="11"/>
@@ -17364,16 +17012,16 @@
       <c r="B90" s="11"/>
       <c r="C90" s="11"/>
       <c r="D90" s="8" t="s">
-        <v>537</v>
+        <v>530</v>
       </c>
       <c r="E90" s="9" t="s">
-        <v>575</v>
+        <v>568</v>
       </c>
       <c r="F90" s="10" t="s">
-        <v>498</v>
+        <v>491</v>
       </c>
       <c r="G90" s="8" t="s">
-        <v>499</v>
+        <v>492</v>
       </c>
       <c r="H90" s="11"/>
       <c r="I90" s="11"/>
@@ -17401,16 +17049,16 @@
       <c r="B91" s="11"/>
       <c r="C91" s="11"/>
       <c r="D91" s="8" t="s">
-        <v>537</v>
+        <v>530</v>
       </c>
       <c r="E91" s="9" t="s">
-        <v>576</v>
+        <v>569</v>
       </c>
       <c r="F91" s="10" t="s">
-        <v>501</v>
+        <v>494</v>
       </c>
       <c r="G91" s="8" t="s">
-        <v>502</v>
+        <v>495</v>
       </c>
       <c r="H91" s="11"/>
       <c r="I91" s="11"/>
@@ -17438,16 +17086,16 @@
       <c r="B92" s="11"/>
       <c r="C92" s="11"/>
       <c r="D92" s="8" t="s">
-        <v>537</v>
+        <v>530</v>
       </c>
       <c r="E92" s="9" t="s">
-        <v>577</v>
+        <v>570</v>
       </c>
       <c r="F92" s="10" t="s">
-        <v>504</v>
+        <v>497</v>
       </c>
       <c r="G92" s="8" t="s">
-        <v>505</v>
+        <v>498</v>
       </c>
       <c r="H92" s="11"/>
       <c r="I92" s="11"/>
@@ -17475,16 +17123,16 @@
       <c r="B93" s="11"/>
       <c r="C93" s="11"/>
       <c r="D93" s="8" t="s">
-        <v>537</v>
+        <v>530</v>
       </c>
       <c r="E93" s="9" t="s">
-        <v>578</v>
+        <v>571</v>
       </c>
       <c r="F93" s="10" t="s">
-        <v>507</v>
+        <v>500</v>
       </c>
       <c r="G93" s="8" t="s">
-        <v>508</v>
+        <v>501</v>
       </c>
       <c r="H93" s="11"/>
       <c r="I93" s="11"/>
@@ -17512,16 +17160,16 @@
       <c r="B94" s="11"/>
       <c r="C94" s="11"/>
       <c r="D94" s="8" t="s">
-        <v>537</v>
+        <v>530</v>
       </c>
       <c r="E94" s="9" t="s">
-        <v>579</v>
+        <v>572</v>
       </c>
       <c r="F94" s="10" t="s">
-        <v>510</v>
+        <v>503</v>
       </c>
       <c r="G94" s="8" t="s">
-        <v>511</v>
+        <v>504</v>
       </c>
       <c r="H94" s="11"/>
       <c r="I94" s="11"/>
@@ -17549,16 +17197,16 @@
       <c r="B95" s="11"/>
       <c r="C95" s="11"/>
       <c r="D95" s="8" t="s">
-        <v>537</v>
+        <v>530</v>
       </c>
       <c r="E95" s="9" t="s">
-        <v>580</v>
+        <v>573</v>
       </c>
       <c r="F95" s="10" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
       <c r="G95" s="8" t="s">
-        <v>581</v>
+        <v>574</v>
       </c>
       <c r="H95" s="11"/>
       <c r="I95" s="11"/>
@@ -17586,16 +17234,16 @@
       <c r="B96" s="11"/>
       <c r="C96" s="11"/>
       <c r="D96" s="8" t="s">
-        <v>537</v>
+        <v>530</v>
       </c>
       <c r="E96" s="9" t="s">
-        <v>582</v>
+        <v>575</v>
       </c>
       <c r="F96" s="10" t="s">
-        <v>583</v>
+        <v>576</v>
       </c>
       <c r="G96" s="8" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="H96" s="11"/>
       <c r="I96" s="11"/>
@@ -17623,16 +17271,16 @@
       <c r="B97" s="11"/>
       <c r="C97" s="11"/>
       <c r="D97" s="8" t="s">
-        <v>537</v>
+        <v>530</v>
       </c>
       <c r="E97" s="9" t="s">
-        <v>584</v>
+        <v>577</v>
       </c>
       <c r="F97" s="10" t="s">
-        <v>585</v>
+        <v>578</v>
       </c>
       <c r="G97" s="8" t="s">
-        <v>520</v>
+        <v>513</v>
       </c>
       <c r="H97" s="11"/>
       <c r="I97" s="11"/>
@@ -17660,16 +17308,16 @@
       <c r="B98" s="11"/>
       <c r="C98" s="11"/>
       <c r="D98" s="8" t="s">
-        <v>537</v>
+        <v>530</v>
       </c>
       <c r="E98" s="9" t="s">
-        <v>586</v>
+        <v>579</v>
       </c>
       <c r="F98" s="10" t="s">
-        <v>587</v>
+        <v>580</v>
       </c>
       <c r="G98" s="8" t="s">
-        <v>523</v>
+        <v>516</v>
       </c>
       <c r="H98" s="11"/>
       <c r="I98" s="11"/>
@@ -17697,16 +17345,16 @@
       <c r="B99" s="11"/>
       <c r="C99" s="11"/>
       <c r="D99" s="8" t="s">
-        <v>537</v>
+        <v>530</v>
       </c>
       <c r="E99" s="9" t="s">
-        <v>588</v>
+        <v>581</v>
       </c>
       <c r="F99" s="10" t="s">
-        <v>589</v>
+        <v>582</v>
       </c>
       <c r="G99" s="8" t="s">
-        <v>526</v>
+        <v>519</v>
       </c>
       <c r="H99" s="11"/>
       <c r="I99" s="11"/>
@@ -17734,16 +17382,16 @@
       <c r="B100" s="11"/>
       <c r="C100" s="11"/>
       <c r="D100" s="8" t="s">
-        <v>537</v>
+        <v>530</v>
       </c>
       <c r="E100" s="9" t="s">
-        <v>590</v>
+        <v>583</v>
       </c>
       <c r="F100" s="10" t="s">
-        <v>528</v>
+        <v>521</v>
       </c>
       <c r="G100" s="8" t="s">
-        <v>529</v>
+        <v>522</v>
       </c>
       <c r="H100" s="11"/>
       <c r="I100" s="11"/>
@@ -17771,16 +17419,16 @@
       <c r="B101" s="11"/>
       <c r="C101" s="11"/>
       <c r="D101" s="8" t="s">
-        <v>537</v>
+        <v>530</v>
       </c>
       <c r="E101" s="9" t="s">
-        <v>591</v>
+        <v>584</v>
       </c>
       <c r="F101" s="10" t="s">
-        <v>592</v>
+        <v>585</v>
       </c>
       <c r="G101" s="8" t="s">
-        <v>532</v>
+        <v>525</v>
       </c>
       <c r="H101" s="11"/>
       <c r="I101" s="11"/>
@@ -17808,16 +17456,16 @@
       <c r="B102" s="11"/>
       <c r="C102" s="11"/>
       <c r="D102" s="8" t="s">
-        <v>537</v>
+        <v>530</v>
       </c>
       <c r="E102" s="9" t="s">
-        <v>593</v>
+        <v>586</v>
       </c>
       <c r="F102" s="10" t="s">
-        <v>534</v>
+        <v>527</v>
       </c>
       <c r="G102" s="8" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="H102" s="11"/>
       <c r="I102" s="11"/>
@@ -17845,16 +17493,16 @@
       <c r="B103" s="11"/>
       <c r="C103" s="11"/>
       <c r="D103" s="8" t="s">
-        <v>537</v>
+        <v>530</v>
       </c>
       <c r="E103" s="9" t="s">
-        <v>594</v>
+        <v>587</v>
       </c>
       <c r="F103" s="10" t="s">
-        <v>536</v>
+        <v>529</v>
       </c>
       <c r="G103" s="8" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="H103" s="11"/>
       <c r="I103" s="11"/>
@@ -17882,16 +17530,16 @@
       <c r="B104" s="11"/>
       <c r="C104" s="11"/>
       <c r="D104" s="8" t="s">
-        <v>595</v>
+        <v>588</v>
       </c>
       <c r="E104" s="9" t="s">
-        <v>596</v>
+        <v>589</v>
       </c>
       <c r="F104" s="10" t="s">
-        <v>597</v>
+        <v>590</v>
       </c>
       <c r="G104" s="8" t="s">
-        <v>598</v>
+        <v>591</v>
       </c>
       <c r="H104" s="11"/>
       <c r="I104" s="11"/>
@@ -17919,16 +17567,16 @@
       <c r="B105" s="11"/>
       <c r="C105" s="11"/>
       <c r="D105" s="8" t="s">
-        <v>595</v>
+        <v>588</v>
       </c>
       <c r="E105" s="9" t="s">
-        <v>599</v>
+        <v>592</v>
       </c>
       <c r="F105" s="10" t="s">
-        <v>600</v>
+        <v>593</v>
       </c>
       <c r="G105" s="8" t="s">
-        <v>601</v>
+        <v>594</v>
       </c>
       <c r="H105" s="11"/>
       <c r="I105" s="11"/>
@@ -17956,16 +17604,16 @@
       <c r="B106" s="11"/>
       <c r="C106" s="11"/>
       <c r="D106" s="8" t="s">
+        <v>588</v>
+      </c>
+      <c r="E106" s="9" t="s">
         <v>595</v>
       </c>
-      <c r="E106" s="9" t="s">
-        <v>602</v>
-      </c>
       <c r="F106" s="10" t="s">
-        <v>603</v>
+        <v>596</v>
       </c>
       <c r="G106" s="8" t="s">
-        <v>604</v>
+        <v>597</v>
       </c>
       <c r="H106" s="11"/>
       <c r="I106" s="11"/>
@@ -17993,16 +17641,16 @@
       <c r="B107" s="11"/>
       <c r="C107" s="11"/>
       <c r="D107" s="8" t="s">
-        <v>605</v>
+        <v>598</v>
       </c>
       <c r="E107" s="9" t="s">
-        <v>606</v>
+        <v>599</v>
       </c>
       <c r="F107" s="10" t="s">
-        <v>607</v>
+        <v>600</v>
       </c>
       <c r="G107" s="8" t="s">
-        <v>608</v>
+        <v>601</v>
       </c>
       <c r="H107" s="11"/>
       <c r="I107" s="11"/>
@@ -18030,16 +17678,16 @@
       <c r="B108" s="11"/>
       <c r="C108" s="11"/>
       <c r="D108" s="8" t="s">
-        <v>605</v>
+        <v>598</v>
       </c>
       <c r="E108" s="9" t="s">
-        <v>609</v>
+        <v>602</v>
       </c>
       <c r="F108" s="10" t="s">
-        <v>610</v>
+        <v>603</v>
       </c>
       <c r="G108" s="8" t="s">
-        <v>611</v>
+        <v>604</v>
       </c>
       <c r="H108" s="11"/>
       <c r="I108" s="11"/>
@@ -18067,16 +17715,16 @@
       <c r="B109" s="11"/>
       <c r="C109" s="11"/>
       <c r="D109" s="8" t="s">
+        <v>598</v>
+      </c>
+      <c r="E109" s="9" t="s">
         <v>605</v>
       </c>
-      <c r="E109" s="9" t="s">
-        <v>612</v>
-      </c>
       <c r="F109" s="10" t="s">
-        <v>613</v>
+        <v>606</v>
       </c>
       <c r="G109" s="8" t="s">
-        <v>614</v>
+        <v>607</v>
       </c>
       <c r="H109" s="11"/>
       <c r="I109" s="11"/>
@@ -18104,16 +17752,16 @@
       <c r="B110" s="11"/>
       <c r="C110" s="11"/>
       <c r="D110" s="8" t="s">
-        <v>605</v>
+        <v>598</v>
       </c>
       <c r="E110" s="9" t="s">
-        <v>615</v>
+        <v>608</v>
       </c>
       <c r="F110" s="10" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="G110" s="8" t="s">
-        <v>617</v>
+        <v>610</v>
       </c>
       <c r="H110" s="11"/>
       <c r="I110" s="11"/>
@@ -18141,16 +17789,16 @@
       <c r="B111" s="11"/>
       <c r="C111" s="11"/>
       <c r="D111" s="8" t="s">
-        <v>605</v>
+        <v>598</v>
       </c>
       <c r="E111" s="9" t="s">
-        <v>618</v>
+        <v>611</v>
       </c>
       <c r="F111" s="10" t="s">
-        <v>619</v>
+        <v>612</v>
       </c>
       <c r="G111" s="8" t="s">
-        <v>620</v>
+        <v>613</v>
       </c>
       <c r="H111" s="11"/>
       <c r="I111" s="11"/>
@@ -18178,16 +17826,16 @@
       <c r="B112" s="11"/>
       <c r="C112" s="11"/>
       <c r="D112" s="13" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="E112" s="14" t="s">
-        <v>621</v>
+        <v>614</v>
       </c>
       <c r="F112" s="13" t="s">
-        <v>622</v>
+        <v>615</v>
       </c>
       <c r="G112" s="13" t="s">
-        <v>623</v>
+        <v>616</v>
       </c>
       <c r="H112" s="13"/>
       <c r="I112" s="15"/>
@@ -18197,16 +17845,16 @@
       <c r="B113" s="11"/>
       <c r="C113" s="11"/>
       <c r="D113" s="13" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="E113" s="14" t="s">
-        <v>624</v>
+        <v>617</v>
       </c>
       <c r="F113" s="13" t="s">
-        <v>625</v>
+        <v>618</v>
       </c>
       <c r="G113" s="13" t="s">
-        <v>626</v>
+        <v>619</v>
       </c>
       <c r="H113" s="13"/>
       <c r="I113" s="15"/>
@@ -18216,16 +17864,16 @@
       <c r="B114" s="11"/>
       <c r="C114" s="11"/>
       <c r="D114" s="13" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="E114" s="14" t="s">
-        <v>627</v>
+        <v>620</v>
       </c>
       <c r="F114" s="13" t="s">
-        <v>628</v>
+        <v>621</v>
       </c>
       <c r="G114" s="13" t="s">
-        <v>629</v>
+        <v>622</v>
       </c>
       <c r="H114" s="13"/>
       <c r="I114" s="15"/>
@@ -18235,16 +17883,16 @@
       <c r="B115" s="11"/>
       <c r="C115" s="11"/>
       <c r="D115" s="13" t="s">
-        <v>537</v>
+        <v>530</v>
       </c>
       <c r="E115" s="14" t="s">
-        <v>630</v>
+        <v>623</v>
       </c>
       <c r="F115" s="13" t="s">
-        <v>432</v>
+        <v>425</v>
       </c>
       <c r="G115" s="13" t="s">
-        <v>623</v>
+        <v>616</v>
       </c>
       <c r="H115" s="13"/>
       <c r="I115" s="15"/>
@@ -18254,16 +17902,16 @@
       <c r="B116" s="11"/>
       <c r="C116" s="11"/>
       <c r="D116" s="13" t="s">
-        <v>537</v>
+        <v>530</v>
       </c>
       <c r="E116" s="14" t="s">
-        <v>631</v>
+        <v>624</v>
       </c>
       <c r="F116" s="13" t="s">
-        <v>435</v>
+        <v>428</v>
       </c>
       <c r="G116" s="13" t="s">
-        <v>626</v>
+        <v>619</v>
       </c>
       <c r="H116" s="13"/>
       <c r="I116" s="15"/>
@@ -18273,16 +17921,16 @@
       <c r="B117" s="11"/>
       <c r="C117" s="11"/>
       <c r="D117" s="13" t="s">
-        <v>537</v>
+        <v>530</v>
       </c>
       <c r="E117" s="14" t="s">
-        <v>632</v>
+        <v>625</v>
       </c>
       <c r="F117" s="13" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
       <c r="G117" s="13" t="s">
-        <v>629</v>
+        <v>622</v>
       </c>
       <c r="H117" s="13"/>
       <c r="I117" s="15"/>

--- a/instance/zyjk/CHC/i/体重评估规则/weightAssessmentRule.xlsx
+++ b/instance/zyjk/CHC/i/体重评估规则/weightAssessmentRule.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="16760" tabRatio="785" activeTab="4"/>
+    <workbookView windowWidth="18060" windowHeight="16760" tabRatio="785" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="readme" sheetId="14" r:id="rId1"/>
@@ -7194,7 +7194,7 @@
     <t>TZ_SRL004</t>
   </si>
   <si>
-    <t>TZ_AGE002 ='是'</t>
+    <t>TZ_AGE002='是' or TZ_AGE003 ='是'</t>
   </si>
   <si>
     <t>3-10岁儿童基础代谢率</t>
@@ -7203,7 +7203,7 @@
     <t>TZ_SRL005</t>
   </si>
   <si>
-    <t>TZ_AGE003 ='是'</t>
+    <t>TZ_AGE004 ='是'</t>
   </si>
   <si>
     <t>11-18岁儿童基础代谢率</t>
@@ -7521,14 +7521,14 @@
     </font>
     <font>
       <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="宋体-简"/>
+      <color rgb="FFFF0000"/>
+      <name val="仿宋"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
-      <color rgb="FFFF0000"/>
-      <name val="仿宋"/>
+      <color rgb="FF000000"/>
+      <name val="宋体-简"/>
       <charset val="134"/>
     </font>
     <font>
@@ -8083,7 +8083,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -8169,12 +8169,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -8182,9 +8176,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -8890,388 +8881,388 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.84615384615385" defaultRowHeight="16.8"/>
   <cols>
-    <col min="1" max="1" width="21.7884615384615" style="77" customWidth="1"/>
-    <col min="2" max="2" width="18.7403846153846" style="77" customWidth="1"/>
-    <col min="3" max="3" width="16.3365384615385" style="77" customWidth="1"/>
-    <col min="4" max="4" width="25.9519230769231" style="77" customWidth="1"/>
-    <col min="5" max="5" width="26.1153846153846" style="77" customWidth="1"/>
-    <col min="6" max="6" width="33.8076923076923" style="77" customWidth="1"/>
-    <col min="7" max="7" width="33" style="77" customWidth="1"/>
-    <col min="8" max="8" width="27.7211538461538" style="77" customWidth="1"/>
-    <col min="9" max="9" width="20.9903846153846" style="77" customWidth="1"/>
-    <col min="10" max="10" width="26.2788461538462" style="77" customWidth="1"/>
-    <col min="11" max="11" width="30.7692307692308" style="77" customWidth="1"/>
-    <col min="12" max="12" width="19.0673076923077" style="77" customWidth="1"/>
-    <col min="13" max="13" width="15.8557692307692" style="77" customWidth="1"/>
-    <col min="14" max="15" width="16.9807692307692" style="77" customWidth="1"/>
-    <col min="16" max="16" width="13.9326923076923" style="77" customWidth="1"/>
-    <col min="17" max="16384" width="9.84615384615385" style="77"/>
+    <col min="1" max="1" width="21.7884615384615" style="74" customWidth="1"/>
+    <col min="2" max="2" width="18.7403846153846" style="74" customWidth="1"/>
+    <col min="3" max="3" width="16.3365384615385" style="74" customWidth="1"/>
+    <col min="4" max="4" width="25.9519230769231" style="74" customWidth="1"/>
+    <col min="5" max="5" width="26.1153846153846" style="74" customWidth="1"/>
+    <col min="6" max="6" width="33.8076923076923" style="74" customWidth="1"/>
+    <col min="7" max="7" width="33" style="74" customWidth="1"/>
+    <col min="8" max="8" width="27.7211538461538" style="74" customWidth="1"/>
+    <col min="9" max="9" width="20.9903846153846" style="74" customWidth="1"/>
+    <col min="10" max="10" width="26.2788461538462" style="74" customWidth="1"/>
+    <col min="11" max="11" width="30.7692307692308" style="74" customWidth="1"/>
+    <col min="12" max="12" width="19.0673076923077" style="74" customWidth="1"/>
+    <col min="13" max="13" width="15.8557692307692" style="74" customWidth="1"/>
+    <col min="14" max="15" width="16.9807692307692" style="74" customWidth="1"/>
+    <col min="16" max="16" width="13.9326923076923" style="74" customWidth="1"/>
+    <col min="17" max="16384" width="9.84615384615385" style="74"/>
   </cols>
   <sheetData>
-    <row r="1" s="72" customFormat="1" ht="33" customHeight="1" spans="1:31">
-      <c r="A1" s="78" t="s">
+    <row r="1" s="69" customFormat="1" ht="33" customHeight="1" spans="1:31">
+      <c r="A1" s="75" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" s="72" customFormat="1" ht="33" customHeight="1" spans="1:31">
-      <c r="A2" s="72" t="s">
+    <row r="2" s="69" customFormat="1" ht="33" customHeight="1" spans="1:31">
+      <c r="A2" s="69" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="72" t="s">
+      <c r="B2" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="72" t="s">
+      <c r="C2" s="69" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="72" t="s">
+      <c r="D2" s="69" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="72" t="s">
+      <c r="E2" s="69" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="72" t="s">
+      <c r="F2" s="69" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="72" t="s">
+      <c r="G2" s="69" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="72" t="s">
+      <c r="H2" s="69" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="72" t="s">
+      <c r="I2" s="69" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="72" t="s">
+      <c r="J2" s="69" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="72" t="s">
+      <c r="K2" s="69" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" s="72" customFormat="1" ht="33" customHeight="1" spans="1:31">
-      <c r="A3" s="72" t="s">
+    <row r="3" s="69" customFormat="1" ht="33" customHeight="1" spans="1:31">
+      <c r="A3" s="69" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="72" t="s">
+      <c r="B3" s="69" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="72" t="s">
+      <c r="C3" s="69" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="72" t="s">
+      <c r="D3" s="69" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="72" t="s">
+      <c r="E3" s="69" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="72" t="s">
+      <c r="F3" s="69" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="72" t="s">
+      <c r="G3" s="69" t="s">
         <v>18</v>
       </c>
-      <c r="H3" s="72" t="s">
+      <c r="H3" s="69" t="s">
         <v>19</v>
       </c>
-      <c r="I3" s="72" t="s">
+      <c r="I3" s="69" t="s">
         <v>20</v>
       </c>
-      <c r="J3" s="72" t="s">
+      <c r="J3" s="69" t="s">
         <v>21</v>
       </c>
-      <c r="K3" s="72" t="s">
+      <c r="K3" s="69" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="4" s="73" customFormat="1" ht="33" customHeight="1"/>
-    <row r="5" s="74" customFormat="1" ht="36" customHeight="1" spans="1:31">
-      <c r="A5" s="78" t="s">
+    <row r="4" s="70" customFormat="1" ht="33" customHeight="1"/>
+    <row r="5" s="71" customFormat="1" ht="36" customHeight="1" spans="1:31">
+      <c r="A5" s="75" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="78"/>
-      <c r="C5" s="78"/>
-    </row>
-    <row r="6" s="72" customFormat="1" ht="36" customHeight="1" spans="1:31">
-      <c r="A6" s="72" t="s">
+      <c r="B5" s="75"/>
+      <c r="C5" s="75"/>
+    </row>
+    <row r="6" s="69" customFormat="1" ht="36" customHeight="1" spans="1:31">
+      <c r="A6" s="69" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="72" t="s">
+      <c r="B6" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="72" t="s">
+      <c r="C6" s="69" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="72" t="s">
+      <c r="D6" s="69" t="s">
         <v>24</v>
       </c>
-      <c r="E6" s="72" t="s">
+      <c r="E6" s="69" t="s">
         <v>4</v>
       </c>
-      <c r="F6" s="72" t="s">
+      <c r="F6" s="69" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="72" t="s">
+      <c r="G6" s="69" t="s">
         <v>25</v>
       </c>
-      <c r="H6" s="72" t="s">
+      <c r="H6" s="69" t="s">
         <v>26</v>
       </c>
-      <c r="I6" s="72" t="s">
+      <c r="I6" s="69" t="s">
         <v>27</v>
       </c>
-      <c r="J6" s="72" t="s">
+      <c r="J6" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="K6" s="72" t="s">
+      <c r="K6" s="69" t="s">
         <v>8</v>
       </c>
-      <c r="L6" s="72" t="s">
+      <c r="L6" s="69" t="s">
         <v>29</v>
       </c>
-      <c r="M6" s="72" t="s">
+      <c r="M6" s="69" t="s">
         <v>30</v>
       </c>
-      <c r="N6" s="72" t="s">
+      <c r="N6" s="69" t="s">
         <v>31</v>
       </c>
-      <c r="O6" s="72" t="s">
+      <c r="O6" s="69" t="s">
         <v>10</v>
       </c>
-      <c r="P6" s="72" t="s">
+      <c r="P6" s="69" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" s="72" customFormat="1" ht="33" customHeight="1" spans="1:31">
-      <c r="A7" s="75" t="s">
+    <row r="7" s="69" customFormat="1" ht="33" customHeight="1" spans="1:31">
+      <c r="A7" s="72" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="75" t="s">
+      <c r="B7" s="72" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="72" t="s">
+      <c r="C7" s="69" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="72" t="s">
+      <c r="D7" s="69" t="s">
         <v>32</v>
       </c>
-      <c r="E7" s="72" t="s">
+      <c r="E7" s="69" t="s">
         <v>15</v>
       </c>
-      <c r="F7" s="72" t="s">
+      <c r="F7" s="69" t="s">
         <v>16</v>
       </c>
-      <c r="G7" s="72" t="s">
+      <c r="G7" s="69" t="s">
         <v>33</v>
       </c>
-      <c r="H7" s="72" t="s">
+      <c r="H7" s="69" t="s">
         <v>34</v>
       </c>
-      <c r="I7" s="72" t="s">
+      <c r="I7" s="69" t="s">
         <v>35</v>
       </c>
-      <c r="J7" s="79" t="s">
+      <c r="J7" s="76" t="s">
         <v>36</v>
       </c>
-      <c r="K7" s="79" t="s">
+      <c r="K7" s="76" t="s">
         <v>37</v>
       </c>
-      <c r="L7" s="72" t="s">
+      <c r="L7" s="69" t="s">
         <v>38</v>
       </c>
-      <c r="M7" s="72" t="s">
+      <c r="M7" s="69" t="s">
         <v>39</v>
       </c>
-      <c r="N7" s="72" t="s">
+      <c r="N7" s="69" t="s">
         <v>20</v>
       </c>
-      <c r="O7" s="72" t="s">
+      <c r="O7" s="69" t="s">
         <v>21</v>
       </c>
-      <c r="P7" s="72" t="s">
+      <c r="P7" s="69" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="8" s="73" customFormat="1" ht="27.75" customHeight="1" spans="1:31">
-      <c r="A8" s="80"/>
-      <c r="B8" s="80"/>
-      <c r="C8" s="80"/>
-      <c r="D8" s="80"/>
-      <c r="E8" s="80"/>
-      <c r="F8" s="80"/>
-      <c r="G8" s="28"/>
-      <c r="H8" s="80"/>
-      <c r="I8" s="80"/>
-      <c r="J8" s="28"/>
-      <c r="K8" s="28"/>
-      <c r="L8" s="80"/>
-      <c r="M8" s="80"/>
-      <c r="N8" s="80"/>
-      <c r="O8" s="80"/>
-      <c r="P8" s="80"/>
-      <c r="Q8" s="80"/>
-      <c r="R8" s="80"/>
-      <c r="S8" s="80"/>
-      <c r="T8" s="80"/>
-      <c r="U8" s="80"/>
-      <c r="V8" s="80"/>
-      <c r="W8" s="80"/>
-      <c r="X8" s="80"/>
-      <c r="Y8" s="80"/>
-      <c r="Z8" s="80"/>
-      <c r="AA8" s="80"/>
-      <c r="AB8" s="80"/>
-      <c r="AC8" s="80"/>
-      <c r="AD8" s="80"/>
-      <c r="AE8" s="80"/>
-    </row>
-    <row r="9" s="75" customFormat="1" ht="33" customHeight="1" spans="1:31">
-      <c r="A9" s="78" t="s">
+    <row r="8" s="70" customFormat="1" ht="27.75" customHeight="1" spans="1:31">
+      <c r="A8" s="77"/>
+      <c r="B8" s="77"/>
+      <c r="C8" s="77"/>
+      <c r="D8" s="77"/>
+      <c r="E8" s="77"/>
+      <c r="F8" s="77"/>
+      <c r="G8" s="27"/>
+      <c r="H8" s="77"/>
+      <c r="I8" s="77"/>
+      <c r="J8" s="27"/>
+      <c r="K8" s="27"/>
+      <c r="L8" s="77"/>
+      <c r="M8" s="77"/>
+      <c r="N8" s="77"/>
+      <c r="O8" s="77"/>
+      <c r="P8" s="77"/>
+      <c r="Q8" s="77"/>
+      <c r="R8" s="77"/>
+      <c r="S8" s="77"/>
+      <c r="T8" s="77"/>
+      <c r="U8" s="77"/>
+      <c r="V8" s="77"/>
+      <c r="W8" s="77"/>
+      <c r="X8" s="77"/>
+      <c r="Y8" s="77"/>
+      <c r="Z8" s="77"/>
+      <c r="AA8" s="77"/>
+      <c r="AB8" s="77"/>
+      <c r="AC8" s="77"/>
+      <c r="AD8" s="77"/>
+      <c r="AE8" s="77"/>
+    </row>
+    <row r="9" s="72" customFormat="1" ht="33" customHeight="1" spans="1:31">
+      <c r="A9" s="75" t="s">
         <v>40</v>
       </c>
-      <c r="B9" s="75"/>
-      <c r="C9" s="81"/>
-      <c r="D9" s="81"/>
-      <c r="E9" s="81"/>
-      <c r="F9" s="81"/>
-      <c r="G9" s="81"/>
-      <c r="H9" s="81"/>
-      <c r="I9" s="81"/>
-      <c r="J9" s="81"/>
-      <c r="K9" s="81"/>
-      <c r="L9" s="81"/>
-      <c r="M9" s="81"/>
-      <c r="N9" s="81"/>
-      <c r="O9" s="81"/>
-      <c r="P9" s="81"/>
-      <c r="Q9" s="81"/>
-      <c r="R9" s="81"/>
-      <c r="S9" s="81"/>
-      <c r="T9" s="81"/>
-      <c r="U9" s="81"/>
-      <c r="V9" s="81"/>
-      <c r="W9" s="81"/>
-      <c r="X9" s="81"/>
-      <c r="Y9" s="81"/>
-      <c r="Z9" s="81"/>
-      <c r="AA9" s="81"/>
-      <c r="AB9" s="81"/>
-    </row>
-    <row r="10" s="75" customFormat="1" ht="33" customHeight="1" spans="1:31">
-      <c r="A10" s="75" t="s">
+      <c r="B9" s="72"/>
+      <c r="C9" s="78"/>
+      <c r="D9" s="78"/>
+      <c r="E9" s="78"/>
+      <c r="F9" s="78"/>
+      <c r="G9" s="78"/>
+      <c r="H9" s="78"/>
+      <c r="I9" s="78"/>
+      <c r="J9" s="78"/>
+      <c r="K9" s="78"/>
+      <c r="L9" s="78"/>
+      <c r="M9" s="78"/>
+      <c r="N9" s="78"/>
+      <c r="O9" s="78"/>
+      <c r="P9" s="78"/>
+      <c r="Q9" s="78"/>
+      <c r="R9" s="78"/>
+      <c r="S9" s="78"/>
+      <c r="T9" s="78"/>
+      <c r="U9" s="78"/>
+      <c r="V9" s="78"/>
+      <c r="W9" s="78"/>
+      <c r="X9" s="78"/>
+      <c r="Y9" s="78"/>
+      <c r="Z9" s="78"/>
+      <c r="AA9" s="78"/>
+      <c r="AB9" s="78"/>
+    </row>
+    <row r="10" s="72" customFormat="1" ht="33" customHeight="1" spans="1:31">
+      <c r="A10" s="72" t="s">
         <v>1</v>
       </c>
-      <c r="B10" s="75" t="s">
+      <c r="B10" s="72" t="s">
         <v>2</v>
       </c>
-      <c r="C10" s="81" t="s">
+      <c r="C10" s="78" t="s">
         <v>3</v>
       </c>
-      <c r="D10" s="81" t="s">
+      <c r="D10" s="78" t="s">
         <v>24</v>
       </c>
-      <c r="E10" s="81" t="s">
+      <c r="E10" s="78" t="s">
         <v>41</v>
       </c>
-      <c r="F10" s="81" t="s">
+      <c r="F10" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="G10" s="81" t="s">
+      <c r="G10" s="78" t="s">
         <v>42</v>
       </c>
-      <c r="H10" s="81" t="s">
+      <c r="H10" s="78" t="s">
         <v>31</v>
       </c>
-      <c r="I10" s="81" t="s">
+      <c r="I10" s="78" t="s">
         <v>10</v>
       </c>
-      <c r="J10" s="81" t="s">
+      <c r="J10" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="K10" s="81"/>
-      <c r="L10" s="81"/>
-      <c r="M10" s="81"/>
-      <c r="N10" s="81"/>
-      <c r="O10" s="81"/>
-      <c r="P10" s="81"/>
-      <c r="Q10" s="81"/>
-      <c r="R10" s="81"/>
-      <c r="S10" s="81"/>
-      <c r="T10" s="81"/>
-      <c r="U10" s="81"/>
-      <c r="V10" s="81"/>
-      <c r="W10" s="81"/>
-      <c r="X10" s="81"/>
-      <c r="Y10" s="81"/>
-      <c r="Z10" s="81"/>
-      <c r="AA10" s="81"/>
-      <c r="AB10" s="81"/>
-    </row>
-    <row r="11" s="75" customFormat="1" ht="33" customHeight="1" spans="1:31">
-      <c r="A11" s="75" t="s">
+      <c r="K10" s="78"/>
+      <c r="L10" s="78"/>
+      <c r="M10" s="78"/>
+      <c r="N10" s="78"/>
+      <c r="O10" s="78"/>
+      <c r="P10" s="78"/>
+      <c r="Q10" s="78"/>
+      <c r="R10" s="78"/>
+      <c r="S10" s="78"/>
+      <c r="T10" s="78"/>
+      <c r="U10" s="78"/>
+      <c r="V10" s="78"/>
+      <c r="W10" s="78"/>
+      <c r="X10" s="78"/>
+      <c r="Y10" s="78"/>
+      <c r="Z10" s="78"/>
+      <c r="AA10" s="78"/>
+      <c r="AB10" s="78"/>
+    </row>
+    <row r="11" s="72" customFormat="1" ht="33" customHeight="1" spans="1:31">
+      <c r="A11" s="72" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="75" t="s">
+      <c r="B11" s="72" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="72" t="s">
+      <c r="C11" s="69" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="81" t="s">
+      <c r="D11" s="78" t="s">
         <v>43</v>
       </c>
-      <c r="E11" s="81" t="s">
+      <c r="E11" s="78" t="s">
         <v>44</v>
       </c>
-      <c r="F11" s="72" t="s">
+      <c r="F11" s="69" t="s">
         <v>45</v>
       </c>
-      <c r="G11" s="82" t="s">
+      <c r="G11" s="79" t="s">
         <v>46</v>
       </c>
-      <c r="H11" s="72" t="s">
+      <c r="H11" s="69" t="s">
         <v>20</v>
       </c>
-      <c r="I11" s="72" t="s">
+      <c r="I11" s="69" t="s">
         <v>21</v>
       </c>
-      <c r="J11" s="72" t="s">
+      <c r="J11" s="69" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="12" s="76" customFormat="1" ht="33" customHeight="1" spans="1:31">
-      <c r="C12" s="80"/>
-      <c r="D12" s="80"/>
-      <c r="E12" s="80"/>
-      <c r="F12" s="80"/>
-      <c r="G12" s="80"/>
-      <c r="H12" s="80"/>
-      <c r="I12" s="80"/>
-      <c r="J12" s="80"/>
-      <c r="K12" s="80"/>
-      <c r="L12" s="80"/>
-      <c r="M12" s="80"/>
-      <c r="N12" s="80"/>
-      <c r="O12" s="80"/>
-      <c r="P12" s="80"/>
-      <c r="Q12" s="80"/>
-      <c r="R12" s="80"/>
-      <c r="S12" s="80"/>
-      <c r="T12" s="80"/>
-      <c r="U12" s="80"/>
-      <c r="V12" s="80"/>
-      <c r="W12" s="80"/>
-      <c r="X12" s="80"/>
-      <c r="Y12" s="80"/>
-      <c r="Z12" s="80"/>
-      <c r="AA12" s="80"/>
-      <c r="AB12" s="80"/>
+    <row r="12" s="73" customFormat="1" ht="33" customHeight="1" spans="1:31">
+      <c r="C12" s="77"/>
+      <c r="D12" s="77"/>
+      <c r="E12" s="77"/>
+      <c r="F12" s="77"/>
+      <c r="G12" s="77"/>
+      <c r="H12" s="77"/>
+      <c r="I12" s="77"/>
+      <c r="J12" s="77"/>
+      <c r="K12" s="77"/>
+      <c r="L12" s="77"/>
+      <c r="M12" s="77"/>
+      <c r="N12" s="77"/>
+      <c r="O12" s="77"/>
+      <c r="P12" s="77"/>
+      <c r="Q12" s="77"/>
+      <c r="R12" s="77"/>
+      <c r="S12" s="77"/>
+      <c r="T12" s="77"/>
+      <c r="U12" s="77"/>
+      <c r="V12" s="77"/>
+      <c r="W12" s="77"/>
+      <c r="X12" s="77"/>
+      <c r="Y12" s="77"/>
+      <c r="Z12" s="77"/>
+      <c r="AA12" s="77"/>
+      <c r="AB12" s="77"/>
     </row>
     <row r="15" ht="17" spans="1:31">
-      <c r="A15" s="83" t="s">
+      <c r="A15" s="80" t="s">
         <v>47</v>
       </c>
-      <c r="B15" s="83"/>
-      <c r="C15" s="83"/>
+      <c r="B15" s="80"/>
+      <c r="C15" s="80"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -9295,838 +9286,838 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.3846153846154" defaultRowHeight="16.8"/>
   <cols>
-    <col min="1" max="2" width="21.7211538461538" style="48" customWidth="1"/>
-    <col min="3" max="3" width="87.1634615384615" style="49" customWidth="1"/>
-    <col min="4" max="7" width="21.7211538461538" style="49" customWidth="1"/>
-    <col min="8" max="8" width="21.7211538461538" style="48" customWidth="1"/>
-    <col min="9" max="9" width="21.7211538461538" style="49" customWidth="1"/>
-    <col min="10" max="11" width="21.7211538461538" style="48" customWidth="1"/>
+    <col min="1" max="2" width="21.7211538461538" style="45" customWidth="1"/>
+    <col min="3" max="3" width="87.1634615384615" style="46" customWidth="1"/>
+    <col min="4" max="7" width="21.7211538461538" style="46" customWidth="1"/>
+    <col min="8" max="8" width="21.7211538461538" style="45" customWidth="1"/>
+    <col min="9" max="9" width="21.7211538461538" style="46" customWidth="1"/>
+    <col min="10" max="11" width="21.7211538461538" style="45" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="33" customHeight="1" spans="1:11">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="47" t="s">
         <v>48</v>
       </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="52" t="s">
+      <c r="B1" s="48"/>
+      <c r="C1" s="49" t="s">
         <v>49</v>
       </c>
-      <c r="D1" s="50" t="s">
+      <c r="D1" s="47" t="s">
         <v>50</v>
       </c>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
-      <c r="G1" s="53"/>
-      <c r="H1" s="54"/>
-      <c r="I1" s="55"/>
-      <c r="J1" s="56"/>
-      <c r="K1" s="57"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="51"/>
+      <c r="I1" s="52"/>
+      <c r="J1" s="53"/>
+      <c r="K1" s="54"/>
     </row>
     <row r="2" ht="33" customHeight="1" spans="1:11">
-      <c r="A2" s="58" t="s">
+      <c r="A2" s="55" t="s">
         <v>51</v>
       </c>
-      <c r="B2" s="59" t="s">
+      <c r="B2" s="56" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="60" t="s">
+      <c r="C2" s="57" t="s">
         <v>52</v>
       </c>
-      <c r="D2" s="61" t="s">
+      <c r="D2" s="58" t="s">
         <v>53</v>
       </c>
-      <c r="E2" s="62"/>
-      <c r="F2" s="63"/>
-      <c r="G2" s="62"/>
-      <c r="H2" s="62"/>
-      <c r="I2" s="64"/>
-      <c r="J2" s="65"/>
-      <c r="K2" s="66"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="61"/>
+      <c r="J2" s="62"/>
+      <c r="K2" s="63"/>
     </row>
     <row r="3" ht="33" customHeight="1" spans="1:11">
-      <c r="A3" s="51"/>
-      <c r="B3" s="67" t="s">
+      <c r="A3" s="48"/>
+      <c r="B3" s="64" t="s">
         <v>54</v>
       </c>
-      <c r="C3" s="60" t="s">
+      <c r="C3" s="57" t="s">
         <v>55</v>
       </c>
-      <c r="D3" s="68" t="s">
+      <c r="D3" s="65" t="s">
         <v>56</v>
       </c>
-      <c r="E3" s="62"/>
-      <c r="F3" s="63"/>
-      <c r="G3" s="62"/>
-      <c r="H3" s="62"/>
-      <c r="I3" s="64"/>
-      <c r="J3" s="65"/>
-      <c r="K3" s="66"/>
+      <c r="E3" s="59"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="59"/>
+      <c r="H3" s="59"/>
+      <c r="I3" s="61"/>
+      <c r="J3" s="62"/>
+      <c r="K3" s="63"/>
     </row>
     <row r="4" ht="33" customHeight="1" spans="1:11">
-      <c r="A4" s="51"/>
-      <c r="B4" s="67" t="s">
+      <c r="A4" s="48"/>
+      <c r="B4" s="64" t="s">
         <v>57</v>
       </c>
-      <c r="C4" s="60" t="s">
+      <c r="C4" s="57" t="s">
         <v>58</v>
       </c>
-      <c r="D4" s="68" t="s">
+      <c r="D4" s="65" t="s">
         <v>59</v>
       </c>
-      <c r="E4" s="62"/>
-      <c r="F4" s="63"/>
-      <c r="G4" s="62"/>
-      <c r="H4" s="62"/>
-      <c r="I4" s="64"/>
-      <c r="J4" s="65"/>
-      <c r="K4" s="66"/>
+      <c r="E4" s="59"/>
+      <c r="F4" s="60"/>
+      <c r="G4" s="59"/>
+      <c r="H4" s="59"/>
+      <c r="I4" s="61"/>
+      <c r="J4" s="62"/>
+      <c r="K4" s="63"/>
     </row>
     <row r="5" ht="33" customHeight="1" spans="1:11">
-      <c r="A5" s="51"/>
-      <c r="B5" s="67" t="s">
+      <c r="A5" s="48"/>
+      <c r="B5" s="64" t="s">
         <v>60</v>
       </c>
-      <c r="C5" s="60" t="s">
+      <c r="C5" s="57" t="s">
         <v>61</v>
       </c>
-      <c r="D5" s="68" t="s">
+      <c r="D5" s="65" t="s">
         <v>56</v>
       </c>
-      <c r="E5" s="62"/>
-      <c r="F5" s="63"/>
-      <c r="G5" s="62"/>
-      <c r="H5" s="62"/>
-      <c r="I5" s="64"/>
-      <c r="J5" s="65"/>
-      <c r="K5" s="66"/>
+      <c r="E5" s="59"/>
+      <c r="F5" s="60"/>
+      <c r="G5" s="59"/>
+      <c r="H5" s="59"/>
+      <c r="I5" s="61"/>
+      <c r="J5" s="62"/>
+      <c r="K5" s="63"/>
     </row>
     <row r="6" ht="33" customHeight="1" spans="1:11">
-      <c r="A6" s="51"/>
-      <c r="B6" s="67" t="s">
+      <c r="A6" s="48"/>
+      <c r="B6" s="64" t="s">
         <v>62</v>
       </c>
-      <c r="C6" s="60" t="s">
+      <c r="C6" s="57" t="s">
         <v>63</v>
       </c>
-      <c r="D6" s="68" t="s">
+      <c r="D6" s="65" t="s">
         <v>53</v>
       </c>
-      <c r="E6" s="62"/>
-      <c r="F6" s="63"/>
-      <c r="G6" s="62"/>
-      <c r="H6" s="62"/>
-      <c r="I6" s="64"/>
-      <c r="J6" s="65"/>
-      <c r="K6" s="66"/>
+      <c r="E6" s="59"/>
+      <c r="F6" s="60"/>
+      <c r="G6" s="59"/>
+      <c r="H6" s="59"/>
+      <c r="I6" s="61"/>
+      <c r="J6" s="62"/>
+      <c r="K6" s="63"/>
     </row>
     <row r="7" ht="33" customHeight="1" spans="1:11">
-      <c r="A7" s="51"/>
-      <c r="B7" s="67" t="s">
+      <c r="A7" s="48"/>
+      <c r="B7" s="64" t="s">
         <v>64</v>
       </c>
-      <c r="C7" s="60" t="s">
+      <c r="C7" s="57" t="s">
         <v>65</v>
       </c>
-      <c r="D7" s="68" t="s">
+      <c r="D7" s="65" t="s">
         <v>56</v>
       </c>
-      <c r="E7" s="62"/>
-      <c r="F7" s="63"/>
-      <c r="G7" s="62"/>
-      <c r="H7" s="62"/>
-      <c r="I7" s="64"/>
-      <c r="J7" s="65"/>
-      <c r="K7" s="66"/>
+      <c r="E7" s="59"/>
+      <c r="F7" s="60"/>
+      <c r="G7" s="59"/>
+      <c r="H7" s="59"/>
+      <c r="I7" s="61"/>
+      <c r="J7" s="62"/>
+      <c r="K7" s="63"/>
     </row>
     <row r="8" ht="33" customHeight="1" spans="1:11">
-      <c r="A8" s="51"/>
-      <c r="B8" s="67" t="s">
+      <c r="A8" s="48"/>
+      <c r="B8" s="64" t="s">
         <v>66</v>
       </c>
-      <c r="C8" s="60" t="s">
+      <c r="C8" s="57" t="s">
         <v>67</v>
       </c>
-      <c r="D8" s="68" t="s">
+      <c r="D8" s="65" t="s">
         <v>56</v>
       </c>
-      <c r="E8" s="62"/>
-      <c r="F8" s="63"/>
-      <c r="G8" s="62"/>
-      <c r="H8" s="62"/>
-      <c r="I8" s="64"/>
-      <c r="J8" s="65"/>
-      <c r="K8" s="66"/>
+      <c r="E8" s="59"/>
+      <c r="F8" s="60"/>
+      <c r="G8" s="59"/>
+      <c r="H8" s="59"/>
+      <c r="I8" s="61"/>
+      <c r="J8" s="62"/>
+      <c r="K8" s="63"/>
     </row>
     <row r="9" ht="33" customHeight="1" spans="1:11">
-      <c r="A9" s="51"/>
-      <c r="B9" s="67" t="s">
+      <c r="A9" s="48"/>
+      <c r="B9" s="64" t="s">
         <v>68</v>
       </c>
-      <c r="C9" s="60" t="s">
+      <c r="C9" s="57" t="s">
         <v>69</v>
       </c>
-      <c r="D9" s="68" t="s">
+      <c r="D9" s="65" t="s">
         <v>59</v>
       </c>
-      <c r="E9" s="62"/>
-      <c r="F9" s="63"/>
-      <c r="G9" s="62"/>
-      <c r="H9" s="62"/>
-      <c r="I9" s="64"/>
-      <c r="J9" s="65"/>
-      <c r="K9" s="66"/>
+      <c r="E9" s="59"/>
+      <c r="F9" s="60"/>
+      <c r="G9" s="59"/>
+      <c r="H9" s="59"/>
+      <c r="I9" s="61"/>
+      <c r="J9" s="62"/>
+      <c r="K9" s="63"/>
     </row>
     <row r="10" ht="33" customHeight="1" spans="1:11">
-      <c r="A10" s="51"/>
-      <c r="B10" s="67" t="s">
+      <c r="A10" s="48"/>
+      <c r="B10" s="64" t="s">
         <v>70</v>
       </c>
-      <c r="C10" s="60" t="s">
+      <c r="C10" s="57" t="s">
         <v>71</v>
       </c>
-      <c r="D10" s="68" t="s">
+      <c r="D10" s="65" t="s">
         <v>53</v>
       </c>
-      <c r="E10" s="62"/>
-      <c r="F10" s="63"/>
-      <c r="G10" s="62"/>
-      <c r="H10" s="62"/>
-      <c r="I10" s="64"/>
-      <c r="J10" s="65"/>
-      <c r="K10" s="66"/>
+      <c r="E10" s="59"/>
+      <c r="F10" s="60"/>
+      <c r="G10" s="59"/>
+      <c r="H10" s="59"/>
+      <c r="I10" s="61"/>
+      <c r="J10" s="62"/>
+      <c r="K10" s="63"/>
     </row>
     <row r="11" ht="33" customHeight="1" spans="1:11">
-      <c r="A11" s="58" t="s">
+      <c r="A11" s="55" t="s">
         <v>72</v>
       </c>
-      <c r="B11" s="59" t="s">
+      <c r="B11" s="56" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="60" t="s">
+      <c r="C11" s="57" t="s">
         <v>52</v>
       </c>
-      <c r="D11" s="61" t="s">
+      <c r="D11" s="58" t="s">
         <v>53</v>
       </c>
-      <c r="E11" s="62"/>
-      <c r="F11" s="63"/>
-      <c r="G11" s="62"/>
-      <c r="H11" s="62"/>
-      <c r="I11" s="64"/>
-      <c r="J11" s="65"/>
-      <c r="K11" s="66"/>
+      <c r="E11" s="59"/>
+      <c r="F11" s="60"/>
+      <c r="G11" s="59"/>
+      <c r="H11" s="59"/>
+      <c r="I11" s="61"/>
+      <c r="J11" s="62"/>
+      <c r="K11" s="63"/>
     </row>
     <row r="12" ht="33" customHeight="1" spans="1:11">
-      <c r="A12" s="51"/>
-      <c r="B12" s="67" t="s">
+      <c r="A12" s="48"/>
+      <c r="B12" s="64" t="s">
         <v>54</v>
       </c>
-      <c r="C12" s="60" t="s">
+      <c r="C12" s="57" t="s">
         <v>73</v>
       </c>
-      <c r="D12" s="68" t="s">
+      <c r="D12" s="65" t="s">
         <v>56</v>
       </c>
-      <c r="E12" s="62"/>
-      <c r="F12" s="63"/>
-      <c r="G12" s="62"/>
-      <c r="H12" s="62"/>
-      <c r="I12" s="64"/>
-      <c r="J12" s="65"/>
-      <c r="K12" s="66"/>
+      <c r="E12" s="59"/>
+      <c r="F12" s="60"/>
+      <c r="G12" s="59"/>
+      <c r="H12" s="59"/>
+      <c r="I12" s="61"/>
+      <c r="J12" s="62"/>
+      <c r="K12" s="63"/>
     </row>
     <row r="13" ht="33" customHeight="1" spans="1:11">
-      <c r="A13" s="51"/>
-      <c r="B13" s="67" t="s">
+      <c r="A13" s="48"/>
+      <c r="B13" s="64" t="s">
         <v>57</v>
       </c>
-      <c r="C13" s="60" t="s">
+      <c r="C13" s="57" t="s">
         <v>74</v>
       </c>
-      <c r="D13" s="68" t="s">
+      <c r="D13" s="65" t="s">
         <v>59</v>
       </c>
-      <c r="E13" s="62"/>
-      <c r="F13" s="63"/>
-      <c r="G13" s="62"/>
-      <c r="H13" s="62"/>
-      <c r="I13" s="64"/>
-      <c r="J13" s="65"/>
-      <c r="K13" s="66"/>
+      <c r="E13" s="59"/>
+      <c r="F13" s="60"/>
+      <c r="G13" s="59"/>
+      <c r="H13" s="59"/>
+      <c r="I13" s="61"/>
+      <c r="J13" s="62"/>
+      <c r="K13" s="63"/>
     </row>
     <row r="14" ht="33" customHeight="1" spans="1:11">
-      <c r="A14" s="51"/>
-      <c r="B14" s="67" t="s">
+      <c r="A14" s="48"/>
+      <c r="B14" s="64" t="s">
         <v>60</v>
       </c>
-      <c r="C14" s="60" t="s">
+      <c r="C14" s="57" t="s">
         <v>75</v>
       </c>
-      <c r="D14" s="68" t="s">
+      <c r="D14" s="65" t="s">
         <v>56</v>
       </c>
-      <c r="E14" s="62"/>
-      <c r="F14" s="63"/>
-      <c r="G14" s="62"/>
-      <c r="H14" s="62"/>
-      <c r="I14" s="64"/>
-      <c r="J14" s="65"/>
-      <c r="K14" s="66"/>
+      <c r="E14" s="59"/>
+      <c r="F14" s="60"/>
+      <c r="G14" s="59"/>
+      <c r="H14" s="59"/>
+      <c r="I14" s="61"/>
+      <c r="J14" s="62"/>
+      <c r="K14" s="63"/>
     </row>
     <row r="15" ht="33" customHeight="1" spans="1:11">
-      <c r="A15" s="51"/>
-      <c r="B15" s="67" t="s">
+      <c r="A15" s="48"/>
+      <c r="B15" s="64" t="s">
         <v>62</v>
       </c>
-      <c r="C15" s="60" t="s">
+      <c r="C15" s="57" t="s">
         <v>63</v>
       </c>
-      <c r="D15" s="68" t="s">
+      <c r="D15" s="65" t="s">
         <v>53</v>
       </c>
-      <c r="E15" s="62"/>
-      <c r="F15" s="63"/>
-      <c r="G15" s="62"/>
-      <c r="H15" s="62"/>
-      <c r="I15" s="64"/>
-      <c r="J15" s="65"/>
-      <c r="K15" s="66"/>
+      <c r="E15" s="59"/>
+      <c r="F15" s="60"/>
+      <c r="G15" s="59"/>
+      <c r="H15" s="59"/>
+      <c r="I15" s="61"/>
+      <c r="J15" s="62"/>
+      <c r="K15" s="63"/>
     </row>
     <row r="16" ht="33" customHeight="1" spans="1:11">
-      <c r="A16" s="51"/>
-      <c r="B16" s="67" t="s">
+      <c r="A16" s="48"/>
+      <c r="B16" s="64" t="s">
         <v>64</v>
       </c>
-      <c r="C16" s="60" t="s">
+      <c r="C16" s="57" t="s">
         <v>76</v>
       </c>
-      <c r="D16" s="68" t="s">
+      <c r="D16" s="65" t="s">
         <v>56</v>
       </c>
-      <c r="E16" s="62"/>
-      <c r="F16" s="63"/>
-      <c r="G16" s="62"/>
-      <c r="H16" s="62"/>
-      <c r="I16" s="64"/>
-      <c r="J16" s="65"/>
-      <c r="K16" s="66"/>
+      <c r="E16" s="59"/>
+      <c r="F16" s="60"/>
+      <c r="G16" s="59"/>
+      <c r="H16" s="59"/>
+      <c r="I16" s="61"/>
+      <c r="J16" s="62"/>
+      <c r="K16" s="63"/>
     </row>
     <row r="17" ht="33" customHeight="1" spans="1:11">
-      <c r="A17" s="51"/>
-      <c r="B17" s="67" t="s">
+      <c r="A17" s="48"/>
+      <c r="B17" s="64" t="s">
         <v>66</v>
       </c>
-      <c r="C17" s="60" t="s">
+      <c r="C17" s="57" t="s">
         <v>77</v>
       </c>
-      <c r="D17" s="68" t="s">
+      <c r="D17" s="65" t="s">
         <v>56</v>
       </c>
-      <c r="E17" s="62"/>
-      <c r="F17" s="63"/>
-      <c r="G17" s="62"/>
-      <c r="H17" s="62"/>
-      <c r="I17" s="64"/>
-      <c r="J17" s="65"/>
-      <c r="K17" s="66"/>
+      <c r="E17" s="59"/>
+      <c r="F17" s="60"/>
+      <c r="G17" s="59"/>
+      <c r="H17" s="59"/>
+      <c r="I17" s="61"/>
+      <c r="J17" s="62"/>
+      <c r="K17" s="63"/>
     </row>
     <row r="18" ht="33" customHeight="1" spans="1:11">
-      <c r="A18" s="51"/>
-      <c r="B18" s="67" t="s">
+      <c r="A18" s="48"/>
+      <c r="B18" s="64" t="s">
         <v>68</v>
       </c>
-      <c r="C18" s="60" t="s">
+      <c r="C18" s="57" t="s">
         <v>78</v>
       </c>
-      <c r="D18" s="68" t="s">
+      <c r="D18" s="65" t="s">
         <v>59</v>
       </c>
-      <c r="E18" s="62"/>
-      <c r="F18" s="63"/>
-      <c r="G18" s="62"/>
-      <c r="H18" s="62"/>
-      <c r="I18" s="64"/>
-      <c r="J18" s="65"/>
-      <c r="K18" s="66"/>
+      <c r="E18" s="59"/>
+      <c r="F18" s="60"/>
+      <c r="G18" s="59"/>
+      <c r="H18" s="59"/>
+      <c r="I18" s="61"/>
+      <c r="J18" s="62"/>
+      <c r="K18" s="63"/>
     </row>
     <row r="19" ht="33" customHeight="1" spans="1:11">
-      <c r="A19" s="51"/>
-      <c r="B19" s="67" t="s">
+      <c r="A19" s="48"/>
+      <c r="B19" s="64" t="s">
         <v>70</v>
       </c>
-      <c r="C19" s="60" t="s">
+      <c r="C19" s="57" t="s">
         <v>79</v>
       </c>
-      <c r="D19" s="68" t="s">
+      <c r="D19" s="65" t="s">
         <v>53</v>
       </c>
-      <c r="E19" s="62"/>
-      <c r="F19" s="63"/>
-      <c r="G19" s="62"/>
-      <c r="H19" s="62"/>
-      <c r="I19" s="64"/>
-      <c r="J19" s="65"/>
-      <c r="K19" s="66"/>
+      <c r="E19" s="59"/>
+      <c r="F19" s="60"/>
+      <c r="G19" s="59"/>
+      <c r="H19" s="59"/>
+      <c r="I19" s="61"/>
+      <c r="J19" s="62"/>
+      <c r="K19" s="63"/>
     </row>
     <row r="20" ht="33" customHeight="1" spans="1:11">
-      <c r="A20" s="69"/>
-      <c r="B20" s="69"/>
-      <c r="C20" s="66"/>
-      <c r="D20" s="63"/>
-      <c r="E20" s="62"/>
-      <c r="F20" s="63"/>
-      <c r="G20" s="62"/>
-      <c r="H20" s="62"/>
-      <c r="I20" s="64"/>
-      <c r="J20" s="65"/>
-      <c r="K20" s="66"/>
+      <c r="A20" s="66"/>
+      <c r="B20" s="66"/>
+      <c r="C20" s="63"/>
+      <c r="D20" s="60"/>
+      <c r="E20" s="59"/>
+      <c r="F20" s="60"/>
+      <c r="G20" s="59"/>
+      <c r="H20" s="59"/>
+      <c r="I20" s="61"/>
+      <c r="J20" s="62"/>
+      <c r="K20" s="63"/>
     </row>
     <row r="21" ht="33" customHeight="1" spans="1:11">
-      <c r="A21" s="69"/>
-      <c r="B21" s="69"/>
-      <c r="C21" s="66"/>
-      <c r="D21" s="66"/>
-      <c r="E21" s="70"/>
-      <c r="F21" s="66"/>
-      <c r="G21" s="70"/>
-      <c r="H21" s="70"/>
-      <c r="I21" s="70"/>
-      <c r="J21" s="66"/>
-      <c r="K21" s="66"/>
+      <c r="A21" s="66"/>
+      <c r="B21" s="66"/>
+      <c r="C21" s="63"/>
+      <c r="D21" s="63"/>
+      <c r="E21" s="67"/>
+      <c r="F21" s="63"/>
+      <c r="G21" s="67"/>
+      <c r="H21" s="67"/>
+      <c r="I21" s="67"/>
+      <c r="J21" s="63"/>
+      <c r="K21" s="63"/>
     </row>
     <row r="22" ht="33" customHeight="1" spans="1:11">
-      <c r="A22" s="69"/>
-      <c r="B22" s="69"/>
-      <c r="C22" s="66"/>
-      <c r="D22" s="66"/>
-      <c r="E22" s="70"/>
-      <c r="F22" s="66"/>
-      <c r="G22" s="70"/>
-      <c r="H22" s="70"/>
-      <c r="I22" s="70"/>
-      <c r="J22" s="66"/>
-      <c r="K22" s="66"/>
+      <c r="A22" s="66"/>
+      <c r="B22" s="66"/>
+      <c r="C22" s="63"/>
+      <c r="D22" s="63"/>
+      <c r="E22" s="67"/>
+      <c r="F22" s="63"/>
+      <c r="G22" s="67"/>
+      <c r="H22" s="67"/>
+      <c r="I22" s="67"/>
+      <c r="J22" s="63"/>
+      <c r="K22" s="63"/>
     </row>
     <row r="23" ht="33" customHeight="1" spans="1:11">
-      <c r="A23" s="69"/>
-      <c r="B23" s="69"/>
-      <c r="C23" s="66"/>
-      <c r="D23" s="66"/>
-      <c r="E23" s="70"/>
-      <c r="F23" s="66"/>
-      <c r="G23" s="70"/>
-      <c r="H23" s="70"/>
-      <c r="I23" s="70"/>
-      <c r="J23" s="66"/>
-      <c r="K23" s="66"/>
+      <c r="A23" s="66"/>
+      <c r="B23" s="66"/>
+      <c r="C23" s="63"/>
+      <c r="D23" s="63"/>
+      <c r="E23" s="67"/>
+      <c r="F23" s="63"/>
+      <c r="G23" s="67"/>
+      <c r="H23" s="67"/>
+      <c r="I23" s="67"/>
+      <c r="J23" s="63"/>
+      <c r="K23" s="63"/>
     </row>
     <row r="24" ht="33" customHeight="1" spans="1:11">
-      <c r="A24" s="69"/>
-      <c r="B24" s="69"/>
-      <c r="C24" s="66"/>
-      <c r="D24" s="66"/>
-      <c r="E24" s="70"/>
-      <c r="F24" s="66"/>
-      <c r="G24" s="70"/>
-      <c r="H24" s="70"/>
-      <c r="I24" s="70"/>
-      <c r="J24" s="66"/>
-      <c r="K24" s="66"/>
+      <c r="A24" s="66"/>
+      <c r="B24" s="66"/>
+      <c r="C24" s="63"/>
+      <c r="D24" s="63"/>
+      <c r="E24" s="67"/>
+      <c r="F24" s="63"/>
+      <c r="G24" s="67"/>
+      <c r="H24" s="67"/>
+      <c r="I24" s="67"/>
+      <c r="J24" s="63"/>
+      <c r="K24" s="63"/>
     </row>
     <row r="25" ht="33" customHeight="1" spans="1:11">
-      <c r="A25" s="69"/>
-      <c r="B25" s="69"/>
-      <c r="C25" s="66"/>
-      <c r="D25" s="66"/>
-      <c r="E25" s="70"/>
-      <c r="F25" s="66"/>
-      <c r="G25" s="70"/>
-      <c r="H25" s="70"/>
-      <c r="I25" s="70"/>
-      <c r="J25" s="66"/>
-      <c r="K25" s="66"/>
+      <c r="A25" s="66"/>
+      <c r="B25" s="66"/>
+      <c r="C25" s="63"/>
+      <c r="D25" s="63"/>
+      <c r="E25" s="67"/>
+      <c r="F25" s="63"/>
+      <c r="G25" s="67"/>
+      <c r="H25" s="67"/>
+      <c r="I25" s="67"/>
+      <c r="J25" s="63"/>
+      <c r="K25" s="63"/>
     </row>
     <row r="26" ht="33" customHeight="1" spans="1:11">
-      <c r="A26" s="69"/>
-      <c r="B26" s="69"/>
-      <c r="C26" s="66"/>
-      <c r="D26" s="66"/>
-      <c r="E26" s="70"/>
-      <c r="F26" s="66"/>
-      <c r="G26" s="70"/>
-      <c r="H26" s="70"/>
-      <c r="I26" s="70"/>
-      <c r="J26" s="66"/>
-      <c r="K26" s="66"/>
+      <c r="A26" s="66"/>
+      <c r="B26" s="66"/>
+      <c r="C26" s="63"/>
+      <c r="D26" s="63"/>
+      <c r="E26" s="67"/>
+      <c r="F26" s="63"/>
+      <c r="G26" s="67"/>
+      <c r="H26" s="67"/>
+      <c r="I26" s="67"/>
+      <c r="J26" s="63"/>
+      <c r="K26" s="63"/>
     </row>
     <row r="27" ht="33" customHeight="1" spans="1:11">
-      <c r="A27" s="69"/>
-      <c r="B27" s="69"/>
-      <c r="C27" s="66"/>
-      <c r="D27" s="66"/>
-      <c r="E27" s="70"/>
-      <c r="F27" s="66"/>
-      <c r="G27" s="70"/>
-      <c r="H27" s="70"/>
-      <c r="I27" s="70"/>
-      <c r="J27" s="66"/>
-      <c r="K27" s="66"/>
+      <c r="A27" s="66"/>
+      <c r="B27" s="66"/>
+      <c r="C27" s="63"/>
+      <c r="D27" s="63"/>
+      <c r="E27" s="67"/>
+      <c r="F27" s="63"/>
+      <c r="G27" s="67"/>
+      <c r="H27" s="67"/>
+      <c r="I27" s="67"/>
+      <c r="J27" s="63"/>
+      <c r="K27" s="63"/>
     </row>
     <row r="28" ht="33" customHeight="1" spans="1:11">
-      <c r="A28" s="69"/>
-      <c r="B28" s="69"/>
-      <c r="C28" s="66"/>
-      <c r="D28" s="66"/>
-      <c r="E28" s="70"/>
-      <c r="F28" s="66"/>
-      <c r="G28" s="70"/>
-      <c r="H28" s="70"/>
-      <c r="I28" s="70"/>
-      <c r="J28" s="66"/>
-      <c r="K28" s="66"/>
+      <c r="A28" s="66"/>
+      <c r="B28" s="66"/>
+      <c r="C28" s="63"/>
+      <c r="D28" s="63"/>
+      <c r="E28" s="67"/>
+      <c r="F28" s="63"/>
+      <c r="G28" s="67"/>
+      <c r="H28" s="67"/>
+      <c r="I28" s="67"/>
+      <c r="J28" s="63"/>
+      <c r="K28" s="63"/>
     </row>
     <row r="29" ht="33" customHeight="1" spans="1:11">
-      <c r="A29" s="69"/>
-      <c r="B29" s="69"/>
-      <c r="C29" s="66"/>
-      <c r="D29" s="66"/>
-      <c r="E29" s="70"/>
-      <c r="F29" s="66"/>
-      <c r="G29" s="70"/>
-      <c r="H29" s="70"/>
-      <c r="I29" s="70"/>
-      <c r="J29" s="66"/>
-      <c r="K29" s="66"/>
+      <c r="A29" s="66"/>
+      <c r="B29" s="66"/>
+      <c r="C29" s="63"/>
+      <c r="D29" s="63"/>
+      <c r="E29" s="67"/>
+      <c r="F29" s="63"/>
+      <c r="G29" s="67"/>
+      <c r="H29" s="67"/>
+      <c r="I29" s="67"/>
+      <c r="J29" s="63"/>
+      <c r="K29" s="63"/>
     </row>
     <row r="30" ht="33" customHeight="1" spans="1:11">
-      <c r="A30" s="69"/>
-      <c r="B30" s="69"/>
-      <c r="C30" s="66"/>
-      <c r="D30" s="66"/>
-      <c r="E30" s="70"/>
-      <c r="F30" s="66"/>
-      <c r="G30" s="70"/>
-      <c r="H30" s="70"/>
-      <c r="I30" s="70"/>
-      <c r="J30" s="66"/>
-      <c r="K30" s="66"/>
+      <c r="A30" s="66"/>
+      <c r="B30" s="66"/>
+      <c r="C30" s="63"/>
+      <c r="D30" s="63"/>
+      <c r="E30" s="67"/>
+      <c r="F30" s="63"/>
+      <c r="G30" s="67"/>
+      <c r="H30" s="67"/>
+      <c r="I30" s="67"/>
+      <c r="J30" s="63"/>
+      <c r="K30" s="63"/>
     </row>
     <row r="31" ht="33" customHeight="1" spans="1:11">
-      <c r="A31" s="69"/>
-      <c r="B31" s="69"/>
-      <c r="C31" s="66"/>
-      <c r="D31" s="66"/>
-      <c r="E31" s="70"/>
-      <c r="F31" s="66"/>
-      <c r="G31" s="70"/>
-      <c r="H31" s="70"/>
-      <c r="I31" s="70"/>
-      <c r="J31" s="66"/>
-      <c r="K31" s="66"/>
+      <c r="A31" s="66"/>
+      <c r="B31" s="66"/>
+      <c r="C31" s="63"/>
+      <c r="D31" s="63"/>
+      <c r="E31" s="67"/>
+      <c r="F31" s="63"/>
+      <c r="G31" s="67"/>
+      <c r="H31" s="67"/>
+      <c r="I31" s="67"/>
+      <c r="J31" s="63"/>
+      <c r="K31" s="63"/>
     </row>
     <row r="32" ht="33" customHeight="1" spans="1:11">
-      <c r="A32" s="69"/>
-      <c r="B32" s="69"/>
-      <c r="C32" s="66"/>
-      <c r="D32" s="66"/>
-      <c r="E32" s="70"/>
-      <c r="F32" s="66"/>
-      <c r="G32" s="70"/>
-      <c r="H32" s="70"/>
-      <c r="I32" s="70"/>
-      <c r="J32" s="66"/>
-      <c r="K32" s="66"/>
+      <c r="A32" s="66"/>
+      <c r="B32" s="66"/>
+      <c r="C32" s="63"/>
+      <c r="D32" s="63"/>
+      <c r="E32" s="67"/>
+      <c r="F32" s="63"/>
+      <c r="G32" s="67"/>
+      <c r="H32" s="67"/>
+      <c r="I32" s="67"/>
+      <c r="J32" s="63"/>
+      <c r="K32" s="63"/>
     </row>
     <row r="33" ht="33" customHeight="1" spans="1:11">
-      <c r="A33" s="69"/>
-      <c r="B33" s="69"/>
-      <c r="C33" s="66"/>
-      <c r="D33" s="66"/>
-      <c r="E33" s="70"/>
-      <c r="F33" s="66"/>
-      <c r="G33" s="70"/>
-      <c r="H33" s="70"/>
-      <c r="I33" s="70"/>
-      <c r="J33" s="66"/>
-      <c r="K33" s="66"/>
+      <c r="A33" s="66"/>
+      <c r="B33" s="66"/>
+      <c r="C33" s="63"/>
+      <c r="D33" s="63"/>
+      <c r="E33" s="67"/>
+      <c r="F33" s="63"/>
+      <c r="G33" s="67"/>
+      <c r="H33" s="67"/>
+      <c r="I33" s="67"/>
+      <c r="J33" s="63"/>
+      <c r="K33" s="63"/>
     </row>
     <row r="34" ht="33" customHeight="1" spans="1:11">
-      <c r="A34" s="69"/>
-      <c r="B34" s="69"/>
-      <c r="C34" s="66"/>
-      <c r="D34" s="66"/>
-      <c r="E34" s="70"/>
-      <c r="F34" s="66"/>
-      <c r="G34" s="70"/>
-      <c r="H34" s="70"/>
-      <c r="I34" s="70"/>
-      <c r="J34" s="66"/>
-      <c r="K34" s="66"/>
+      <c r="A34" s="66"/>
+      <c r="B34" s="66"/>
+      <c r="C34" s="63"/>
+      <c r="D34" s="63"/>
+      <c r="E34" s="67"/>
+      <c r="F34" s="63"/>
+      <c r="G34" s="67"/>
+      <c r="H34" s="67"/>
+      <c r="I34" s="67"/>
+      <c r="J34" s="63"/>
+      <c r="K34" s="63"/>
     </row>
     <row r="35" ht="33" customHeight="1" spans="1:11">
-      <c r="A35" s="69"/>
-      <c r="B35" s="69"/>
-      <c r="C35" s="66"/>
-      <c r="E35" s="70"/>
-      <c r="F35" s="66"/>
-      <c r="G35" s="70"/>
-      <c r="H35" s="70"/>
-      <c r="I35" s="70"/>
-      <c r="J35" s="66"/>
-      <c r="K35" s="66"/>
+      <c r="A35" s="66"/>
+      <c r="B35" s="66"/>
+      <c r="C35" s="63"/>
+      <c r="E35" s="67"/>
+      <c r="F35" s="63"/>
+      <c r="G35" s="67"/>
+      <c r="H35" s="67"/>
+      <c r="I35" s="67"/>
+      <c r="J35" s="63"/>
+      <c r="K35" s="63"/>
     </row>
     <row r="36" ht="33" customHeight="1" spans="1:11">
-      <c r="A36" s="69"/>
-      <c r="B36" s="69"/>
-      <c r="C36" s="66"/>
-      <c r="D36" s="71"/>
-      <c r="E36" s="70"/>
-      <c r="F36" s="66"/>
-      <c r="G36" s="70"/>
-      <c r="H36" s="70"/>
-      <c r="I36" s="70"/>
-      <c r="J36" s="66"/>
-      <c r="K36" s="66"/>
+      <c r="A36" s="66"/>
+      <c r="B36" s="66"/>
+      <c r="C36" s="63"/>
+      <c r="D36" s="68"/>
+      <c r="E36" s="67"/>
+      <c r="F36" s="63"/>
+      <c r="G36" s="67"/>
+      <c r="H36" s="67"/>
+      <c r="I36" s="67"/>
+      <c r="J36" s="63"/>
+      <c r="K36" s="63"/>
     </row>
     <row r="37" ht="33" customHeight="1" spans="1:11">
-      <c r="A37" s="69"/>
-      <c r="B37" s="69"/>
-      <c r="C37" s="66"/>
-      <c r="D37" s="66"/>
-      <c r="E37" s="70"/>
-      <c r="F37" s="66"/>
-      <c r="G37" s="70"/>
-      <c r="H37" s="70"/>
-      <c r="I37" s="70"/>
-      <c r="J37" s="66"/>
-      <c r="K37" s="66"/>
+      <c r="A37" s="66"/>
+      <c r="B37" s="66"/>
+      <c r="C37" s="63"/>
+      <c r="D37" s="63"/>
+      <c r="E37" s="67"/>
+      <c r="F37" s="63"/>
+      <c r="G37" s="67"/>
+      <c r="H37" s="67"/>
+      <c r="I37" s="67"/>
+      <c r="J37" s="63"/>
+      <c r="K37" s="63"/>
     </row>
     <row r="38" ht="33" customHeight="1" spans="1:11">
-      <c r="A38" s="69"/>
-      <c r="B38" s="69"/>
-      <c r="C38" s="66"/>
-      <c r="D38" s="66"/>
-      <c r="E38" s="70"/>
-      <c r="F38" s="66"/>
-      <c r="G38" s="70"/>
-      <c r="H38" s="70"/>
-      <c r="I38" s="70"/>
-      <c r="J38" s="66"/>
-      <c r="K38" s="66"/>
+      <c r="A38" s="66"/>
+      <c r="B38" s="66"/>
+      <c r="C38" s="63"/>
+      <c r="D38" s="63"/>
+      <c r="E38" s="67"/>
+      <c r="F38" s="63"/>
+      <c r="G38" s="67"/>
+      <c r="H38" s="67"/>
+      <c r="I38" s="67"/>
+      <c r="J38" s="63"/>
+      <c r="K38" s="63"/>
     </row>
     <row r="39" ht="33" customHeight="1" spans="1:11">
-      <c r="A39" s="69"/>
-      <c r="B39" s="69"/>
-      <c r="C39" s="66"/>
-      <c r="D39" s="66"/>
-      <c r="E39" s="70"/>
-      <c r="F39" s="66"/>
-      <c r="G39" s="70"/>
-      <c r="H39" s="70"/>
-      <c r="I39" s="70"/>
-      <c r="J39" s="66"/>
-      <c r="K39" s="66"/>
+      <c r="A39" s="66"/>
+      <c r="B39" s="66"/>
+      <c r="C39" s="63"/>
+      <c r="D39" s="63"/>
+      <c r="E39" s="67"/>
+      <c r="F39" s="63"/>
+      <c r="G39" s="67"/>
+      <c r="H39" s="67"/>
+      <c r="I39" s="67"/>
+      <c r="J39" s="63"/>
+      <c r="K39" s="63"/>
     </row>
     <row r="40" ht="33" customHeight="1" spans="1:11">
-      <c r="A40" s="69"/>
-      <c r="B40" s="69"/>
-      <c r="C40" s="66"/>
-      <c r="D40" s="66"/>
-      <c r="E40" s="70"/>
-      <c r="F40" s="66"/>
-      <c r="G40" s="70"/>
-      <c r="H40" s="70"/>
-      <c r="I40" s="70"/>
-      <c r="J40" s="66"/>
-      <c r="K40" s="66"/>
+      <c r="A40" s="66"/>
+      <c r="B40" s="66"/>
+      <c r="C40" s="63"/>
+      <c r="D40" s="63"/>
+      <c r="E40" s="67"/>
+      <c r="F40" s="63"/>
+      <c r="G40" s="67"/>
+      <c r="H40" s="67"/>
+      <c r="I40" s="67"/>
+      <c r="J40" s="63"/>
+      <c r="K40" s="63"/>
     </row>
     <row r="41" ht="33" customHeight="1" spans="1:11">
-      <c r="A41" s="69"/>
-      <c r="B41" s="69"/>
-      <c r="C41" s="66"/>
-      <c r="D41" s="66"/>
-      <c r="E41" s="70"/>
-      <c r="F41" s="66"/>
-      <c r="G41" s="70"/>
-      <c r="H41" s="70"/>
-      <c r="I41" s="70"/>
-      <c r="J41" s="66"/>
-      <c r="K41" s="66"/>
+      <c r="A41" s="66"/>
+      <c r="B41" s="66"/>
+      <c r="C41" s="63"/>
+      <c r="D41" s="63"/>
+      <c r="E41" s="67"/>
+      <c r="F41" s="63"/>
+      <c r="G41" s="67"/>
+      <c r="H41" s="67"/>
+      <c r="I41" s="67"/>
+      <c r="J41" s="63"/>
+      <c r="K41" s="63"/>
     </row>
     <row r="42" ht="33" customHeight="1" spans="1:11">
-      <c r="A42" s="69"/>
-      <c r="B42" s="69"/>
-      <c r="C42" s="66"/>
-      <c r="D42" s="66"/>
-      <c r="E42" s="70"/>
-      <c r="F42" s="66"/>
-      <c r="G42" s="70"/>
-      <c r="H42" s="70"/>
-      <c r="I42" s="70"/>
-      <c r="J42" s="66"/>
-      <c r="K42" s="66"/>
+      <c r="A42" s="66"/>
+      <c r="B42" s="66"/>
+      <c r="C42" s="63"/>
+      <c r="D42" s="63"/>
+      <c r="E42" s="67"/>
+      <c r="F42" s="63"/>
+      <c r="G42" s="67"/>
+      <c r="H42" s="67"/>
+      <c r="I42" s="67"/>
+      <c r="J42" s="63"/>
+      <c r="K42" s="63"/>
     </row>
     <row r="43" ht="33" customHeight="1" spans="1:11">
-      <c r="A43" s="69"/>
-      <c r="B43" s="69"/>
-      <c r="C43" s="66"/>
-      <c r="D43" s="66"/>
-      <c r="E43" s="70"/>
-      <c r="F43" s="66"/>
-      <c r="G43" s="70"/>
-      <c r="H43" s="70"/>
-      <c r="I43" s="70"/>
-      <c r="J43" s="66"/>
-      <c r="K43" s="66"/>
+      <c r="A43" s="66"/>
+      <c r="B43" s="66"/>
+      <c r="C43" s="63"/>
+      <c r="D43" s="63"/>
+      <c r="E43" s="67"/>
+      <c r="F43" s="63"/>
+      <c r="G43" s="67"/>
+      <c r="H43" s="67"/>
+      <c r="I43" s="67"/>
+      <c r="J43" s="63"/>
+      <c r="K43" s="63"/>
     </row>
     <row r="44" ht="33" customHeight="1" spans="1:11">
-      <c r="A44" s="69"/>
-      <c r="B44" s="69"/>
-      <c r="C44" s="66"/>
-      <c r="D44" s="66"/>
-      <c r="E44" s="70"/>
-      <c r="F44" s="66"/>
-      <c r="G44" s="70"/>
-      <c r="H44" s="70"/>
-      <c r="I44" s="70"/>
-      <c r="J44" s="66"/>
-      <c r="K44" s="66"/>
+      <c r="A44" s="66"/>
+      <c r="B44" s="66"/>
+      <c r="C44" s="63"/>
+      <c r="D44" s="63"/>
+      <c r="E44" s="67"/>
+      <c r="F44" s="63"/>
+      <c r="G44" s="67"/>
+      <c r="H44" s="67"/>
+      <c r="I44" s="67"/>
+      <c r="J44" s="63"/>
+      <c r="K44" s="63"/>
     </row>
     <row r="45" ht="33" customHeight="1" spans="1:11">
-      <c r="A45" s="69"/>
-      <c r="B45" s="69"/>
-      <c r="C45" s="66"/>
-      <c r="D45" s="66"/>
-      <c r="E45" s="70"/>
-      <c r="F45" s="66"/>
-      <c r="G45" s="70"/>
-      <c r="H45" s="70"/>
-      <c r="I45" s="70"/>
-      <c r="J45" s="66"/>
-      <c r="K45" s="66"/>
+      <c r="A45" s="66"/>
+      <c r="B45" s="66"/>
+      <c r="C45" s="63"/>
+      <c r="D45" s="63"/>
+      <c r="E45" s="67"/>
+      <c r="F45" s="63"/>
+      <c r="G45" s="67"/>
+      <c r="H45" s="67"/>
+      <c r="I45" s="67"/>
+      <c r="J45" s="63"/>
+      <c r="K45" s="63"/>
     </row>
     <row r="46" ht="33" customHeight="1" spans="1:11">
-      <c r="A46" s="69"/>
-      <c r="B46" s="69"/>
-      <c r="C46" s="66"/>
-      <c r="D46" s="66"/>
-      <c r="E46" s="70"/>
-      <c r="F46" s="66"/>
-      <c r="G46" s="70"/>
-      <c r="H46" s="70"/>
-      <c r="I46" s="70"/>
-      <c r="J46" s="66"/>
-      <c r="K46" s="66"/>
+      <c r="A46" s="66"/>
+      <c r="B46" s="66"/>
+      <c r="C46" s="63"/>
+      <c r="D46" s="63"/>
+      <c r="E46" s="67"/>
+      <c r="F46" s="63"/>
+      <c r="G46" s="67"/>
+      <c r="H46" s="67"/>
+      <c r="I46" s="67"/>
+      <c r="J46" s="63"/>
+      <c r="K46" s="63"/>
     </row>
     <row r="47" ht="33" customHeight="1" spans="1:11">
-      <c r="A47" s="69"/>
-      <c r="B47" s="69"/>
-      <c r="C47" s="66"/>
-      <c r="D47" s="66"/>
-      <c r="E47" s="70"/>
-      <c r="F47" s="66"/>
-      <c r="G47" s="70"/>
-      <c r="H47" s="70"/>
-      <c r="I47" s="70"/>
-      <c r="J47" s="66"/>
-      <c r="K47" s="66"/>
+      <c r="A47" s="66"/>
+      <c r="B47" s="66"/>
+      <c r="C47" s="63"/>
+      <c r="D47" s="63"/>
+      <c r="E47" s="67"/>
+      <c r="F47" s="63"/>
+      <c r="G47" s="67"/>
+      <c r="H47" s="67"/>
+      <c r="I47" s="67"/>
+      <c r="J47" s="63"/>
+      <c r="K47" s="63"/>
     </row>
     <row r="48" ht="33" customHeight="1" spans="1:11">
-      <c r="A48" s="69"/>
-      <c r="B48" s="69"/>
-      <c r="C48" s="66"/>
-      <c r="D48" s="66"/>
-      <c r="E48" s="70"/>
-      <c r="F48" s="66"/>
-      <c r="G48" s="70"/>
-      <c r="H48" s="70"/>
-      <c r="I48" s="70"/>
-      <c r="J48" s="66"/>
-      <c r="K48" s="66"/>
+      <c r="A48" s="66"/>
+      <c r="B48" s="66"/>
+      <c r="C48" s="63"/>
+      <c r="D48" s="63"/>
+      <c r="E48" s="67"/>
+      <c r="F48" s="63"/>
+      <c r="G48" s="67"/>
+      <c r="H48" s="67"/>
+      <c r="I48" s="67"/>
+      <c r="J48" s="63"/>
+      <c r="K48" s="63"/>
     </row>
     <row r="49" ht="33" customHeight="1" spans="1:11">
-      <c r="A49" s="69"/>
-      <c r="B49" s="69"/>
-      <c r="C49" s="66"/>
-      <c r="D49" s="66"/>
-      <c r="E49" s="70"/>
-      <c r="F49" s="66"/>
-      <c r="G49" s="70"/>
-      <c r="H49" s="70"/>
-      <c r="I49" s="70"/>
-      <c r="J49" s="66"/>
-      <c r="K49" s="66"/>
+      <c r="A49" s="66"/>
+      <c r="B49" s="66"/>
+      <c r="C49" s="63"/>
+      <c r="D49" s="63"/>
+      <c r="E49" s="67"/>
+      <c r="F49" s="63"/>
+      <c r="G49" s="67"/>
+      <c r="H49" s="67"/>
+      <c r="I49" s="67"/>
+      <c r="J49" s="63"/>
+      <c r="K49" s="63"/>
     </row>
     <row r="50" ht="33" customHeight="1" spans="1:11">
-      <c r="A50" s="69"/>
-      <c r="B50" s="69"/>
-      <c r="C50" s="66"/>
-      <c r="D50" s="66"/>
-      <c r="E50" s="70"/>
-      <c r="F50" s="66"/>
-      <c r="G50" s="70"/>
-      <c r="H50" s="70"/>
-      <c r="I50" s="70"/>
-      <c r="J50" s="66"/>
-      <c r="K50" s="66"/>
+      <c r="A50" s="66"/>
+      <c r="B50" s="66"/>
+      <c r="C50" s="63"/>
+      <c r="D50" s="63"/>
+      <c r="E50" s="67"/>
+      <c r="F50" s="63"/>
+      <c r="G50" s="67"/>
+      <c r="H50" s="67"/>
+      <c r="I50" s="67"/>
+      <c r="J50" s="63"/>
+      <c r="K50" s="63"/>
     </row>
     <row r="51" ht="33" customHeight="1" spans="1:11">
-      <c r="A51" s="69"/>
-      <c r="B51" s="69"/>
-      <c r="C51" s="66"/>
-      <c r="D51" s="66"/>
-      <c r="E51" s="70"/>
-      <c r="F51" s="66"/>
-      <c r="G51" s="70"/>
-      <c r="H51" s="70"/>
-      <c r="I51" s="70"/>
-      <c r="J51" s="66"/>
-      <c r="K51" s="66"/>
+      <c r="A51" s="66"/>
+      <c r="B51" s="66"/>
+      <c r="C51" s="63"/>
+      <c r="D51" s="63"/>
+      <c r="E51" s="67"/>
+      <c r="F51" s="63"/>
+      <c r="G51" s="67"/>
+      <c r="H51" s="67"/>
+      <c r="I51" s="67"/>
+      <c r="J51" s="63"/>
+      <c r="K51" s="63"/>
     </row>
     <row r="52" ht="33" customHeight="1" spans="1:11">
-      <c r="A52" s="69"/>
-      <c r="B52" s="69"/>
-      <c r="C52" s="66"/>
+      <c r="A52" s="66"/>
+      <c r="B52" s="66"/>
+      <c r="C52" s="63"/>
     </row>
     <row r="53" ht="33" customHeight="1" spans="1:11">
-      <c r="A53" s="69"/>
-      <c r="B53" s="69"/>
-      <c r="C53" s="66"/>
+      <c r="A53" s="66"/>
+      <c r="B53" s="66"/>
+      <c r="C53" s="63"/>
     </row>
     <row r="54" ht="33" customHeight="1" spans="1:11">
-      <c r="A54" s="69"/>
-      <c r="B54" s="69"/>
-      <c r="C54" s="66"/>
+      <c r="A54" s="66"/>
+      <c r="B54" s="66"/>
+      <c r="C54" s="63"/>
     </row>
     <row r="55" ht="33" customHeight="1" spans="1:11">
-      <c r="A55" s="69"/>
-      <c r="B55" s="69"/>
-      <c r="C55" s="66"/>
+      <c r="A55" s="66"/>
+      <c r="B55" s="66"/>
+      <c r="C55" s="63"/>
     </row>
     <row r="56" ht="33" customHeight="1" spans="1:11">
-      <c r="A56" s="69"/>
-      <c r="B56" s="69"/>
-      <c r="C56" s="66"/>
+      <c r="A56" s="66"/>
+      <c r="B56" s="66"/>
+      <c r="C56" s="63"/>
     </row>
     <row r="57" ht="33" customHeight="1" spans="1:11">
-      <c r="A57" s="69"/>
-      <c r="B57" s="69"/>
-      <c r="C57" s="66"/>
+      <c r="A57" s="66"/>
+      <c r="B57" s="66"/>
+      <c r="C57" s="63"/>
     </row>
     <row r="58" ht="33" customHeight="1" spans="1:11">
-      <c r="A58" s="69"/>
-      <c r="B58" s="69"/>
-      <c r="C58" s="66"/>
+      <c r="A58" s="66"/>
+      <c r="B58" s="66"/>
+      <c r="C58" s="63"/>
     </row>
     <row r="59" ht="33" customHeight="1" spans="1:11">
-      <c r="A59" s="69"/>
-      <c r="B59" s="69"/>
-      <c r="C59" s="66"/>
+      <c r="A59" s="66"/>
+      <c r="B59" s="66"/>
+      <c r="C59" s="63"/>
     </row>
     <row r="60" ht="33" customHeight="1" spans="1:11">
-      <c r="A60" s="69"/>
-      <c r="B60" s="69"/>
-      <c r="C60" s="66"/>
+      <c r="A60" s="66"/>
+      <c r="B60" s="66"/>
+      <c r="C60" s="63"/>
     </row>
     <row r="61" ht="33" customHeight="1"/>
     <row r="62" ht="33" customHeight="1"/>
@@ -10225,47 +10216,47 @@
     <col min="1" max="1" width="15.7019230769231" customWidth="1"/>
     <col min="2" max="3" width="16.9903846153846" customWidth="1"/>
     <col min="4" max="4" width="19.7115384615385" customWidth="1"/>
-    <col min="5" max="5" width="18.5865384615385" style="36" customWidth="1"/>
+    <col min="5" max="5" width="18.5865384615385" style="33" customWidth="1"/>
     <col min="6" max="6" width="19.3846153846154" customWidth="1"/>
-    <col min="7" max="7" width="22.2692307692308" style="37" customWidth="1"/>
+    <col min="7" max="7" width="22.2692307692308" style="34" customWidth="1"/>
     <col min="8" max="8" width="73.5576923076923" customWidth="1"/>
     <col min="9" max="9" width="53.6826923076923" customWidth="1"/>
     <col min="10" max="10" width="18.1057692307692" customWidth="1"/>
     <col min="11" max="11" width="16.9807692307692" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="35" customFormat="1" ht="33" customHeight="1" spans="1:32">
-      <c r="A1" s="38" t="s">
+    <row r="1" s="32" customFormat="1" ht="33" customHeight="1" spans="1:32">
+      <c r="A1" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="39" t="s">
+      <c r="B1" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="39" t="s">
+      <c r="C1" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="39" t="s">
+      <c r="D1" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="39" t="s">
+      <c r="E1" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="39" t="s">
+      <c r="F1" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="39" t="s">
+      <c r="G1" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="39" t="s">
+      <c r="H1" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="39" t="s">
+      <c r="I1" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="J1" s="39" t="s">
+      <c r="J1" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="K1" s="39" t="s">
+      <c r="K1" s="36" t="s">
         <v>11</v>
       </c>
     </row>
@@ -10273,25 +10264,25 @@
       <c r="A2" s="14"/>
       <c r="B2" s="14"/>
       <c r="C2" s="14"/>
-      <c r="D2" s="40" t="s">
+      <c r="D2" s="37" t="s">
         <v>80</v>
       </c>
-      <c r="E2" s="41">
+      <c r="E2" s="38">
         <v>3</v>
       </c>
-      <c r="F2" s="41" t="s">
+      <c r="F2" s="38" t="s">
         <v>81</v>
       </c>
-      <c r="G2" s="41">
+      <c r="G2" s="38">
         <v>1</v>
       </c>
-      <c r="H2" s="42" t="s">
+      <c r="H2" s="39" t="s">
         <v>82</v>
       </c>
-      <c r="I2" s="43" t="s">
+      <c r="I2" s="40" t="s">
         <v>83</v>
       </c>
-      <c r="J2" s="43"/>
+      <c r="J2" s="40"/>
       <c r="K2" s="14"/>
       <c r="L2" s="14"/>
       <c r="M2" s="14"/>
@@ -10319,25 +10310,25 @@
       <c r="A3" s="14"/>
       <c r="B3" s="14"/>
       <c r="C3" s="14"/>
-      <c r="D3" s="40" t="s">
+      <c r="D3" s="37" t="s">
         <v>80</v>
       </c>
-      <c r="E3" s="41">
+      <c r="E3" s="38">
         <v>3</v>
       </c>
-      <c r="F3" s="41" t="s">
+      <c r="F3" s="38" t="s">
         <v>84</v>
       </c>
-      <c r="G3" s="41">
+      <c r="G3" s="38">
         <v>2</v>
       </c>
-      <c r="H3" s="42" t="s">
+      <c r="H3" s="39" t="s">
         <v>85</v>
       </c>
-      <c r="I3" s="43" t="s">
+      <c r="I3" s="40" t="s">
         <v>86</v>
       </c>
-      <c r="J3" s="43"/>
+      <c r="J3" s="40"/>
       <c r="K3" s="14"/>
       <c r="L3" s="14"/>
       <c r="M3" s="14"/>
@@ -10365,25 +10356,25 @@
       <c r="A4" s="14"/>
       <c r="B4" s="14"/>
       <c r="C4" s="14"/>
-      <c r="D4" s="40" t="s">
+      <c r="D4" s="37" t="s">
         <v>80</v>
       </c>
-      <c r="E4" s="41">
+      <c r="E4" s="38">
         <v>3</v>
       </c>
-      <c r="F4" s="41" t="s">
+      <c r="F4" s="38" t="s">
         <v>87</v>
       </c>
-      <c r="G4" s="41">
+      <c r="G4" s="38">
         <v>3</v>
       </c>
-      <c r="H4" s="42" t="s">
+      <c r="H4" s="39" t="s">
         <v>88</v>
       </c>
-      <c r="I4" s="43" t="s">
+      <c r="I4" s="40" t="s">
         <v>86</v>
       </c>
-      <c r="J4" s="43"/>
+      <c r="J4" s="40"/>
       <c r="K4" s="14"/>
       <c r="L4" s="14"/>
       <c r="M4" s="14"/>
@@ -10411,25 +10402,25 @@
       <c r="A5" s="14"/>
       <c r="B5" s="14"/>
       <c r="C5" s="14"/>
-      <c r="D5" s="40" t="s">
+      <c r="D5" s="37" t="s">
         <v>80</v>
       </c>
-      <c r="E5" s="41">
+      <c r="E5" s="38">
         <v>3</v>
       </c>
-      <c r="F5" s="41" t="s">
+      <c r="F5" s="38" t="s">
         <v>89</v>
       </c>
-      <c r="G5" s="41">
+      <c r="G5" s="38">
         <v>4</v>
       </c>
-      <c r="H5" s="42" t="s">
+      <c r="H5" s="39" t="s">
         <v>90</v>
       </c>
-      <c r="I5" s="43" t="s">
+      <c r="I5" s="40" t="s">
         <v>91</v>
       </c>
-      <c r="J5" s="43"/>
+      <c r="J5" s="40"/>
       <c r="K5" s="14"/>
       <c r="L5" s="14"/>
       <c r="M5" s="14"/>
@@ -10457,25 +10448,25 @@
       <c r="A6" s="14"/>
       <c r="B6" s="14"/>
       <c r="C6" s="14"/>
-      <c r="D6" s="40" t="s">
+      <c r="D6" s="37" t="s">
         <v>92</v>
       </c>
-      <c r="E6" s="41">
+      <c r="E6" s="38">
         <v>4</v>
       </c>
-      <c r="F6" s="41" t="s">
+      <c r="F6" s="38" t="s">
         <v>81</v>
       </c>
-      <c r="G6" s="41">
+      <c r="G6" s="38">
         <v>1</v>
       </c>
-      <c r="H6" s="42" t="s">
+      <c r="H6" s="39" t="s">
         <v>82</v>
       </c>
-      <c r="I6" s="43" t="s">
+      <c r="I6" s="40" t="s">
         <v>83</v>
       </c>
-      <c r="J6" s="43"/>
+      <c r="J6" s="40"/>
       <c r="K6" s="14"/>
       <c r="L6" s="14"/>
       <c r="M6" s="14"/>
@@ -10503,25 +10494,25 @@
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="14"/>
-      <c r="D7" s="40" t="s">
+      <c r="D7" s="37" t="s">
         <v>92</v>
       </c>
-      <c r="E7" s="41">
+      <c r="E7" s="38">
         <v>4</v>
       </c>
-      <c r="F7" s="41" t="s">
+      <c r="F7" s="38" t="s">
         <v>84</v>
       </c>
-      <c r="G7" s="41">
+      <c r="G7" s="38">
         <v>2</v>
       </c>
-      <c r="H7" s="42" t="s">
+      <c r="H7" s="39" t="s">
         <v>85</v>
       </c>
-      <c r="I7" s="43" t="s">
+      <c r="I7" s="40" t="s">
         <v>86</v>
       </c>
-      <c r="J7" s="43"/>
+      <c r="J7" s="40"/>
       <c r="K7" s="14"/>
       <c r="L7" s="14"/>
       <c r="M7" s="14"/>
@@ -10549,25 +10540,25 @@
       <c r="A8" s="14"/>
       <c r="B8" s="14"/>
       <c r="C8" s="14"/>
-      <c r="D8" s="40" t="s">
+      <c r="D8" s="37" t="s">
         <v>92</v>
       </c>
-      <c r="E8" s="41">
+      <c r="E8" s="38">
         <v>4</v>
       </c>
-      <c r="F8" s="41" t="s">
+      <c r="F8" s="38" t="s">
         <v>87</v>
       </c>
-      <c r="G8" s="41">
+      <c r="G8" s="38">
         <v>3</v>
       </c>
-      <c r="H8" s="42" t="s">
+      <c r="H8" s="39" t="s">
         <v>88</v>
       </c>
-      <c r="I8" s="43" t="s">
+      <c r="I8" s="40" t="s">
         <v>86</v>
       </c>
-      <c r="J8" s="43"/>
+      <c r="J8" s="40"/>
       <c r="K8" s="14"/>
       <c r="L8" s="14"/>
       <c r="M8" s="14"/>
@@ -10595,25 +10586,25 @@
       <c r="A9" s="14"/>
       <c r="B9" s="14"/>
       <c r="C9" s="14"/>
-      <c r="D9" s="40" t="s">
+      <c r="D9" s="37" t="s">
         <v>92</v>
       </c>
-      <c r="E9" s="41">
+      <c r="E9" s="38">
         <v>4</v>
       </c>
-      <c r="F9" s="41" t="s">
+      <c r="F9" s="38" t="s">
         <v>89</v>
       </c>
-      <c r="G9" s="41">
+      <c r="G9" s="38">
         <v>4</v>
       </c>
-      <c r="H9" s="42" t="s">
+      <c r="H9" s="39" t="s">
         <v>90</v>
       </c>
-      <c r="I9" s="43" t="s">
+      <c r="I9" s="40" t="s">
         <v>91</v>
       </c>
-      <c r="J9" s="43"/>
+      <c r="J9" s="40"/>
       <c r="K9" s="14"/>
       <c r="L9" s="14"/>
       <c r="M9" s="14"/>
@@ -10641,25 +10632,25 @@
       <c r="A10" s="14"/>
       <c r="B10" s="14"/>
       <c r="C10" s="14"/>
-      <c r="D10" s="41" t="s">
+      <c r="D10" s="38" t="s">
         <v>93</v>
       </c>
-      <c r="E10" s="41">
+      <c r="E10" s="38">
         <v>2</v>
       </c>
-      <c r="F10" s="41" t="s">
+      <c r="F10" s="38" t="s">
         <v>81</v>
       </c>
-      <c r="G10" s="44">
+      <c r="G10" s="41">
         <v>1</v>
       </c>
-      <c r="H10" s="45" t="s">
+      <c r="H10" s="42" t="s">
         <v>94</v>
       </c>
-      <c r="I10" s="43" t="s">
+      <c r="I10" s="40" t="s">
         <v>95</v>
       </c>
-      <c r="J10" s="43"/>
+      <c r="J10" s="40"/>
       <c r="K10" s="14"/>
       <c r="L10" s="14"/>
       <c r="M10" s="14"/>
@@ -10687,25 +10678,25 @@
       <c r="A11" s="14"/>
       <c r="B11" s="14"/>
       <c r="C11" s="14"/>
-      <c r="D11" s="41" t="s">
+      <c r="D11" s="38" t="s">
         <v>93</v>
       </c>
-      <c r="E11" s="41">
+      <c r="E11" s="38">
         <v>2</v>
       </c>
-      <c r="F11" s="41" t="s">
+      <c r="F11" s="38" t="s">
         <v>84</v>
       </c>
-      <c r="G11" s="46">
+      <c r="G11" s="43">
         <v>2</v>
       </c>
-      <c r="H11" s="47" t="s">
+      <c r="H11" s="44" t="s">
         <v>96</v>
       </c>
-      <c r="I11" s="43" t="s">
+      <c r="I11" s="40" t="s">
         <v>95</v>
       </c>
-      <c r="J11" s="43"/>
+      <c r="J11" s="40"/>
       <c r="K11" s="14"/>
       <c r="L11" s="14"/>
       <c r="M11" s="14"/>
@@ -10733,25 +10724,25 @@
       <c r="A12" s="14"/>
       <c r="B12" s="14"/>
       <c r="C12" s="14"/>
-      <c r="D12" s="41" t="s">
+      <c r="D12" s="38" t="s">
         <v>93</v>
       </c>
-      <c r="E12" s="41">
+      <c r="E12" s="38">
         <v>2</v>
       </c>
-      <c r="F12" s="41" t="s">
+      <c r="F12" s="38" t="s">
         <v>87</v>
       </c>
-      <c r="G12" s="46">
+      <c r="G12" s="43">
         <v>3</v>
       </c>
-      <c r="H12" s="47" t="s">
+      <c r="H12" s="44" t="s">
         <v>97</v>
       </c>
-      <c r="I12" s="43" t="s">
+      <c r="I12" s="40" t="s">
         <v>95</v>
       </c>
-      <c r="J12" s="43"/>
+      <c r="J12" s="40"/>
       <c r="K12" s="14"/>
       <c r="L12" s="14"/>
       <c r="M12" s="14"/>
@@ -10779,25 +10770,25 @@
       <c r="A13" s="14"/>
       <c r="B13" s="14"/>
       <c r="C13" s="14"/>
-      <c r="D13" s="41" t="s">
+      <c r="D13" s="38" t="s">
         <v>93</v>
       </c>
-      <c r="E13" s="41">
+      <c r="E13" s="38">
         <v>2</v>
       </c>
-      <c r="F13" s="41" t="s">
+      <c r="F13" s="38" t="s">
         <v>89</v>
       </c>
-      <c r="G13" s="46">
+      <c r="G13" s="43">
         <v>4</v>
       </c>
-      <c r="H13" s="47" t="s">
+      <c r="H13" s="44" t="s">
         <v>98</v>
       </c>
-      <c r="I13" s="43" t="s">
+      <c r="I13" s="40" t="s">
         <v>95</v>
       </c>
-      <c r="J13" s="43"/>
+      <c r="J13" s="40"/>
       <c r="K13" s="14"/>
       <c r="L13" s="14"/>
       <c r="M13" s="14"/>
@@ -10825,25 +10816,25 @@
       <c r="A14" s="14"/>
       <c r="B14" s="14"/>
       <c r="C14" s="14"/>
-      <c r="D14" s="41" t="s">
+      <c r="D14" s="38" t="s">
         <v>99</v>
       </c>
-      <c r="E14" s="41">
+      <c r="E14" s="38">
         <v>1</v>
       </c>
-      <c r="F14" s="41" t="s">
+      <c r="F14" s="38" t="s">
         <v>81</v>
       </c>
-      <c r="G14" s="46">
+      <c r="G14" s="43">
         <v>1</v>
       </c>
-      <c r="H14" s="47" t="s">
+      <c r="H14" s="44" t="s">
         <v>100</v>
       </c>
-      <c r="I14" s="43" t="s">
+      <c r="I14" s="40" t="s">
         <v>95</v>
       </c>
-      <c r="J14" s="43"/>
+      <c r="J14" s="40"/>
       <c r="K14" s="14"/>
       <c r="L14" s="14"/>
       <c r="M14" s="14"/>
@@ -10871,25 +10862,25 @@
       <c r="A15" s="14"/>
       <c r="B15" s="14"/>
       <c r="C15" s="14"/>
-      <c r="D15" s="41" t="s">
+      <c r="D15" s="38" t="s">
         <v>99</v>
       </c>
-      <c r="E15" s="41">
+      <c r="E15" s="38">
         <v>1</v>
       </c>
-      <c r="F15" s="41" t="s">
+      <c r="F15" s="38" t="s">
         <v>84</v>
       </c>
-      <c r="G15" s="46">
+      <c r="G15" s="43">
         <v>2</v>
       </c>
-      <c r="H15" s="47" t="s">
+      <c r="H15" s="44" t="s">
         <v>101</v>
       </c>
-      <c r="I15" s="43" t="s">
+      <c r="I15" s="40" t="s">
         <v>95</v>
       </c>
-      <c r="J15" s="43"/>
+      <c r="J15" s="40"/>
       <c r="K15" s="14"/>
       <c r="L15" s="14"/>
       <c r="M15" s="14"/>
@@ -10917,25 +10908,25 @@
       <c r="A16" s="14"/>
       <c r="B16" s="14"/>
       <c r="C16" s="14"/>
-      <c r="D16" s="41" t="s">
+      <c r="D16" s="38" t="s">
         <v>99</v>
       </c>
-      <c r="E16" s="41">
+      <c r="E16" s="38">
         <v>1</v>
       </c>
-      <c r="F16" s="41" t="s">
+      <c r="F16" s="38" t="s">
         <v>87</v>
       </c>
-      <c r="G16" s="46">
+      <c r="G16" s="43">
         <v>3</v>
       </c>
-      <c r="H16" s="47" t="s">
+      <c r="H16" s="44" t="s">
         <v>102</v>
       </c>
-      <c r="I16" s="43" t="s">
+      <c r="I16" s="40" t="s">
         <v>95</v>
       </c>
-      <c r="J16" s="43"/>
+      <c r="J16" s="40"/>
       <c r="K16" s="14"/>
       <c r="L16" s="14"/>
       <c r="M16" s="14"/>
@@ -10963,25 +10954,25 @@
       <c r="A17" s="14"/>
       <c r="B17" s="14"/>
       <c r="C17" s="14"/>
-      <c r="D17" s="41" t="s">
+      <c r="D17" s="38" t="s">
         <v>99</v>
       </c>
-      <c r="E17" s="41">
+      <c r="E17" s="38">
         <v>1</v>
       </c>
-      <c r="F17" s="41" t="s">
+      <c r="F17" s="38" t="s">
         <v>89</v>
       </c>
-      <c r="G17" s="46">
+      <c r="G17" s="43">
         <v>4</v>
       </c>
-      <c r="H17" s="47" t="s">
+      <c r="H17" s="44" t="s">
         <v>103</v>
       </c>
-      <c r="I17" s="43" t="s">
+      <c r="I17" s="40" t="s">
         <v>95</v>
       </c>
-      <c r="J17" s="43"/>
+      <c r="J17" s="40"/>
       <c r="K17" s="14"/>
       <c r="L17" s="14"/>
       <c r="M17" s="14"/>
@@ -13472,7 +13463,7 @@
       <c r="F56" s="27" t="s">
         <v>352</v>
       </c>
-      <c r="G56" s="28" t="s">
+      <c r="G56" s="27" t="s">
         <v>353</v>
       </c>
       <c r="H56" s="13" t="s">
@@ -13513,10 +13504,10 @@
       <c r="E57" s="13" t="s">
         <v>355</v>
       </c>
-      <c r="F57" s="29" t="s">
+      <c r="F57" s="28" t="s">
         <v>356</v>
       </c>
-      <c r="G57" s="28" t="s">
+      <c r="G57" s="27" t="s">
         <v>357</v>
       </c>
       <c r="H57" s="13" t="s">
@@ -13557,10 +13548,10 @@
       <c r="E58" s="26" t="s">
         <v>359</v>
       </c>
-      <c r="F58" s="29" t="s">
+      <c r="F58" s="28" t="s">
         <v>360</v>
       </c>
-      <c r="G58" s="28" t="s">
+      <c r="G58" s="27" t="s">
         <v>361</v>
       </c>
       <c r="H58" s="13" t="s">
@@ -13586,13 +13577,13 @@
       <c r="Z58" s="12"/>
     </row>
     <row r="59" s="16" customFormat="1" customHeight="1" spans="1:26">
-      <c r="A59" s="30" t="s">
+      <c r="A59" s="28" t="s">
         <v>104</v>
       </c>
-      <c r="B59" s="31" t="s">
+      <c r="B59" s="29" t="s">
         <v>99</v>
       </c>
-      <c r="C59" s="32">
+      <c r="C59" s="30">
         <v>1</v>
       </c>
       <c r="D59" s="11" t="s">
@@ -13601,24 +13592,24 @@
       <c r="E59" s="11" t="s">
         <v>364</v>
       </c>
-      <c r="F59" s="33" t="s">
+      <c r="F59" s="31" t="s">
         <v>365</v>
       </c>
-      <c r="G59" s="34" t="s">
+      <c r="G59" s="31" t="s">
         <v>366</v>
       </c>
-      <c r="H59" s="28" t="s">
+      <c r="H59" s="27" t="s">
         <v>367</v>
       </c>
     </row>
     <row r="60" s="16" customFormat="1" customHeight="1" spans="1:26">
-      <c r="A60" s="30" t="s">
+      <c r="A60" s="28" t="s">
         <v>104</v>
       </c>
-      <c r="B60" s="31" t="s">
+      <c r="B60" s="29" t="s">
         <v>99</v>
       </c>
-      <c r="C60" s="32">
+      <c r="C60" s="30">
         <v>1</v>
       </c>
       <c r="D60" s="11" t="s">
@@ -13627,24 +13618,24 @@
       <c r="E60" s="11" t="s">
         <v>369</v>
       </c>
-      <c r="F60" s="34" t="s">
+      <c r="F60" s="31" t="s">
         <v>370</v>
       </c>
-      <c r="G60" s="34" t="s">
+      <c r="G60" s="31" t="s">
         <v>371</v>
       </c>
-      <c r="H60" s="28" t="s">
+      <c r="H60" s="27" t="s">
         <v>372</v>
       </c>
     </row>
     <row r="61" s="16" customFormat="1" customHeight="1" spans="1:26">
-      <c r="A61" s="30" t="s">
+      <c r="A61" s="28" t="s">
         <v>104</v>
       </c>
-      <c r="B61" s="31" t="s">
+      <c r="B61" s="29" t="s">
         <v>99</v>
       </c>
-      <c r="C61" s="32">
+      <c r="C61" s="30">
         <v>1</v>
       </c>
       <c r="D61" s="11" t="s">
@@ -13653,13 +13644,13 @@
       <c r="E61" s="11" t="s">
         <v>374</v>
       </c>
-      <c r="F61" s="34" t="s">
+      <c r="F61" s="31" t="s">
         <v>375</v>
       </c>
-      <c r="G61" s="34" t="s">
+      <c r="G61" s="31" t="s">
         <v>376</v>
       </c>
-      <c r="H61" s="28" t="s">
+      <c r="H61" s="27" t="s">
         <v>377</v>
       </c>
     </row>
@@ -13677,11 +13668,11 @@
   <sheetPr/>
   <dimension ref="A1:X117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="D127" sqref="D127"/>
+    <sheetView tabSelected="1" topLeftCell="A104" workbookViewId="0">
+      <selection activeCell="C106" sqref="C106"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="15.2"/>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8"/>
   <cols>
     <col min="1" max="1" width="21.4711538461538" style="2" customWidth="1"/>
     <col min="2" max="2" width="17.2980769230769" style="2" customWidth="1"/>
@@ -13734,7 +13725,7 @@
       <c r="W1" s="8"/>
       <c r="X1" s="8"/>
     </row>
-    <row r="2" ht="16.8" spans="1:24">
+    <row r="2" spans="1:24">
       <c r="A2" s="9" t="s">
         <v>378</v>
       </c>
@@ -13768,7 +13759,7 @@
       <c r="W2" s="14"/>
       <c r="X2" s="14"/>
     </row>
-    <row r="3" ht="16.8" spans="1:24">
+    <row r="3" spans="1:24">
       <c r="A3" s="9" t="s">
         <v>378</v>
       </c>
@@ -13802,7 +13793,7 @@
       <c r="W3" s="14"/>
       <c r="X3" s="14"/>
     </row>
-    <row r="4" ht="16.8" spans="1:24">
+    <row r="4" spans="1:24">
       <c r="A4" s="9" t="s">
         <v>378</v>
       </c>
@@ -13836,7 +13827,7 @@
       <c r="W4" s="14"/>
       <c r="X4" s="14"/>
     </row>
-    <row r="5" ht="16.8" spans="1:24">
+    <row r="5" spans="1:24">
       <c r="A5" s="9" t="s">
         <v>378</v>
       </c>
@@ -13870,7 +13861,7 @@
       <c r="W5" s="14"/>
       <c r="X5" s="14"/>
     </row>
-    <row r="6" ht="16.8" spans="1:24">
+    <row r="6" spans="1:24">
       <c r="A6" s="9" t="s">
         <v>378</v>
       </c>
@@ -13904,7 +13895,7 @@
       <c r="W6" s="14"/>
       <c r="X6" s="14"/>
     </row>
-    <row r="7" ht="16.8" spans="1:24">
+    <row r="7" spans="1:24">
       <c r="A7" s="9" t="s">
         <v>378</v>
       </c>
@@ -13938,7 +13929,7 @@
       <c r="W7" s="14"/>
       <c r="X7" s="14"/>
     </row>
-    <row r="8" ht="16.8" spans="1:24">
+    <row r="8" spans="1:24">
       <c r="A8" s="9" t="s">
         <v>378</v>
       </c>
@@ -13972,7 +13963,7 @@
       <c r="W8" s="14"/>
       <c r="X8" s="14"/>
     </row>
-    <row r="9" ht="16.8" spans="1:24">
+    <row r="9" spans="1:24">
       <c r="A9" s="9" t="s">
         <v>378</v>
       </c>
@@ -14006,7 +13997,7 @@
       <c r="W9" s="14"/>
       <c r="X9" s="14"/>
     </row>
-    <row r="10" ht="16.8" spans="1:24">
+    <row r="10" spans="1:24">
       <c r="A10" s="9" t="s">
         <v>378</v>
       </c>
@@ -14040,7 +14031,7 @@
       <c r="W10" s="14"/>
       <c r="X10" s="14"/>
     </row>
-    <row r="11" ht="16.8" spans="1:24">
+    <row r="11" spans="1:24">
       <c r="A11" s="9" t="s">
         <v>378</v>
       </c>
@@ -14074,7 +14065,7 @@
       <c r="W11" s="14"/>
       <c r="X11" s="14"/>
     </row>
-    <row r="12" ht="16.8" spans="1:24">
+    <row r="12" spans="1:24">
       <c r="A12" s="9" t="s">
         <v>378</v>
       </c>
@@ -14108,7 +14099,7 @@
       <c r="W12" s="14"/>
       <c r="X12" s="14"/>
     </row>
-    <row r="13" ht="16.8" spans="1:24">
+    <row r="13" spans="1:24">
       <c r="A13" s="9" t="s">
         <v>378</v>
       </c>
@@ -14142,7 +14133,7 @@
       <c r="W13" s="14"/>
       <c r="X13" s="14"/>
     </row>
-    <row r="14" ht="16.8" spans="1:24">
+    <row r="14" spans="1:24">
       <c r="A14" s="9" t="s">
         <v>378</v>
       </c>
@@ -14176,7 +14167,7 @@
       <c r="W14" s="14"/>
       <c r="X14" s="14"/>
     </row>
-    <row r="15" ht="16.8" spans="1:24">
+    <row r="15" spans="1:24">
       <c r="A15" s="9" t="s">
         <v>378</v>
       </c>
@@ -14210,7 +14201,7 @@
       <c r="W15" s="14"/>
       <c r="X15" s="14"/>
     </row>
-    <row r="16" ht="16.8" spans="1:24">
+    <row r="16" spans="1:24">
       <c r="A16" s="9" t="s">
         <v>378</v>
       </c>
@@ -14244,7 +14235,7 @@
       <c r="W16" s="14"/>
       <c r="X16" s="14"/>
     </row>
-    <row r="17" ht="16.8" spans="1:24">
+    <row r="17" spans="1:24">
       <c r="A17" s="9" t="s">
         <v>378</v>
       </c>
@@ -14278,7 +14269,7 @@
       <c r="W17" s="14"/>
       <c r="X17" s="14"/>
     </row>
-    <row r="18" ht="16.8" spans="1:24">
+    <row r="18" spans="1:24">
       <c r="A18" s="9" t="s">
         <v>378</v>
       </c>
@@ -14312,7 +14303,7 @@
       <c r="W18" s="14"/>
       <c r="X18" s="14"/>
     </row>
-    <row r="19" ht="16.8" spans="1:24">
+    <row r="19" spans="1:24">
       <c r="A19" s="9" t="s">
         <v>378</v>
       </c>
@@ -14346,7 +14337,7 @@
       <c r="W19" s="14"/>
       <c r="X19" s="14"/>
     </row>
-    <row r="20" ht="16.8" spans="1:24">
+    <row r="20" spans="1:24">
       <c r="A20" s="9" t="s">
         <v>378</v>
       </c>
@@ -14380,7 +14371,7 @@
       <c r="W20" s="14"/>
       <c r="X20" s="14"/>
     </row>
-    <row r="21" ht="16.8" spans="1:24">
+    <row r="21" spans="1:24">
       <c r="A21" s="9" t="s">
         <v>378</v>
       </c>
@@ -14414,7 +14405,7 @@
       <c r="W21" s="14"/>
       <c r="X21" s="14"/>
     </row>
-    <row r="22" ht="16.8" spans="1:24">
+    <row r="22" spans="1:24">
       <c r="A22" s="9" t="s">
         <v>378</v>
       </c>
@@ -14448,7 +14439,7 @@
       <c r="W22" s="14"/>
       <c r="X22" s="14"/>
     </row>
-    <row r="23" ht="16.8" spans="1:24">
+    <row r="23" spans="1:24">
       <c r="A23" s="9" t="s">
         <v>378</v>
       </c>
@@ -14482,7 +14473,7 @@
       <c r="W23" s="14"/>
       <c r="X23" s="14"/>
     </row>
-    <row r="24" ht="16.8" spans="1:24">
+    <row r="24" spans="1:24">
       <c r="A24" s="9" t="s">
         <v>378</v>
       </c>
@@ -14516,7 +14507,7 @@
       <c r="W24" s="14"/>
       <c r="X24" s="14"/>
     </row>
-    <row r="25" ht="16.8" spans="1:24">
+    <row r="25" spans="1:24">
       <c r="A25" s="9" t="s">
         <v>378</v>
       </c>
@@ -14550,7 +14541,7 @@
       <c r="W25" s="14"/>
       <c r="X25" s="14"/>
     </row>
-    <row r="26" ht="16.8" spans="1:24">
+    <row r="26" spans="1:24">
       <c r="A26" s="9" t="s">
         <v>378</v>
       </c>
@@ -14584,7 +14575,7 @@
       <c r="W26" s="14"/>
       <c r="X26" s="14"/>
     </row>
-    <row r="27" ht="16.8" spans="1:24">
+    <row r="27" spans="1:24">
       <c r="A27" s="9" t="s">
         <v>378</v>
       </c>
@@ -14618,7 +14609,7 @@
       <c r="W27" s="14"/>
       <c r="X27" s="14"/>
     </row>
-    <row r="28" ht="16.8" spans="1:24">
+    <row r="28" spans="1:24">
       <c r="A28" s="9" t="s">
         <v>378</v>
       </c>
@@ -14652,7 +14643,7 @@
       <c r="W28" s="14"/>
       <c r="X28" s="14"/>
     </row>
-    <row r="29" ht="16.8" spans="1:24">
+    <row r="29" spans="1:24">
       <c r="A29" s="9" t="s">
         <v>378</v>
       </c>
@@ -14686,7 +14677,7 @@
       <c r="W29" s="14"/>
       <c r="X29" s="14"/>
     </row>
-    <row r="30" ht="16.8" spans="1:24">
+    <row r="30" spans="1:24">
       <c r="A30" s="9" t="s">
         <v>378</v>
       </c>
@@ -14720,7 +14711,7 @@
       <c r="W30" s="14"/>
       <c r="X30" s="14"/>
     </row>
-    <row r="31" ht="16.8" spans="1:24">
+    <row r="31" spans="1:24">
       <c r="A31" s="9" t="s">
         <v>378</v>
       </c>
@@ -14754,7 +14745,7 @@
       <c r="W31" s="14"/>
       <c r="X31" s="14"/>
     </row>
-    <row r="32" ht="16.8" spans="1:24">
+    <row r="32" spans="1:24">
       <c r="A32" s="9" t="s">
         <v>378</v>
       </c>
@@ -14788,7 +14779,7 @@
       <c r="W32" s="14"/>
       <c r="X32" s="14"/>
     </row>
-    <row r="33" ht="16.8" spans="1:24">
+    <row r="33" spans="1:24">
       <c r="A33" s="9" t="s">
         <v>378</v>
       </c>
@@ -14822,7 +14813,7 @@
       <c r="W33" s="14"/>
       <c r="X33" s="14"/>
     </row>
-    <row r="34" ht="16.8" spans="1:24">
+    <row r="34" spans="1:24">
       <c r="A34" s="9" t="s">
         <v>378</v>
       </c>
@@ -14856,7 +14847,7 @@
       <c r="W34" s="14"/>
       <c r="X34" s="14"/>
     </row>
-    <row r="35" ht="16.8" spans="1:24">
+    <row r="35" spans="1:24">
       <c r="A35" s="9" t="s">
         <v>378</v>
       </c>
@@ -14890,7 +14881,7 @@
       <c r="W35" s="14"/>
       <c r="X35" s="14"/>
     </row>
-    <row r="36" ht="16.8" spans="1:24">
+    <row r="36" spans="1:24">
       <c r="A36" s="9" t="s">
         <v>378</v>
       </c>
@@ -14924,7 +14915,7 @@
       <c r="W36" s="14"/>
       <c r="X36" s="14"/>
     </row>
-    <row r="37" ht="16.8" spans="1:24">
+    <row r="37" spans="1:24">
       <c r="A37" s="9" t="s">
         <v>378</v>
       </c>
@@ -14958,7 +14949,7 @@
       <c r="W37" s="14"/>
       <c r="X37" s="14"/>
     </row>
-    <row r="38" ht="16.8" spans="1:24">
+    <row r="38" spans="1:24">
       <c r="A38" s="9" t="s">
         <v>378</v>
       </c>
@@ -14992,7 +14983,7 @@
       <c r="W38" s="14"/>
       <c r="X38" s="14"/>
     </row>
-    <row r="39" ht="16.8" spans="1:24">
+    <row r="39" spans="1:24">
       <c r="A39" s="9" t="s">
         <v>378</v>
       </c>
@@ -15026,7 +15017,7 @@
       <c r="W39" s="14"/>
       <c r="X39" s="14"/>
     </row>
-    <row r="40" ht="16.8" spans="1:24">
+    <row r="40" spans="1:24">
       <c r="A40" s="9" t="s">
         <v>378</v>
       </c>
@@ -15060,7 +15051,7 @@
       <c r="W40" s="14"/>
       <c r="X40" s="14"/>
     </row>
-    <row r="41" ht="16.8" spans="1:24">
+    <row r="41" spans="1:24">
       <c r="A41" s="9" t="s">
         <v>378</v>
       </c>
@@ -15094,7 +15085,7 @@
       <c r="W41" s="14"/>
       <c r="X41" s="14"/>
     </row>
-    <row r="42" ht="16.8" spans="1:24">
+    <row r="42" spans="1:24">
       <c r="A42" s="9" t="s">
         <v>378</v>
       </c>
@@ -15128,7 +15119,7 @@
       <c r="W42" s="14"/>
       <c r="X42" s="14"/>
     </row>
-    <row r="43" ht="16.8" spans="1:24">
+    <row r="43" spans="1:24">
       <c r="A43" s="9" t="s">
         <v>378</v>
       </c>
@@ -15400,7 +15391,7 @@
       <c r="W50" s="14"/>
       <c r="X50" s="14"/>
     </row>
-    <row r="51" ht="16.8" spans="1:24">
+    <row r="51" spans="1:24">
       <c r="A51" s="9" t="s">
         <v>378</v>
       </c>
@@ -15434,7 +15425,7 @@
       <c r="W51" s="14"/>
       <c r="X51" s="14"/>
     </row>
-    <row r="52" ht="16.8" spans="1:24">
+    <row r="52" spans="1:24">
       <c r="A52" s="9" t="s">
         <v>378</v>
       </c>
@@ -15468,7 +15459,7 @@
       <c r="W52" s="14"/>
       <c r="X52" s="14"/>
     </row>
-    <row r="53" ht="16.8" spans="1:24">
+    <row r="53" spans="1:24">
       <c r="A53" s="9" t="s">
         <v>530</v>
       </c>
@@ -15502,7 +15493,7 @@
       <c r="W53" s="14"/>
       <c r="X53" s="14"/>
     </row>
-    <row r="54" ht="16.8" spans="1:24">
+    <row r="54" spans="1:24">
       <c r="A54" s="9" t="s">
         <v>530</v>
       </c>
@@ -15536,7 +15527,7 @@
       <c r="W54" s="14"/>
       <c r="X54" s="14"/>
     </row>
-    <row r="55" ht="16.8" spans="1:24">
+    <row r="55" spans="1:24">
       <c r="A55" s="9" t="s">
         <v>530</v>
       </c>
@@ -15570,7 +15561,7 @@
       <c r="W55" s="14"/>
       <c r="X55" s="14"/>
     </row>
-    <row r="56" ht="16.8" spans="1:24">
+    <row r="56" spans="1:24">
       <c r="A56" s="9" t="s">
         <v>530</v>
       </c>
@@ -15604,7 +15595,7 @@
       <c r="W56" s="14"/>
       <c r="X56" s="14"/>
     </row>
-    <row r="57" ht="16.8" spans="1:24">
+    <row r="57" spans="1:24">
       <c r="A57" s="9" t="s">
         <v>530</v>
       </c>
@@ -15638,7 +15629,7 @@
       <c r="W57" s="14"/>
       <c r="X57" s="14"/>
     </row>
-    <row r="58" ht="16.8" spans="1:24">
+    <row r="58" spans="1:24">
       <c r="A58" s="9" t="s">
         <v>530</v>
       </c>
@@ -15787,10 +15778,6 @@
       <c r="D62" s="9" t="s">
         <v>408</v>
       </c>
-      <c r="E62" s="4"/>
-      <c r="F62" s="4"/>
-      <c r="G62" s="4"/>
-      <c r="H62" s="4"/>
       <c r="I62" s="14"/>
       <c r="J62" s="14"/>
       <c r="K62" s="14"/>
@@ -15821,10 +15808,6 @@
       <c r="D63" s="9" t="s">
         <v>411</v>
       </c>
-      <c r="E63" s="4"/>
-      <c r="F63" s="4"/>
-      <c r="G63" s="4"/>
-      <c r="H63" s="4"/>
       <c r="I63" s="14"/>
       <c r="J63" s="14"/>
       <c r="K63" s="14"/>
@@ -15855,10 +15838,6 @@
       <c r="D64" s="9" t="s">
         <v>414</v>
       </c>
-      <c r="E64" s="4"/>
-      <c r="F64" s="4"/>
-      <c r="G64" s="4"/>
-      <c r="H64" s="4"/>
       <c r="I64" s="14"/>
       <c r="J64" s="14"/>
       <c r="K64" s="14"/>
@@ -15889,10 +15868,6 @@
       <c r="D65" s="9" t="s">
         <v>417</v>
       </c>
-      <c r="E65" s="4"/>
-      <c r="F65" s="4"/>
-      <c r="G65" s="4"/>
-      <c r="H65" s="4"/>
       <c r="I65" s="14"/>
       <c r="J65" s="14"/>
       <c r="K65" s="14"/>
@@ -15923,10 +15898,6 @@
       <c r="D66" s="9" t="s">
         <v>420</v>
       </c>
-      <c r="E66" s="4"/>
-      <c r="F66" s="4"/>
-      <c r="G66" s="4"/>
-      <c r="H66" s="4"/>
       <c r="I66" s="14"/>
       <c r="J66" s="14"/>
       <c r="K66" s="14"/>
@@ -15957,10 +15928,6 @@
       <c r="D67" s="9" t="s">
         <v>423</v>
       </c>
-      <c r="E67" s="4"/>
-      <c r="F67" s="4"/>
-      <c r="G67" s="4"/>
-      <c r="H67" s="4"/>
       <c r="I67" s="14"/>
       <c r="J67" s="14"/>
       <c r="K67" s="14"/>
@@ -15991,10 +15958,6 @@
       <c r="D68" s="9" t="s">
         <v>426</v>
       </c>
-      <c r="E68" s="4"/>
-      <c r="F68" s="4"/>
-      <c r="G68" s="4"/>
-      <c r="H68" s="4"/>
       <c r="I68" s="14"/>
       <c r="J68" s="14"/>
       <c r="K68" s="14"/>
@@ -16025,10 +15988,6 @@
       <c r="D69" s="9" t="s">
         <v>429</v>
       </c>
-      <c r="E69" s="4"/>
-      <c r="F69" s="4"/>
-      <c r="G69" s="4"/>
-      <c r="H69" s="4"/>
       <c r="I69" s="14"/>
       <c r="J69" s="14"/>
       <c r="K69" s="14"/>
@@ -16059,10 +16018,6 @@
       <c r="D70" s="9" t="s">
         <v>432</v>
       </c>
-      <c r="E70" s="4"/>
-      <c r="F70" s="4"/>
-      <c r="G70" s="4"/>
-      <c r="H70" s="4"/>
       <c r="I70" s="14"/>
       <c r="J70" s="14"/>
       <c r="K70" s="14"/>
@@ -16093,10 +16048,6 @@
       <c r="D71" s="9" t="s">
         <v>435</v>
       </c>
-      <c r="E71" s="4"/>
-      <c r="F71" s="4"/>
-      <c r="G71" s="4"/>
-      <c r="H71" s="4"/>
       <c r="I71" s="14"/>
       <c r="J71" s="14"/>
       <c r="K71" s="14"/>
@@ -16127,10 +16078,6 @@
       <c r="D72" s="9" t="s">
         <v>438</v>
       </c>
-      <c r="E72" s="4"/>
-      <c r="F72" s="4"/>
-      <c r="G72" s="4"/>
-      <c r="H72" s="4"/>
       <c r="I72" s="14"/>
       <c r="J72" s="14"/>
       <c r="K72" s="14"/>
@@ -16161,10 +16108,6 @@
       <c r="D73" s="9" t="s">
         <v>441</v>
       </c>
-      <c r="E73" s="4"/>
-      <c r="F73" s="4"/>
-      <c r="G73" s="4"/>
-      <c r="H73" s="4"/>
       <c r="I73" s="14"/>
       <c r="J73" s="14"/>
       <c r="K73" s="14"/>
@@ -16195,10 +16138,6 @@
       <c r="D74" s="9" t="s">
         <v>444</v>
       </c>
-      <c r="E74" s="4"/>
-      <c r="F74" s="4"/>
-      <c r="G74" s="4"/>
-      <c r="H74" s="4"/>
       <c r="I74" s="14"/>
       <c r="J74" s="14"/>
       <c r="K74" s="14"/>
@@ -16229,10 +16168,6 @@
       <c r="D75" s="9" t="s">
         <v>447</v>
       </c>
-      <c r="E75" s="4"/>
-      <c r="F75" s="4"/>
-      <c r="G75" s="4"/>
-      <c r="H75" s="4"/>
       <c r="I75" s="14"/>
       <c r="J75" s="14"/>
       <c r="K75" s="14"/>
@@ -16263,10 +16198,6 @@
       <c r="D76" s="9" t="s">
         <v>450</v>
       </c>
-      <c r="E76" s="4"/>
-      <c r="F76" s="4"/>
-      <c r="G76" s="4"/>
-      <c r="H76" s="4"/>
       <c r="I76" s="14"/>
       <c r="J76" s="14"/>
       <c r="K76" s="14"/>
@@ -16297,10 +16228,6 @@
       <c r="D77" s="9" t="s">
         <v>453</v>
       </c>
-      <c r="E77" s="4"/>
-      <c r="F77" s="4"/>
-      <c r="G77" s="4"/>
-      <c r="H77" s="4"/>
       <c r="I77" s="14"/>
       <c r="J77" s="14"/>
       <c r="K77" s="14"/>
@@ -16331,10 +16258,6 @@
       <c r="D78" s="9" t="s">
         <v>456</v>
       </c>
-      <c r="E78" s="4"/>
-      <c r="F78" s="4"/>
-      <c r="G78" s="4"/>
-      <c r="H78" s="4"/>
       <c r="I78" s="14"/>
       <c r="J78" s="14"/>
       <c r="K78" s="14"/>
@@ -16365,10 +16288,6 @@
       <c r="D79" s="9" t="s">
         <v>459</v>
       </c>
-      <c r="E79" s="4"/>
-      <c r="F79" s="4"/>
-      <c r="G79" s="4"/>
-      <c r="H79" s="4"/>
       <c r="I79" s="14"/>
       <c r="J79" s="14"/>
       <c r="K79" s="14"/>
@@ -16399,10 +16318,6 @@
       <c r="D80" s="9" t="s">
         <v>462</v>
       </c>
-      <c r="E80" s="4"/>
-      <c r="F80" s="4"/>
-      <c r="G80" s="4"/>
-      <c r="H80" s="4"/>
       <c r="I80" s="14"/>
       <c r="J80" s="14"/>
       <c r="K80" s="14"/>
@@ -16433,10 +16348,6 @@
       <c r="D81" s="9" t="s">
         <v>465</v>
       </c>
-      <c r="E81" s="4"/>
-      <c r="F81" s="4"/>
-      <c r="G81" s="4"/>
-      <c r="H81" s="4"/>
       <c r="I81" s="14"/>
       <c r="J81" s="14"/>
       <c r="K81" s="14"/>
@@ -16467,10 +16378,6 @@
       <c r="D82" s="9" t="s">
         <v>468</v>
       </c>
-      <c r="E82" s="4"/>
-      <c r="F82" s="4"/>
-      <c r="G82" s="4"/>
-      <c r="H82" s="4"/>
       <c r="I82" s="14"/>
       <c r="J82" s="14"/>
       <c r="K82" s="14"/>
@@ -16501,10 +16408,6 @@
       <c r="D83" s="9" t="s">
         <v>471</v>
       </c>
-      <c r="E83" s="4"/>
-      <c r="F83" s="4"/>
-      <c r="G83" s="4"/>
-      <c r="H83" s="4"/>
       <c r="I83" s="14"/>
       <c r="J83" s="14"/>
       <c r="K83" s="14"/>
@@ -16535,10 +16438,6 @@
       <c r="D84" s="9" t="s">
         <v>474</v>
       </c>
-      <c r="E84" s="4"/>
-      <c r="F84" s="4"/>
-      <c r="G84" s="4"/>
-      <c r="H84" s="4"/>
       <c r="I84" s="14"/>
       <c r="J84" s="14"/>
       <c r="K84" s="14"/>
@@ -16569,10 +16468,6 @@
       <c r="D85" s="9" t="s">
         <v>477</v>
       </c>
-      <c r="E85" s="4"/>
-      <c r="F85" s="4"/>
-      <c r="G85" s="4"/>
-      <c r="H85" s="4"/>
       <c r="I85" s="14"/>
       <c r="J85" s="14"/>
       <c r="K85" s="14"/>
@@ -16603,10 +16498,6 @@
       <c r="D86" s="9" t="s">
         <v>480</v>
       </c>
-      <c r="E86" s="4"/>
-      <c r="F86" s="4"/>
-      <c r="G86" s="4"/>
-      <c r="H86" s="4"/>
       <c r="I86" s="14"/>
       <c r="J86" s="14"/>
       <c r="K86" s="14"/>
@@ -16637,10 +16528,6 @@
       <c r="D87" s="9" t="s">
         <v>483</v>
       </c>
-      <c r="E87" s="4"/>
-      <c r="F87" s="4"/>
-      <c r="G87" s="4"/>
-      <c r="H87" s="4"/>
       <c r="I87" s="14"/>
       <c r="J87" s="14"/>
       <c r="K87" s="14"/>
@@ -16671,10 +16558,6 @@
       <c r="D88" s="9" t="s">
         <v>486</v>
       </c>
-      <c r="E88" s="4"/>
-      <c r="F88" s="4"/>
-      <c r="G88" s="4"/>
-      <c r="H88" s="4"/>
       <c r="I88" s="14"/>
       <c r="J88" s="14"/>
       <c r="K88" s="14"/>
@@ -16705,10 +16588,6 @@
       <c r="D89" s="9" t="s">
         <v>489</v>
       </c>
-      <c r="E89" s="4"/>
-      <c r="F89" s="4"/>
-      <c r="G89" s="4"/>
-      <c r="H89" s="4"/>
       <c r="I89" s="14"/>
       <c r="J89" s="14"/>
       <c r="K89" s="14"/>
@@ -16739,10 +16618,6 @@
       <c r="D90" s="9" t="s">
         <v>492</v>
       </c>
-      <c r="E90" s="4"/>
-      <c r="F90" s="4"/>
-      <c r="G90" s="4"/>
-      <c r="H90" s="4"/>
       <c r="I90" s="14"/>
       <c r="J90" s="14"/>
       <c r="K90" s="14"/>
@@ -16773,10 +16648,6 @@
       <c r="D91" s="9" t="s">
         <v>495</v>
       </c>
-      <c r="E91" s="4"/>
-      <c r="F91" s="4"/>
-      <c r="G91" s="4"/>
-      <c r="H91" s="4"/>
       <c r="I91" s="14"/>
       <c r="J91" s="14"/>
       <c r="K91" s="14"/>
@@ -16807,10 +16678,6 @@
       <c r="D92" s="9" t="s">
         <v>498</v>
       </c>
-      <c r="E92" s="4"/>
-      <c r="F92" s="4"/>
-      <c r="G92" s="4"/>
-      <c r="H92" s="4"/>
       <c r="I92" s="14"/>
       <c r="J92" s="14"/>
       <c r="K92" s="14"/>
@@ -16841,10 +16708,6 @@
       <c r="D93" s="9" t="s">
         <v>501</v>
       </c>
-      <c r="E93" s="4"/>
-      <c r="F93" s="4"/>
-      <c r="G93" s="4"/>
-      <c r="H93" s="4"/>
       <c r="I93" s="14"/>
       <c r="J93" s="14"/>
       <c r="K93" s="14"/>
@@ -16875,10 +16738,6 @@
       <c r="D94" s="9" t="s">
         <v>504</v>
       </c>
-      <c r="E94" s="4"/>
-      <c r="F94" s="4"/>
-      <c r="G94" s="4"/>
-      <c r="H94" s="4"/>
       <c r="I94" s="14"/>
       <c r="J94" s="14"/>
       <c r="K94" s="14"/>
@@ -16909,10 +16768,6 @@
       <c r="D95" s="9" t="s">
         <v>574</v>
       </c>
-      <c r="E95" s="4"/>
-      <c r="F95" s="4"/>
-      <c r="G95" s="4"/>
-      <c r="H95" s="4"/>
       <c r="I95" s="14"/>
       <c r="J95" s="14"/>
       <c r="K95" s="14"/>
@@ -16943,10 +16798,6 @@
       <c r="D96" s="9" t="s">
         <v>510</v>
       </c>
-      <c r="E96" s="4"/>
-      <c r="F96" s="4"/>
-      <c r="G96" s="4"/>
-      <c r="H96" s="4"/>
       <c r="I96" s="14"/>
       <c r="J96" s="14"/>
       <c r="K96" s="14"/>
@@ -16977,10 +16828,6 @@
       <c r="D97" s="9" t="s">
         <v>513</v>
       </c>
-      <c r="E97" s="4"/>
-      <c r="F97" s="4"/>
-      <c r="G97" s="4"/>
-      <c r="H97" s="4"/>
       <c r="I97" s="14"/>
       <c r="J97" s="14"/>
       <c r="K97" s="14"/>
@@ -17011,10 +16858,6 @@
       <c r="D98" s="9" t="s">
         <v>516</v>
       </c>
-      <c r="E98" s="4"/>
-      <c r="F98" s="4"/>
-      <c r="G98" s="4"/>
-      <c r="H98" s="4"/>
       <c r="I98" s="14"/>
       <c r="J98" s="14"/>
       <c r="K98" s="14"/>
@@ -17045,10 +16888,6 @@
       <c r="D99" s="9" t="s">
         <v>519</v>
       </c>
-      <c r="E99" s="4"/>
-      <c r="F99" s="4"/>
-      <c r="G99" s="4"/>
-      <c r="H99" s="4"/>
       <c r="I99" s="14"/>
       <c r="J99" s="14"/>
       <c r="K99" s="14"/>
@@ -17079,10 +16918,6 @@
       <c r="D100" s="9" t="s">
         <v>522</v>
       </c>
-      <c r="E100" s="4"/>
-      <c r="F100" s="4"/>
-      <c r="G100" s="4"/>
-      <c r="H100" s="4"/>
       <c r="I100" s="14"/>
       <c r="J100" s="14"/>
       <c r="K100" s="14"/>
@@ -17113,10 +16948,6 @@
       <c r="D101" s="9" t="s">
         <v>525</v>
       </c>
-      <c r="E101" s="4"/>
-      <c r="F101" s="4"/>
-      <c r="G101" s="4"/>
-      <c r="H101" s="4"/>
       <c r="I101" s="14"/>
       <c r="J101" s="14"/>
       <c r="K101" s="14"/>
@@ -17147,10 +16978,6 @@
       <c r="D102" s="9" t="s">
         <v>341</v>
       </c>
-      <c r="E102" s="4"/>
-      <c r="F102" s="4"/>
-      <c r="G102" s="4"/>
-      <c r="H102" s="4"/>
       <c r="I102" s="14"/>
       <c r="J102" s="14"/>
       <c r="K102" s="14"/>
@@ -17181,10 +17008,6 @@
       <c r="D103" s="9" t="s">
         <v>344</v>
       </c>
-      <c r="E103" s="4"/>
-      <c r="F103" s="4"/>
-      <c r="G103" s="4"/>
-      <c r="H103" s="4"/>
       <c r="I103" s="14"/>
       <c r="J103" s="14"/>
       <c r="K103" s="14"/>
@@ -17215,10 +17038,6 @@
       <c r="D104" s="9" t="s">
         <v>591</v>
       </c>
-      <c r="E104" s="4"/>
-      <c r="F104" s="4"/>
-      <c r="G104" s="4"/>
-      <c r="H104" s="4"/>
       <c r="I104" s="14"/>
       <c r="J104" s="14"/>
       <c r="K104" s="14"/>
@@ -17249,10 +17068,6 @@
       <c r="D105" s="9" t="s">
         <v>594</v>
       </c>
-      <c r="E105" s="4"/>
-      <c r="F105" s="4"/>
-      <c r="G105" s="4"/>
-      <c r="H105" s="4"/>
       <c r="I105" s="14"/>
       <c r="J105" s="14"/>
       <c r="K105" s="14"/>
@@ -17283,10 +17098,6 @@
       <c r="D106" s="9" t="s">
         <v>597</v>
       </c>
-      <c r="E106" s="4"/>
-      <c r="F106" s="4"/>
-      <c r="G106" s="4"/>
-      <c r="H106" s="4"/>
       <c r="I106" s="14"/>
       <c r="J106" s="14"/>
       <c r="K106" s="14"/>
@@ -17317,10 +17128,6 @@
       <c r="D107" s="9" t="s">
         <v>601</v>
       </c>
-      <c r="E107" s="4"/>
-      <c r="F107" s="4"/>
-      <c r="G107" s="4"/>
-      <c r="H107" s="4"/>
       <c r="I107" s="14"/>
       <c r="J107" s="14"/>
       <c r="K107" s="14"/>
@@ -17351,10 +17158,6 @@
       <c r="D108" s="9" t="s">
         <v>604</v>
       </c>
-      <c r="E108" s="4"/>
-      <c r="F108" s="4"/>
-      <c r="G108" s="4"/>
-      <c r="H108" s="4"/>
       <c r="I108" s="14"/>
       <c r="J108" s="14"/>
       <c r="K108" s="14"/>
@@ -17385,10 +17188,6 @@
       <c r="D109" s="9" t="s">
         <v>607</v>
       </c>
-      <c r="E109" s="4"/>
-      <c r="F109" s="4"/>
-      <c r="G109" s="4"/>
-      <c r="H109" s="4"/>
       <c r="I109" s="14"/>
       <c r="J109" s="14"/>
       <c r="K109" s="14"/>
@@ -17419,10 +17218,6 @@
       <c r="D110" s="9" t="s">
         <v>610</v>
       </c>
-      <c r="E110" s="4"/>
-      <c r="F110" s="4"/>
-      <c r="G110" s="4"/>
-      <c r="H110" s="4"/>
       <c r="I110" s="14"/>
       <c r="J110" s="14"/>
       <c r="K110" s="14"/>
@@ -17453,10 +17248,6 @@
       <c r="D111" s="9" t="s">
         <v>613</v>
       </c>
-      <c r="E111" s="4"/>
-      <c r="F111" s="4"/>
-      <c r="G111" s="4"/>
-      <c r="H111" s="4"/>
       <c r="I111" s="14"/>
       <c r="J111" s="14"/>
       <c r="K111" s="14"/>
@@ -17524,7 +17315,7 @@
         <v>623</v>
       </c>
       <c r="C115" s="17" t="s">
-        <v>425</v>
+        <v>615</v>
       </c>
       <c r="D115" s="17" t="s">
         <v>616</v>
@@ -17538,7 +17329,7 @@
         <v>624</v>
       </c>
       <c r="C116" s="17" t="s">
-        <v>428</v>
+        <v>618</v>
       </c>
       <c r="D116" s="17" t="s">
         <v>619</v>
@@ -17552,7 +17343,7 @@
         <v>625</v>
       </c>
       <c r="C117" s="17" t="s">
-        <v>431</v>
+        <v>621</v>
       </c>
       <c r="D117" s="17" t="s">
         <v>622</v>
